--- a/提升/成长进度表.xlsx
+++ b/提升/成长进度表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9947" activeTab="1"/>
+    <workbookView windowWidth="22368" windowHeight="9947" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2017年12月概览" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28">
   <si>
     <t>软技能完成率</t>
   </si>
@@ -108,6 +108,12 @@
   </si>
   <si>
     <t>赶集、购物</t>
+  </si>
+  <si>
+    <t>多线程</t>
+  </si>
+  <si>
+    <t>职场人际关系建设整理</t>
   </si>
 </sst>
 </file>
@@ -6264,7 +6270,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -6968,7 +6974,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -22410,7 +22416,7 @@
   <sheetPr/>
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -22460,19 +22466,25 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:6">
       <c r="A3" s="3">
         <v>43102</v>
       </c>
       <c r="B3" s="4">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="C3" s="4">
         <v>0</v>
       </c>
       <c r="D3" s="2">
         <f t="shared" ref="D3:D32" si="0">SUM(B3,C3)/2</f>
-        <v>0</v>
+        <v>0.4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:4">

--- a/提升/成长进度表.xlsx
+++ b/提升/成长进度表.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\doc\提升\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9947" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22368" windowHeight="9948" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2017年12月概览" sheetId="1" r:id="rId1"/>
@@ -16,12 +21,12 @@
     <sheet name="2018年10月概览" sheetId="8" r:id="rId7"/>
     <sheet name="2018年12月" sheetId="7" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="30">
   <si>
     <t>软技能完成率</t>
   </si>
@@ -110,24 +115,31 @@
     <t>赶集、购物</t>
   </si>
   <si>
-    <t>多线程</t>
+    <t>职场人际关系建设整理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>职场人际关系建设整理</t>
+    <t>多态阅读</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创新：进化式，颠覆式，积木式
+竞争导致变异，不断积累微小变异，由量变到质变</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>this的用途，static的用途</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -136,345 +148,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -482,253 +179,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -747,62 +202,22 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -872,7 +287,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -881,6 +295,25 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -940,76 +373,73 @@
               </a:effectLst>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>'2017年12月概览'!$A$2:$A$22</c:f>
               <c:numCache>
-                <c:formatCode>yyyy/m/d</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="21"/>
-                <c:pt idx="0" c:formatCode="yyyy/m/d">
+                <c:pt idx="0">
                   <c:v>43080</c:v>
                 </c:pt>
-                <c:pt idx="1" c:formatCode="yyyy/m/d">
+                <c:pt idx="1">
                   <c:v>43081</c:v>
                 </c:pt>
-                <c:pt idx="2" c:formatCode="yyyy/m/d">
+                <c:pt idx="2">
                   <c:v>43082</c:v>
                 </c:pt>
-                <c:pt idx="3" c:formatCode="yyyy/m/d">
+                <c:pt idx="3">
                   <c:v>43083</c:v>
                 </c:pt>
-                <c:pt idx="4" c:formatCode="yyyy/m/d">
+                <c:pt idx="4">
                   <c:v>43084</c:v>
                 </c:pt>
-                <c:pt idx="5" c:formatCode="yyyy/m/d">
+                <c:pt idx="5">
                   <c:v>43085</c:v>
                 </c:pt>
-                <c:pt idx="6" c:formatCode="yyyy/m/d">
+                <c:pt idx="6">
                   <c:v>43086</c:v>
                 </c:pt>
-                <c:pt idx="7" c:formatCode="yyyy/m/d">
+                <c:pt idx="7">
                   <c:v>43087</c:v>
                 </c:pt>
-                <c:pt idx="8" c:formatCode="yyyy/m/d">
+                <c:pt idx="8">
                   <c:v>43088</c:v>
                 </c:pt>
-                <c:pt idx="9" c:formatCode="yyyy/m/d">
+                <c:pt idx="9">
                   <c:v>43089</c:v>
                 </c:pt>
-                <c:pt idx="10" c:formatCode="yyyy/m/d">
+                <c:pt idx="10">
                   <c:v>43090</c:v>
                 </c:pt>
-                <c:pt idx="11" c:formatCode="yyyy/m/d">
+                <c:pt idx="11">
                   <c:v>43091</c:v>
                 </c:pt>
-                <c:pt idx="12" c:formatCode="yyyy/m/d">
+                <c:pt idx="12">
                   <c:v>43092</c:v>
                 </c:pt>
-                <c:pt idx="13" c:formatCode="yyyy/m/d">
+                <c:pt idx="13">
                   <c:v>43093</c:v>
                 </c:pt>
-                <c:pt idx="14" c:formatCode="yyyy/m/d">
+                <c:pt idx="14">
                   <c:v>43094</c:v>
                 </c:pt>
-                <c:pt idx="15" c:formatCode="yyyy/m/d">
+                <c:pt idx="15">
                   <c:v>43095</c:v>
                 </c:pt>
-                <c:pt idx="16" c:formatCode="yyyy/m/d">
+                <c:pt idx="16">
                   <c:v>43096</c:v>
                 </c:pt>
-                <c:pt idx="17" c:formatCode="yyyy/m/d">
+                <c:pt idx="17">
                   <c:v>43097</c:v>
                 </c:pt>
-                <c:pt idx="18" c:formatCode="yyyy/m/d">
+                <c:pt idx="18">
                   <c:v>43098</c:v>
                 </c:pt>
-                <c:pt idx="19" c:formatCode="yyyy/m/d">
+                <c:pt idx="19">
                   <c:v>43099</c:v>
                 </c:pt>
-                <c:pt idx="20" c:formatCode="yyyy/m/d">
+                <c:pt idx="20">
                   <c:v>43100</c:v>
                 </c:pt>
               </c:numCache>
@@ -1025,7 +455,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1</c:v>
+                  <c:v>1.1000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.8</c:v>
@@ -1141,76 +571,73 @@
               </a:effectLst>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>'2017年12月概览'!$A$2:$A$22</c:f>
               <c:numCache>
-                <c:formatCode>yyyy/m/d</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="21"/>
-                <c:pt idx="0" c:formatCode="yyyy/m/d">
+                <c:pt idx="0">
                   <c:v>43080</c:v>
                 </c:pt>
-                <c:pt idx="1" c:formatCode="yyyy/m/d">
+                <c:pt idx="1">
                   <c:v>43081</c:v>
                 </c:pt>
-                <c:pt idx="2" c:formatCode="yyyy/m/d">
+                <c:pt idx="2">
                   <c:v>43082</c:v>
                 </c:pt>
-                <c:pt idx="3" c:formatCode="yyyy/m/d">
+                <c:pt idx="3">
                   <c:v>43083</c:v>
                 </c:pt>
-                <c:pt idx="4" c:formatCode="yyyy/m/d">
+                <c:pt idx="4">
                   <c:v>43084</c:v>
                 </c:pt>
-                <c:pt idx="5" c:formatCode="yyyy/m/d">
+                <c:pt idx="5">
                   <c:v>43085</c:v>
                 </c:pt>
-                <c:pt idx="6" c:formatCode="yyyy/m/d">
+                <c:pt idx="6">
                   <c:v>43086</c:v>
                 </c:pt>
-                <c:pt idx="7" c:formatCode="yyyy/m/d">
+                <c:pt idx="7">
                   <c:v>43087</c:v>
                 </c:pt>
-                <c:pt idx="8" c:formatCode="yyyy/m/d">
+                <c:pt idx="8">
                   <c:v>43088</c:v>
                 </c:pt>
-                <c:pt idx="9" c:formatCode="yyyy/m/d">
+                <c:pt idx="9">
                   <c:v>43089</c:v>
                 </c:pt>
-                <c:pt idx="10" c:formatCode="yyyy/m/d">
+                <c:pt idx="10">
                   <c:v>43090</c:v>
                 </c:pt>
-                <c:pt idx="11" c:formatCode="yyyy/m/d">
+                <c:pt idx="11">
                   <c:v>43091</c:v>
                 </c:pt>
-                <c:pt idx="12" c:formatCode="yyyy/m/d">
+                <c:pt idx="12">
                   <c:v>43092</c:v>
                 </c:pt>
-                <c:pt idx="13" c:formatCode="yyyy/m/d">
+                <c:pt idx="13">
                   <c:v>43093</c:v>
                 </c:pt>
-                <c:pt idx="14" c:formatCode="yyyy/m/d">
+                <c:pt idx="14">
                   <c:v>43094</c:v>
                 </c:pt>
-                <c:pt idx="15" c:formatCode="yyyy/m/d">
+                <c:pt idx="15">
                   <c:v>43095</c:v>
                 </c:pt>
-                <c:pt idx="16" c:formatCode="yyyy/m/d">
+                <c:pt idx="16">
                   <c:v>43096</c:v>
                 </c:pt>
-                <c:pt idx="17" c:formatCode="yyyy/m/d">
+                <c:pt idx="17">
                   <c:v>43097</c:v>
                 </c:pt>
-                <c:pt idx="18" c:formatCode="yyyy/m/d">
+                <c:pt idx="18">
                   <c:v>43098</c:v>
                 </c:pt>
-                <c:pt idx="19" c:formatCode="yyyy/m/d">
+                <c:pt idx="19">
                   <c:v>43099</c:v>
                 </c:pt>
-                <c:pt idx="20" c:formatCode="yyyy/m/d">
+                <c:pt idx="20">
                   <c:v>43100</c:v>
                 </c:pt>
               </c:numCache>
@@ -1300,11 +727,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="259884144"/>
-        <c:axId val="259884704"/>
+        <c:axId val="195093504"/>
+        <c:axId val="195094064"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="259884144"/>
+        <c:axId val="195093504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1337,16 +764,17 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="259884704"/>
+        <c:crossAx val="195094064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="259884704"/>
+        <c:axId val="195094064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.5"/>
@@ -1405,9 +833,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="259884144"/>
+        <c:crossAx val="195093504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
@@ -1445,6 +874,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -1485,11 +915,14 @@
       <a:pPr>
         <a:defRPr lang="zh-CN"/>
       </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
-  <c:externalData r:id="rId1">
-    <c:autoUpdate val="0"/>
-  </c:externalData>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -1530,11 +963,9 @@
               <a:rPr lang="zh-CN"/>
               <a:t>总完成率</a:t>
             </a:r>
-            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1543,6 +974,26 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -1599,6 +1050,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -1611,7 +1063,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1743,11 +1194,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="259888064"/>
-        <c:axId val="259888624"/>
+        <c:axId val="296273664"/>
+        <c:axId val="296274224"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="259888064"/>
+        <c:axId val="296273664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1787,9 +1238,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="259888624"/>
+        <c:crossAx val="296274224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1797,7 +1249,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="259888624"/>
+        <c:axId val="296274224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1833,26 +1285,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="75000"/>
-                    <a:lumOff val="25000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="259888064"/>
+        <c:crossAx val="296273664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1906,11 +1339,14 @@
       <a:pPr>
         <a:defRPr lang="zh-CN"/>
       </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
-  <c:externalData r:id="rId1">
-    <c:autoUpdate val="0"/>
-  </c:externalData>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -1978,7 +1414,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1987,6 +1422,25 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -1995,10 +1449,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0806595059076262"/>
-          <c:y val="0.021043771043771"/>
-          <c:w val="0.900991049051199"/>
-          <c:h val="0.738181818181818"/>
+          <c:x val="8.0659505907626203E-2"/>
+          <c:y val="2.1043771043771E-2"/>
+          <c:w val="0.90099104905119898"/>
+          <c:h val="0.73818181818181805"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -2056,106 +1510,103 @@
               </a:effectLst>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>'2018年8月概览'!$A$2:$A$32</c:f>
               <c:numCache>
-                <c:formatCode>yyyy/m/d</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="31"/>
-                <c:pt idx="0" c:formatCode="yyyy/m/d">
+                <c:pt idx="0">
                   <c:v>43313</c:v>
                 </c:pt>
-                <c:pt idx="1" c:formatCode="yyyy/m/d">
+                <c:pt idx="1">
                   <c:v>43314</c:v>
                 </c:pt>
-                <c:pt idx="2" c:formatCode="yyyy/m/d">
+                <c:pt idx="2">
                   <c:v>43315</c:v>
                 </c:pt>
-                <c:pt idx="3" c:formatCode="yyyy/m/d">
+                <c:pt idx="3">
                   <c:v>43316</c:v>
                 </c:pt>
-                <c:pt idx="4" c:formatCode="yyyy/m/d">
+                <c:pt idx="4">
                   <c:v>43317</c:v>
                 </c:pt>
-                <c:pt idx="5" c:formatCode="yyyy/m/d">
+                <c:pt idx="5">
                   <c:v>43318</c:v>
                 </c:pt>
-                <c:pt idx="6" c:formatCode="yyyy/m/d">
+                <c:pt idx="6">
                   <c:v>43319</c:v>
                 </c:pt>
-                <c:pt idx="7" c:formatCode="yyyy/m/d">
+                <c:pt idx="7">
                   <c:v>43320</c:v>
                 </c:pt>
-                <c:pt idx="8" c:formatCode="yyyy/m/d">
+                <c:pt idx="8">
                   <c:v>43321</c:v>
                 </c:pt>
-                <c:pt idx="9" c:formatCode="yyyy/m/d">
+                <c:pt idx="9">
                   <c:v>43322</c:v>
                 </c:pt>
-                <c:pt idx="10" c:formatCode="yyyy/m/d">
+                <c:pt idx="10">
                   <c:v>43323</c:v>
                 </c:pt>
-                <c:pt idx="11" c:formatCode="yyyy/m/d">
+                <c:pt idx="11">
                   <c:v>43324</c:v>
                 </c:pt>
-                <c:pt idx="12" c:formatCode="yyyy/m/d">
+                <c:pt idx="12">
                   <c:v>43325</c:v>
                 </c:pt>
-                <c:pt idx="13" c:formatCode="yyyy/m/d">
+                <c:pt idx="13">
                   <c:v>43326</c:v>
                 </c:pt>
-                <c:pt idx="14" c:formatCode="yyyy/m/d">
+                <c:pt idx="14">
                   <c:v>43327</c:v>
                 </c:pt>
-                <c:pt idx="15" c:formatCode="yyyy/m/d">
+                <c:pt idx="15">
                   <c:v>43328</c:v>
                 </c:pt>
-                <c:pt idx="16" c:formatCode="yyyy/m/d">
+                <c:pt idx="16">
                   <c:v>43329</c:v>
                 </c:pt>
-                <c:pt idx="17" c:formatCode="yyyy/m/d">
+                <c:pt idx="17">
                   <c:v>43330</c:v>
                 </c:pt>
-                <c:pt idx="18" c:formatCode="yyyy/m/d">
+                <c:pt idx="18">
                   <c:v>43331</c:v>
                 </c:pt>
-                <c:pt idx="19" c:formatCode="yyyy/m/d">
+                <c:pt idx="19">
                   <c:v>43332</c:v>
                 </c:pt>
-                <c:pt idx="20" c:formatCode="yyyy/m/d">
+                <c:pt idx="20">
                   <c:v>43333</c:v>
                 </c:pt>
-                <c:pt idx="21" c:formatCode="yyyy/m/d">
+                <c:pt idx="21">
                   <c:v>43334</c:v>
                 </c:pt>
-                <c:pt idx="22" c:formatCode="yyyy/m/d">
+                <c:pt idx="22">
                   <c:v>43335</c:v>
                 </c:pt>
-                <c:pt idx="23" c:formatCode="yyyy/m/d">
+                <c:pt idx="23">
                   <c:v>43336</c:v>
                 </c:pt>
-                <c:pt idx="24" c:formatCode="yyyy/m/d">
+                <c:pt idx="24">
                   <c:v>43337</c:v>
                 </c:pt>
-                <c:pt idx="25" c:formatCode="yyyy/m/d">
+                <c:pt idx="25">
                   <c:v>43338</c:v>
                 </c:pt>
-                <c:pt idx="26" c:formatCode="yyyy/m/d">
+                <c:pt idx="26">
                   <c:v>43339</c:v>
                 </c:pt>
-                <c:pt idx="27" c:formatCode="yyyy/m/d">
+                <c:pt idx="27">
                   <c:v>43340</c:v>
                 </c:pt>
-                <c:pt idx="28" c:formatCode="yyyy/m/d">
+                <c:pt idx="28">
                   <c:v>43341</c:v>
                 </c:pt>
-                <c:pt idx="29" c:formatCode="yyyy/m/d">
+                <c:pt idx="29">
                   <c:v>43342</c:v>
                 </c:pt>
-                <c:pt idx="30" c:formatCode="yyyy/m/d">
+                <c:pt idx="30">
                   <c:v>43343</c:v>
                 </c:pt>
               </c:numCache>
@@ -2317,106 +1768,103 @@
               </a:effectLst>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>'2018年8月概览'!$A$2:$A$32</c:f>
               <c:numCache>
-                <c:formatCode>yyyy/m/d</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="31"/>
-                <c:pt idx="0" c:formatCode="yyyy/m/d">
+                <c:pt idx="0">
                   <c:v>43313</c:v>
                 </c:pt>
-                <c:pt idx="1" c:formatCode="yyyy/m/d">
+                <c:pt idx="1">
                   <c:v>43314</c:v>
                 </c:pt>
-                <c:pt idx="2" c:formatCode="yyyy/m/d">
+                <c:pt idx="2">
                   <c:v>43315</c:v>
                 </c:pt>
-                <c:pt idx="3" c:formatCode="yyyy/m/d">
+                <c:pt idx="3">
                   <c:v>43316</c:v>
                 </c:pt>
-                <c:pt idx="4" c:formatCode="yyyy/m/d">
+                <c:pt idx="4">
                   <c:v>43317</c:v>
                 </c:pt>
-                <c:pt idx="5" c:formatCode="yyyy/m/d">
+                <c:pt idx="5">
                   <c:v>43318</c:v>
                 </c:pt>
-                <c:pt idx="6" c:formatCode="yyyy/m/d">
+                <c:pt idx="6">
                   <c:v>43319</c:v>
                 </c:pt>
-                <c:pt idx="7" c:formatCode="yyyy/m/d">
+                <c:pt idx="7">
                   <c:v>43320</c:v>
                 </c:pt>
-                <c:pt idx="8" c:formatCode="yyyy/m/d">
+                <c:pt idx="8">
                   <c:v>43321</c:v>
                 </c:pt>
-                <c:pt idx="9" c:formatCode="yyyy/m/d">
+                <c:pt idx="9">
                   <c:v>43322</c:v>
                 </c:pt>
-                <c:pt idx="10" c:formatCode="yyyy/m/d">
+                <c:pt idx="10">
                   <c:v>43323</c:v>
                 </c:pt>
-                <c:pt idx="11" c:formatCode="yyyy/m/d">
+                <c:pt idx="11">
                   <c:v>43324</c:v>
                 </c:pt>
-                <c:pt idx="12" c:formatCode="yyyy/m/d">
+                <c:pt idx="12">
                   <c:v>43325</c:v>
                 </c:pt>
-                <c:pt idx="13" c:formatCode="yyyy/m/d">
+                <c:pt idx="13">
                   <c:v>43326</c:v>
                 </c:pt>
-                <c:pt idx="14" c:formatCode="yyyy/m/d">
+                <c:pt idx="14">
                   <c:v>43327</c:v>
                 </c:pt>
-                <c:pt idx="15" c:formatCode="yyyy/m/d">
+                <c:pt idx="15">
                   <c:v>43328</c:v>
                 </c:pt>
-                <c:pt idx="16" c:formatCode="yyyy/m/d">
+                <c:pt idx="16">
                   <c:v>43329</c:v>
                 </c:pt>
-                <c:pt idx="17" c:formatCode="yyyy/m/d">
+                <c:pt idx="17">
                   <c:v>43330</c:v>
                 </c:pt>
-                <c:pt idx="18" c:formatCode="yyyy/m/d">
+                <c:pt idx="18">
                   <c:v>43331</c:v>
                 </c:pt>
-                <c:pt idx="19" c:formatCode="yyyy/m/d">
+                <c:pt idx="19">
                   <c:v>43332</c:v>
                 </c:pt>
-                <c:pt idx="20" c:formatCode="yyyy/m/d">
+                <c:pt idx="20">
                   <c:v>43333</c:v>
                 </c:pt>
-                <c:pt idx="21" c:formatCode="yyyy/m/d">
+                <c:pt idx="21">
                   <c:v>43334</c:v>
                 </c:pt>
-                <c:pt idx="22" c:formatCode="yyyy/m/d">
+                <c:pt idx="22">
                   <c:v>43335</c:v>
                 </c:pt>
-                <c:pt idx="23" c:formatCode="yyyy/m/d">
+                <c:pt idx="23">
                   <c:v>43336</c:v>
                 </c:pt>
-                <c:pt idx="24" c:formatCode="yyyy/m/d">
+                <c:pt idx="24">
                   <c:v>43337</c:v>
                 </c:pt>
-                <c:pt idx="25" c:formatCode="yyyy/m/d">
+                <c:pt idx="25">
                   <c:v>43338</c:v>
                 </c:pt>
-                <c:pt idx="26" c:formatCode="yyyy/m/d">
+                <c:pt idx="26">
                   <c:v>43339</c:v>
                 </c:pt>
-                <c:pt idx="27" c:formatCode="yyyy/m/d">
+                <c:pt idx="27">
                   <c:v>43340</c:v>
                 </c:pt>
-                <c:pt idx="28" c:formatCode="yyyy/m/d">
+                <c:pt idx="28">
                   <c:v>43341</c:v>
                 </c:pt>
-                <c:pt idx="29" c:formatCode="yyyy/m/d">
+                <c:pt idx="29">
                   <c:v>43342</c:v>
                 </c:pt>
-                <c:pt idx="30" c:formatCode="yyyy/m/d">
+                <c:pt idx="30">
                   <c:v>43343</c:v>
                 </c:pt>
               </c:numCache>
@@ -2536,11 +1984,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="259884144"/>
-        <c:axId val="259884704"/>
+        <c:axId val="296182336"/>
+        <c:axId val="296182896"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="259884144"/>
+        <c:axId val="296182336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2573,16 +2021,17 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="259884704"/>
+        <c:crossAx val="296182896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="259884704"/>
+        <c:axId val="296182896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.5"/>
@@ -2641,9 +2090,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="259884144"/>
+        <c:crossAx val="296182336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
@@ -2681,6 +2131,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -2721,11 +2172,14 @@
       <a:pPr>
         <a:defRPr lang="zh-CN"/>
       </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
-  <c:externalData r:id="rId1">
-    <c:autoUpdate val="0"/>
-  </c:externalData>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -2766,11 +2220,9 @@
               <a:rPr lang="zh-CN"/>
               <a:t>总完成率</a:t>
             </a:r>
-            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2779,6 +2231,26 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -2835,6 +2307,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -2847,7 +2320,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2979,11 +2451,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="259888064"/>
-        <c:axId val="259888624"/>
+        <c:axId val="296186256"/>
+        <c:axId val="296186816"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="259888064"/>
+        <c:axId val="296186256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3023,9 +2495,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="259888624"/>
+        <c:crossAx val="296186816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3033,7 +2506,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="259888624"/>
+        <c:axId val="296186816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3069,26 +2542,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="75000"/>
-                    <a:lumOff val="25000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="259888064"/>
+        <c:crossAx val="296186256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3142,11 +2596,14 @@
       <a:pPr>
         <a:defRPr lang="zh-CN"/>
       </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
-  <c:externalData r:id="rId1">
-    <c:autoUpdate val="0"/>
-  </c:externalData>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -3214,7 +2671,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3223,6 +2679,25 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -3231,10 +2706,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0806595059076262"/>
-          <c:y val="0.021043771043771"/>
-          <c:w val="0.900991049051199"/>
-          <c:h val="0.738181818181818"/>
+          <c:x val="8.0659505907626203E-2"/>
+          <c:y val="2.1043771043771E-2"/>
+          <c:w val="0.90099104905119898"/>
+          <c:h val="0.73818181818181805"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -3292,106 +2767,103 @@
               </a:effectLst>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>'2018年10月概览'!$A$2:$A$32</c:f>
               <c:numCache>
-                <c:formatCode>yyyy/m/d</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="31"/>
-                <c:pt idx="0" c:formatCode="yyyy/m/d">
+                <c:pt idx="0">
                   <c:v>43374</c:v>
                 </c:pt>
-                <c:pt idx="1" c:formatCode="yyyy/m/d">
+                <c:pt idx="1">
                   <c:v>43375</c:v>
                 </c:pt>
-                <c:pt idx="2" c:formatCode="yyyy/m/d">
+                <c:pt idx="2">
                   <c:v>43376</c:v>
                 </c:pt>
-                <c:pt idx="3" c:formatCode="yyyy/m/d">
+                <c:pt idx="3">
                   <c:v>43377</c:v>
                 </c:pt>
-                <c:pt idx="4" c:formatCode="yyyy/m/d">
+                <c:pt idx="4">
                   <c:v>43378</c:v>
                 </c:pt>
-                <c:pt idx="5" c:formatCode="yyyy/m/d">
+                <c:pt idx="5">
                   <c:v>43379</c:v>
                 </c:pt>
-                <c:pt idx="6" c:formatCode="yyyy/m/d">
+                <c:pt idx="6">
                   <c:v>43380</c:v>
                 </c:pt>
-                <c:pt idx="7" c:formatCode="yyyy/m/d">
+                <c:pt idx="7">
                   <c:v>43381</c:v>
                 </c:pt>
-                <c:pt idx="8" c:formatCode="yyyy/m/d">
+                <c:pt idx="8">
                   <c:v>43382</c:v>
                 </c:pt>
-                <c:pt idx="9" c:formatCode="yyyy/m/d">
+                <c:pt idx="9">
                   <c:v>43383</c:v>
                 </c:pt>
-                <c:pt idx="10" c:formatCode="yyyy/m/d">
+                <c:pt idx="10">
                   <c:v>43384</c:v>
                 </c:pt>
-                <c:pt idx="11" c:formatCode="yyyy/m/d">
+                <c:pt idx="11">
                   <c:v>43385</c:v>
                 </c:pt>
-                <c:pt idx="12" c:formatCode="yyyy/m/d">
+                <c:pt idx="12">
                   <c:v>43386</c:v>
                 </c:pt>
-                <c:pt idx="13" c:formatCode="yyyy/m/d">
+                <c:pt idx="13">
                   <c:v>43387</c:v>
                 </c:pt>
-                <c:pt idx="14" c:formatCode="yyyy/m/d">
+                <c:pt idx="14">
                   <c:v>43388</c:v>
                 </c:pt>
-                <c:pt idx="15" c:formatCode="yyyy/m/d">
+                <c:pt idx="15">
                   <c:v>43389</c:v>
                 </c:pt>
-                <c:pt idx="16" c:formatCode="yyyy/m/d">
+                <c:pt idx="16">
                   <c:v>43390</c:v>
                 </c:pt>
-                <c:pt idx="17" c:formatCode="yyyy/m/d">
+                <c:pt idx="17">
                   <c:v>43391</c:v>
                 </c:pt>
-                <c:pt idx="18" c:formatCode="yyyy/m/d">
+                <c:pt idx="18">
                   <c:v>43392</c:v>
                 </c:pt>
-                <c:pt idx="19" c:formatCode="yyyy/m/d">
+                <c:pt idx="19">
                   <c:v>43393</c:v>
                 </c:pt>
-                <c:pt idx="20" c:formatCode="yyyy/m/d">
+                <c:pt idx="20">
                   <c:v>43394</c:v>
                 </c:pt>
-                <c:pt idx="21" c:formatCode="yyyy/m/d">
+                <c:pt idx="21">
                   <c:v>43395</c:v>
                 </c:pt>
-                <c:pt idx="22" c:formatCode="yyyy/m/d">
+                <c:pt idx="22">
                   <c:v>43396</c:v>
                 </c:pt>
-                <c:pt idx="23" c:formatCode="yyyy/m/d">
+                <c:pt idx="23">
                   <c:v>43397</c:v>
                 </c:pt>
-                <c:pt idx="24" c:formatCode="yyyy/m/d">
+                <c:pt idx="24">
                   <c:v>43398</c:v>
                 </c:pt>
-                <c:pt idx="25" c:formatCode="yyyy/m/d">
+                <c:pt idx="25">
                   <c:v>43399</c:v>
                 </c:pt>
-                <c:pt idx="26" c:formatCode="yyyy/m/d">
+                <c:pt idx="26">
                   <c:v>43400</c:v>
                 </c:pt>
-                <c:pt idx="27" c:formatCode="yyyy/m/d">
+                <c:pt idx="27">
                   <c:v>43401</c:v>
                 </c:pt>
-                <c:pt idx="28" c:formatCode="yyyy/m/d">
+                <c:pt idx="28">
                   <c:v>43402</c:v>
                 </c:pt>
-                <c:pt idx="29" c:formatCode="yyyy/m/d">
+                <c:pt idx="29">
                   <c:v>43403</c:v>
                 </c:pt>
-                <c:pt idx="30" c:formatCode="yyyy/m/d">
+                <c:pt idx="30">
                   <c:v>43404</c:v>
                 </c:pt>
               </c:numCache>
@@ -3553,106 +3025,103 @@
               </a:effectLst>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>'2018年10月概览'!$A$2:$A$32</c:f>
               <c:numCache>
-                <c:formatCode>yyyy/m/d</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="31"/>
-                <c:pt idx="0" c:formatCode="yyyy/m/d">
+                <c:pt idx="0">
                   <c:v>43374</c:v>
                 </c:pt>
-                <c:pt idx="1" c:formatCode="yyyy/m/d">
+                <c:pt idx="1">
                   <c:v>43375</c:v>
                 </c:pt>
-                <c:pt idx="2" c:formatCode="yyyy/m/d">
+                <c:pt idx="2">
                   <c:v>43376</c:v>
                 </c:pt>
-                <c:pt idx="3" c:formatCode="yyyy/m/d">
+                <c:pt idx="3">
                   <c:v>43377</c:v>
                 </c:pt>
-                <c:pt idx="4" c:formatCode="yyyy/m/d">
+                <c:pt idx="4">
                   <c:v>43378</c:v>
                 </c:pt>
-                <c:pt idx="5" c:formatCode="yyyy/m/d">
+                <c:pt idx="5">
                   <c:v>43379</c:v>
                 </c:pt>
-                <c:pt idx="6" c:formatCode="yyyy/m/d">
+                <c:pt idx="6">
                   <c:v>43380</c:v>
                 </c:pt>
-                <c:pt idx="7" c:formatCode="yyyy/m/d">
+                <c:pt idx="7">
                   <c:v>43381</c:v>
                 </c:pt>
-                <c:pt idx="8" c:formatCode="yyyy/m/d">
+                <c:pt idx="8">
                   <c:v>43382</c:v>
                 </c:pt>
-                <c:pt idx="9" c:formatCode="yyyy/m/d">
+                <c:pt idx="9">
                   <c:v>43383</c:v>
                 </c:pt>
-                <c:pt idx="10" c:formatCode="yyyy/m/d">
+                <c:pt idx="10">
                   <c:v>43384</c:v>
                 </c:pt>
-                <c:pt idx="11" c:formatCode="yyyy/m/d">
+                <c:pt idx="11">
                   <c:v>43385</c:v>
                 </c:pt>
-                <c:pt idx="12" c:formatCode="yyyy/m/d">
+                <c:pt idx="12">
                   <c:v>43386</c:v>
                 </c:pt>
-                <c:pt idx="13" c:formatCode="yyyy/m/d">
+                <c:pt idx="13">
                   <c:v>43387</c:v>
                 </c:pt>
-                <c:pt idx="14" c:formatCode="yyyy/m/d">
+                <c:pt idx="14">
                   <c:v>43388</c:v>
                 </c:pt>
-                <c:pt idx="15" c:formatCode="yyyy/m/d">
+                <c:pt idx="15">
                   <c:v>43389</c:v>
                 </c:pt>
-                <c:pt idx="16" c:formatCode="yyyy/m/d">
+                <c:pt idx="16">
                   <c:v>43390</c:v>
                 </c:pt>
-                <c:pt idx="17" c:formatCode="yyyy/m/d">
+                <c:pt idx="17">
                   <c:v>43391</c:v>
                 </c:pt>
-                <c:pt idx="18" c:formatCode="yyyy/m/d">
+                <c:pt idx="18">
                   <c:v>43392</c:v>
                 </c:pt>
-                <c:pt idx="19" c:formatCode="yyyy/m/d">
+                <c:pt idx="19">
                   <c:v>43393</c:v>
                 </c:pt>
-                <c:pt idx="20" c:formatCode="yyyy/m/d">
+                <c:pt idx="20">
                   <c:v>43394</c:v>
                 </c:pt>
-                <c:pt idx="21" c:formatCode="yyyy/m/d">
+                <c:pt idx="21">
                   <c:v>43395</c:v>
                 </c:pt>
-                <c:pt idx="22" c:formatCode="yyyy/m/d">
+                <c:pt idx="22">
                   <c:v>43396</c:v>
                 </c:pt>
-                <c:pt idx="23" c:formatCode="yyyy/m/d">
+                <c:pt idx="23">
                   <c:v>43397</c:v>
                 </c:pt>
-                <c:pt idx="24" c:formatCode="yyyy/m/d">
+                <c:pt idx="24">
                   <c:v>43398</c:v>
                 </c:pt>
-                <c:pt idx="25" c:formatCode="yyyy/m/d">
+                <c:pt idx="25">
                   <c:v>43399</c:v>
                 </c:pt>
-                <c:pt idx="26" c:formatCode="yyyy/m/d">
+                <c:pt idx="26">
                   <c:v>43400</c:v>
                 </c:pt>
-                <c:pt idx="27" c:formatCode="yyyy/m/d">
+                <c:pt idx="27">
                   <c:v>43401</c:v>
                 </c:pt>
-                <c:pt idx="28" c:formatCode="yyyy/m/d">
+                <c:pt idx="28">
                   <c:v>43402</c:v>
                 </c:pt>
-                <c:pt idx="29" c:formatCode="yyyy/m/d">
+                <c:pt idx="29">
                   <c:v>43403</c:v>
                 </c:pt>
-                <c:pt idx="30" c:formatCode="yyyy/m/d">
+                <c:pt idx="30">
                   <c:v>43404</c:v>
                 </c:pt>
               </c:numCache>
@@ -3772,11 +3241,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="259884144"/>
-        <c:axId val="259884704"/>
+        <c:axId val="296485760"/>
+        <c:axId val="296486320"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="259884144"/>
+        <c:axId val="296485760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3809,16 +3278,17 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="259884704"/>
+        <c:crossAx val="296486320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="259884704"/>
+        <c:axId val="296486320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.5"/>
@@ -3877,9 +3347,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="259884144"/>
+        <c:crossAx val="296485760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
@@ -3917,6 +3388,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -3957,11 +3429,14 @@
       <a:pPr>
         <a:defRPr lang="zh-CN"/>
       </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
-  <c:externalData r:id="rId1">
-    <c:autoUpdate val="0"/>
-  </c:externalData>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -4002,11 +3477,9 @@
               <a:rPr lang="zh-CN"/>
               <a:t>总完成率</a:t>
             </a:r>
-            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4015,6 +3488,26 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -4071,6 +3564,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -4083,7 +3577,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -4215,11 +3708,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="259888064"/>
-        <c:axId val="259888624"/>
+        <c:axId val="296489680"/>
+        <c:axId val="296490240"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="259888064"/>
+        <c:axId val="296489680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4259,9 +3752,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="259888624"/>
+        <c:crossAx val="296490240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4269,7 +3763,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="259888624"/>
+        <c:axId val="296490240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4305,26 +3799,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="75000"/>
-                    <a:lumOff val="25000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="259888064"/>
+        <c:crossAx val="296489680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4378,11 +3853,14 @@
       <a:pPr>
         <a:defRPr lang="zh-CN"/>
       </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
-  <c:externalData r:id="rId1">
-    <c:autoUpdate val="0"/>
-  </c:externalData>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -4450,7 +3928,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4459,6 +3936,25 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -4467,10 +3963,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0806595059076262"/>
-          <c:y val="0.021043771043771"/>
-          <c:w val="0.900991049051199"/>
-          <c:h val="0.738181818181818"/>
+          <c:x val="8.0659505907626203E-2"/>
+          <c:y val="2.1043771043771E-2"/>
+          <c:w val="0.90099104905119898"/>
+          <c:h val="0.73818181818181805"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -4528,106 +4024,103 @@
               </a:effectLst>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>'2018年12月'!$A$2:$A$32</c:f>
               <c:numCache>
-                <c:formatCode>yyyy/m/d</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="31"/>
-                <c:pt idx="0" c:formatCode="yyyy/m/d">
+                <c:pt idx="0">
                   <c:v>43435</c:v>
                 </c:pt>
-                <c:pt idx="1" c:formatCode="yyyy/m/d">
+                <c:pt idx="1">
                   <c:v>43436</c:v>
                 </c:pt>
-                <c:pt idx="2" c:formatCode="yyyy/m/d">
+                <c:pt idx="2">
                   <c:v>43437</c:v>
                 </c:pt>
-                <c:pt idx="3" c:formatCode="yyyy/m/d">
+                <c:pt idx="3">
                   <c:v>43438</c:v>
                 </c:pt>
-                <c:pt idx="4" c:formatCode="yyyy/m/d">
+                <c:pt idx="4">
                   <c:v>43439</c:v>
                 </c:pt>
-                <c:pt idx="5" c:formatCode="yyyy/m/d">
+                <c:pt idx="5">
                   <c:v>43440</c:v>
                 </c:pt>
-                <c:pt idx="6" c:formatCode="yyyy/m/d">
+                <c:pt idx="6">
                   <c:v>43441</c:v>
                 </c:pt>
-                <c:pt idx="7" c:formatCode="yyyy/m/d">
+                <c:pt idx="7">
                   <c:v>43442</c:v>
                 </c:pt>
-                <c:pt idx="8" c:formatCode="yyyy/m/d">
+                <c:pt idx="8">
                   <c:v>43443</c:v>
                 </c:pt>
-                <c:pt idx="9" c:formatCode="yyyy/m/d">
+                <c:pt idx="9">
                   <c:v>43444</c:v>
                 </c:pt>
-                <c:pt idx="10" c:formatCode="yyyy/m/d">
+                <c:pt idx="10">
                   <c:v>43445</c:v>
                 </c:pt>
-                <c:pt idx="11" c:formatCode="yyyy/m/d">
+                <c:pt idx="11">
                   <c:v>43446</c:v>
                 </c:pt>
-                <c:pt idx="12" c:formatCode="yyyy/m/d">
+                <c:pt idx="12">
                   <c:v>43447</c:v>
                 </c:pt>
-                <c:pt idx="13" c:formatCode="yyyy/m/d">
+                <c:pt idx="13">
                   <c:v>43448</c:v>
                 </c:pt>
-                <c:pt idx="14" c:formatCode="yyyy/m/d">
+                <c:pt idx="14">
                   <c:v>43449</c:v>
                 </c:pt>
-                <c:pt idx="15" c:formatCode="yyyy/m/d">
+                <c:pt idx="15">
                   <c:v>43450</c:v>
                 </c:pt>
-                <c:pt idx="16" c:formatCode="yyyy/m/d">
+                <c:pt idx="16">
                   <c:v>43451</c:v>
                 </c:pt>
-                <c:pt idx="17" c:formatCode="yyyy/m/d">
+                <c:pt idx="17">
                   <c:v>43452</c:v>
                 </c:pt>
-                <c:pt idx="18" c:formatCode="yyyy/m/d">
+                <c:pt idx="18">
                   <c:v>43453</c:v>
                 </c:pt>
-                <c:pt idx="19" c:formatCode="yyyy/m/d">
+                <c:pt idx="19">
                   <c:v>43454</c:v>
                 </c:pt>
-                <c:pt idx="20" c:formatCode="yyyy/m/d">
+                <c:pt idx="20">
                   <c:v>43455</c:v>
                 </c:pt>
-                <c:pt idx="21" c:formatCode="yyyy/m/d">
+                <c:pt idx="21">
                   <c:v>43456</c:v>
                 </c:pt>
-                <c:pt idx="22" c:formatCode="yyyy/m/d">
+                <c:pt idx="22">
                   <c:v>43457</c:v>
                 </c:pt>
-                <c:pt idx="23" c:formatCode="yyyy/m/d">
+                <c:pt idx="23">
                   <c:v>43458</c:v>
                 </c:pt>
-                <c:pt idx="24" c:formatCode="yyyy/m/d">
+                <c:pt idx="24">
                   <c:v>43459</c:v>
                 </c:pt>
-                <c:pt idx="25" c:formatCode="yyyy/m/d">
+                <c:pt idx="25">
                   <c:v>43460</c:v>
                 </c:pt>
-                <c:pt idx="26" c:formatCode="yyyy/m/d">
+                <c:pt idx="26">
                   <c:v>43461</c:v>
                 </c:pt>
-                <c:pt idx="27" c:formatCode="yyyy/m/d">
+                <c:pt idx="27">
                   <c:v>43462</c:v>
                 </c:pt>
-                <c:pt idx="28" c:formatCode="yyyy/m/d">
+                <c:pt idx="28">
                   <c:v>43463</c:v>
                 </c:pt>
-                <c:pt idx="29" c:formatCode="yyyy/m/d">
+                <c:pt idx="29">
                   <c:v>43464</c:v>
                 </c:pt>
-                <c:pt idx="30" c:formatCode="yyyy/m/d">
+                <c:pt idx="30">
                   <c:v>43465</c:v>
                 </c:pt>
               </c:numCache>
@@ -4789,106 +4282,103 @@
               </a:effectLst>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>'2018年12月'!$A$2:$A$32</c:f>
               <c:numCache>
-                <c:formatCode>yyyy/m/d</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="31"/>
-                <c:pt idx="0" c:formatCode="yyyy/m/d">
+                <c:pt idx="0">
                   <c:v>43435</c:v>
                 </c:pt>
-                <c:pt idx="1" c:formatCode="yyyy/m/d">
+                <c:pt idx="1">
                   <c:v>43436</c:v>
                 </c:pt>
-                <c:pt idx="2" c:formatCode="yyyy/m/d">
+                <c:pt idx="2">
                   <c:v>43437</c:v>
                 </c:pt>
-                <c:pt idx="3" c:formatCode="yyyy/m/d">
+                <c:pt idx="3">
                   <c:v>43438</c:v>
                 </c:pt>
-                <c:pt idx="4" c:formatCode="yyyy/m/d">
+                <c:pt idx="4">
                   <c:v>43439</c:v>
                 </c:pt>
-                <c:pt idx="5" c:formatCode="yyyy/m/d">
+                <c:pt idx="5">
                   <c:v>43440</c:v>
                 </c:pt>
-                <c:pt idx="6" c:formatCode="yyyy/m/d">
+                <c:pt idx="6">
                   <c:v>43441</c:v>
                 </c:pt>
-                <c:pt idx="7" c:formatCode="yyyy/m/d">
+                <c:pt idx="7">
                   <c:v>43442</c:v>
                 </c:pt>
-                <c:pt idx="8" c:formatCode="yyyy/m/d">
+                <c:pt idx="8">
                   <c:v>43443</c:v>
                 </c:pt>
-                <c:pt idx="9" c:formatCode="yyyy/m/d">
+                <c:pt idx="9">
                   <c:v>43444</c:v>
                 </c:pt>
-                <c:pt idx="10" c:formatCode="yyyy/m/d">
+                <c:pt idx="10">
                   <c:v>43445</c:v>
                 </c:pt>
-                <c:pt idx="11" c:formatCode="yyyy/m/d">
+                <c:pt idx="11">
                   <c:v>43446</c:v>
                 </c:pt>
-                <c:pt idx="12" c:formatCode="yyyy/m/d">
+                <c:pt idx="12">
                   <c:v>43447</c:v>
                 </c:pt>
-                <c:pt idx="13" c:formatCode="yyyy/m/d">
+                <c:pt idx="13">
                   <c:v>43448</c:v>
                 </c:pt>
-                <c:pt idx="14" c:formatCode="yyyy/m/d">
+                <c:pt idx="14">
                   <c:v>43449</c:v>
                 </c:pt>
-                <c:pt idx="15" c:formatCode="yyyy/m/d">
+                <c:pt idx="15">
                   <c:v>43450</c:v>
                 </c:pt>
-                <c:pt idx="16" c:formatCode="yyyy/m/d">
+                <c:pt idx="16">
                   <c:v>43451</c:v>
                 </c:pt>
-                <c:pt idx="17" c:formatCode="yyyy/m/d">
+                <c:pt idx="17">
                   <c:v>43452</c:v>
                 </c:pt>
-                <c:pt idx="18" c:formatCode="yyyy/m/d">
+                <c:pt idx="18">
                   <c:v>43453</c:v>
                 </c:pt>
-                <c:pt idx="19" c:formatCode="yyyy/m/d">
+                <c:pt idx="19">
                   <c:v>43454</c:v>
                 </c:pt>
-                <c:pt idx="20" c:formatCode="yyyy/m/d">
+                <c:pt idx="20">
                   <c:v>43455</c:v>
                 </c:pt>
-                <c:pt idx="21" c:formatCode="yyyy/m/d">
+                <c:pt idx="21">
                   <c:v>43456</c:v>
                 </c:pt>
-                <c:pt idx="22" c:formatCode="yyyy/m/d">
+                <c:pt idx="22">
                   <c:v>43457</c:v>
                 </c:pt>
-                <c:pt idx="23" c:formatCode="yyyy/m/d">
+                <c:pt idx="23">
                   <c:v>43458</c:v>
                 </c:pt>
-                <c:pt idx="24" c:formatCode="yyyy/m/d">
+                <c:pt idx="24">
                   <c:v>43459</c:v>
                 </c:pt>
-                <c:pt idx="25" c:formatCode="yyyy/m/d">
+                <c:pt idx="25">
                   <c:v>43460</c:v>
                 </c:pt>
-                <c:pt idx="26" c:formatCode="yyyy/m/d">
+                <c:pt idx="26">
                   <c:v>43461</c:v>
                 </c:pt>
-                <c:pt idx="27" c:formatCode="yyyy/m/d">
+                <c:pt idx="27">
                   <c:v>43462</c:v>
                 </c:pt>
-                <c:pt idx="28" c:formatCode="yyyy/m/d">
+                <c:pt idx="28">
                   <c:v>43463</c:v>
                 </c:pt>
-                <c:pt idx="29" c:formatCode="yyyy/m/d">
+                <c:pt idx="29">
                   <c:v>43464</c:v>
                 </c:pt>
-                <c:pt idx="30" c:formatCode="yyyy/m/d">
+                <c:pt idx="30">
                   <c:v>43465</c:v>
                 </c:pt>
               </c:numCache>
@@ -5008,11 +4498,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="259884144"/>
-        <c:axId val="259884704"/>
+        <c:axId val="296682752"/>
+        <c:axId val="296683312"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="259884144"/>
+        <c:axId val="296682752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5045,16 +4535,17 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="259884704"/>
+        <c:crossAx val="296683312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="259884704"/>
+        <c:axId val="296683312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.5"/>
@@ -5113,9 +4604,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="259884144"/>
+        <c:crossAx val="296682752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
@@ -5153,6 +4645,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -5193,11 +4686,14 @@
       <a:pPr>
         <a:defRPr lang="zh-CN"/>
       </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
-  <c:externalData r:id="rId1">
-    <c:autoUpdate val="0"/>
-  </c:externalData>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -5238,11 +4734,9 @@
               <a:rPr lang="zh-CN"/>
               <a:t>总完成率</a:t>
             </a:r>
-            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5251,6 +4745,26 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -5307,6 +4821,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -5319,7 +4834,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -5451,11 +4965,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="259888064"/>
-        <c:axId val="259888624"/>
+        <c:axId val="296686672"/>
+        <c:axId val="296687232"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="259888064"/>
+        <c:axId val="296686672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5495,9 +5009,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="259888624"/>
+        <c:crossAx val="296687232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5505,7 +5020,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="259888624"/>
+        <c:axId val="296687232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5541,26 +5056,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="75000"/>
-                    <a:lumOff val="25000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="259888064"/>
+        <c:crossAx val="296686672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5614,11 +5110,14 @@
       <a:pPr>
         <a:defRPr lang="zh-CN"/>
       </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
-  <c:externalData r:id="rId1">
-    <c:autoUpdate val="0"/>
-  </c:externalData>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -5659,11 +5158,9 @@
               <a:rPr lang="zh-CN"/>
               <a:t>总完成率</a:t>
             </a:r>
-            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5672,6 +5169,26 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -5728,6 +5245,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -5740,7 +5258,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -5771,7 +5288,7 @@
                   <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.85</c:v>
+                  <c:v>0.85000000000000009</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.375</c:v>
@@ -5842,11 +5359,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="259888064"/>
-        <c:axId val="259888624"/>
+        <c:axId val="195097424"/>
+        <c:axId val="195097984"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="259888064"/>
+        <c:axId val="195097424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5886,9 +5403,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="259888624"/>
+        <c:crossAx val="195097984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5896,7 +5414,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="259888624"/>
+        <c:axId val="195097984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5932,26 +5450,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="75000"/>
-                    <a:lumOff val="25000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="259888064"/>
+        <c:crossAx val="195097424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6005,11 +5504,14 @@
       <a:pPr>
         <a:defRPr lang="zh-CN"/>
       </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
-  <c:externalData r:id="rId1">
-    <c:autoUpdate val="0"/>
-  </c:externalData>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -6086,6 +5588,25 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -6094,10 +5615,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0806595059076262"/>
-          <c:y val="0.021043771043771"/>
-          <c:w val="0.900991049051199"/>
-          <c:h val="0.738181818181818"/>
+          <c:x val="8.0659505907626203E-2"/>
+          <c:y val="2.1043771043771E-2"/>
+          <c:w val="0.90099104905119898"/>
+          <c:h val="0.73818181818181805"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -6155,106 +5676,103 @@
               </a:effectLst>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>'2018年1月概览'!$A$2:$A$32</c:f>
               <c:numCache>
-                <c:formatCode>yyyy/m/d</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="31"/>
-                <c:pt idx="0" c:formatCode="yyyy/m/d">
+                <c:pt idx="0">
                   <c:v>43101</c:v>
                 </c:pt>
-                <c:pt idx="1" c:formatCode="yyyy/m/d">
+                <c:pt idx="1">
                   <c:v>43102</c:v>
                 </c:pt>
-                <c:pt idx="2" c:formatCode="yyyy/m/d">
+                <c:pt idx="2">
                   <c:v>43103</c:v>
                 </c:pt>
-                <c:pt idx="3" c:formatCode="yyyy/m/d">
+                <c:pt idx="3">
                   <c:v>43104</c:v>
                 </c:pt>
-                <c:pt idx="4" c:formatCode="yyyy/m/d">
+                <c:pt idx="4">
                   <c:v>43105</c:v>
                 </c:pt>
-                <c:pt idx="5" c:formatCode="yyyy/m/d">
+                <c:pt idx="5">
                   <c:v>43106</c:v>
                 </c:pt>
-                <c:pt idx="6" c:formatCode="yyyy/m/d">
+                <c:pt idx="6">
                   <c:v>43107</c:v>
                 </c:pt>
-                <c:pt idx="7" c:formatCode="yyyy/m/d">
+                <c:pt idx="7">
                   <c:v>43108</c:v>
                 </c:pt>
-                <c:pt idx="8" c:formatCode="yyyy/m/d">
+                <c:pt idx="8">
                   <c:v>43109</c:v>
                 </c:pt>
-                <c:pt idx="9" c:formatCode="yyyy/m/d">
+                <c:pt idx="9">
                   <c:v>43110</c:v>
                 </c:pt>
-                <c:pt idx="10" c:formatCode="yyyy/m/d">
+                <c:pt idx="10">
                   <c:v>43111</c:v>
                 </c:pt>
-                <c:pt idx="11" c:formatCode="yyyy/m/d">
+                <c:pt idx="11">
                   <c:v>43112</c:v>
                 </c:pt>
-                <c:pt idx="12" c:formatCode="yyyy/m/d">
+                <c:pt idx="12">
                   <c:v>43113</c:v>
                 </c:pt>
-                <c:pt idx="13" c:formatCode="yyyy/m/d">
+                <c:pt idx="13">
                   <c:v>43114</c:v>
                 </c:pt>
-                <c:pt idx="14" c:formatCode="yyyy/m/d">
+                <c:pt idx="14">
                   <c:v>43115</c:v>
                 </c:pt>
-                <c:pt idx="15" c:formatCode="yyyy/m/d">
+                <c:pt idx="15">
                   <c:v>43116</c:v>
                 </c:pt>
-                <c:pt idx="16" c:formatCode="yyyy/m/d">
+                <c:pt idx="16">
                   <c:v>43117</c:v>
                 </c:pt>
-                <c:pt idx="17" c:formatCode="yyyy/m/d">
+                <c:pt idx="17">
                   <c:v>43118</c:v>
                 </c:pt>
-                <c:pt idx="18" c:formatCode="yyyy/m/d">
+                <c:pt idx="18">
                   <c:v>43119</c:v>
                 </c:pt>
-                <c:pt idx="19" c:formatCode="yyyy/m/d">
+                <c:pt idx="19">
                   <c:v>43120</c:v>
                 </c:pt>
-                <c:pt idx="20" c:formatCode="yyyy/m/d">
+                <c:pt idx="20">
                   <c:v>43121</c:v>
                 </c:pt>
-                <c:pt idx="21" c:formatCode="yyyy/m/d">
+                <c:pt idx="21">
                   <c:v>43122</c:v>
                 </c:pt>
-                <c:pt idx="22" c:formatCode="yyyy/m/d">
+                <c:pt idx="22">
                   <c:v>43123</c:v>
                 </c:pt>
-                <c:pt idx="23" c:formatCode="yyyy/m/d">
+                <c:pt idx="23">
                   <c:v>43124</c:v>
                 </c:pt>
-                <c:pt idx="24" c:formatCode="yyyy/m/d">
+                <c:pt idx="24">
                   <c:v>43125</c:v>
                 </c:pt>
-                <c:pt idx="25" c:formatCode="yyyy/m/d">
+                <c:pt idx="25">
                   <c:v>43126</c:v>
                 </c:pt>
-                <c:pt idx="26" c:formatCode="yyyy/m/d">
+                <c:pt idx="26">
                   <c:v>43127</c:v>
                 </c:pt>
-                <c:pt idx="27" c:formatCode="yyyy/m/d">
+                <c:pt idx="27">
                   <c:v>43128</c:v>
                 </c:pt>
-                <c:pt idx="28" c:formatCode="yyyy/m/d">
+                <c:pt idx="28">
                   <c:v>43129</c:v>
                 </c:pt>
-                <c:pt idx="29" c:formatCode="yyyy/m/d">
+                <c:pt idx="29">
                   <c:v>43130</c:v>
                 </c:pt>
-                <c:pt idx="30" c:formatCode="yyyy/m/d">
+                <c:pt idx="30">
                   <c:v>43131</c:v>
                 </c:pt>
               </c:numCache>
@@ -6273,7 +5791,7 @@
                   <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -6416,106 +5934,103 @@
               </a:effectLst>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>'2018年1月概览'!$A$2:$A$32</c:f>
               <c:numCache>
-                <c:formatCode>yyyy/m/d</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="31"/>
-                <c:pt idx="0" c:formatCode="yyyy/m/d">
+                <c:pt idx="0">
                   <c:v>43101</c:v>
                 </c:pt>
-                <c:pt idx="1" c:formatCode="yyyy/m/d">
+                <c:pt idx="1">
                   <c:v>43102</c:v>
                 </c:pt>
-                <c:pt idx="2" c:formatCode="yyyy/m/d">
+                <c:pt idx="2">
                   <c:v>43103</c:v>
                 </c:pt>
-                <c:pt idx="3" c:formatCode="yyyy/m/d">
+                <c:pt idx="3">
                   <c:v>43104</c:v>
                 </c:pt>
-                <c:pt idx="4" c:formatCode="yyyy/m/d">
+                <c:pt idx="4">
                   <c:v>43105</c:v>
                 </c:pt>
-                <c:pt idx="5" c:formatCode="yyyy/m/d">
+                <c:pt idx="5">
                   <c:v>43106</c:v>
                 </c:pt>
-                <c:pt idx="6" c:formatCode="yyyy/m/d">
+                <c:pt idx="6">
                   <c:v>43107</c:v>
                 </c:pt>
-                <c:pt idx="7" c:formatCode="yyyy/m/d">
+                <c:pt idx="7">
                   <c:v>43108</c:v>
                 </c:pt>
-                <c:pt idx="8" c:formatCode="yyyy/m/d">
+                <c:pt idx="8">
                   <c:v>43109</c:v>
                 </c:pt>
-                <c:pt idx="9" c:formatCode="yyyy/m/d">
+                <c:pt idx="9">
                   <c:v>43110</c:v>
                 </c:pt>
-                <c:pt idx="10" c:formatCode="yyyy/m/d">
+                <c:pt idx="10">
                   <c:v>43111</c:v>
                 </c:pt>
-                <c:pt idx="11" c:formatCode="yyyy/m/d">
+                <c:pt idx="11">
                   <c:v>43112</c:v>
                 </c:pt>
-                <c:pt idx="12" c:formatCode="yyyy/m/d">
+                <c:pt idx="12">
                   <c:v>43113</c:v>
                 </c:pt>
-                <c:pt idx="13" c:formatCode="yyyy/m/d">
+                <c:pt idx="13">
                   <c:v>43114</c:v>
                 </c:pt>
-                <c:pt idx="14" c:formatCode="yyyy/m/d">
+                <c:pt idx="14">
                   <c:v>43115</c:v>
                 </c:pt>
-                <c:pt idx="15" c:formatCode="yyyy/m/d">
+                <c:pt idx="15">
                   <c:v>43116</c:v>
                 </c:pt>
-                <c:pt idx="16" c:formatCode="yyyy/m/d">
+                <c:pt idx="16">
                   <c:v>43117</c:v>
                 </c:pt>
-                <c:pt idx="17" c:formatCode="yyyy/m/d">
+                <c:pt idx="17">
                   <c:v>43118</c:v>
                 </c:pt>
-                <c:pt idx="18" c:formatCode="yyyy/m/d">
+                <c:pt idx="18">
                   <c:v>43119</c:v>
                 </c:pt>
-                <c:pt idx="19" c:formatCode="yyyy/m/d">
+                <c:pt idx="19">
                   <c:v>43120</c:v>
                 </c:pt>
-                <c:pt idx="20" c:formatCode="yyyy/m/d">
+                <c:pt idx="20">
                   <c:v>43121</c:v>
                 </c:pt>
-                <c:pt idx="21" c:formatCode="yyyy/m/d">
+                <c:pt idx="21">
                   <c:v>43122</c:v>
                 </c:pt>
-                <c:pt idx="22" c:formatCode="yyyy/m/d">
+                <c:pt idx="22">
                   <c:v>43123</c:v>
                 </c:pt>
-                <c:pt idx="23" c:formatCode="yyyy/m/d">
+                <c:pt idx="23">
                   <c:v>43124</c:v>
                 </c:pt>
-                <c:pt idx="24" c:formatCode="yyyy/m/d">
+                <c:pt idx="24">
                   <c:v>43125</c:v>
                 </c:pt>
-                <c:pt idx="25" c:formatCode="yyyy/m/d">
+                <c:pt idx="25">
                   <c:v>43126</c:v>
                 </c:pt>
-                <c:pt idx="26" c:formatCode="yyyy/m/d">
+                <c:pt idx="26">
                   <c:v>43127</c:v>
                 </c:pt>
-                <c:pt idx="27" c:formatCode="yyyy/m/d">
+                <c:pt idx="27">
                   <c:v>43128</c:v>
                 </c:pt>
-                <c:pt idx="28" c:formatCode="yyyy/m/d">
+                <c:pt idx="28">
                   <c:v>43129</c:v>
                 </c:pt>
-                <c:pt idx="29" c:formatCode="yyyy/m/d">
+                <c:pt idx="29">
                   <c:v>43130</c:v>
                 </c:pt>
-                <c:pt idx="30" c:formatCode="yyyy/m/d">
+                <c:pt idx="30">
                   <c:v>43131</c:v>
                 </c:pt>
               </c:numCache>
@@ -6531,10 +6046,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -6635,11 +6150,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="259884144"/>
-        <c:axId val="259884704"/>
+        <c:axId val="195100784"/>
+        <c:axId val="195101344"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="259884144"/>
+        <c:axId val="195100784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6672,16 +6187,17 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="259884704"/>
+        <c:crossAx val="195101344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="259884704"/>
+        <c:axId val="195101344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.5"/>
@@ -6740,9 +6256,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="259884144"/>
+        <c:crossAx val="195100784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
@@ -6768,7 +6285,7 @@
           <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr>
+            <a:pPr rtl="0">
               <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="lt1">
@@ -6780,6 +6297,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -6820,11 +6338,14 @@
       <a:pPr>
         <a:defRPr lang="zh-CN"/>
       </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
-  <c:externalData r:id="rId1">
-    <c:autoUpdate val="0"/>
-  </c:externalData>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -6865,7 +6386,6 @@
               <a:rPr lang="zh-CN"/>
               <a:t>总完成率</a:t>
             </a:r>
-            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -6878,6 +6398,26 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -6934,6 +6474,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -6974,10 +6515,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.4</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -7078,11 +6619,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="259888064"/>
-        <c:axId val="259888624"/>
+        <c:axId val="295868432"/>
+        <c:axId val="295868992"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="259888064"/>
+        <c:axId val="295868432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7122,9 +6663,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="259888624"/>
+        <c:crossAx val="295868992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7132,7 +6674,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="259888624"/>
+        <c:axId val="295868992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7168,26 +6710,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="75000"/>
-                    <a:lumOff val="25000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="259888064"/>
+        <c:crossAx val="295868432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7241,11 +6764,14 @@
       <a:pPr>
         <a:defRPr lang="zh-CN"/>
       </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
-  <c:externalData r:id="rId1">
-    <c:autoUpdate val="0"/>
-  </c:externalData>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -7313,7 +6839,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7322,6 +6847,25 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -7330,10 +6874,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0806595059076262"/>
-          <c:y val="0.021043771043771"/>
-          <c:w val="0.900991049051199"/>
-          <c:h val="0.738181818181818"/>
+          <c:x val="8.0659505907626203E-2"/>
+          <c:y val="2.1043771043771E-2"/>
+          <c:w val="0.90099104905119898"/>
+          <c:h val="0.73818181818181805"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -7391,106 +6935,103 @@
               </a:effectLst>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>'2018年3月概览'!$A$2:$A$32</c:f>
               <c:numCache>
-                <c:formatCode>yyyy/m/d</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="31"/>
-                <c:pt idx="0" c:formatCode="yyyy/m/d">
+                <c:pt idx="0">
                   <c:v>43160</c:v>
                 </c:pt>
-                <c:pt idx="1" c:formatCode="yyyy/m/d">
+                <c:pt idx="1">
                   <c:v>43161</c:v>
                 </c:pt>
-                <c:pt idx="2" c:formatCode="yyyy/m/d">
+                <c:pt idx="2">
                   <c:v>43162</c:v>
                 </c:pt>
-                <c:pt idx="3" c:formatCode="yyyy/m/d">
+                <c:pt idx="3">
                   <c:v>43163</c:v>
                 </c:pt>
-                <c:pt idx="4" c:formatCode="yyyy/m/d">
+                <c:pt idx="4">
                   <c:v>43164</c:v>
                 </c:pt>
-                <c:pt idx="5" c:formatCode="yyyy/m/d">
+                <c:pt idx="5">
                   <c:v>43165</c:v>
                 </c:pt>
-                <c:pt idx="6" c:formatCode="yyyy/m/d">
+                <c:pt idx="6">
                   <c:v>43166</c:v>
                 </c:pt>
-                <c:pt idx="7" c:formatCode="yyyy/m/d">
+                <c:pt idx="7">
                   <c:v>43167</c:v>
                 </c:pt>
-                <c:pt idx="8" c:formatCode="yyyy/m/d">
+                <c:pt idx="8">
                   <c:v>43168</c:v>
                 </c:pt>
-                <c:pt idx="9" c:formatCode="yyyy/m/d">
+                <c:pt idx="9">
                   <c:v>43169</c:v>
                 </c:pt>
-                <c:pt idx="10" c:formatCode="yyyy/m/d">
+                <c:pt idx="10">
                   <c:v>43170</c:v>
                 </c:pt>
-                <c:pt idx="11" c:formatCode="yyyy/m/d">
+                <c:pt idx="11">
                   <c:v>43171</c:v>
                 </c:pt>
-                <c:pt idx="12" c:formatCode="yyyy/m/d">
+                <c:pt idx="12">
                   <c:v>43172</c:v>
                 </c:pt>
-                <c:pt idx="13" c:formatCode="yyyy/m/d">
+                <c:pt idx="13">
                   <c:v>43173</c:v>
                 </c:pt>
-                <c:pt idx="14" c:formatCode="yyyy/m/d">
+                <c:pt idx="14">
                   <c:v>43174</c:v>
                 </c:pt>
-                <c:pt idx="15" c:formatCode="yyyy/m/d">
+                <c:pt idx="15">
                   <c:v>43175</c:v>
                 </c:pt>
-                <c:pt idx="16" c:formatCode="yyyy/m/d">
+                <c:pt idx="16">
                   <c:v>43176</c:v>
                 </c:pt>
-                <c:pt idx="17" c:formatCode="yyyy/m/d">
+                <c:pt idx="17">
                   <c:v>43177</c:v>
                 </c:pt>
-                <c:pt idx="18" c:formatCode="yyyy/m/d">
+                <c:pt idx="18">
                   <c:v>43178</c:v>
                 </c:pt>
-                <c:pt idx="19" c:formatCode="yyyy/m/d">
+                <c:pt idx="19">
                   <c:v>43179</c:v>
                 </c:pt>
-                <c:pt idx="20" c:formatCode="yyyy/m/d">
+                <c:pt idx="20">
                   <c:v>43180</c:v>
                 </c:pt>
-                <c:pt idx="21" c:formatCode="yyyy/m/d">
+                <c:pt idx="21">
                   <c:v>43181</c:v>
                 </c:pt>
-                <c:pt idx="22" c:formatCode="yyyy/m/d">
+                <c:pt idx="22">
                   <c:v>43182</c:v>
                 </c:pt>
-                <c:pt idx="23" c:formatCode="yyyy/m/d">
+                <c:pt idx="23">
                   <c:v>43183</c:v>
                 </c:pt>
-                <c:pt idx="24" c:formatCode="yyyy/m/d">
+                <c:pt idx="24">
                   <c:v>43184</c:v>
                 </c:pt>
-                <c:pt idx="25" c:formatCode="yyyy/m/d">
+                <c:pt idx="25">
                   <c:v>43185</c:v>
                 </c:pt>
-                <c:pt idx="26" c:formatCode="yyyy/m/d">
+                <c:pt idx="26">
                   <c:v>43186</c:v>
                 </c:pt>
-                <c:pt idx="27" c:formatCode="yyyy/m/d">
+                <c:pt idx="27">
                   <c:v>43187</c:v>
                 </c:pt>
-                <c:pt idx="28" c:formatCode="yyyy/m/d">
+                <c:pt idx="28">
                   <c:v>43188</c:v>
                 </c:pt>
-                <c:pt idx="29" c:formatCode="yyyy/m/d">
+                <c:pt idx="29">
                   <c:v>43189</c:v>
                 </c:pt>
-                <c:pt idx="30" c:formatCode="yyyy/m/d">
+                <c:pt idx="30">
                   <c:v>43190</c:v>
                 </c:pt>
               </c:numCache>
@@ -7652,106 +7193,103 @@
               </a:effectLst>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>'2018年3月概览'!$A$2:$A$32</c:f>
               <c:numCache>
-                <c:formatCode>yyyy/m/d</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="31"/>
-                <c:pt idx="0" c:formatCode="yyyy/m/d">
+                <c:pt idx="0">
                   <c:v>43160</c:v>
                 </c:pt>
-                <c:pt idx="1" c:formatCode="yyyy/m/d">
+                <c:pt idx="1">
                   <c:v>43161</c:v>
                 </c:pt>
-                <c:pt idx="2" c:formatCode="yyyy/m/d">
+                <c:pt idx="2">
                   <c:v>43162</c:v>
                 </c:pt>
-                <c:pt idx="3" c:formatCode="yyyy/m/d">
+                <c:pt idx="3">
                   <c:v>43163</c:v>
                 </c:pt>
-                <c:pt idx="4" c:formatCode="yyyy/m/d">
+                <c:pt idx="4">
                   <c:v>43164</c:v>
                 </c:pt>
-                <c:pt idx="5" c:formatCode="yyyy/m/d">
+                <c:pt idx="5">
                   <c:v>43165</c:v>
                 </c:pt>
-                <c:pt idx="6" c:formatCode="yyyy/m/d">
+                <c:pt idx="6">
                   <c:v>43166</c:v>
                 </c:pt>
-                <c:pt idx="7" c:formatCode="yyyy/m/d">
+                <c:pt idx="7">
                   <c:v>43167</c:v>
                 </c:pt>
-                <c:pt idx="8" c:formatCode="yyyy/m/d">
+                <c:pt idx="8">
                   <c:v>43168</c:v>
                 </c:pt>
-                <c:pt idx="9" c:formatCode="yyyy/m/d">
+                <c:pt idx="9">
                   <c:v>43169</c:v>
                 </c:pt>
-                <c:pt idx="10" c:formatCode="yyyy/m/d">
+                <c:pt idx="10">
                   <c:v>43170</c:v>
                 </c:pt>
-                <c:pt idx="11" c:formatCode="yyyy/m/d">
+                <c:pt idx="11">
                   <c:v>43171</c:v>
                 </c:pt>
-                <c:pt idx="12" c:formatCode="yyyy/m/d">
+                <c:pt idx="12">
                   <c:v>43172</c:v>
                 </c:pt>
-                <c:pt idx="13" c:formatCode="yyyy/m/d">
+                <c:pt idx="13">
                   <c:v>43173</c:v>
                 </c:pt>
-                <c:pt idx="14" c:formatCode="yyyy/m/d">
+                <c:pt idx="14">
                   <c:v>43174</c:v>
                 </c:pt>
-                <c:pt idx="15" c:formatCode="yyyy/m/d">
+                <c:pt idx="15">
                   <c:v>43175</c:v>
                 </c:pt>
-                <c:pt idx="16" c:formatCode="yyyy/m/d">
+                <c:pt idx="16">
                   <c:v>43176</c:v>
                 </c:pt>
-                <c:pt idx="17" c:formatCode="yyyy/m/d">
+                <c:pt idx="17">
                   <c:v>43177</c:v>
                 </c:pt>
-                <c:pt idx="18" c:formatCode="yyyy/m/d">
+                <c:pt idx="18">
                   <c:v>43178</c:v>
                 </c:pt>
-                <c:pt idx="19" c:formatCode="yyyy/m/d">
+                <c:pt idx="19">
                   <c:v>43179</c:v>
                 </c:pt>
-                <c:pt idx="20" c:formatCode="yyyy/m/d">
+                <c:pt idx="20">
                   <c:v>43180</c:v>
                 </c:pt>
-                <c:pt idx="21" c:formatCode="yyyy/m/d">
+                <c:pt idx="21">
                   <c:v>43181</c:v>
                 </c:pt>
-                <c:pt idx="22" c:formatCode="yyyy/m/d">
+                <c:pt idx="22">
                   <c:v>43182</c:v>
                 </c:pt>
-                <c:pt idx="23" c:formatCode="yyyy/m/d">
+                <c:pt idx="23">
                   <c:v>43183</c:v>
                 </c:pt>
-                <c:pt idx="24" c:formatCode="yyyy/m/d">
+                <c:pt idx="24">
                   <c:v>43184</c:v>
                 </c:pt>
-                <c:pt idx="25" c:formatCode="yyyy/m/d">
+                <c:pt idx="25">
                   <c:v>43185</c:v>
                 </c:pt>
-                <c:pt idx="26" c:formatCode="yyyy/m/d">
+                <c:pt idx="26">
                   <c:v>43186</c:v>
                 </c:pt>
-                <c:pt idx="27" c:formatCode="yyyy/m/d">
+                <c:pt idx="27">
                   <c:v>43187</c:v>
                 </c:pt>
-                <c:pt idx="28" c:formatCode="yyyy/m/d">
+                <c:pt idx="28">
                   <c:v>43188</c:v>
                 </c:pt>
-                <c:pt idx="29" c:formatCode="yyyy/m/d">
+                <c:pt idx="29">
                   <c:v>43189</c:v>
                 </c:pt>
-                <c:pt idx="30" c:formatCode="yyyy/m/d">
+                <c:pt idx="30">
                   <c:v>43190</c:v>
                 </c:pt>
               </c:numCache>
@@ -7871,11 +7409,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="259884144"/>
-        <c:axId val="259884704"/>
+        <c:axId val="295871792"/>
+        <c:axId val="295872352"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="259884144"/>
+        <c:axId val="295871792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7908,16 +7446,17 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="259884704"/>
+        <c:crossAx val="295872352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="259884704"/>
+        <c:axId val="295872352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.5"/>
@@ -7976,9 +7515,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="259884144"/>
+        <c:crossAx val="295871792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
@@ -8016,6 +7556,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -8056,11 +7597,14 @@
       <a:pPr>
         <a:defRPr lang="zh-CN"/>
       </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
-  <c:externalData r:id="rId1">
-    <c:autoUpdate val="0"/>
-  </c:externalData>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -8101,11 +7645,9 @@
               <a:rPr lang="zh-CN"/>
               <a:t>总完成率</a:t>
             </a:r>
-            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8114,6 +7656,26 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -8170,6 +7732,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -8182,7 +7745,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -8314,11 +7876,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="259888064"/>
-        <c:axId val="259888624"/>
+        <c:axId val="295875712"/>
+        <c:axId val="295600592"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="259888064"/>
+        <c:axId val="295875712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8358,9 +7920,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="259888624"/>
+        <c:crossAx val="295600592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8368,7 +7931,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="259888624"/>
+        <c:axId val="295600592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8404,26 +7967,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="75000"/>
-                    <a:lumOff val="25000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="259888064"/>
+        <c:crossAx val="295875712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8477,11 +8021,14 @@
       <a:pPr>
         <a:defRPr lang="zh-CN"/>
       </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
-  <c:externalData r:id="rId1">
-    <c:autoUpdate val="0"/>
-  </c:externalData>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -8549,7 +8096,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8558,6 +8104,25 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -8566,10 +8131,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0806595059076262"/>
-          <c:y val="0.021043771043771"/>
-          <c:w val="0.900991049051199"/>
-          <c:h val="0.738181818181818"/>
+          <c:x val="8.0659505907626203E-2"/>
+          <c:y val="2.1043771043771E-2"/>
+          <c:w val="0.90099104905119898"/>
+          <c:h val="0.73818181818181805"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -8627,106 +8192,103 @@
               </a:effectLst>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>'2018年5月概览'!$A$2:$A$32</c:f>
               <c:numCache>
-                <c:formatCode>yyyy/m/d</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="31"/>
-                <c:pt idx="0" c:formatCode="yyyy/m/d">
+                <c:pt idx="0">
                   <c:v>43221</c:v>
                 </c:pt>
-                <c:pt idx="1" c:formatCode="yyyy/m/d">
+                <c:pt idx="1">
                   <c:v>43222</c:v>
                 </c:pt>
-                <c:pt idx="2" c:formatCode="yyyy/m/d">
+                <c:pt idx="2">
                   <c:v>43223</c:v>
                 </c:pt>
-                <c:pt idx="3" c:formatCode="yyyy/m/d">
+                <c:pt idx="3">
                   <c:v>43224</c:v>
                 </c:pt>
-                <c:pt idx="4" c:formatCode="yyyy/m/d">
+                <c:pt idx="4">
                   <c:v>43225</c:v>
                 </c:pt>
-                <c:pt idx="5" c:formatCode="yyyy/m/d">
+                <c:pt idx="5">
                   <c:v>43226</c:v>
                 </c:pt>
-                <c:pt idx="6" c:formatCode="yyyy/m/d">
+                <c:pt idx="6">
                   <c:v>43227</c:v>
                 </c:pt>
-                <c:pt idx="7" c:formatCode="yyyy/m/d">
+                <c:pt idx="7">
                   <c:v>43228</c:v>
                 </c:pt>
-                <c:pt idx="8" c:formatCode="yyyy/m/d">
+                <c:pt idx="8">
                   <c:v>43229</c:v>
                 </c:pt>
-                <c:pt idx="9" c:formatCode="yyyy/m/d">
+                <c:pt idx="9">
                   <c:v>43230</c:v>
                 </c:pt>
-                <c:pt idx="10" c:formatCode="yyyy/m/d">
+                <c:pt idx="10">
                   <c:v>43231</c:v>
                 </c:pt>
-                <c:pt idx="11" c:formatCode="yyyy/m/d">
+                <c:pt idx="11">
                   <c:v>43232</c:v>
                 </c:pt>
-                <c:pt idx="12" c:formatCode="yyyy/m/d">
+                <c:pt idx="12">
                   <c:v>43233</c:v>
                 </c:pt>
-                <c:pt idx="13" c:formatCode="yyyy/m/d">
+                <c:pt idx="13">
                   <c:v>43234</c:v>
                 </c:pt>
-                <c:pt idx="14" c:formatCode="yyyy/m/d">
+                <c:pt idx="14">
                   <c:v>43235</c:v>
                 </c:pt>
-                <c:pt idx="15" c:formatCode="yyyy/m/d">
+                <c:pt idx="15">
                   <c:v>43236</c:v>
                 </c:pt>
-                <c:pt idx="16" c:formatCode="yyyy/m/d">
+                <c:pt idx="16">
                   <c:v>43237</c:v>
                 </c:pt>
-                <c:pt idx="17" c:formatCode="yyyy/m/d">
+                <c:pt idx="17">
                   <c:v>43238</c:v>
                 </c:pt>
-                <c:pt idx="18" c:formatCode="yyyy/m/d">
+                <c:pt idx="18">
                   <c:v>43239</c:v>
                 </c:pt>
-                <c:pt idx="19" c:formatCode="yyyy/m/d">
+                <c:pt idx="19">
                   <c:v>43240</c:v>
                 </c:pt>
-                <c:pt idx="20" c:formatCode="yyyy/m/d">
+                <c:pt idx="20">
                   <c:v>43241</c:v>
                 </c:pt>
-                <c:pt idx="21" c:formatCode="yyyy/m/d">
+                <c:pt idx="21">
                   <c:v>43242</c:v>
                 </c:pt>
-                <c:pt idx="22" c:formatCode="yyyy/m/d">
+                <c:pt idx="22">
                   <c:v>43243</c:v>
                 </c:pt>
-                <c:pt idx="23" c:formatCode="yyyy/m/d">
+                <c:pt idx="23">
                   <c:v>43244</c:v>
                 </c:pt>
-                <c:pt idx="24" c:formatCode="yyyy/m/d">
+                <c:pt idx="24">
                   <c:v>43245</c:v>
                 </c:pt>
-                <c:pt idx="25" c:formatCode="yyyy/m/d">
+                <c:pt idx="25">
                   <c:v>43246</c:v>
                 </c:pt>
-                <c:pt idx="26" c:formatCode="yyyy/m/d">
+                <c:pt idx="26">
                   <c:v>43247</c:v>
                 </c:pt>
-                <c:pt idx="27" c:formatCode="yyyy/m/d">
+                <c:pt idx="27">
                   <c:v>43248</c:v>
                 </c:pt>
-                <c:pt idx="28" c:formatCode="yyyy/m/d">
+                <c:pt idx="28">
                   <c:v>43249</c:v>
                 </c:pt>
-                <c:pt idx="29" c:formatCode="yyyy/m/d">
+                <c:pt idx="29">
                   <c:v>43250</c:v>
                 </c:pt>
-                <c:pt idx="30" c:formatCode="yyyy/m/d">
+                <c:pt idx="30">
                   <c:v>43251</c:v>
                 </c:pt>
               </c:numCache>
@@ -8888,106 +8450,103 @@
               </a:effectLst>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>'2018年5月概览'!$A$2:$A$32</c:f>
               <c:numCache>
-                <c:formatCode>yyyy/m/d</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="31"/>
-                <c:pt idx="0" c:formatCode="yyyy/m/d">
+                <c:pt idx="0">
                   <c:v>43221</c:v>
                 </c:pt>
-                <c:pt idx="1" c:formatCode="yyyy/m/d">
+                <c:pt idx="1">
                   <c:v>43222</c:v>
                 </c:pt>
-                <c:pt idx="2" c:formatCode="yyyy/m/d">
+                <c:pt idx="2">
                   <c:v>43223</c:v>
                 </c:pt>
-                <c:pt idx="3" c:formatCode="yyyy/m/d">
+                <c:pt idx="3">
                   <c:v>43224</c:v>
                 </c:pt>
-                <c:pt idx="4" c:formatCode="yyyy/m/d">
+                <c:pt idx="4">
                   <c:v>43225</c:v>
                 </c:pt>
-                <c:pt idx="5" c:formatCode="yyyy/m/d">
+                <c:pt idx="5">
                   <c:v>43226</c:v>
                 </c:pt>
-                <c:pt idx="6" c:formatCode="yyyy/m/d">
+                <c:pt idx="6">
                   <c:v>43227</c:v>
                 </c:pt>
-                <c:pt idx="7" c:formatCode="yyyy/m/d">
+                <c:pt idx="7">
                   <c:v>43228</c:v>
                 </c:pt>
-                <c:pt idx="8" c:formatCode="yyyy/m/d">
+                <c:pt idx="8">
                   <c:v>43229</c:v>
                 </c:pt>
-                <c:pt idx="9" c:formatCode="yyyy/m/d">
+                <c:pt idx="9">
                   <c:v>43230</c:v>
                 </c:pt>
-                <c:pt idx="10" c:formatCode="yyyy/m/d">
+                <c:pt idx="10">
                   <c:v>43231</c:v>
                 </c:pt>
-                <c:pt idx="11" c:formatCode="yyyy/m/d">
+                <c:pt idx="11">
                   <c:v>43232</c:v>
                 </c:pt>
-                <c:pt idx="12" c:formatCode="yyyy/m/d">
+                <c:pt idx="12">
                   <c:v>43233</c:v>
                 </c:pt>
-                <c:pt idx="13" c:formatCode="yyyy/m/d">
+                <c:pt idx="13">
                   <c:v>43234</c:v>
                 </c:pt>
-                <c:pt idx="14" c:formatCode="yyyy/m/d">
+                <c:pt idx="14">
                   <c:v>43235</c:v>
                 </c:pt>
-                <c:pt idx="15" c:formatCode="yyyy/m/d">
+                <c:pt idx="15">
                   <c:v>43236</c:v>
                 </c:pt>
-                <c:pt idx="16" c:formatCode="yyyy/m/d">
+                <c:pt idx="16">
                   <c:v>43237</c:v>
                 </c:pt>
-                <c:pt idx="17" c:formatCode="yyyy/m/d">
+                <c:pt idx="17">
                   <c:v>43238</c:v>
                 </c:pt>
-                <c:pt idx="18" c:formatCode="yyyy/m/d">
+                <c:pt idx="18">
                   <c:v>43239</c:v>
                 </c:pt>
-                <c:pt idx="19" c:formatCode="yyyy/m/d">
+                <c:pt idx="19">
                   <c:v>43240</c:v>
                 </c:pt>
-                <c:pt idx="20" c:formatCode="yyyy/m/d">
+                <c:pt idx="20">
                   <c:v>43241</c:v>
                 </c:pt>
-                <c:pt idx="21" c:formatCode="yyyy/m/d">
+                <c:pt idx="21">
                   <c:v>43242</c:v>
                 </c:pt>
-                <c:pt idx="22" c:formatCode="yyyy/m/d">
+                <c:pt idx="22">
                   <c:v>43243</c:v>
                 </c:pt>
-                <c:pt idx="23" c:formatCode="yyyy/m/d">
+                <c:pt idx="23">
                   <c:v>43244</c:v>
                 </c:pt>
-                <c:pt idx="24" c:formatCode="yyyy/m/d">
+                <c:pt idx="24">
                   <c:v>43245</c:v>
                 </c:pt>
-                <c:pt idx="25" c:formatCode="yyyy/m/d">
+                <c:pt idx="25">
                   <c:v>43246</c:v>
                 </c:pt>
-                <c:pt idx="26" c:formatCode="yyyy/m/d">
+                <c:pt idx="26">
                   <c:v>43247</c:v>
                 </c:pt>
-                <c:pt idx="27" c:formatCode="yyyy/m/d">
+                <c:pt idx="27">
                   <c:v>43248</c:v>
                 </c:pt>
-                <c:pt idx="28" c:formatCode="yyyy/m/d">
+                <c:pt idx="28">
                   <c:v>43249</c:v>
                 </c:pt>
-                <c:pt idx="29" c:formatCode="yyyy/m/d">
+                <c:pt idx="29">
                   <c:v>43250</c:v>
                 </c:pt>
-                <c:pt idx="30" c:formatCode="yyyy/m/d">
+                <c:pt idx="30">
                   <c:v>43251</c:v>
                 </c:pt>
               </c:numCache>
@@ -9107,11 +8666,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="259884144"/>
-        <c:axId val="259884704"/>
+        <c:axId val="295603392"/>
+        <c:axId val="295603952"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="259884144"/>
+        <c:axId val="295603392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9144,16 +8703,17 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="259884704"/>
+        <c:crossAx val="295603952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="259884704"/>
+        <c:axId val="295603952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.5"/>
@@ -9212,9 +8772,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="259884144"/>
+        <c:crossAx val="295603392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
@@ -9252,6 +8813,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -9292,11 +8854,14 @@
       <a:pPr>
         <a:defRPr lang="zh-CN"/>
       </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
-  <c:externalData r:id="rId1">
-    <c:autoUpdate val="0"/>
-  </c:externalData>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -9337,11 +8902,9 @@
               <a:rPr lang="zh-CN"/>
               <a:t>总完成率</a:t>
             </a:r>
-            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9350,6 +8913,26 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -9406,6 +8989,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -9418,7 +9002,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -9550,11 +9133,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="259888064"/>
-        <c:axId val="259888624"/>
+        <c:axId val="295607312"/>
+        <c:axId val="295607872"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="259888064"/>
+        <c:axId val="295607312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9594,9 +9177,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="259888624"/>
+        <c:crossAx val="295607872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9604,7 +9188,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="259888624"/>
+        <c:axId val="295607872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9640,26 +9224,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="75000"/>
-                    <a:lumOff val="25000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="259888064"/>
+        <c:crossAx val="295607312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9713,11 +9278,14 @@
       <a:pPr>
         <a:defRPr lang="zh-CN"/>
       </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
-  <c:externalData r:id="rId1">
-    <c:autoUpdate val="0"/>
-  </c:externalData>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -9785,7 +9353,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9794,6 +9361,25 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -9802,10 +9388,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0806595059076262"/>
-          <c:y val="0.021043771043771"/>
-          <c:w val="0.900991049051199"/>
-          <c:h val="0.738181818181818"/>
+          <c:x val="8.0659505907626203E-2"/>
+          <c:y val="2.1043771043771E-2"/>
+          <c:w val="0.90099104905119898"/>
+          <c:h val="0.73818181818181805"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -9863,106 +9449,103 @@
               </a:effectLst>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>'2018年7月概览'!$A$2:$A$32</c:f>
               <c:numCache>
-                <c:formatCode>yyyy/m/d</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="31"/>
-                <c:pt idx="0" c:formatCode="yyyy/m/d">
+                <c:pt idx="0">
                   <c:v>43282</c:v>
                 </c:pt>
-                <c:pt idx="1" c:formatCode="yyyy/m/d">
+                <c:pt idx="1">
                   <c:v>43283</c:v>
                 </c:pt>
-                <c:pt idx="2" c:formatCode="yyyy/m/d">
+                <c:pt idx="2">
                   <c:v>43284</c:v>
                 </c:pt>
-                <c:pt idx="3" c:formatCode="yyyy/m/d">
+                <c:pt idx="3">
                   <c:v>43285</c:v>
                 </c:pt>
-                <c:pt idx="4" c:formatCode="yyyy/m/d">
+                <c:pt idx="4">
                   <c:v>43286</c:v>
                 </c:pt>
-                <c:pt idx="5" c:formatCode="yyyy/m/d">
+                <c:pt idx="5">
                   <c:v>43287</c:v>
                 </c:pt>
-                <c:pt idx="6" c:formatCode="yyyy/m/d">
+                <c:pt idx="6">
                   <c:v>43288</c:v>
                 </c:pt>
-                <c:pt idx="7" c:formatCode="yyyy/m/d">
+                <c:pt idx="7">
                   <c:v>43289</c:v>
                 </c:pt>
-                <c:pt idx="8" c:formatCode="yyyy/m/d">
+                <c:pt idx="8">
                   <c:v>43290</c:v>
                 </c:pt>
-                <c:pt idx="9" c:formatCode="yyyy/m/d">
+                <c:pt idx="9">
                   <c:v>43291</c:v>
                 </c:pt>
-                <c:pt idx="10" c:formatCode="yyyy/m/d">
+                <c:pt idx="10">
                   <c:v>43292</c:v>
                 </c:pt>
-                <c:pt idx="11" c:formatCode="yyyy/m/d">
+                <c:pt idx="11">
                   <c:v>43293</c:v>
                 </c:pt>
-                <c:pt idx="12" c:formatCode="yyyy/m/d">
+                <c:pt idx="12">
                   <c:v>43294</c:v>
                 </c:pt>
-                <c:pt idx="13" c:formatCode="yyyy/m/d">
+                <c:pt idx="13">
                   <c:v>43295</c:v>
                 </c:pt>
-                <c:pt idx="14" c:formatCode="yyyy/m/d">
+                <c:pt idx="14">
                   <c:v>43296</c:v>
                 </c:pt>
-                <c:pt idx="15" c:formatCode="yyyy/m/d">
+                <c:pt idx="15">
                   <c:v>43297</c:v>
                 </c:pt>
-                <c:pt idx="16" c:formatCode="yyyy/m/d">
+                <c:pt idx="16">
                   <c:v>43298</c:v>
                 </c:pt>
-                <c:pt idx="17" c:formatCode="yyyy/m/d">
+                <c:pt idx="17">
                   <c:v>43299</c:v>
                 </c:pt>
-                <c:pt idx="18" c:formatCode="yyyy/m/d">
+                <c:pt idx="18">
                   <c:v>43300</c:v>
                 </c:pt>
-                <c:pt idx="19" c:formatCode="yyyy/m/d">
+                <c:pt idx="19">
                   <c:v>43301</c:v>
                 </c:pt>
-                <c:pt idx="20" c:formatCode="yyyy/m/d">
+                <c:pt idx="20">
                   <c:v>43302</c:v>
                 </c:pt>
-                <c:pt idx="21" c:formatCode="yyyy/m/d">
+                <c:pt idx="21">
                   <c:v>43303</c:v>
                 </c:pt>
-                <c:pt idx="22" c:formatCode="yyyy/m/d">
+                <c:pt idx="22">
                   <c:v>43304</c:v>
                 </c:pt>
-                <c:pt idx="23" c:formatCode="yyyy/m/d">
+                <c:pt idx="23">
                   <c:v>43305</c:v>
                 </c:pt>
-                <c:pt idx="24" c:formatCode="yyyy/m/d">
+                <c:pt idx="24">
                   <c:v>43306</c:v>
                 </c:pt>
-                <c:pt idx="25" c:formatCode="yyyy/m/d">
+                <c:pt idx="25">
                   <c:v>43307</c:v>
                 </c:pt>
-                <c:pt idx="26" c:formatCode="yyyy/m/d">
+                <c:pt idx="26">
                   <c:v>43308</c:v>
                 </c:pt>
-                <c:pt idx="27" c:formatCode="yyyy/m/d">
+                <c:pt idx="27">
                   <c:v>43309</c:v>
                 </c:pt>
-                <c:pt idx="28" c:formatCode="yyyy/m/d">
+                <c:pt idx="28">
                   <c:v>43310</c:v>
                 </c:pt>
-                <c:pt idx="29" c:formatCode="yyyy/m/d">
+                <c:pt idx="29">
                   <c:v>43311</c:v>
                 </c:pt>
-                <c:pt idx="30" c:formatCode="yyyy/m/d">
+                <c:pt idx="30">
                   <c:v>43312</c:v>
                 </c:pt>
               </c:numCache>
@@ -10124,106 +9707,103 @@
               </a:effectLst>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>'2018年7月概览'!$A$2:$A$32</c:f>
               <c:numCache>
-                <c:formatCode>yyyy/m/d</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="31"/>
-                <c:pt idx="0" c:formatCode="yyyy/m/d">
+                <c:pt idx="0">
                   <c:v>43282</c:v>
                 </c:pt>
-                <c:pt idx="1" c:formatCode="yyyy/m/d">
+                <c:pt idx="1">
                   <c:v>43283</c:v>
                 </c:pt>
-                <c:pt idx="2" c:formatCode="yyyy/m/d">
+                <c:pt idx="2">
                   <c:v>43284</c:v>
                 </c:pt>
-                <c:pt idx="3" c:formatCode="yyyy/m/d">
+                <c:pt idx="3">
                   <c:v>43285</c:v>
                 </c:pt>
-                <c:pt idx="4" c:formatCode="yyyy/m/d">
+                <c:pt idx="4">
                   <c:v>43286</c:v>
                 </c:pt>
-                <c:pt idx="5" c:formatCode="yyyy/m/d">
+                <c:pt idx="5">
                   <c:v>43287</c:v>
                 </c:pt>
-                <c:pt idx="6" c:formatCode="yyyy/m/d">
+                <c:pt idx="6">
                   <c:v>43288</c:v>
                 </c:pt>
-                <c:pt idx="7" c:formatCode="yyyy/m/d">
+                <c:pt idx="7">
                   <c:v>43289</c:v>
                 </c:pt>
-                <c:pt idx="8" c:formatCode="yyyy/m/d">
+                <c:pt idx="8">
                   <c:v>43290</c:v>
                 </c:pt>
-                <c:pt idx="9" c:formatCode="yyyy/m/d">
+                <c:pt idx="9">
                   <c:v>43291</c:v>
                 </c:pt>
-                <c:pt idx="10" c:formatCode="yyyy/m/d">
+                <c:pt idx="10">
                   <c:v>43292</c:v>
                 </c:pt>
-                <c:pt idx="11" c:formatCode="yyyy/m/d">
+                <c:pt idx="11">
                   <c:v>43293</c:v>
                 </c:pt>
-                <c:pt idx="12" c:formatCode="yyyy/m/d">
+                <c:pt idx="12">
                   <c:v>43294</c:v>
                 </c:pt>
-                <c:pt idx="13" c:formatCode="yyyy/m/d">
+                <c:pt idx="13">
                   <c:v>43295</c:v>
                 </c:pt>
-                <c:pt idx="14" c:formatCode="yyyy/m/d">
+                <c:pt idx="14">
                   <c:v>43296</c:v>
                 </c:pt>
-                <c:pt idx="15" c:formatCode="yyyy/m/d">
+                <c:pt idx="15">
                   <c:v>43297</c:v>
                 </c:pt>
-                <c:pt idx="16" c:formatCode="yyyy/m/d">
+                <c:pt idx="16">
                   <c:v>43298</c:v>
                 </c:pt>
-                <c:pt idx="17" c:formatCode="yyyy/m/d">
+                <c:pt idx="17">
                   <c:v>43299</c:v>
                 </c:pt>
-                <c:pt idx="18" c:formatCode="yyyy/m/d">
+                <c:pt idx="18">
                   <c:v>43300</c:v>
                 </c:pt>
-                <c:pt idx="19" c:formatCode="yyyy/m/d">
+                <c:pt idx="19">
                   <c:v>43301</c:v>
                 </c:pt>
-                <c:pt idx="20" c:formatCode="yyyy/m/d">
+                <c:pt idx="20">
                   <c:v>43302</c:v>
                 </c:pt>
-                <c:pt idx="21" c:formatCode="yyyy/m/d">
+                <c:pt idx="21">
                   <c:v>43303</c:v>
                 </c:pt>
-                <c:pt idx="22" c:formatCode="yyyy/m/d">
+                <c:pt idx="22">
                   <c:v>43304</c:v>
                 </c:pt>
-                <c:pt idx="23" c:formatCode="yyyy/m/d">
+                <c:pt idx="23">
                   <c:v>43305</c:v>
                 </c:pt>
-                <c:pt idx="24" c:formatCode="yyyy/m/d">
+                <c:pt idx="24">
                   <c:v>43306</c:v>
                 </c:pt>
-                <c:pt idx="25" c:formatCode="yyyy/m/d">
+                <c:pt idx="25">
                   <c:v>43307</c:v>
                 </c:pt>
-                <c:pt idx="26" c:formatCode="yyyy/m/d">
+                <c:pt idx="26">
                   <c:v>43308</c:v>
                 </c:pt>
-                <c:pt idx="27" c:formatCode="yyyy/m/d">
+                <c:pt idx="27">
                   <c:v>43309</c:v>
                 </c:pt>
-                <c:pt idx="28" c:formatCode="yyyy/m/d">
+                <c:pt idx="28">
                   <c:v>43310</c:v>
                 </c:pt>
-                <c:pt idx="29" c:formatCode="yyyy/m/d">
+                <c:pt idx="29">
                   <c:v>43311</c:v>
                 </c:pt>
-                <c:pt idx="30" c:formatCode="yyyy/m/d">
+                <c:pt idx="30">
                   <c:v>43312</c:v>
                 </c:pt>
               </c:numCache>
@@ -10343,11 +9923,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="259884144"/>
-        <c:axId val="259884704"/>
+        <c:axId val="296269744"/>
+        <c:axId val="296270304"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="259884144"/>
+        <c:axId val="296269744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10380,16 +9960,17 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="259884704"/>
+        <c:crossAx val="296270304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="259884704"/>
+        <c:axId val="296270304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.5"/>
@@ -10448,9 +10029,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="259884144"/>
+        <c:crossAx val="296269744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
@@ -10488,6 +10070,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -10528,11 +10111,14 @@
       <a:pPr>
         <a:defRPr lang="zh-CN"/>
       </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
-  <c:externalData r:id="rId1">
-    <c:autoUpdate val="0"/>
-  </c:externalData>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -20113,7 +19699,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -20127,14 +19713,14 @@
       <xdr:row>67</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="4" name="图表 3"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="800100" y="6035040"/>
-        <a:ext cx="15750540" cy="7543800"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -20157,14 +19743,14 @@
       <xdr:row>91</xdr:row>
       <xdr:rowOff>87630</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="5" name="图表 4"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="800100" y="15179040"/>
-        <a:ext cx="15819755" cy="2830830"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -20178,7 +19764,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -20192,14 +19778,14 @@
       <xdr:row>75</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="6" name="图表 5"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="6217920"/>
-        <a:ext cx="14188440" cy="7543800"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -20222,14 +19808,14 @@
       <xdr:row>97</xdr:row>
       <xdr:rowOff>87630</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="7" name="图表 6"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="14996160"/>
-        <a:ext cx="14265275" cy="2830830"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -20243,7 +19829,7 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -20257,14 +19843,14 @@
       <xdr:row>75</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="图表 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="6217920"/>
-        <a:ext cx="14188440" cy="7543800"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -20287,14 +19873,14 @@
       <xdr:row>97</xdr:row>
       <xdr:rowOff>87630</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="图表 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="14996160"/>
-        <a:ext cx="14265275" cy="2830830"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -20308,7 +19894,7 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -20322,14 +19908,14 @@
       <xdr:row>75</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="图表 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="6217920"/>
-        <a:ext cx="14188440" cy="7543800"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -20352,14 +19938,14 @@
       <xdr:row>97</xdr:row>
       <xdr:rowOff>87630</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="图表 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="14996160"/>
-        <a:ext cx="14265275" cy="2830830"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -20373,7 +19959,7 @@
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -20387,14 +19973,14 @@
       <xdr:row>75</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="图表 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="6217920"/>
-        <a:ext cx="14188440" cy="7543800"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -20417,14 +20003,14 @@
       <xdr:row>97</xdr:row>
       <xdr:rowOff>87630</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="图表 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="14996160"/>
-        <a:ext cx="14265275" cy="2830830"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -20438,7 +20024,7 @@
 </file>
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -20452,14 +20038,14 @@
       <xdr:row>75</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="图表 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="6217920"/>
-        <a:ext cx="14188440" cy="7543800"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -20482,14 +20068,14 @@
       <xdr:row>97</xdr:row>
       <xdr:rowOff>87630</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="图表 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="14996160"/>
-        <a:ext cx="14265275" cy="2830830"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -20503,7 +20089,7 @@
 </file>
 
 <file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -20517,14 +20103,14 @@
       <xdr:row>75</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="图表 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="6217920"/>
-        <a:ext cx="14188440" cy="7543800"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -20547,14 +20133,14 @@
       <xdr:row>97</xdr:row>
       <xdr:rowOff>87630</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="图表 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="14996160"/>
-        <a:ext cx="14265275" cy="2830830"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -20568,7 +20154,7 @@
 </file>
 
 <file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -20582,14 +20168,14 @@
       <xdr:row>75</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="图表 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="6217920"/>
-        <a:ext cx="14188440" cy="7543800"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -20612,14 +20198,14 @@
       <xdr:row>97</xdr:row>
       <xdr:rowOff>87630</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="图表 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="14996160"/>
-        <a:ext cx="14265275" cy="2830830"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -20675,7 +20261,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -20710,7 +20296,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -20913,30 +20499,30 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G374"/>
   <sheetViews>
     <sheetView topLeftCell="A67" workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.6666666666667" customWidth="1"/>
-    <col min="2" max="2" width="17.7777777777778" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.4444444444444" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.6666666666667" customWidth="1"/>
-    <col min="5" max="5" width="62.2222222222222" customWidth="1"/>
-    <col min="6" max="6" width="66.6666666666667" customWidth="1"/>
-    <col min="7" max="7" width="30.1111111111111" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" customWidth="1"/>
+    <col min="2" max="2" width="17.77734375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" customWidth="1"/>
+    <col min="5" max="5" width="62.21875" customWidth="1"/>
+    <col min="6" max="6" width="66.6640625" customWidth="1"/>
+    <col min="7" max="7" width="30.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -20953,7 +20539,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="28.8" spans="1:6">
+    <row r="2" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>43080</v>
       </c>
@@ -20974,12 +20560,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" ht="57.6" spans="1:6">
+    <row r="3" spans="1:7" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>43081</v>
       </c>
       <c r="B3" s="4">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C3" s="2">
         <v>0.7</v>
@@ -20995,7 +20581,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" ht="43.2" spans="1:6">
+    <row r="4" spans="1:7" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>43082</v>
       </c>
@@ -21007,7 +20593,7 @@
       </c>
       <c r="D4" s="2">
         <f t="shared" si="0"/>
-        <v>0.85</v>
+        <v>0.85000000000000009</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>9</v>
@@ -21016,7 +20602,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" ht="28.8" spans="1:6">
+    <row r="5" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>43083</v>
       </c>
@@ -21035,7 +20621,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>43084</v>
       </c>
@@ -21054,7 +20640,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>43085</v>
       </c>
@@ -21069,7 +20655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>43086</v>
       </c>
@@ -21084,7 +20670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>43087</v>
       </c>
@@ -21102,7 +20688,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>43088</v>
       </c>
@@ -21123,7 +20709,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>43089</v>
       </c>
@@ -21138,7 +20724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>43090</v>
       </c>
@@ -21153,7 +20739,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>43091</v>
       </c>
@@ -21168,7 +20754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>43092</v>
       </c>
@@ -21183,7 +20769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>43093</v>
       </c>
@@ -21198,7 +20784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>43094</v>
       </c>
@@ -21216,7 +20802,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>43095</v>
       </c>
@@ -21234,7 +20820,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>43096</v>
       </c>
@@ -21255,7 +20841,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>43097</v>
       </c>
@@ -21276,7 +20862,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>43098</v>
       </c>
@@ -21297,7 +20883,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>43099</v>
       </c>
@@ -21315,7 +20901,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>43100</v>
       </c>
@@ -21333,1105 +20919,1105 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-    </row>
-    <row r="25" spans="1:6">
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-    </row>
-    <row r="26" spans="1:1">
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
     </row>
-    <row r="44" spans="1:1">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
     </row>
-    <row r="45" spans="1:1">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
     </row>
-    <row r="46" spans="1:1">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
     </row>
-    <row r="47" spans="1:1">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="3"/>
     </row>
-    <row r="48" spans="1:1">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="3"/>
     </row>
-    <row r="50" spans="1:1">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="3"/>
     </row>
-    <row r="52" spans="1:1">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
     </row>
-    <row r="53" spans="1:1">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="3"/>
     </row>
-    <row r="54" spans="1:1">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="3"/>
     </row>
-    <row r="55" spans="1:1">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="3"/>
     </row>
-    <row r="56" spans="1:1">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="3"/>
     </row>
-    <row r="57" spans="1:1">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="3"/>
     </row>
-    <row r="58" spans="1:1">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="3"/>
     </row>
-    <row r="59" spans="1:1">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="3"/>
     </row>
-    <row r="60" spans="1:1">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="3"/>
     </row>
-    <row r="61" spans="1:1">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="3"/>
     </row>
-    <row r="62" spans="1:1">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="3"/>
     </row>
-    <row r="63" spans="1:1">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="3"/>
     </row>
-    <row r="64" spans="1:1">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="3"/>
     </row>
-    <row r="65" spans="1:1">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="3"/>
     </row>
-    <row r="66" spans="1:1">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="3"/>
     </row>
-    <row r="67" spans="1:1">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="3"/>
     </row>
-    <row r="68" spans="1:1">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="3"/>
     </row>
-    <row r="69" spans="1:1">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="3"/>
     </row>
-    <row r="70" spans="1:1">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="3"/>
     </row>
-    <row r="71" spans="1:1">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
     </row>
-    <row r="72" spans="1:1">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="3"/>
     </row>
-    <row r="73" spans="1:1">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" s="3"/>
     </row>
-    <row r="74" spans="1:1">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" s="3"/>
     </row>
-    <row r="75" spans="1:1">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" s="3"/>
     </row>
-    <row r="76" spans="1:1">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" s="3"/>
     </row>
-    <row r="77" spans="1:1">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" s="3"/>
     </row>
-    <row r="78" spans="1:1">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" s="3"/>
     </row>
-    <row r="79" spans="1:1">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" s="3"/>
     </row>
-    <row r="80" spans="1:1">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" s="3"/>
     </row>
-    <row r="81" spans="1:1">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" s="3"/>
     </row>
-    <row r="82" spans="1:1">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="3"/>
     </row>
-    <row r="83" spans="1:1">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" s="3"/>
     </row>
-    <row r="84" spans="1:1">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" s="3"/>
     </row>
-    <row r="85" spans="1:1">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" s="3"/>
     </row>
-    <row r="86" spans="1:1">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="3"/>
     </row>
-    <row r="87" spans="1:1">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" s="3"/>
     </row>
-    <row r="88" spans="1:1">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" s="3"/>
     </row>
-    <row r="89" spans="1:1">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" s="3"/>
     </row>
-    <row r="90" spans="1:1">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" s="3"/>
     </row>
-    <row r="91" spans="1:1">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" s="3"/>
     </row>
-    <row r="92" spans="1:1">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" s="3"/>
     </row>
-    <row r="93" spans="1:1">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" s="3"/>
     </row>
-    <row r="94" spans="1:1">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" s="3"/>
     </row>
-    <row r="95" spans="1:1">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" s="3"/>
     </row>
-    <row r="96" spans="1:1">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" s="3"/>
     </row>
-    <row r="97" spans="1:1">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" s="3"/>
     </row>
-    <row r="98" spans="1:1">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" s="3"/>
     </row>
-    <row r="99" spans="1:1">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" s="3"/>
     </row>
-    <row r="100" spans="1:1">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" s="3"/>
     </row>
-    <row r="101" spans="1:1">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" s="3"/>
     </row>
-    <row r="102" spans="1:1">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" s="3"/>
     </row>
-    <row r="103" spans="1:1">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" s="3"/>
     </row>
-    <row r="104" spans="1:1">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" s="3"/>
     </row>
-    <row r="105" spans="1:1">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" s="3"/>
     </row>
-    <row r="106" spans="1:1">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" s="3"/>
     </row>
-    <row r="107" spans="1:1">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" s="3"/>
     </row>
-    <row r="108" spans="1:1">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" s="3"/>
     </row>
-    <row r="109" spans="1:1">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" s="3"/>
     </row>
-    <row r="110" spans="1:1">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" s="3"/>
     </row>
-    <row r="111" spans="1:1">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" s="3"/>
     </row>
-    <row r="112" spans="1:1">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" s="3"/>
     </row>
-    <row r="113" spans="1:1">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" s="3"/>
     </row>
-    <row r="114" spans="1:1">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" s="3"/>
     </row>
-    <row r="115" spans="1:1">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" s="3"/>
     </row>
-    <row r="116" spans="1:1">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" s="3"/>
     </row>
-    <row r="117" spans="1:1">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" s="3"/>
     </row>
-    <row r="118" spans="1:1">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" s="3"/>
     </row>
-    <row r="119" spans="1:1">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" s="3"/>
     </row>
-    <row r="120" spans="1:1">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" s="3"/>
     </row>
-    <row r="121" spans="1:1">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" s="3"/>
     </row>
-    <row r="122" spans="1:1">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" s="3"/>
     </row>
-    <row r="123" spans="1:1">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" s="3"/>
     </row>
-    <row r="124" spans="1:1">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" s="3"/>
     </row>
-    <row r="125" spans="1:1">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" s="3"/>
     </row>
-    <row r="126" spans="1:1">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" s="3"/>
     </row>
-    <row r="127" spans="1:1">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" s="3"/>
     </row>
-    <row r="128" spans="1:1">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" s="3"/>
     </row>
-    <row r="129" spans="1:1">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" s="3"/>
     </row>
-    <row r="130" spans="1:1">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" s="3"/>
     </row>
-    <row r="131" spans="1:1">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" s="3"/>
     </row>
-    <row r="132" spans="1:1">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" s="3"/>
     </row>
-    <row r="133" spans="1:1">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" s="3"/>
     </row>
-    <row r="134" spans="1:1">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" s="3"/>
     </row>
-    <row r="135" spans="1:1">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" s="3"/>
     </row>
-    <row r="136" spans="1:1">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" s="3"/>
     </row>
-    <row r="137" spans="1:1">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" s="3"/>
     </row>
-    <row r="138" spans="1:1">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" s="3"/>
     </row>
-    <row r="139" spans="1:1">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" s="3"/>
     </row>
-    <row r="140" spans="1:1">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" s="3"/>
     </row>
-    <row r="141" spans="1:1">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" s="3"/>
     </row>
-    <row r="142" spans="1:1">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" s="3"/>
     </row>
-    <row r="143" spans="1:1">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" s="3"/>
     </row>
-    <row r="144" spans="1:1">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144" s="3"/>
     </row>
-    <row r="145" spans="1:1">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" s="3"/>
     </row>
-    <row r="146" spans="1:1">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" s="3"/>
     </row>
-    <row r="147" spans="1:1">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" s="3"/>
     </row>
-    <row r="148" spans="1:1">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" s="3"/>
     </row>
-    <row r="149" spans="1:1">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" s="3"/>
     </row>
-    <row r="150" spans="1:1">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" s="3"/>
     </row>
-    <row r="151" spans="1:1">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" s="3"/>
     </row>
-    <row r="152" spans="1:1">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" s="3"/>
     </row>
-    <row r="153" spans="1:1">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153" s="3"/>
     </row>
-    <row r="154" spans="1:1">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" s="3"/>
     </row>
-    <row r="155" spans="1:1">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" s="3"/>
     </row>
-    <row r="156" spans="1:1">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156" s="3"/>
     </row>
-    <row r="157" spans="1:1">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" s="3"/>
     </row>
-    <row r="158" spans="1:1">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158" s="3"/>
     </row>
-    <row r="159" spans="1:1">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159" s="3"/>
     </row>
-    <row r="160" spans="1:1">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160" s="3"/>
     </row>
-    <row r="161" spans="1:1">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" s="3"/>
     </row>
-    <row r="162" spans="1:1">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162" s="3"/>
     </row>
-    <row r="163" spans="1:1">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163" s="3"/>
     </row>
-    <row r="164" spans="1:1">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164" s="3"/>
     </row>
-    <row r="165" spans="1:1">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165" s="3"/>
     </row>
-    <row r="166" spans="1:1">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166" s="3"/>
     </row>
-    <row r="167" spans="1:1">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167" s="3"/>
     </row>
-    <row r="168" spans="1:1">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168" s="3"/>
     </row>
-    <row r="169" spans="1:1">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169" s="3"/>
     </row>
-    <row r="170" spans="1:1">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170" s="3"/>
     </row>
-    <row r="171" spans="1:1">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171" s="3"/>
     </row>
-    <row r="172" spans="1:1">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172" s="3"/>
     </row>
-    <row r="173" spans="1:1">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173" s="3"/>
     </row>
-    <row r="174" spans="1:1">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174" s="3"/>
     </row>
-    <row r="175" spans="1:1">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175" s="3"/>
     </row>
-    <row r="176" spans="1:1">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176" s="3"/>
     </row>
-    <row r="177" spans="1:1">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177" s="3"/>
     </row>
-    <row r="178" spans="1:1">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178" s="3"/>
     </row>
-    <row r="179" spans="1:1">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179" s="3"/>
     </row>
-    <row r="180" spans="1:1">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180" s="3"/>
     </row>
-    <row r="181" spans="1:1">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181" s="3"/>
     </row>
-    <row r="182" spans="1:1">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182" s="3"/>
     </row>
-    <row r="183" spans="1:1">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183" s="3"/>
     </row>
-    <row r="184" spans="1:1">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184" s="3"/>
     </row>
-    <row r="185" spans="1:1">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185" s="3"/>
     </row>
-    <row r="186" spans="1:1">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186" s="3"/>
     </row>
-    <row r="187" spans="1:1">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187" s="3"/>
     </row>
-    <row r="188" spans="1:1">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188" s="3"/>
     </row>
-    <row r="189" spans="1:1">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189" s="3"/>
     </row>
-    <row r="190" spans="1:1">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190" s="3"/>
     </row>
-    <row r="191" spans="1:1">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191" s="3"/>
     </row>
-    <row r="192" spans="1:1">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192" s="3"/>
     </row>
-    <row r="193" spans="1:1">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193" s="3"/>
     </row>
-    <row r="194" spans="1:1">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194" s="3"/>
     </row>
-    <row r="195" spans="1:1">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195" s="3"/>
     </row>
-    <row r="196" spans="1:1">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196" s="3"/>
     </row>
-    <row r="197" spans="1:1">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197" s="3"/>
     </row>
-    <row r="198" spans="1:1">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198" s="3"/>
     </row>
-    <row r="199" spans="1:1">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199" s="3"/>
     </row>
-    <row r="200" spans="1:1">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200" s="3"/>
     </row>
-    <row r="201" spans="1:1">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201" s="3"/>
     </row>
-    <row r="202" spans="1:1">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202" s="3"/>
     </row>
-    <row r="203" spans="1:1">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203" s="3"/>
     </row>
-    <row r="204" spans="1:1">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A204" s="3"/>
     </row>
-    <row r="205" spans="1:1">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205" s="3"/>
     </row>
-    <row r="206" spans="1:1">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206" s="3"/>
     </row>
-    <row r="207" spans="1:1">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A207" s="3"/>
     </row>
-    <row r="208" spans="1:1">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208" s="3"/>
     </row>
-    <row r="209" spans="1:1">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209" s="3"/>
     </row>
-    <row r="210" spans="1:1">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A210" s="3"/>
     </row>
-    <row r="211" spans="1:1">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211" s="3"/>
     </row>
-    <row r="212" spans="1:1">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212" s="3"/>
     </row>
-    <row r="213" spans="1:1">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A213" s="3"/>
     </row>
-    <row r="214" spans="1:1">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214" s="3"/>
     </row>
-    <row r="215" spans="1:1">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215" s="3"/>
     </row>
-    <row r="216" spans="1:1">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A216" s="3"/>
     </row>
-    <row r="217" spans="1:1">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A217" s="3"/>
     </row>
-    <row r="218" spans="1:1">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218" s="3"/>
     </row>
-    <row r="219" spans="1:1">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A219" s="3"/>
     </row>
-    <row r="220" spans="1:1">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220" s="3"/>
     </row>
-    <row r="221" spans="1:1">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A221" s="3"/>
     </row>
-    <row r="222" spans="1:1">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A222" s="3"/>
     </row>
-    <row r="223" spans="1:1">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A223" s="3"/>
     </row>
-    <row r="224" spans="1:1">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A224" s="3"/>
     </row>
-    <row r="225" spans="1:1">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225" s="3"/>
     </row>
-    <row r="226" spans="1:1">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226" s="3"/>
     </row>
-    <row r="227" spans="1:1">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227" s="3"/>
     </row>
-    <row r="228" spans="1:1">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228" s="3"/>
     </row>
-    <row r="229" spans="1:1">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229" s="3"/>
     </row>
-    <row r="230" spans="1:1">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230" s="3"/>
     </row>
-    <row r="231" spans="1:1">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A231" s="3"/>
     </row>
-    <row r="232" spans="1:1">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A232" s="3"/>
     </row>
-    <row r="233" spans="1:1">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A233" s="3"/>
     </row>
-    <row r="234" spans="1:1">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A234" s="3"/>
     </row>
-    <row r="235" spans="1:1">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A235" s="3"/>
     </row>
-    <row r="236" spans="1:1">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A236" s="3"/>
     </row>
-    <row r="237" spans="1:1">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A237" s="3"/>
     </row>
-    <row r="238" spans="1:1">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A238" s="3"/>
     </row>
-    <row r="239" spans="1:1">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A239" s="3"/>
     </row>
-    <row r="240" spans="1:1">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A240" s="3"/>
     </row>
-    <row r="241" spans="1:1">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241" s="3"/>
     </row>
-    <row r="242" spans="1:1">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A242" s="3"/>
     </row>
-    <row r="243" spans="1:1">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A243" s="3"/>
     </row>
-    <row r="244" spans="1:1">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A244" s="3"/>
     </row>
-    <row r="245" spans="1:1">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A245" s="3"/>
     </row>
-    <row r="246" spans="1:1">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A246" s="3"/>
     </row>
-    <row r="247" spans="1:1">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A247" s="3"/>
     </row>
-    <row r="248" spans="1:1">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A248" s="3"/>
     </row>
-    <row r="249" spans="1:1">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A249" s="3"/>
     </row>
-    <row r="250" spans="1:1">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A250" s="3"/>
     </row>
-    <row r="251" spans="1:1">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A251" s="3"/>
     </row>
-    <row r="252" spans="1:1">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A252" s="3"/>
     </row>
-    <row r="253" spans="1:1">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A253" s="3"/>
     </row>
-    <row r="254" spans="1:1">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A254" s="3"/>
     </row>
-    <row r="255" spans="1:1">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A255" s="3"/>
     </row>
-    <row r="256" spans="1:1">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A256" s="3"/>
     </row>
-    <row r="257" spans="1:1">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A257" s="3"/>
     </row>
-    <row r="258" spans="1:1">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A258" s="3"/>
     </row>
-    <row r="259" spans="1:1">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A259" s="3"/>
     </row>
-    <row r="260" spans="1:1">
+    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A260" s="3"/>
     </row>
-    <row r="261" spans="1:1">
+    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A261" s="3"/>
     </row>
-    <row r="262" spans="1:1">
+    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A262" s="3"/>
     </row>
-    <row r="263" spans="1:1">
+    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A263" s="3"/>
     </row>
-    <row r="264" spans="1:1">
+    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A264" s="3"/>
     </row>
-    <row r="265" spans="1:1">
+    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A265" s="3"/>
     </row>
-    <row r="266" spans="1:1">
+    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A266" s="3"/>
     </row>
-    <row r="267" spans="1:1">
+    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A267" s="3"/>
     </row>
-    <row r="268" spans="1:1">
+    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A268" s="3"/>
     </row>
-    <row r="269" spans="1:1">
+    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A269" s="3"/>
     </row>
-    <row r="270" spans="1:1">
+    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A270" s="3"/>
     </row>
-    <row r="271" spans="1:1">
+    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A271" s="3"/>
     </row>
-    <row r="272" spans="1:1">
+    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A272" s="3"/>
     </row>
-    <row r="273" spans="1:1">
+    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A273" s="3"/>
     </row>
-    <row r="274" spans="1:1">
+    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A274" s="3"/>
     </row>
-    <row r="275" spans="1:1">
+    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A275" s="3"/>
     </row>
-    <row r="276" spans="1:1">
+    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A276" s="3"/>
     </row>
-    <row r="277" spans="1:1">
+    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A277" s="3"/>
     </row>
-    <row r="278" spans="1:1">
+    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A278" s="3"/>
     </row>
-    <row r="279" spans="1:1">
+    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A279" s="3"/>
     </row>
-    <row r="280" spans="1:1">
+    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A280" s="3"/>
     </row>
-    <row r="281" spans="1:1">
+    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A281" s="3"/>
     </row>
-    <row r="282" spans="1:1">
+    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A282" s="3"/>
     </row>
-    <row r="283" spans="1:1">
+    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A283" s="3"/>
     </row>
-    <row r="284" spans="1:1">
+    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A284" s="3"/>
     </row>
-    <row r="285" spans="1:1">
+    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A285" s="3"/>
     </row>
-    <row r="286" spans="1:1">
+    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A286" s="3"/>
     </row>
-    <row r="287" spans="1:1">
+    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A287" s="3"/>
     </row>
-    <row r="288" spans="1:1">
+    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A288" s="3"/>
     </row>
-    <row r="289" spans="1:1">
+    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A289" s="3"/>
     </row>
-    <row r="290" spans="1:1">
+    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A290" s="3"/>
     </row>
-    <row r="291" spans="1:1">
+    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A291" s="3"/>
     </row>
-    <row r="292" spans="1:1">
+    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A292" s="3"/>
     </row>
-    <row r="293" spans="1:1">
+    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A293" s="3"/>
     </row>
-    <row r="294" spans="1:1">
+    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A294" s="3"/>
     </row>
-    <row r="295" spans="1:1">
+    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A295" s="3"/>
     </row>
-    <row r="296" spans="1:1">
+    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A296" s="3"/>
     </row>
-    <row r="297" spans="1:1">
+    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A297" s="3"/>
     </row>
-    <row r="298" spans="1:1">
+    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A298" s="3"/>
     </row>
-    <row r="299" spans="1:1">
+    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A299" s="3"/>
     </row>
-    <row r="300" spans="1:1">
+    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A300" s="3"/>
     </row>
-    <row r="301" spans="1:1">
+    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A301" s="3"/>
     </row>
-    <row r="302" spans="1:1">
+    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A302" s="3"/>
     </row>
-    <row r="303" spans="1:1">
+    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A303" s="3"/>
     </row>
-    <row r="304" spans="1:1">
+    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A304" s="3"/>
     </row>
-    <row r="305" spans="1:1">
+    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A305" s="3"/>
     </row>
-    <row r="306" spans="1:1">
+    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A306" s="3"/>
     </row>
-    <row r="307" spans="1:1">
+    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A307" s="3"/>
     </row>
-    <row r="308" spans="1:1">
+    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A308" s="3"/>
     </row>
-    <row r="309" spans="1:1">
+    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A309" s="3"/>
     </row>
-    <row r="310" spans="1:1">
+    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A310" s="3"/>
     </row>
-    <row r="311" spans="1:1">
+    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A311" s="3"/>
     </row>
-    <row r="312" spans="1:1">
+    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A312" s="3"/>
     </row>
-    <row r="313" spans="1:1">
+    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A313" s="3"/>
     </row>
-    <row r="314" spans="1:1">
+    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A314" s="3"/>
     </row>
-    <row r="315" spans="1:1">
+    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A315" s="3"/>
     </row>
-    <row r="316" spans="1:1">
+    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A316" s="3"/>
     </row>
-    <row r="317" spans="1:1">
+    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A317" s="3"/>
     </row>
-    <row r="318" spans="1:1">
+    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A318" s="3"/>
     </row>
-    <row r="319" spans="1:1">
+    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A319" s="3"/>
     </row>
-    <row r="320" spans="1:1">
+    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A320" s="3"/>
     </row>
-    <row r="321" spans="1:1">
+    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A321" s="3"/>
     </row>
-    <row r="322" spans="1:1">
+    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A322" s="3"/>
     </row>
-    <row r="323" spans="1:1">
+    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A323" s="3"/>
     </row>
-    <row r="324" spans="1:1">
+    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A324" s="3"/>
     </row>
-    <row r="325" spans="1:1">
+    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A325" s="3"/>
     </row>
-    <row r="326" spans="1:1">
+    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A326" s="3"/>
     </row>
-    <row r="327" spans="1:1">
+    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A327" s="3"/>
     </row>
-    <row r="328" spans="1:1">
+    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A328" s="3"/>
     </row>
-    <row r="329" spans="1:1">
+    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A329" s="3"/>
     </row>
-    <row r="330" spans="1:1">
+    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A330" s="3"/>
     </row>
-    <row r="331" spans="1:1">
+    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A331" s="3"/>
     </row>
-    <row r="332" spans="1:1">
+    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A332" s="3"/>
     </row>
-    <row r="333" spans="1:1">
+    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A333" s="3"/>
     </row>
-    <row r="334" spans="1:1">
+    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A334" s="3"/>
     </row>
-    <row r="335" spans="1:1">
+    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A335" s="3"/>
     </row>
-    <row r="336" spans="1:1">
+    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A336" s="3"/>
     </row>
-    <row r="337" spans="1:1">
+    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A337" s="3"/>
     </row>
-    <row r="338" spans="1:1">
+    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A338" s="3"/>
     </row>
-    <row r="339" spans="1:1">
+    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A339" s="3"/>
     </row>
-    <row r="340" spans="1:1">
+    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A340" s="3"/>
     </row>
-    <row r="341" spans="1:1">
+    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A341" s="3"/>
     </row>
-    <row r="342" spans="1:1">
+    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A342" s="3"/>
     </row>
-    <row r="343" spans="1:1">
+    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A343" s="3"/>
     </row>
-    <row r="344" spans="1:1">
+    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A344" s="3"/>
     </row>
-    <row r="345" spans="1:1">
+    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A345" s="3"/>
     </row>
-    <row r="346" spans="1:1">
+    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A346" s="3"/>
     </row>
-    <row r="347" spans="1:1">
+    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A347" s="3"/>
     </row>
-    <row r="348" spans="1:1">
+    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A348" s="3"/>
     </row>
-    <row r="349" spans="1:1">
+    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A349" s="3"/>
     </row>
-    <row r="350" spans="1:1">
+    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A350" s="3"/>
     </row>
-    <row r="351" spans="1:1">
+    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A351" s="3"/>
     </row>
-    <row r="352" spans="1:1">
+    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A352" s="3"/>
     </row>
-    <row r="353" spans="1:1">
+    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A353" s="3"/>
     </row>
-    <row r="354" spans="1:1">
+    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A354" s="3"/>
     </row>
-    <row r="355" spans="1:1">
+    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A355" s="3"/>
     </row>
-    <row r="356" spans="1:1">
+    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A356" s="3"/>
     </row>
-    <row r="357" spans="1:1">
+    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A357" s="3"/>
     </row>
-    <row r="358" spans="1:1">
+    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A358" s="3"/>
     </row>
-    <row r="359" spans="1:1">
+    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A359" s="3"/>
     </row>
-    <row r="360" spans="1:1">
+    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A360" s="3"/>
     </row>
-    <row r="361" spans="1:1">
+    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A361" s="3"/>
     </row>
-    <row r="362" spans="1:1">
+    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A362" s="3"/>
     </row>
-    <row r="363" spans="1:1">
+    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A363" s="3"/>
     </row>
-    <row r="364" spans="1:1">
+    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A364" s="3"/>
     </row>
-    <row r="365" spans="1:1">
+    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A365" s="3"/>
     </row>
-    <row r="366" spans="1:1">
+    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A366" s="3"/>
     </row>
-    <row r="367" spans="1:1">
+    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A367" s="3"/>
     </row>
-    <row r="368" spans="1:1">
+    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A368" s="3"/>
     </row>
-    <row r="369" spans="1:1">
+    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A369" s="3"/>
     </row>
-    <row r="370" spans="1:1">
+    <row r="370" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A370" s="3"/>
     </row>
-    <row r="371" spans="1:1">
+    <row r="371" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A371" s="3"/>
     </row>
-    <row r="372" spans="1:1">
+    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A372" s="3"/>
     </row>
-    <row r="373" spans="1:1">
+    <row r="373" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A373" s="3"/>
     </row>
-    <row r="374" spans="1:1">
+    <row r="374" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A374" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B24:F25"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6666666666667" customWidth="1"/>
-    <col min="2" max="2" width="19.8888888888889" customWidth="1"/>
-    <col min="3" max="3" width="20.4444444444444" customWidth="1"/>
-    <col min="4" max="4" width="15.8888888888889" customWidth="1"/>
-    <col min="5" max="5" width="28.7777777777778" customWidth="1"/>
-    <col min="6" max="6" width="32.3333333333333" customWidth="1"/>
-    <col min="7" max="7" width="23.4444444444444" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="19.88671875" customWidth="1"/>
+    <col min="3" max="3" width="20.44140625" customWidth="1"/>
+    <col min="4" max="4" width="15.88671875" customWidth="1"/>
+    <col min="5" max="5" width="28.77734375" customWidth="1"/>
+    <col min="6" max="6" width="32.33203125" customWidth="1"/>
+    <col min="7" max="7" width="23.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -22448,7 +22034,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>43101</v>
       </c>
@@ -22466,7 +22052,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>43102</v>
       </c>
@@ -22474,35 +22060,41 @@
         <v>0.8</v>
       </c>
       <c r="C3" s="4">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="D3" s="2">
-        <f t="shared" ref="D3:D32" si="0">SUM(B3,C3)/2</f>
-        <v>0.4</v>
-      </c>
-      <c r="E3" t="s">
+        <f>SUM(B3,C3)/2</f>
+        <v>0.75</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+    </row>
+    <row r="4" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>43103</v>
       </c>
       <c r="B4" s="4">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="C4" s="4">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="D4" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <f t="shared" ref="D4:D32" si="0">SUM(B4,C4)/2</f>
+        <v>0.8</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>43104</v>
       </c>
@@ -22517,7 +22109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>43105</v>
       </c>
@@ -22532,7 +22124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>43106</v>
       </c>
@@ -22547,7 +22139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>43107</v>
       </c>
@@ -22562,7 +22154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>43108</v>
       </c>
@@ -22577,7 +22169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>43109</v>
       </c>
@@ -22592,7 +22184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>43110</v>
       </c>
@@ -22607,7 +22199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>43111</v>
       </c>
@@ -22622,7 +22214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>43112</v>
       </c>
@@ -22637,7 +22229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>43113</v>
       </c>
@@ -22652,7 +22244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>43114</v>
       </c>
@@ -22667,7 +22259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>43115</v>
       </c>
@@ -22682,7 +22274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>43116</v>
       </c>
@@ -22697,7 +22289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>43117</v>
       </c>
@@ -22712,7 +22304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>43118</v>
       </c>
@@ -22727,7 +22319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>43119</v>
       </c>
@@ -22742,7 +22334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>43120</v>
       </c>
@@ -22757,7 +22349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>43121</v>
       </c>
@@ -22772,7 +22364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>43122</v>
       </c>
@@ -22787,7 +22379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>43123</v>
       </c>
@@ -22802,7 +22394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>43124</v>
       </c>
@@ -22817,7 +22409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>43125</v>
       </c>
@@ -22832,7 +22424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>43126</v>
       </c>
@@ -22847,7 +22439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>43127</v>
       </c>
@@ -22862,7 +22454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>43128</v>
       </c>
@@ -22877,7 +22469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>43129</v>
       </c>
@@ -22892,7 +22484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>43130</v>
       </c>
@@ -22907,7 +22499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>43131</v>
       </c>
@@ -22923,33 +22515,33 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView topLeftCell="A58" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6666666666667" customWidth="1"/>
-    <col min="2" max="2" width="19.8888888888889" customWidth="1"/>
-    <col min="3" max="3" width="20.4444444444444" customWidth="1"/>
-    <col min="4" max="4" width="15.8888888888889" customWidth="1"/>
-    <col min="5" max="5" width="28.7777777777778" customWidth="1"/>
-    <col min="6" max="6" width="32.3333333333333" customWidth="1"/>
-    <col min="7" max="7" width="23.4444444444444" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="19.88671875" customWidth="1"/>
+    <col min="3" max="3" width="20.44140625" customWidth="1"/>
+    <col min="4" max="4" width="15.88671875" customWidth="1"/>
+    <col min="5" max="5" width="28.77734375" customWidth="1"/>
+    <col min="6" max="6" width="32.33203125" customWidth="1"/>
+    <col min="7" max="7" width="23.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -22966,7 +22558,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>43160</v>
       </c>
@@ -22981,7 +22573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>43161</v>
       </c>
@@ -22996,7 +22588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>43162</v>
       </c>
@@ -23011,7 +22603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>43163</v>
       </c>
@@ -23026,7 +22618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>43164</v>
       </c>
@@ -23041,7 +22633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>43165</v>
       </c>
@@ -23056,7 +22648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>43166</v>
       </c>
@@ -23071,7 +22663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>43167</v>
       </c>
@@ -23086,7 +22678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>43168</v>
       </c>
@@ -23101,7 +22693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>43169</v>
       </c>
@@ -23116,7 +22708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>43170</v>
       </c>
@@ -23131,7 +22723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>43171</v>
       </c>
@@ -23146,7 +22738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>43172</v>
       </c>
@@ -23161,7 +22753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>43173</v>
       </c>
@@ -23176,7 +22768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>43174</v>
       </c>
@@ -23191,7 +22783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>43175</v>
       </c>
@@ -23206,7 +22798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>43176</v>
       </c>
@@ -23221,7 +22813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>43177</v>
       </c>
@@ -23236,7 +22828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>43178</v>
       </c>
@@ -23251,7 +22843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>43179</v>
       </c>
@@ -23266,7 +22858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>43180</v>
       </c>
@@ -23281,7 +22873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>43181</v>
       </c>
@@ -23296,7 +22888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>43182</v>
       </c>
@@ -23311,7 +22903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>43183</v>
       </c>
@@ -23326,7 +22918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>43184</v>
       </c>
@@ -23341,7 +22933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>43185</v>
       </c>
@@ -23356,7 +22948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>43186</v>
       </c>
@@ -23371,7 +22963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>43187</v>
       </c>
@@ -23386,7 +22978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>43188</v>
       </c>
@@ -23401,7 +22993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>43189</v>
       </c>
@@ -23416,7 +23008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>43190</v>
       </c>
@@ -23432,33 +23024,32 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6666666666667" customWidth="1"/>
-    <col min="2" max="2" width="19.8888888888889" customWidth="1"/>
-    <col min="3" max="3" width="20.4444444444444" customWidth="1"/>
-    <col min="4" max="4" width="15.8888888888889" customWidth="1"/>
-    <col min="5" max="5" width="28.7777777777778" customWidth="1"/>
-    <col min="6" max="6" width="32.3333333333333" customWidth="1"/>
-    <col min="7" max="7" width="23.4444444444444" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="19.88671875" customWidth="1"/>
+    <col min="3" max="3" width="20.44140625" customWidth="1"/>
+    <col min="4" max="4" width="15.88671875" customWidth="1"/>
+    <col min="5" max="5" width="28.77734375" customWidth="1"/>
+    <col min="6" max="6" width="32.33203125" customWidth="1"/>
+    <col min="7" max="7" width="23.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -23475,7 +23066,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>43221</v>
       </c>
@@ -23490,7 +23081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>43222</v>
       </c>
@@ -23505,7 +23096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>43223</v>
       </c>
@@ -23520,7 +23111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>43224</v>
       </c>
@@ -23535,7 +23126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>43225</v>
       </c>
@@ -23550,7 +23141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>43226</v>
       </c>
@@ -23565,7 +23156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>43227</v>
       </c>
@@ -23580,7 +23171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>43228</v>
       </c>
@@ -23595,7 +23186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>43229</v>
       </c>
@@ -23610,7 +23201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>43230</v>
       </c>
@@ -23625,7 +23216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>43231</v>
       </c>
@@ -23640,7 +23231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>43232</v>
       </c>
@@ -23655,7 +23246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>43233</v>
       </c>
@@ -23670,7 +23261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>43234</v>
       </c>
@@ -23685,7 +23276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>43235</v>
       </c>
@@ -23700,7 +23291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>43236</v>
       </c>
@@ -23715,7 +23306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>43237</v>
       </c>
@@ -23730,7 +23321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>43238</v>
       </c>
@@ -23745,7 +23336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>43239</v>
       </c>
@@ -23760,7 +23351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>43240</v>
       </c>
@@ -23775,7 +23366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>43241</v>
       </c>
@@ -23790,7 +23381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>43242</v>
       </c>
@@ -23805,7 +23396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>43243</v>
       </c>
@@ -23820,7 +23411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>43244</v>
       </c>
@@ -23835,7 +23426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>43245</v>
       </c>
@@ -23850,7 +23441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>43246</v>
       </c>
@@ -23865,7 +23456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>43247</v>
       </c>
@@ -23880,7 +23471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>43248</v>
       </c>
@@ -23895,7 +23486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>43249</v>
       </c>
@@ -23910,7 +23501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>43250</v>
       </c>
@@ -23925,7 +23516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>43251</v>
       </c>
@@ -23941,33 +23532,32 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6666666666667" customWidth="1"/>
-    <col min="2" max="2" width="19.8888888888889" customWidth="1"/>
-    <col min="3" max="3" width="20.4444444444444" customWidth="1"/>
-    <col min="4" max="4" width="15.8888888888889" customWidth="1"/>
-    <col min="5" max="5" width="28.7777777777778" customWidth="1"/>
-    <col min="6" max="6" width="32.3333333333333" customWidth="1"/>
-    <col min="7" max="7" width="23.4444444444444" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="19.88671875" customWidth="1"/>
+    <col min="3" max="3" width="20.44140625" customWidth="1"/>
+    <col min="4" max="4" width="15.88671875" customWidth="1"/>
+    <col min="5" max="5" width="28.77734375" customWidth="1"/>
+    <col min="6" max="6" width="32.33203125" customWidth="1"/>
+    <col min="7" max="7" width="23.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -23984,7 +23574,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>43282</v>
       </c>
@@ -23999,7 +23589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>43283</v>
       </c>
@@ -24014,7 +23604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>43284</v>
       </c>
@@ -24029,7 +23619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>43285</v>
       </c>
@@ -24044,7 +23634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>43286</v>
       </c>
@@ -24059,7 +23649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>43287</v>
       </c>
@@ -24074,7 +23664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>43288</v>
       </c>
@@ -24089,7 +23679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>43289</v>
       </c>
@@ -24104,7 +23694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>43290</v>
       </c>
@@ -24119,7 +23709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>43291</v>
       </c>
@@ -24134,7 +23724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>43292</v>
       </c>
@@ -24149,7 +23739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>43293</v>
       </c>
@@ -24164,7 +23754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>43294</v>
       </c>
@@ -24179,7 +23769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>43295</v>
       </c>
@@ -24194,7 +23784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>43296</v>
       </c>
@@ -24209,7 +23799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>43297</v>
       </c>
@@ -24224,7 +23814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>43298</v>
       </c>
@@ -24239,7 +23829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>43299</v>
       </c>
@@ -24254,7 +23844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>43300</v>
       </c>
@@ -24269,7 +23859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>43301</v>
       </c>
@@ -24284,7 +23874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>43302</v>
       </c>
@@ -24299,7 +23889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>43303</v>
       </c>
@@ -24314,7 +23904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>43304</v>
       </c>
@@ -24329,7 +23919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>43305</v>
       </c>
@@ -24344,7 +23934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>43306</v>
       </c>
@@ -24359,7 +23949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>43307</v>
       </c>
@@ -24374,7 +23964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>43308</v>
       </c>
@@ -24389,7 +23979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>43309</v>
       </c>
@@ -24404,7 +23994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>43310</v>
       </c>
@@ -24419,7 +24009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>43311</v>
       </c>
@@ -24434,7 +24024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>43312</v>
       </c>
@@ -24450,33 +24040,32 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6666666666667" customWidth="1"/>
-    <col min="2" max="2" width="19.8888888888889" customWidth="1"/>
-    <col min="3" max="3" width="20.4444444444444" customWidth="1"/>
-    <col min="4" max="4" width="15.8888888888889" customWidth="1"/>
-    <col min="5" max="5" width="28.7777777777778" customWidth="1"/>
-    <col min="6" max="6" width="32.3333333333333" customWidth="1"/>
-    <col min="7" max="7" width="23.4444444444444" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="19.88671875" customWidth="1"/>
+    <col min="3" max="3" width="20.44140625" customWidth="1"/>
+    <col min="4" max="4" width="15.88671875" customWidth="1"/>
+    <col min="5" max="5" width="28.77734375" customWidth="1"/>
+    <col min="6" max="6" width="32.33203125" customWidth="1"/>
+    <col min="7" max="7" width="23.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -24493,7 +24082,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>43313</v>
       </c>
@@ -24508,7 +24097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>43314</v>
       </c>
@@ -24523,7 +24112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>43315</v>
       </c>
@@ -24538,7 +24127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>43316</v>
       </c>
@@ -24553,7 +24142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>43317</v>
       </c>
@@ -24568,7 +24157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>43318</v>
       </c>
@@ -24583,7 +24172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>43319</v>
       </c>
@@ -24598,7 +24187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>43320</v>
       </c>
@@ -24613,7 +24202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>43321</v>
       </c>
@@ -24628,7 +24217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>43322</v>
       </c>
@@ -24643,7 +24232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>43323</v>
       </c>
@@ -24658,7 +24247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>43324</v>
       </c>
@@ -24673,7 +24262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>43325</v>
       </c>
@@ -24688,7 +24277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>43326</v>
       </c>
@@ -24703,7 +24292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>43327</v>
       </c>
@@ -24718,7 +24307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>43328</v>
       </c>
@@ -24733,7 +24322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>43329</v>
       </c>
@@ -24748,7 +24337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>43330</v>
       </c>
@@ -24763,7 +24352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>43331</v>
       </c>
@@ -24778,7 +24367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>43332</v>
       </c>
@@ -24793,7 +24382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>43333</v>
       </c>
@@ -24808,7 +24397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>43334</v>
       </c>
@@ -24823,7 +24412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>43335</v>
       </c>
@@ -24838,7 +24427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>43336</v>
       </c>
@@ -24853,7 +24442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>43337</v>
       </c>
@@ -24868,7 +24457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>43338</v>
       </c>
@@ -24883,7 +24472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>43339</v>
       </c>
@@ -24898,7 +24487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>43340</v>
       </c>
@@ -24913,7 +24502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>43341</v>
       </c>
@@ -24928,7 +24517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>43342</v>
       </c>
@@ -24943,7 +24532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>43343</v>
       </c>
@@ -24959,33 +24548,33 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6666666666667" customWidth="1"/>
-    <col min="2" max="2" width="19.8888888888889" customWidth="1"/>
-    <col min="3" max="3" width="20.4444444444444" customWidth="1"/>
-    <col min="4" max="4" width="15.8888888888889" customWidth="1"/>
-    <col min="5" max="5" width="28.7777777777778" customWidth="1"/>
-    <col min="6" max="6" width="32.3333333333333" customWidth="1"/>
-    <col min="7" max="7" width="23.4444444444444" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="19.88671875" customWidth="1"/>
+    <col min="3" max="3" width="20.44140625" customWidth="1"/>
+    <col min="4" max="4" width="15.88671875" customWidth="1"/>
+    <col min="5" max="5" width="28.77734375" customWidth="1"/>
+    <col min="6" max="6" width="32.33203125" customWidth="1"/>
+    <col min="7" max="7" width="23.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -25002,7 +24591,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>43374</v>
       </c>
@@ -25017,7 +24606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>43375</v>
       </c>
@@ -25032,7 +24621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>43376</v>
       </c>
@@ -25047,7 +24636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>43377</v>
       </c>
@@ -25062,7 +24651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>43378</v>
       </c>
@@ -25077,7 +24666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>43379</v>
       </c>
@@ -25092,7 +24681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>43380</v>
       </c>
@@ -25107,7 +24696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>43381</v>
       </c>
@@ -25122,7 +24711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>43382</v>
       </c>
@@ -25137,7 +24726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>43383</v>
       </c>
@@ -25152,7 +24741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>43384</v>
       </c>
@@ -25167,7 +24756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>43385</v>
       </c>
@@ -25182,7 +24771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>43386</v>
       </c>
@@ -25197,7 +24786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>43387</v>
       </c>
@@ -25212,7 +24801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>43388</v>
       </c>
@@ -25227,7 +24816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>43389</v>
       </c>
@@ -25242,7 +24831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>43390</v>
       </c>
@@ -25257,7 +24846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>43391</v>
       </c>
@@ -25272,7 +24861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>43392</v>
       </c>
@@ -25287,7 +24876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>43393</v>
       </c>
@@ -25302,7 +24891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>43394</v>
       </c>
@@ -25317,7 +24906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>43395</v>
       </c>
@@ -25332,7 +24921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>43396</v>
       </c>
@@ -25347,7 +24936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>43397</v>
       </c>
@@ -25362,7 +24951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>43398</v>
       </c>
@@ -25377,7 +24966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>43399</v>
       </c>
@@ -25392,7 +24981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>43400</v>
       </c>
@@ -25407,7 +24996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>43401</v>
       </c>
@@ -25422,7 +25011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>43402</v>
       </c>
@@ -25437,7 +25026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>43403</v>
       </c>
@@ -25452,7 +25041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>43404</v>
       </c>
@@ -25468,33 +25057,32 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6666666666667" customWidth="1"/>
-    <col min="2" max="2" width="19.8888888888889" customWidth="1"/>
-    <col min="3" max="3" width="20.4444444444444" customWidth="1"/>
-    <col min="4" max="4" width="15.8888888888889" customWidth="1"/>
-    <col min="5" max="5" width="28.7777777777778" customWidth="1"/>
-    <col min="6" max="6" width="32.3333333333333" customWidth="1"/>
-    <col min="7" max="7" width="23.4444444444444" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="19.88671875" customWidth="1"/>
+    <col min="3" max="3" width="20.44140625" customWidth="1"/>
+    <col min="4" max="4" width="15.88671875" customWidth="1"/>
+    <col min="5" max="5" width="28.77734375" customWidth="1"/>
+    <col min="6" max="6" width="32.33203125" customWidth="1"/>
+    <col min="7" max="7" width="23.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -25511,7 +25099,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>43435</v>
       </c>
@@ -25526,7 +25114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>43436</v>
       </c>
@@ -25541,7 +25129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>43437</v>
       </c>
@@ -25556,7 +25144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>43438</v>
       </c>
@@ -25571,7 +25159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>43439</v>
       </c>
@@ -25586,7 +25174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>43440</v>
       </c>
@@ -25601,7 +25189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>43441</v>
       </c>
@@ -25616,7 +25204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>43442</v>
       </c>
@@ -25631,7 +25219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>43443</v>
       </c>
@@ -25646,7 +25234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>43444</v>
       </c>
@@ -25661,7 +25249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>43445</v>
       </c>
@@ -25676,7 +25264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>43446</v>
       </c>
@@ -25691,7 +25279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>43447</v>
       </c>
@@ -25706,7 +25294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>43448</v>
       </c>
@@ -25721,7 +25309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>43449</v>
       </c>
@@ -25736,7 +25324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>43450</v>
       </c>
@@ -25751,7 +25339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>43451</v>
       </c>
@@ -25766,7 +25354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>43452</v>
       </c>
@@ -25781,7 +25369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>43453</v>
       </c>
@@ -25796,7 +25384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>43454</v>
       </c>
@@ -25811,7 +25399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>43455</v>
       </c>
@@ -25826,7 +25414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>43456</v>
       </c>
@@ -25841,7 +25429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>43457</v>
       </c>
@@ -25856,7 +25444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>43458</v>
       </c>
@@ -25871,7 +25459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>43459</v>
       </c>
@@ -25886,7 +25474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>43460</v>
       </c>
@@ -25901,7 +25489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>43461</v>
       </c>
@@ -25916,7 +25504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>43462</v>
       </c>
@@ -25931,7 +25519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>43463</v>
       </c>
@@ -25946,7 +25534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>43464</v>
       </c>
@@ -25961,7 +25549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>43465</v>
       </c>
@@ -25977,8 +25565,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/提升/成长进度表.xlsx
+++ b/提升/成长进度表.xlsx
@@ -22002,8 +22002,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>

--- a/提升/成长进度表.xlsx
+++ b/提升/成长进度表.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\doc\提升\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22368" windowHeight="9948" firstSheet="1" activeTab="1"/>
+    <workbookView windowWidth="22368" windowHeight="9947" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2017年12月概览" sheetId="1" r:id="rId1"/>
@@ -21,12 +16,12 @@
     <sheet name="2018年10月概览" sheetId="8" r:id="rId7"/>
     <sheet name="2018年12月" sheetId="7" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32">
   <si>
     <t>软技能完成率</t>
   </si>
@@ -115,31 +110,38 @@
     <t>赶集、购物</t>
   </si>
   <si>
-    <t>职场人际关系建设整理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>多态阅读</t>
   </si>
   <si>
-    <t>多态阅读</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>职场人际关系建设整理</t>
+  </si>
+  <si>
+    <t>this的用途，static的用途</t>
   </si>
   <si>
     <t>创新：进化式，颠覆式，积木式
 竞争导致变异，不断积累微小变异，由量变到质变</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>this的用途，static的用途</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>垃圾回收，即自适应、多代、停止-复制，标记-清理。finalize()用途：本地方法调用回收内存
+，用于监听那些该关闭却没关闭的，导致无法回收的。vue学习</t>
+  </si>
+  <si>
+    <t>再一次明确职业发展方向</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -148,9 +150,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -158,20 +160,342 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -179,9 +503,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -193,31 +759,75 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -287,6 +897,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -295,25 +906,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="zh-CN" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -373,73 +965,76 @@
               </a:effectLst>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>'2017年12月概览'!$A$2:$A$22</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>yyyy/m/d</c:formatCode>
                 <c:ptCount val="21"/>
-                <c:pt idx="0">
+                <c:pt idx="0" c:formatCode="yyyy/m/d">
                   <c:v>43080</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="1" c:formatCode="yyyy/m/d">
                   <c:v>43081</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="2" c:formatCode="yyyy/m/d">
                   <c:v>43082</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="3" c:formatCode="yyyy/m/d">
                   <c:v>43083</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="4" c:formatCode="yyyy/m/d">
                   <c:v>43084</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="5" c:formatCode="yyyy/m/d">
                   <c:v>43085</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="6" c:formatCode="yyyy/m/d">
                   <c:v>43086</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="7" c:formatCode="yyyy/m/d">
                   <c:v>43087</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="8" c:formatCode="yyyy/m/d">
                   <c:v>43088</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="9" c:formatCode="yyyy/m/d">
                   <c:v>43089</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="10" c:formatCode="yyyy/m/d">
                   <c:v>43090</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="11" c:formatCode="yyyy/m/d">
                   <c:v>43091</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="12" c:formatCode="yyyy/m/d">
                   <c:v>43092</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="13" c:formatCode="yyyy/m/d">
                   <c:v>43093</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="14" c:formatCode="yyyy/m/d">
                   <c:v>43094</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="15" c:formatCode="yyyy/m/d">
                   <c:v>43095</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="16" c:formatCode="yyyy/m/d">
                   <c:v>43096</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="17" c:formatCode="yyyy/m/d">
                   <c:v>43097</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="18" c:formatCode="yyyy/m/d">
                   <c:v>43098</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="19" c:formatCode="yyyy/m/d">
                   <c:v>43099</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="20" c:formatCode="yyyy/m/d">
                   <c:v>43100</c:v>
                 </c:pt>
               </c:numCache>
@@ -455,7 +1050,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1000000000000001</c:v>
+                  <c:v>1.1</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.8</c:v>
@@ -571,73 +1166,76 @@
               </a:effectLst>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>'2017年12月概览'!$A$2:$A$22</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>yyyy/m/d</c:formatCode>
                 <c:ptCount val="21"/>
-                <c:pt idx="0">
+                <c:pt idx="0" c:formatCode="yyyy/m/d">
                   <c:v>43080</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="1" c:formatCode="yyyy/m/d">
                   <c:v>43081</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="2" c:formatCode="yyyy/m/d">
                   <c:v>43082</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="3" c:formatCode="yyyy/m/d">
                   <c:v>43083</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="4" c:formatCode="yyyy/m/d">
                   <c:v>43084</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="5" c:formatCode="yyyy/m/d">
                   <c:v>43085</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="6" c:formatCode="yyyy/m/d">
                   <c:v>43086</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="7" c:formatCode="yyyy/m/d">
                   <c:v>43087</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="8" c:formatCode="yyyy/m/d">
                   <c:v>43088</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="9" c:formatCode="yyyy/m/d">
                   <c:v>43089</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="10" c:formatCode="yyyy/m/d">
                   <c:v>43090</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="11" c:formatCode="yyyy/m/d">
                   <c:v>43091</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="12" c:formatCode="yyyy/m/d">
                   <c:v>43092</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="13" c:formatCode="yyyy/m/d">
                   <c:v>43093</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="14" c:formatCode="yyyy/m/d">
                   <c:v>43094</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="15" c:formatCode="yyyy/m/d">
                   <c:v>43095</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="16" c:formatCode="yyyy/m/d">
                   <c:v>43096</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="17" c:formatCode="yyyy/m/d">
                   <c:v>43097</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="18" c:formatCode="yyyy/m/d">
                   <c:v>43098</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="19" c:formatCode="yyyy/m/d">
                   <c:v>43099</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="20" c:formatCode="yyyy/m/d">
                   <c:v>43100</c:v>
                 </c:pt>
               </c:numCache>
@@ -764,7 +1362,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="195094064"/>
@@ -833,7 +1430,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="195093504"/>
@@ -874,7 +1470,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -915,7 +1510,6 @@
       <a:pPr>
         <a:defRPr lang="zh-CN"/>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -963,9 +1557,11 @@
               <a:rPr lang="zh-CN"/>
               <a:t>总完成率</a:t>
             </a:r>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -974,26 +1570,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="zh-CN" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="75000"/>
-                  <a:lumOff val="25000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -1050,7 +1626,6 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="zh-CN"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -1063,6 +1638,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1238,7 +1814,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="296274224"/>
@@ -1285,6 +1860,25 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
         <c:crossAx val="296273664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
@@ -1339,7 +1933,6 @@
       <a:pPr>
         <a:defRPr lang="zh-CN"/>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1414,6 +2007,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1422,25 +2016,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="zh-CN" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -1449,10 +2024,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="8.0659505907626203E-2"/>
-          <c:y val="2.1043771043771E-2"/>
-          <c:w val="0.90099104905119898"/>
-          <c:h val="0.73818181818181805"/>
+          <c:x val="0.0806595059076262"/>
+          <c:y val="0.021043771043771"/>
+          <c:w val="0.900991049051199"/>
+          <c:h val="0.738181818181818"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -1510,103 +2085,106 @@
               </a:effectLst>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>'2018年8月概览'!$A$2:$A$32</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>yyyy/m/d</c:formatCode>
                 <c:ptCount val="31"/>
-                <c:pt idx="0">
+                <c:pt idx="0" c:formatCode="yyyy/m/d">
                   <c:v>43313</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="1" c:formatCode="yyyy/m/d">
                   <c:v>43314</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="2" c:formatCode="yyyy/m/d">
                   <c:v>43315</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="3" c:formatCode="yyyy/m/d">
                   <c:v>43316</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="4" c:formatCode="yyyy/m/d">
                   <c:v>43317</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="5" c:formatCode="yyyy/m/d">
                   <c:v>43318</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="6" c:formatCode="yyyy/m/d">
                   <c:v>43319</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="7" c:formatCode="yyyy/m/d">
                   <c:v>43320</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="8" c:formatCode="yyyy/m/d">
                   <c:v>43321</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="9" c:formatCode="yyyy/m/d">
                   <c:v>43322</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="10" c:formatCode="yyyy/m/d">
                   <c:v>43323</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="11" c:formatCode="yyyy/m/d">
                   <c:v>43324</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="12" c:formatCode="yyyy/m/d">
                   <c:v>43325</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="13" c:formatCode="yyyy/m/d">
                   <c:v>43326</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="14" c:formatCode="yyyy/m/d">
                   <c:v>43327</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="15" c:formatCode="yyyy/m/d">
                   <c:v>43328</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="16" c:formatCode="yyyy/m/d">
                   <c:v>43329</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="17" c:formatCode="yyyy/m/d">
                   <c:v>43330</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="18" c:formatCode="yyyy/m/d">
                   <c:v>43331</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="19" c:formatCode="yyyy/m/d">
                   <c:v>43332</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="20" c:formatCode="yyyy/m/d">
                   <c:v>43333</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="21" c:formatCode="yyyy/m/d">
                   <c:v>43334</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="22" c:formatCode="yyyy/m/d">
                   <c:v>43335</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="23" c:formatCode="yyyy/m/d">
                   <c:v>43336</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="24" c:formatCode="yyyy/m/d">
                   <c:v>43337</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="25" c:formatCode="yyyy/m/d">
                   <c:v>43338</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="26" c:formatCode="yyyy/m/d">
                   <c:v>43339</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="27" c:formatCode="yyyy/m/d">
                   <c:v>43340</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="28" c:formatCode="yyyy/m/d">
                   <c:v>43341</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="29" c:formatCode="yyyy/m/d">
                   <c:v>43342</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="30" c:formatCode="yyyy/m/d">
                   <c:v>43343</c:v>
                 </c:pt>
               </c:numCache>
@@ -1768,103 +2346,106 @@
               </a:effectLst>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>'2018年8月概览'!$A$2:$A$32</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>yyyy/m/d</c:formatCode>
                 <c:ptCount val="31"/>
-                <c:pt idx="0">
+                <c:pt idx="0" c:formatCode="yyyy/m/d">
                   <c:v>43313</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="1" c:formatCode="yyyy/m/d">
                   <c:v>43314</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="2" c:formatCode="yyyy/m/d">
                   <c:v>43315</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="3" c:formatCode="yyyy/m/d">
                   <c:v>43316</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="4" c:formatCode="yyyy/m/d">
                   <c:v>43317</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="5" c:formatCode="yyyy/m/d">
                   <c:v>43318</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="6" c:formatCode="yyyy/m/d">
                   <c:v>43319</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="7" c:formatCode="yyyy/m/d">
                   <c:v>43320</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="8" c:formatCode="yyyy/m/d">
                   <c:v>43321</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="9" c:formatCode="yyyy/m/d">
                   <c:v>43322</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="10" c:formatCode="yyyy/m/d">
                   <c:v>43323</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="11" c:formatCode="yyyy/m/d">
                   <c:v>43324</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="12" c:formatCode="yyyy/m/d">
                   <c:v>43325</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="13" c:formatCode="yyyy/m/d">
                   <c:v>43326</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="14" c:formatCode="yyyy/m/d">
                   <c:v>43327</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="15" c:formatCode="yyyy/m/d">
                   <c:v>43328</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="16" c:formatCode="yyyy/m/d">
                   <c:v>43329</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="17" c:formatCode="yyyy/m/d">
                   <c:v>43330</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="18" c:formatCode="yyyy/m/d">
                   <c:v>43331</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="19" c:formatCode="yyyy/m/d">
                   <c:v>43332</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="20" c:formatCode="yyyy/m/d">
                   <c:v>43333</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="21" c:formatCode="yyyy/m/d">
                   <c:v>43334</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="22" c:formatCode="yyyy/m/d">
                   <c:v>43335</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="23" c:formatCode="yyyy/m/d">
                   <c:v>43336</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="24" c:formatCode="yyyy/m/d">
                   <c:v>43337</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="25" c:formatCode="yyyy/m/d">
                   <c:v>43338</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="26" c:formatCode="yyyy/m/d">
                   <c:v>43339</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="27" c:formatCode="yyyy/m/d">
                   <c:v>43340</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="28" c:formatCode="yyyy/m/d">
                   <c:v>43341</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="29" c:formatCode="yyyy/m/d">
                   <c:v>43342</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="30" c:formatCode="yyyy/m/d">
                   <c:v>43343</c:v>
                 </c:pt>
               </c:numCache>
@@ -2021,7 +2602,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="296182896"/>
@@ -2090,7 +2670,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="296182336"/>
@@ -2131,7 +2710,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -2172,7 +2750,6 @@
       <a:pPr>
         <a:defRPr lang="zh-CN"/>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2220,9 +2797,11 @@
               <a:rPr lang="zh-CN"/>
               <a:t>总完成率</a:t>
             </a:r>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2231,26 +2810,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="zh-CN" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="75000"/>
-                  <a:lumOff val="25000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -2307,7 +2866,6 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="zh-CN"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -2320,6 +2878,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2495,7 +3054,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="296186816"/>
@@ -2542,6 +3100,25 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
         <c:crossAx val="296186256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
@@ -2596,7 +3173,6 @@
       <a:pPr>
         <a:defRPr lang="zh-CN"/>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2671,6 +3247,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2679,25 +3256,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="zh-CN" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -2706,10 +3264,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="8.0659505907626203E-2"/>
-          <c:y val="2.1043771043771E-2"/>
-          <c:w val="0.90099104905119898"/>
-          <c:h val="0.73818181818181805"/>
+          <c:x val="0.0806595059076262"/>
+          <c:y val="0.021043771043771"/>
+          <c:w val="0.900991049051199"/>
+          <c:h val="0.738181818181818"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -2767,103 +3325,106 @@
               </a:effectLst>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>'2018年10月概览'!$A$2:$A$32</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>yyyy/m/d</c:formatCode>
                 <c:ptCount val="31"/>
-                <c:pt idx="0">
+                <c:pt idx="0" c:formatCode="yyyy/m/d">
                   <c:v>43374</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="1" c:formatCode="yyyy/m/d">
                   <c:v>43375</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="2" c:formatCode="yyyy/m/d">
                   <c:v>43376</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="3" c:formatCode="yyyy/m/d">
                   <c:v>43377</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="4" c:formatCode="yyyy/m/d">
                   <c:v>43378</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="5" c:formatCode="yyyy/m/d">
                   <c:v>43379</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="6" c:formatCode="yyyy/m/d">
                   <c:v>43380</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="7" c:formatCode="yyyy/m/d">
                   <c:v>43381</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="8" c:formatCode="yyyy/m/d">
                   <c:v>43382</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="9" c:formatCode="yyyy/m/d">
                   <c:v>43383</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="10" c:formatCode="yyyy/m/d">
                   <c:v>43384</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="11" c:formatCode="yyyy/m/d">
                   <c:v>43385</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="12" c:formatCode="yyyy/m/d">
                   <c:v>43386</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="13" c:formatCode="yyyy/m/d">
                   <c:v>43387</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="14" c:formatCode="yyyy/m/d">
                   <c:v>43388</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="15" c:formatCode="yyyy/m/d">
                   <c:v>43389</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="16" c:formatCode="yyyy/m/d">
                   <c:v>43390</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="17" c:formatCode="yyyy/m/d">
                   <c:v>43391</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="18" c:formatCode="yyyy/m/d">
                   <c:v>43392</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="19" c:formatCode="yyyy/m/d">
                   <c:v>43393</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="20" c:formatCode="yyyy/m/d">
                   <c:v>43394</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="21" c:formatCode="yyyy/m/d">
                   <c:v>43395</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="22" c:formatCode="yyyy/m/d">
                   <c:v>43396</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="23" c:formatCode="yyyy/m/d">
                   <c:v>43397</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="24" c:formatCode="yyyy/m/d">
                   <c:v>43398</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="25" c:formatCode="yyyy/m/d">
                   <c:v>43399</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="26" c:formatCode="yyyy/m/d">
                   <c:v>43400</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="27" c:formatCode="yyyy/m/d">
                   <c:v>43401</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="28" c:formatCode="yyyy/m/d">
                   <c:v>43402</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="29" c:formatCode="yyyy/m/d">
                   <c:v>43403</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="30" c:formatCode="yyyy/m/d">
                   <c:v>43404</c:v>
                 </c:pt>
               </c:numCache>
@@ -3025,103 +3586,106 @@
               </a:effectLst>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>'2018年10月概览'!$A$2:$A$32</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>yyyy/m/d</c:formatCode>
                 <c:ptCount val="31"/>
-                <c:pt idx="0">
+                <c:pt idx="0" c:formatCode="yyyy/m/d">
                   <c:v>43374</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="1" c:formatCode="yyyy/m/d">
                   <c:v>43375</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="2" c:formatCode="yyyy/m/d">
                   <c:v>43376</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="3" c:formatCode="yyyy/m/d">
                   <c:v>43377</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="4" c:formatCode="yyyy/m/d">
                   <c:v>43378</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="5" c:formatCode="yyyy/m/d">
                   <c:v>43379</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="6" c:formatCode="yyyy/m/d">
                   <c:v>43380</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="7" c:formatCode="yyyy/m/d">
                   <c:v>43381</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="8" c:formatCode="yyyy/m/d">
                   <c:v>43382</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="9" c:formatCode="yyyy/m/d">
                   <c:v>43383</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="10" c:formatCode="yyyy/m/d">
                   <c:v>43384</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="11" c:formatCode="yyyy/m/d">
                   <c:v>43385</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="12" c:formatCode="yyyy/m/d">
                   <c:v>43386</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="13" c:formatCode="yyyy/m/d">
                   <c:v>43387</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="14" c:formatCode="yyyy/m/d">
                   <c:v>43388</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="15" c:formatCode="yyyy/m/d">
                   <c:v>43389</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="16" c:formatCode="yyyy/m/d">
                   <c:v>43390</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="17" c:formatCode="yyyy/m/d">
                   <c:v>43391</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="18" c:formatCode="yyyy/m/d">
                   <c:v>43392</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="19" c:formatCode="yyyy/m/d">
                   <c:v>43393</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="20" c:formatCode="yyyy/m/d">
                   <c:v>43394</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="21" c:formatCode="yyyy/m/d">
                   <c:v>43395</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="22" c:formatCode="yyyy/m/d">
                   <c:v>43396</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="23" c:formatCode="yyyy/m/d">
                   <c:v>43397</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="24" c:formatCode="yyyy/m/d">
                   <c:v>43398</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="25" c:formatCode="yyyy/m/d">
                   <c:v>43399</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="26" c:formatCode="yyyy/m/d">
                   <c:v>43400</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="27" c:formatCode="yyyy/m/d">
                   <c:v>43401</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="28" c:formatCode="yyyy/m/d">
                   <c:v>43402</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="29" c:formatCode="yyyy/m/d">
                   <c:v>43403</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="30" c:formatCode="yyyy/m/d">
                   <c:v>43404</c:v>
                 </c:pt>
               </c:numCache>
@@ -3278,7 +3842,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="296486320"/>
@@ -3347,7 +3910,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="296485760"/>
@@ -3388,7 +3950,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -3429,7 +3990,6 @@
       <a:pPr>
         <a:defRPr lang="zh-CN"/>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3477,9 +4037,11 @@
               <a:rPr lang="zh-CN"/>
               <a:t>总完成率</a:t>
             </a:r>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3488,26 +4050,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="zh-CN" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="75000"/>
-                  <a:lumOff val="25000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -3564,7 +4106,6 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="zh-CN"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -3577,6 +4118,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3752,7 +4294,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="296490240"/>
@@ -3799,6 +4340,25 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
         <c:crossAx val="296489680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
@@ -3853,7 +4413,6 @@
       <a:pPr>
         <a:defRPr lang="zh-CN"/>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3928,6 +4487,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3936,25 +4496,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="zh-CN" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -3963,10 +4504,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="8.0659505907626203E-2"/>
-          <c:y val="2.1043771043771E-2"/>
-          <c:w val="0.90099104905119898"/>
-          <c:h val="0.73818181818181805"/>
+          <c:x val="0.0806595059076262"/>
+          <c:y val="0.021043771043771"/>
+          <c:w val="0.900991049051199"/>
+          <c:h val="0.738181818181818"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -4024,103 +4565,106 @@
               </a:effectLst>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>'2018年12月'!$A$2:$A$32</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>yyyy/m/d</c:formatCode>
                 <c:ptCount val="31"/>
-                <c:pt idx="0">
+                <c:pt idx="0" c:formatCode="yyyy/m/d">
                   <c:v>43435</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="1" c:formatCode="yyyy/m/d">
                   <c:v>43436</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="2" c:formatCode="yyyy/m/d">
                   <c:v>43437</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="3" c:formatCode="yyyy/m/d">
                   <c:v>43438</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="4" c:formatCode="yyyy/m/d">
                   <c:v>43439</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="5" c:formatCode="yyyy/m/d">
                   <c:v>43440</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="6" c:formatCode="yyyy/m/d">
                   <c:v>43441</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="7" c:formatCode="yyyy/m/d">
                   <c:v>43442</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="8" c:formatCode="yyyy/m/d">
                   <c:v>43443</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="9" c:formatCode="yyyy/m/d">
                   <c:v>43444</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="10" c:formatCode="yyyy/m/d">
                   <c:v>43445</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="11" c:formatCode="yyyy/m/d">
                   <c:v>43446</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="12" c:formatCode="yyyy/m/d">
                   <c:v>43447</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="13" c:formatCode="yyyy/m/d">
                   <c:v>43448</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="14" c:formatCode="yyyy/m/d">
                   <c:v>43449</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="15" c:formatCode="yyyy/m/d">
                   <c:v>43450</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="16" c:formatCode="yyyy/m/d">
                   <c:v>43451</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="17" c:formatCode="yyyy/m/d">
                   <c:v>43452</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="18" c:formatCode="yyyy/m/d">
                   <c:v>43453</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="19" c:formatCode="yyyy/m/d">
                   <c:v>43454</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="20" c:formatCode="yyyy/m/d">
                   <c:v>43455</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="21" c:formatCode="yyyy/m/d">
                   <c:v>43456</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="22" c:formatCode="yyyy/m/d">
                   <c:v>43457</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="23" c:formatCode="yyyy/m/d">
                   <c:v>43458</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="24" c:formatCode="yyyy/m/d">
                   <c:v>43459</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="25" c:formatCode="yyyy/m/d">
                   <c:v>43460</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="26" c:formatCode="yyyy/m/d">
                   <c:v>43461</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="27" c:formatCode="yyyy/m/d">
                   <c:v>43462</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="28" c:formatCode="yyyy/m/d">
                   <c:v>43463</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="29" c:formatCode="yyyy/m/d">
                   <c:v>43464</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="30" c:formatCode="yyyy/m/d">
                   <c:v>43465</c:v>
                 </c:pt>
               </c:numCache>
@@ -4282,103 +4826,106 @@
               </a:effectLst>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>'2018年12月'!$A$2:$A$32</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>yyyy/m/d</c:formatCode>
                 <c:ptCount val="31"/>
-                <c:pt idx="0">
+                <c:pt idx="0" c:formatCode="yyyy/m/d">
                   <c:v>43435</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="1" c:formatCode="yyyy/m/d">
                   <c:v>43436</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="2" c:formatCode="yyyy/m/d">
                   <c:v>43437</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="3" c:formatCode="yyyy/m/d">
                   <c:v>43438</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="4" c:formatCode="yyyy/m/d">
                   <c:v>43439</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="5" c:formatCode="yyyy/m/d">
                   <c:v>43440</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="6" c:formatCode="yyyy/m/d">
                   <c:v>43441</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="7" c:formatCode="yyyy/m/d">
                   <c:v>43442</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="8" c:formatCode="yyyy/m/d">
                   <c:v>43443</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="9" c:formatCode="yyyy/m/d">
                   <c:v>43444</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="10" c:formatCode="yyyy/m/d">
                   <c:v>43445</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="11" c:formatCode="yyyy/m/d">
                   <c:v>43446</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="12" c:formatCode="yyyy/m/d">
                   <c:v>43447</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="13" c:formatCode="yyyy/m/d">
                   <c:v>43448</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="14" c:formatCode="yyyy/m/d">
                   <c:v>43449</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="15" c:formatCode="yyyy/m/d">
                   <c:v>43450</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="16" c:formatCode="yyyy/m/d">
                   <c:v>43451</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="17" c:formatCode="yyyy/m/d">
                   <c:v>43452</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="18" c:formatCode="yyyy/m/d">
                   <c:v>43453</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="19" c:formatCode="yyyy/m/d">
                   <c:v>43454</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="20" c:formatCode="yyyy/m/d">
                   <c:v>43455</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="21" c:formatCode="yyyy/m/d">
                   <c:v>43456</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="22" c:formatCode="yyyy/m/d">
                   <c:v>43457</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="23" c:formatCode="yyyy/m/d">
                   <c:v>43458</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="24" c:formatCode="yyyy/m/d">
                   <c:v>43459</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="25" c:formatCode="yyyy/m/d">
                   <c:v>43460</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="26" c:formatCode="yyyy/m/d">
                   <c:v>43461</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="27" c:formatCode="yyyy/m/d">
                   <c:v>43462</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="28" c:formatCode="yyyy/m/d">
                   <c:v>43463</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="29" c:formatCode="yyyy/m/d">
                   <c:v>43464</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="30" c:formatCode="yyyy/m/d">
                   <c:v>43465</c:v>
                 </c:pt>
               </c:numCache>
@@ -4535,7 +5082,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="296683312"/>
@@ -4604,7 +5150,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="296682752"/>
@@ -4645,7 +5190,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -4686,7 +5230,6 @@
       <a:pPr>
         <a:defRPr lang="zh-CN"/>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4734,9 +5277,11 @@
               <a:rPr lang="zh-CN"/>
               <a:t>总完成率</a:t>
             </a:r>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4745,26 +5290,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="zh-CN" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="75000"/>
-                  <a:lumOff val="25000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -4821,7 +5346,6 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="zh-CN"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -4834,6 +5358,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -5009,7 +5534,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="296687232"/>
@@ -5056,6 +5580,25 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
         <c:crossAx val="296686672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
@@ -5110,7 +5653,6 @@
       <a:pPr>
         <a:defRPr lang="zh-CN"/>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5158,9 +5700,11 @@
               <a:rPr lang="zh-CN"/>
               <a:t>总完成率</a:t>
             </a:r>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5169,26 +5713,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="zh-CN" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="75000"/>
-                  <a:lumOff val="25000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -5245,7 +5769,6 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="zh-CN"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -5258,6 +5781,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -5288,7 +5812,7 @@
                   <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.85000000000000009</c:v>
+                  <c:v>0.85</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.375</c:v>
@@ -5403,7 +5927,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="195097984"/>
@@ -5450,6 +5973,25 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
         <c:crossAx val="195097424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
@@ -5504,7 +6046,6 @@
       <a:pPr>
         <a:defRPr lang="zh-CN"/>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5588,25 +6129,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="zh-CN" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -5615,10 +6137,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="8.0659505907626203E-2"/>
-          <c:y val="2.1043771043771E-2"/>
-          <c:w val="0.90099104905119898"/>
-          <c:h val="0.73818181818181805"/>
+          <c:x val="0.0806595059076262"/>
+          <c:y val="0.021043771043771"/>
+          <c:w val="0.900991049051199"/>
+          <c:h val="0.738181818181818"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -5676,103 +6198,106 @@
               </a:effectLst>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>'2018年1月概览'!$A$2:$A$32</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>yyyy/m/d</c:formatCode>
                 <c:ptCount val="31"/>
-                <c:pt idx="0">
+                <c:pt idx="0" c:formatCode="yyyy/m/d">
                   <c:v>43101</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="1" c:formatCode="yyyy/m/d">
                   <c:v>43102</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="2" c:formatCode="yyyy/m/d">
                   <c:v>43103</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="3" c:formatCode="yyyy/m/d">
                   <c:v>43104</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="4" c:formatCode="yyyy/m/d">
                   <c:v>43105</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="5" c:formatCode="yyyy/m/d">
                   <c:v>43106</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="6" c:formatCode="yyyy/m/d">
                   <c:v>43107</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="7" c:formatCode="yyyy/m/d">
                   <c:v>43108</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="8" c:formatCode="yyyy/m/d">
                   <c:v>43109</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="9" c:formatCode="yyyy/m/d">
                   <c:v>43110</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="10" c:formatCode="yyyy/m/d">
                   <c:v>43111</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="11" c:formatCode="yyyy/m/d">
                   <c:v>43112</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="12" c:formatCode="yyyy/m/d">
                   <c:v>43113</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="13" c:formatCode="yyyy/m/d">
                   <c:v>43114</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="14" c:formatCode="yyyy/m/d">
                   <c:v>43115</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="15" c:formatCode="yyyy/m/d">
                   <c:v>43116</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="16" c:formatCode="yyyy/m/d">
                   <c:v>43117</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="17" c:formatCode="yyyy/m/d">
                   <c:v>43118</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="18" c:formatCode="yyyy/m/d">
                   <c:v>43119</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="19" c:formatCode="yyyy/m/d">
                   <c:v>43120</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="20" c:formatCode="yyyy/m/d">
                   <c:v>43121</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="21" c:formatCode="yyyy/m/d">
                   <c:v>43122</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="22" c:formatCode="yyyy/m/d">
                   <c:v>43123</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="23" c:formatCode="yyyy/m/d">
                   <c:v>43124</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="24" c:formatCode="yyyy/m/d">
                   <c:v>43125</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="25" c:formatCode="yyyy/m/d">
                   <c:v>43126</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="26" c:formatCode="yyyy/m/d">
                   <c:v>43127</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="27" c:formatCode="yyyy/m/d">
                   <c:v>43128</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="28" c:formatCode="yyyy/m/d">
                   <c:v>43129</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="29" c:formatCode="yyyy/m/d">
                   <c:v>43130</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="30" c:formatCode="yyyy/m/d">
                   <c:v>43131</c:v>
                 </c:pt>
               </c:numCache>
@@ -5794,7 +6319,7 @@
                   <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -5934,103 +6459,106 @@
               </a:effectLst>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>'2018年1月概览'!$A$2:$A$32</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>yyyy/m/d</c:formatCode>
                 <c:ptCount val="31"/>
-                <c:pt idx="0">
+                <c:pt idx="0" c:formatCode="yyyy/m/d">
                   <c:v>43101</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="1" c:formatCode="yyyy/m/d">
                   <c:v>43102</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="2" c:formatCode="yyyy/m/d">
                   <c:v>43103</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="3" c:formatCode="yyyy/m/d">
                   <c:v>43104</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="4" c:formatCode="yyyy/m/d">
                   <c:v>43105</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="5" c:formatCode="yyyy/m/d">
                   <c:v>43106</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="6" c:formatCode="yyyy/m/d">
                   <c:v>43107</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="7" c:formatCode="yyyy/m/d">
                   <c:v>43108</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="8" c:formatCode="yyyy/m/d">
                   <c:v>43109</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="9" c:formatCode="yyyy/m/d">
                   <c:v>43110</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="10" c:formatCode="yyyy/m/d">
                   <c:v>43111</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="11" c:formatCode="yyyy/m/d">
                   <c:v>43112</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="12" c:formatCode="yyyy/m/d">
                   <c:v>43113</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="13" c:formatCode="yyyy/m/d">
                   <c:v>43114</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="14" c:formatCode="yyyy/m/d">
                   <c:v>43115</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="15" c:formatCode="yyyy/m/d">
                   <c:v>43116</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="16" c:formatCode="yyyy/m/d">
                   <c:v>43117</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="17" c:formatCode="yyyy/m/d">
                   <c:v>43118</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="18" c:formatCode="yyyy/m/d">
                   <c:v>43119</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="19" c:formatCode="yyyy/m/d">
                   <c:v>43120</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="20" c:formatCode="yyyy/m/d">
                   <c:v>43121</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="21" c:formatCode="yyyy/m/d">
                   <c:v>43122</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="22" c:formatCode="yyyy/m/d">
                   <c:v>43123</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="23" c:formatCode="yyyy/m/d">
                   <c:v>43124</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="24" c:formatCode="yyyy/m/d">
                   <c:v>43125</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="25" c:formatCode="yyyy/m/d">
                   <c:v>43126</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="26" c:formatCode="yyyy/m/d">
                   <c:v>43127</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="27" c:formatCode="yyyy/m/d">
                   <c:v>43128</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="28" c:formatCode="yyyy/m/d">
                   <c:v>43129</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="29" c:formatCode="yyyy/m/d">
                   <c:v>43130</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="30" c:formatCode="yyyy/m/d">
                   <c:v>43131</c:v>
                 </c:pt>
               </c:numCache>
@@ -6052,7 +6580,7 @@
                   <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -6187,7 +6715,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="195101344"/>
@@ -6256,7 +6783,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="195100784"/>
@@ -6285,7 +6811,7 @@
           <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr rtl="0">
+            <a:pPr>
               <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="lt1">
@@ -6297,7 +6823,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -6338,7 +6863,6 @@
       <a:pPr>
         <a:defRPr lang="zh-CN"/>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6386,6 +6910,7 @@
               <a:rPr lang="zh-CN"/>
               <a:t>总完成率</a:t>
             </a:r>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -6398,26 +6923,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="zh-CN" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="75000"/>
-                  <a:lumOff val="25000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -6474,7 +6979,6 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="zh-CN"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -6521,7 +7025,7 @@
                   <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -6663,7 +7167,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="295868992"/>
@@ -6710,6 +7213,25 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
         <c:crossAx val="295868432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
@@ -6764,7 +7286,6 @@
       <a:pPr>
         <a:defRPr lang="zh-CN"/>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6839,6 +7360,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6847,25 +7369,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="zh-CN" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -6874,10 +7377,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="8.0659505907626203E-2"/>
-          <c:y val="2.1043771043771E-2"/>
-          <c:w val="0.90099104905119898"/>
-          <c:h val="0.73818181818181805"/>
+          <c:x val="0.0806595059076262"/>
+          <c:y val="0.021043771043771"/>
+          <c:w val="0.900991049051199"/>
+          <c:h val="0.738181818181818"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -6935,103 +7438,106 @@
               </a:effectLst>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>'2018年3月概览'!$A$2:$A$32</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>yyyy/m/d</c:formatCode>
                 <c:ptCount val="31"/>
-                <c:pt idx="0">
+                <c:pt idx="0" c:formatCode="yyyy/m/d">
                   <c:v>43160</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="1" c:formatCode="yyyy/m/d">
                   <c:v>43161</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="2" c:formatCode="yyyy/m/d">
                   <c:v>43162</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="3" c:formatCode="yyyy/m/d">
                   <c:v>43163</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="4" c:formatCode="yyyy/m/d">
                   <c:v>43164</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="5" c:formatCode="yyyy/m/d">
                   <c:v>43165</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="6" c:formatCode="yyyy/m/d">
                   <c:v>43166</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="7" c:formatCode="yyyy/m/d">
                   <c:v>43167</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="8" c:formatCode="yyyy/m/d">
                   <c:v>43168</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="9" c:formatCode="yyyy/m/d">
                   <c:v>43169</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="10" c:formatCode="yyyy/m/d">
                   <c:v>43170</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="11" c:formatCode="yyyy/m/d">
                   <c:v>43171</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="12" c:formatCode="yyyy/m/d">
                   <c:v>43172</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="13" c:formatCode="yyyy/m/d">
                   <c:v>43173</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="14" c:formatCode="yyyy/m/d">
                   <c:v>43174</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="15" c:formatCode="yyyy/m/d">
                   <c:v>43175</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="16" c:formatCode="yyyy/m/d">
                   <c:v>43176</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="17" c:formatCode="yyyy/m/d">
                   <c:v>43177</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="18" c:formatCode="yyyy/m/d">
                   <c:v>43178</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="19" c:formatCode="yyyy/m/d">
                   <c:v>43179</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="20" c:formatCode="yyyy/m/d">
                   <c:v>43180</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="21" c:formatCode="yyyy/m/d">
                   <c:v>43181</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="22" c:formatCode="yyyy/m/d">
                   <c:v>43182</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="23" c:formatCode="yyyy/m/d">
                   <c:v>43183</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="24" c:formatCode="yyyy/m/d">
                   <c:v>43184</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="25" c:formatCode="yyyy/m/d">
                   <c:v>43185</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="26" c:formatCode="yyyy/m/d">
                   <c:v>43186</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="27" c:formatCode="yyyy/m/d">
                   <c:v>43187</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="28" c:formatCode="yyyy/m/d">
                   <c:v>43188</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="29" c:formatCode="yyyy/m/d">
                   <c:v>43189</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="30" c:formatCode="yyyy/m/d">
                   <c:v>43190</c:v>
                 </c:pt>
               </c:numCache>
@@ -7193,103 +7699,106 @@
               </a:effectLst>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>'2018年3月概览'!$A$2:$A$32</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>yyyy/m/d</c:formatCode>
                 <c:ptCount val="31"/>
-                <c:pt idx="0">
+                <c:pt idx="0" c:formatCode="yyyy/m/d">
                   <c:v>43160</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="1" c:formatCode="yyyy/m/d">
                   <c:v>43161</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="2" c:formatCode="yyyy/m/d">
                   <c:v>43162</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="3" c:formatCode="yyyy/m/d">
                   <c:v>43163</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="4" c:formatCode="yyyy/m/d">
                   <c:v>43164</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="5" c:formatCode="yyyy/m/d">
                   <c:v>43165</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="6" c:formatCode="yyyy/m/d">
                   <c:v>43166</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="7" c:formatCode="yyyy/m/d">
                   <c:v>43167</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="8" c:formatCode="yyyy/m/d">
                   <c:v>43168</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="9" c:formatCode="yyyy/m/d">
                   <c:v>43169</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="10" c:formatCode="yyyy/m/d">
                   <c:v>43170</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="11" c:formatCode="yyyy/m/d">
                   <c:v>43171</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="12" c:formatCode="yyyy/m/d">
                   <c:v>43172</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="13" c:formatCode="yyyy/m/d">
                   <c:v>43173</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="14" c:formatCode="yyyy/m/d">
                   <c:v>43174</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="15" c:formatCode="yyyy/m/d">
                   <c:v>43175</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="16" c:formatCode="yyyy/m/d">
                   <c:v>43176</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="17" c:formatCode="yyyy/m/d">
                   <c:v>43177</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="18" c:formatCode="yyyy/m/d">
                   <c:v>43178</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="19" c:formatCode="yyyy/m/d">
                   <c:v>43179</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="20" c:formatCode="yyyy/m/d">
                   <c:v>43180</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="21" c:formatCode="yyyy/m/d">
                   <c:v>43181</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="22" c:formatCode="yyyy/m/d">
                   <c:v>43182</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="23" c:formatCode="yyyy/m/d">
                   <c:v>43183</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="24" c:formatCode="yyyy/m/d">
                   <c:v>43184</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="25" c:formatCode="yyyy/m/d">
                   <c:v>43185</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="26" c:formatCode="yyyy/m/d">
                   <c:v>43186</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="27" c:formatCode="yyyy/m/d">
                   <c:v>43187</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="28" c:formatCode="yyyy/m/d">
                   <c:v>43188</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="29" c:formatCode="yyyy/m/d">
                   <c:v>43189</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="30" c:formatCode="yyyy/m/d">
                   <c:v>43190</c:v>
                 </c:pt>
               </c:numCache>
@@ -7446,7 +7955,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="295872352"/>
@@ -7515,7 +8023,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="295871792"/>
@@ -7556,7 +8063,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -7597,7 +8103,6 @@
       <a:pPr>
         <a:defRPr lang="zh-CN"/>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7645,9 +8150,11 @@
               <a:rPr lang="zh-CN"/>
               <a:t>总完成率</a:t>
             </a:r>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7656,26 +8163,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="zh-CN" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="75000"/>
-                  <a:lumOff val="25000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -7732,7 +8219,6 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="zh-CN"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -7745,6 +8231,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -7920,7 +8407,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="295600592"/>
@@ -7967,6 +8453,25 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
         <c:crossAx val="295875712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
@@ -8021,7 +8526,6 @@
       <a:pPr>
         <a:defRPr lang="zh-CN"/>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -8096,6 +8600,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8104,25 +8609,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="zh-CN" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -8131,10 +8617,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="8.0659505907626203E-2"/>
-          <c:y val="2.1043771043771E-2"/>
-          <c:w val="0.90099104905119898"/>
-          <c:h val="0.73818181818181805"/>
+          <c:x val="0.0806595059076262"/>
+          <c:y val="0.021043771043771"/>
+          <c:w val="0.900991049051199"/>
+          <c:h val="0.738181818181818"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -8192,103 +8678,106 @@
               </a:effectLst>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>'2018年5月概览'!$A$2:$A$32</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>yyyy/m/d</c:formatCode>
                 <c:ptCount val="31"/>
-                <c:pt idx="0">
+                <c:pt idx="0" c:formatCode="yyyy/m/d">
                   <c:v>43221</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="1" c:formatCode="yyyy/m/d">
                   <c:v>43222</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="2" c:formatCode="yyyy/m/d">
                   <c:v>43223</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="3" c:formatCode="yyyy/m/d">
                   <c:v>43224</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="4" c:formatCode="yyyy/m/d">
                   <c:v>43225</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="5" c:formatCode="yyyy/m/d">
                   <c:v>43226</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="6" c:formatCode="yyyy/m/d">
                   <c:v>43227</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="7" c:formatCode="yyyy/m/d">
                   <c:v>43228</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="8" c:formatCode="yyyy/m/d">
                   <c:v>43229</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="9" c:formatCode="yyyy/m/d">
                   <c:v>43230</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="10" c:formatCode="yyyy/m/d">
                   <c:v>43231</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="11" c:formatCode="yyyy/m/d">
                   <c:v>43232</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="12" c:formatCode="yyyy/m/d">
                   <c:v>43233</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="13" c:formatCode="yyyy/m/d">
                   <c:v>43234</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="14" c:formatCode="yyyy/m/d">
                   <c:v>43235</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="15" c:formatCode="yyyy/m/d">
                   <c:v>43236</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="16" c:formatCode="yyyy/m/d">
                   <c:v>43237</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="17" c:formatCode="yyyy/m/d">
                   <c:v>43238</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="18" c:formatCode="yyyy/m/d">
                   <c:v>43239</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="19" c:formatCode="yyyy/m/d">
                   <c:v>43240</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="20" c:formatCode="yyyy/m/d">
                   <c:v>43241</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="21" c:formatCode="yyyy/m/d">
                   <c:v>43242</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="22" c:formatCode="yyyy/m/d">
                   <c:v>43243</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="23" c:formatCode="yyyy/m/d">
                   <c:v>43244</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="24" c:formatCode="yyyy/m/d">
                   <c:v>43245</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="25" c:formatCode="yyyy/m/d">
                   <c:v>43246</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="26" c:formatCode="yyyy/m/d">
                   <c:v>43247</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="27" c:formatCode="yyyy/m/d">
                   <c:v>43248</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="28" c:formatCode="yyyy/m/d">
                   <c:v>43249</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="29" c:formatCode="yyyy/m/d">
                   <c:v>43250</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="30" c:formatCode="yyyy/m/d">
                   <c:v>43251</c:v>
                 </c:pt>
               </c:numCache>
@@ -8450,103 +8939,106 @@
               </a:effectLst>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>'2018年5月概览'!$A$2:$A$32</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>yyyy/m/d</c:formatCode>
                 <c:ptCount val="31"/>
-                <c:pt idx="0">
+                <c:pt idx="0" c:formatCode="yyyy/m/d">
                   <c:v>43221</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="1" c:formatCode="yyyy/m/d">
                   <c:v>43222</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="2" c:formatCode="yyyy/m/d">
                   <c:v>43223</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="3" c:formatCode="yyyy/m/d">
                   <c:v>43224</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="4" c:formatCode="yyyy/m/d">
                   <c:v>43225</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="5" c:formatCode="yyyy/m/d">
                   <c:v>43226</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="6" c:formatCode="yyyy/m/d">
                   <c:v>43227</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="7" c:formatCode="yyyy/m/d">
                   <c:v>43228</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="8" c:formatCode="yyyy/m/d">
                   <c:v>43229</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="9" c:formatCode="yyyy/m/d">
                   <c:v>43230</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="10" c:formatCode="yyyy/m/d">
                   <c:v>43231</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="11" c:formatCode="yyyy/m/d">
                   <c:v>43232</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="12" c:formatCode="yyyy/m/d">
                   <c:v>43233</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="13" c:formatCode="yyyy/m/d">
                   <c:v>43234</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="14" c:formatCode="yyyy/m/d">
                   <c:v>43235</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="15" c:formatCode="yyyy/m/d">
                   <c:v>43236</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="16" c:formatCode="yyyy/m/d">
                   <c:v>43237</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="17" c:formatCode="yyyy/m/d">
                   <c:v>43238</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="18" c:formatCode="yyyy/m/d">
                   <c:v>43239</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="19" c:formatCode="yyyy/m/d">
                   <c:v>43240</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="20" c:formatCode="yyyy/m/d">
                   <c:v>43241</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="21" c:formatCode="yyyy/m/d">
                   <c:v>43242</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="22" c:formatCode="yyyy/m/d">
                   <c:v>43243</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="23" c:formatCode="yyyy/m/d">
                   <c:v>43244</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="24" c:formatCode="yyyy/m/d">
                   <c:v>43245</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="25" c:formatCode="yyyy/m/d">
                   <c:v>43246</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="26" c:formatCode="yyyy/m/d">
                   <c:v>43247</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="27" c:formatCode="yyyy/m/d">
                   <c:v>43248</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="28" c:formatCode="yyyy/m/d">
                   <c:v>43249</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="29" c:formatCode="yyyy/m/d">
                   <c:v>43250</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="30" c:formatCode="yyyy/m/d">
                   <c:v>43251</c:v>
                 </c:pt>
               </c:numCache>
@@ -8703,7 +9195,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="295603952"/>
@@ -8772,7 +9263,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="295603392"/>
@@ -8813,7 +9303,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -8854,7 +9343,6 @@
       <a:pPr>
         <a:defRPr lang="zh-CN"/>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -8902,9 +9390,11 @@
               <a:rPr lang="zh-CN"/>
               <a:t>总完成率</a:t>
             </a:r>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8913,26 +9403,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="zh-CN" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="75000"/>
-                  <a:lumOff val="25000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -8989,7 +9459,6 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="zh-CN"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -9002,6 +9471,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -9177,7 +9647,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="295607872"/>
@@ -9224,6 +9693,25 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
         <c:crossAx val="295607312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
@@ -9278,7 +9766,6 @@
       <a:pPr>
         <a:defRPr lang="zh-CN"/>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -9353,6 +9840,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9361,25 +9849,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="zh-CN" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -9388,10 +9857,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="8.0659505907626203E-2"/>
-          <c:y val="2.1043771043771E-2"/>
-          <c:w val="0.90099104905119898"/>
-          <c:h val="0.73818181818181805"/>
+          <c:x val="0.0806595059076262"/>
+          <c:y val="0.021043771043771"/>
+          <c:w val="0.900991049051199"/>
+          <c:h val="0.738181818181818"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -9449,103 +9918,106 @@
               </a:effectLst>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>'2018年7月概览'!$A$2:$A$32</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>yyyy/m/d</c:formatCode>
                 <c:ptCount val="31"/>
-                <c:pt idx="0">
+                <c:pt idx="0" c:formatCode="yyyy/m/d">
                   <c:v>43282</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="1" c:formatCode="yyyy/m/d">
                   <c:v>43283</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="2" c:formatCode="yyyy/m/d">
                   <c:v>43284</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="3" c:formatCode="yyyy/m/d">
                   <c:v>43285</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="4" c:formatCode="yyyy/m/d">
                   <c:v>43286</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="5" c:formatCode="yyyy/m/d">
                   <c:v>43287</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="6" c:formatCode="yyyy/m/d">
                   <c:v>43288</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="7" c:formatCode="yyyy/m/d">
                   <c:v>43289</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="8" c:formatCode="yyyy/m/d">
                   <c:v>43290</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="9" c:formatCode="yyyy/m/d">
                   <c:v>43291</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="10" c:formatCode="yyyy/m/d">
                   <c:v>43292</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="11" c:formatCode="yyyy/m/d">
                   <c:v>43293</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="12" c:formatCode="yyyy/m/d">
                   <c:v>43294</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="13" c:formatCode="yyyy/m/d">
                   <c:v>43295</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="14" c:formatCode="yyyy/m/d">
                   <c:v>43296</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="15" c:formatCode="yyyy/m/d">
                   <c:v>43297</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="16" c:formatCode="yyyy/m/d">
                   <c:v>43298</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="17" c:formatCode="yyyy/m/d">
                   <c:v>43299</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="18" c:formatCode="yyyy/m/d">
                   <c:v>43300</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="19" c:formatCode="yyyy/m/d">
                   <c:v>43301</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="20" c:formatCode="yyyy/m/d">
                   <c:v>43302</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="21" c:formatCode="yyyy/m/d">
                   <c:v>43303</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="22" c:formatCode="yyyy/m/d">
                   <c:v>43304</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="23" c:formatCode="yyyy/m/d">
                   <c:v>43305</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="24" c:formatCode="yyyy/m/d">
                   <c:v>43306</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="25" c:formatCode="yyyy/m/d">
                   <c:v>43307</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="26" c:formatCode="yyyy/m/d">
                   <c:v>43308</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="27" c:formatCode="yyyy/m/d">
                   <c:v>43309</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="28" c:formatCode="yyyy/m/d">
                   <c:v>43310</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="29" c:formatCode="yyyy/m/d">
                   <c:v>43311</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="30" c:formatCode="yyyy/m/d">
                   <c:v>43312</c:v>
                 </c:pt>
               </c:numCache>
@@ -9707,103 +10179,106 @@
               </a:effectLst>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>'2018年7月概览'!$A$2:$A$32</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>yyyy/m/d</c:formatCode>
                 <c:ptCount val="31"/>
-                <c:pt idx="0">
+                <c:pt idx="0" c:formatCode="yyyy/m/d">
                   <c:v>43282</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="1" c:formatCode="yyyy/m/d">
                   <c:v>43283</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="2" c:formatCode="yyyy/m/d">
                   <c:v>43284</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="3" c:formatCode="yyyy/m/d">
                   <c:v>43285</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="4" c:formatCode="yyyy/m/d">
                   <c:v>43286</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="5" c:formatCode="yyyy/m/d">
                   <c:v>43287</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="6" c:formatCode="yyyy/m/d">
                   <c:v>43288</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="7" c:formatCode="yyyy/m/d">
                   <c:v>43289</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="8" c:formatCode="yyyy/m/d">
                   <c:v>43290</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="9" c:formatCode="yyyy/m/d">
                   <c:v>43291</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="10" c:formatCode="yyyy/m/d">
                   <c:v>43292</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="11" c:formatCode="yyyy/m/d">
                   <c:v>43293</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="12" c:formatCode="yyyy/m/d">
                   <c:v>43294</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="13" c:formatCode="yyyy/m/d">
                   <c:v>43295</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="14" c:formatCode="yyyy/m/d">
                   <c:v>43296</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="15" c:formatCode="yyyy/m/d">
                   <c:v>43297</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="16" c:formatCode="yyyy/m/d">
                   <c:v>43298</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="17" c:formatCode="yyyy/m/d">
                   <c:v>43299</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="18" c:formatCode="yyyy/m/d">
                   <c:v>43300</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="19" c:formatCode="yyyy/m/d">
                   <c:v>43301</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="20" c:formatCode="yyyy/m/d">
                   <c:v>43302</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="21" c:formatCode="yyyy/m/d">
                   <c:v>43303</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="22" c:formatCode="yyyy/m/d">
                   <c:v>43304</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="23" c:formatCode="yyyy/m/d">
                   <c:v>43305</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="24" c:formatCode="yyyy/m/d">
                   <c:v>43306</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="25" c:formatCode="yyyy/m/d">
                   <c:v>43307</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="26" c:formatCode="yyyy/m/d">
                   <c:v>43308</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="27" c:formatCode="yyyy/m/d">
                   <c:v>43309</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="28" c:formatCode="yyyy/m/d">
                   <c:v>43310</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="29" c:formatCode="yyyy/m/d">
                   <c:v>43311</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="30" c:formatCode="yyyy/m/d">
                   <c:v>43312</c:v>
                 </c:pt>
               </c:numCache>
@@ -9960,7 +10435,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="296270304"/>
@@ -10029,7 +10503,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="296269744"/>
@@ -10070,7 +10543,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -10111,7 +10583,6 @@
       <a:pPr>
         <a:defRPr lang="zh-CN"/>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -19699,7 +20170,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -19713,14 +20184,14 @@
       <xdr:row>67</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="4" name="图表 3"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="800100" y="6035040"/>
+        <a:ext cx="15750540" cy="7543800"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -19743,14 +20214,14 @@
       <xdr:row>91</xdr:row>
       <xdr:rowOff>87630</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="5" name="图表 4"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="800100" y="15179040"/>
+        <a:ext cx="15819755" cy="2830830"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -19764,7 +20235,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -19778,14 +20249,14 @@
       <xdr:row>75</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="6" name="图表 5"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="0" y="7498080"/>
+        <a:ext cx="14188440" cy="7543800"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -19808,14 +20279,14 @@
       <xdr:row>97</xdr:row>
       <xdr:rowOff>87630</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="7" name="图表 6"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="0" y="16276320"/>
+        <a:ext cx="14265275" cy="2830830"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -19829,7 +20300,7 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -19843,14 +20314,14 @@
       <xdr:row>75</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="图表 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="0" y="6217920"/>
+        <a:ext cx="14188440" cy="7543800"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -19873,14 +20344,14 @@
       <xdr:row>97</xdr:row>
       <xdr:rowOff>87630</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="图表 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="0" y="14996160"/>
+        <a:ext cx="14265275" cy="2830830"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -19894,7 +20365,7 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -19908,14 +20379,14 @@
       <xdr:row>75</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="图表 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="0" y="6217920"/>
+        <a:ext cx="14188440" cy="7543800"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -19938,14 +20409,14 @@
       <xdr:row>97</xdr:row>
       <xdr:rowOff>87630</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="图表 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="0" y="14996160"/>
+        <a:ext cx="14265275" cy="2830830"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -19959,7 +20430,7 @@
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -19973,14 +20444,14 @@
       <xdr:row>75</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="图表 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="0" y="6217920"/>
+        <a:ext cx="14188440" cy="7543800"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -20003,14 +20474,14 @@
       <xdr:row>97</xdr:row>
       <xdr:rowOff>87630</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="图表 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="0" y="14996160"/>
+        <a:ext cx="14265275" cy="2830830"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -20024,7 +20495,7 @@
 </file>
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -20038,14 +20509,14 @@
       <xdr:row>75</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="图表 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="0" y="6217920"/>
+        <a:ext cx="14188440" cy="7543800"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -20068,14 +20539,14 @@
       <xdr:row>97</xdr:row>
       <xdr:rowOff>87630</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="图表 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="0" y="14996160"/>
+        <a:ext cx="14265275" cy="2830830"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -20089,7 +20560,7 @@
 </file>
 
 <file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -20103,14 +20574,14 @@
       <xdr:row>75</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="图表 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="0" y="6217920"/>
+        <a:ext cx="14188440" cy="7543800"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -20133,14 +20604,14 @@
       <xdr:row>97</xdr:row>
       <xdr:rowOff>87630</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="图表 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="0" y="14996160"/>
+        <a:ext cx="14265275" cy="2830830"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -20154,7 +20625,7 @@
 </file>
 
 <file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -20168,14 +20639,14 @@
       <xdr:row>75</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="图表 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="0" y="6217920"/>
+        <a:ext cx="14188440" cy="7543800"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -20198,14 +20669,14 @@
       <xdr:row>97</xdr:row>
       <xdr:rowOff>87630</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="图表 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="0" y="14996160"/>
+        <a:ext cx="14265275" cy="2830830"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -20261,7 +20732,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -20296,7 +20767,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -20499,30 +20970,30 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G374"/>
   <sheetViews>
     <sheetView topLeftCell="A67" workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="1"/>
-    <col min="2" max="2" width="17.77734375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.44140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" customWidth="1"/>
-    <col min="5" max="5" width="62.21875" customWidth="1"/>
-    <col min="6" max="6" width="66.6640625" customWidth="1"/>
-    <col min="7" max="7" width="30.109375" customWidth="1"/>
+    <col min="1" max="1" width="11.6666666666667" customWidth="1"/>
+    <col min="2" max="2" width="17.7777777777778" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.4444444444444" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.6666666666667" customWidth="1"/>
+    <col min="5" max="5" width="62.2222222222222" customWidth="1"/>
+    <col min="6" max="6" width="66.6666666666667" customWidth="1"/>
+    <col min="7" max="7" width="30.1111111111111" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -20539,7 +21010,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="2" ht="28.8" spans="1:6">
       <c r="A2" s="3">
         <v>43080</v>
       </c>
@@ -20556,16 +21027,16 @@
       <c r="E2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="3" ht="57.6" spans="1:6">
       <c r="A3" s="3">
         <v>43081</v>
       </c>
       <c r="B3" s="4">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="C3" s="2">
         <v>0.7</v>
@@ -20581,7 +21052,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="4" ht="43.2" spans="1:6">
       <c r="A4" s="3">
         <v>43082</v>
       </c>
@@ -20593,7 +21064,7 @@
       </c>
       <c r="D4" s="2">
         <f t="shared" si="0"/>
-        <v>0.85000000000000009</v>
+        <v>0.85</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>9</v>
@@ -20602,7 +21073,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="5" ht="28.8" spans="1:6">
       <c r="A5" s="3">
         <v>43083</v>
       </c>
@@ -20621,7 +21092,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="3">
         <v>43084</v>
       </c>
@@ -20640,7 +21111,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" s="3">
         <v>43085</v>
       </c>
@@ -20655,7 +21126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" s="3">
         <v>43086</v>
       </c>
@@ -20670,7 +21141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" s="3">
         <v>43087</v>
       </c>
@@ -20688,7 +21159,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10" s="3">
         <v>43088</v>
       </c>
@@ -20709,7 +21180,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" s="3">
         <v>43089</v>
       </c>
@@ -20724,14 +21195,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12" s="3">
         <v>43090</v>
       </c>
       <c r="B12" s="4">
         <v>0.6</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="9">
         <v>0</v>
       </c>
       <c r="D12" s="2">
@@ -20739,7 +21210,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13" s="3">
         <v>43091</v>
       </c>
@@ -20754,14 +21225,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="A14" s="3">
         <v>43092</v>
       </c>
       <c r="B14" s="4">
         <v>0</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="9">
         <v>0</v>
       </c>
       <c r="D14" s="2">
@@ -20769,14 +21240,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="A15" s="3">
         <v>43093</v>
       </c>
       <c r="B15" s="4">
         <v>0</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="9">
         <v>0</v>
       </c>
       <c r="D15" s="2">
@@ -20784,7 +21255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" s="3">
         <v>43094</v>
       </c>
@@ -20802,7 +21273,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" s="3">
         <v>43095</v>
       </c>
@@ -20820,7 +21291,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" s="3">
         <v>43096</v>
       </c>
@@ -20841,14 +21312,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19" s="3">
         <v>43097</v>
       </c>
       <c r="B19" s="4">
         <v>0.5</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="9">
         <v>1</v>
       </c>
       <c r="D19" s="2">
@@ -20862,14 +21333,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20" s="3">
         <v>43098</v>
       </c>
       <c r="B20" s="4">
         <v>1.2</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="9">
         <v>0.5</v>
       </c>
       <c r="D20" s="2">
@@ -20883,14 +21354,14 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="A21" s="3">
         <v>43099</v>
       </c>
       <c r="B21" s="4">
         <v>0</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="9">
         <v>0</v>
       </c>
       <c r="D21" s="2">
@@ -20901,14 +21372,14 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5">
       <c r="A22" s="3">
         <v>43100</v>
       </c>
       <c r="B22" s="4">
         <v>0</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="9">
         <v>0</v>
       </c>
       <c r="D22" s="2">
@@ -20919,1105 +21390,1105 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1">
       <c r="A23" s="3"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="A24" s="3"/>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="3"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" spans="1:1">
       <c r="A26" s="3"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1">
       <c r="A27" s="3"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1">
       <c r="A28" s="3"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1">
       <c r="A29" s="3"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1">
       <c r="A30" s="3"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1">
       <c r="A31" s="3"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1">
       <c r="A32" s="3"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1">
       <c r="A33" s="3"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1">
       <c r="A34" s="3"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1">
       <c r="A35" s="3"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1">
       <c r="A36" s="3"/>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1">
       <c r="A37" s="3"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1">
       <c r="A38" s="3"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1">
       <c r="A39" s="3"/>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1">
       <c r="A40" s="3"/>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1">
       <c r="A41" s="3"/>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1">
       <c r="A42" s="3"/>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1">
       <c r="A43" s="3"/>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1">
       <c r="A44" s="3"/>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1">
       <c r="A45" s="3"/>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1">
       <c r="A46" s="3"/>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1">
       <c r="A47" s="3"/>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1">
       <c r="A48" s="3"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1">
       <c r="A49" s="3"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1">
       <c r="A50" s="3"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1">
       <c r="A51" s="3"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1">
       <c r="A52" s="3"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1">
       <c r="A53" s="3"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1">
       <c r="A54" s="3"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1">
       <c r="A55" s="3"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1">
       <c r="A56" s="3"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1">
       <c r="A57" s="3"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1">
       <c r="A58" s="3"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1">
       <c r="A59" s="3"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1">
       <c r="A60" s="3"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1">
       <c r="A61" s="3"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1">
       <c r="A62" s="3"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1">
       <c r="A63" s="3"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1">
       <c r="A64" s="3"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1">
       <c r="A65" s="3"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1">
       <c r="A66" s="3"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1">
       <c r="A67" s="3"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1">
       <c r="A68" s="3"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1">
       <c r="A69" s="3"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1">
       <c r="A70" s="3"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1">
       <c r="A71" s="3"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1">
       <c r="A72" s="3"/>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1">
       <c r="A73" s="3"/>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1">
       <c r="A74" s="3"/>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:1">
       <c r="A75" s="3"/>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1">
       <c r="A76" s="3"/>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:1">
       <c r="A77" s="3"/>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1">
       <c r="A78" s="3"/>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:1">
       <c r="A79" s="3"/>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:1">
       <c r="A80" s="3"/>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1">
       <c r="A81" s="3"/>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1">
       <c r="A82" s="3"/>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1">
       <c r="A83" s="3"/>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1">
       <c r="A84" s="3"/>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1">
       <c r="A85" s="3"/>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1">
       <c r="A86" s="3"/>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1">
       <c r="A87" s="3"/>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1">
       <c r="A88" s="3"/>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1">
       <c r="A89" s="3"/>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1">
       <c r="A90" s="3"/>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1">
       <c r="A91" s="3"/>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1">
       <c r="A92" s="3"/>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1">
       <c r="A93" s="3"/>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1">
       <c r="A94" s="3"/>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:1">
       <c r="A95" s="3"/>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:1">
       <c r="A96" s="3"/>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1">
       <c r="A97" s="3"/>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1">
       <c r="A98" s="3"/>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:1">
       <c r="A99" s="3"/>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1">
       <c r="A100" s="3"/>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:1">
       <c r="A101" s="3"/>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:1">
       <c r="A102" s="3"/>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:1">
       <c r="A103" s="3"/>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:1">
       <c r="A104" s="3"/>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:1">
       <c r="A105" s="3"/>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:1">
       <c r="A106" s="3"/>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:1">
       <c r="A107" s="3"/>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:1">
       <c r="A108" s="3"/>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:1">
       <c r="A109" s="3"/>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:1">
       <c r="A110" s="3"/>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:1">
       <c r="A111" s="3"/>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:1">
       <c r="A112" s="3"/>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:1">
       <c r="A113" s="3"/>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:1">
       <c r="A114" s="3"/>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:1">
       <c r="A115" s="3"/>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:1">
       <c r="A116" s="3"/>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:1">
       <c r="A117" s="3"/>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:1">
       <c r="A118" s="3"/>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:1">
       <c r="A119" s="3"/>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:1">
       <c r="A120" s="3"/>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:1">
       <c r="A121" s="3"/>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:1">
       <c r="A122" s="3"/>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:1">
       <c r="A123" s="3"/>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:1">
       <c r="A124" s="3"/>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:1">
       <c r="A125" s="3"/>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:1">
       <c r="A126" s="3"/>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:1">
       <c r="A127" s="3"/>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:1">
       <c r="A128" s="3"/>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:1">
       <c r="A129" s="3"/>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:1">
       <c r="A130" s="3"/>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:1">
       <c r="A131" s="3"/>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:1">
       <c r="A132" s="3"/>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:1">
       <c r="A133" s="3"/>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:1">
       <c r="A134" s="3"/>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:1">
       <c r="A135" s="3"/>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:1">
       <c r="A136" s="3"/>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:1">
       <c r="A137" s="3"/>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:1">
       <c r="A138" s="3"/>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:1">
       <c r="A139" s="3"/>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:1">
       <c r="A140" s="3"/>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:1">
       <c r="A141" s="3"/>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:1">
       <c r="A142" s="3"/>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:1">
       <c r="A143" s="3"/>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:1">
       <c r="A144" s="3"/>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:1">
       <c r="A145" s="3"/>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:1">
       <c r="A146" s="3"/>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:1">
       <c r="A147" s="3"/>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:1">
       <c r="A148" s="3"/>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:1">
       <c r="A149" s="3"/>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:1">
       <c r="A150" s="3"/>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:1">
       <c r="A151" s="3"/>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:1">
       <c r="A152" s="3"/>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:1">
       <c r="A153" s="3"/>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:1">
       <c r="A154" s="3"/>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:1">
       <c r="A155" s="3"/>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:1">
       <c r="A156" s="3"/>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:1">
       <c r="A157" s="3"/>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:1">
       <c r="A158" s="3"/>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:1">
       <c r="A159" s="3"/>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:1">
       <c r="A160" s="3"/>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:1">
       <c r="A161" s="3"/>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:1">
       <c r="A162" s="3"/>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:1">
       <c r="A163" s="3"/>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:1">
       <c r="A164" s="3"/>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:1">
       <c r="A165" s="3"/>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:1">
       <c r="A166" s="3"/>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:1">
       <c r="A167" s="3"/>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:1">
       <c r="A168" s="3"/>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:1">
       <c r="A169" s="3"/>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:1">
       <c r="A170" s="3"/>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:1">
       <c r="A171" s="3"/>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:1">
       <c r="A172" s="3"/>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:1">
       <c r="A173" s="3"/>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:1">
       <c r="A174" s="3"/>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:1">
       <c r="A175" s="3"/>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:1">
       <c r="A176" s="3"/>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:1">
       <c r="A177" s="3"/>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:1">
       <c r="A178" s="3"/>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:1">
       <c r="A179" s="3"/>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:1">
       <c r="A180" s="3"/>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:1">
       <c r="A181" s="3"/>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:1">
       <c r="A182" s="3"/>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:1">
       <c r="A183" s="3"/>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:1">
       <c r="A184" s="3"/>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:1">
       <c r="A185" s="3"/>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:1">
       <c r="A186" s="3"/>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:1">
       <c r="A187" s="3"/>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:1">
       <c r="A188" s="3"/>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:1">
       <c r="A189" s="3"/>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:1">
       <c r="A190" s="3"/>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:1">
       <c r="A191" s="3"/>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:1">
       <c r="A192" s="3"/>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:1">
       <c r="A193" s="3"/>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:1">
       <c r="A194" s="3"/>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:1">
       <c r="A195" s="3"/>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:1">
       <c r="A196" s="3"/>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:1">
       <c r="A197" s="3"/>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:1">
       <c r="A198" s="3"/>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:1">
       <c r="A199" s="3"/>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:1">
       <c r="A200" s="3"/>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:1">
       <c r="A201" s="3"/>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:1">
       <c r="A202" s="3"/>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:1">
       <c r="A203" s="3"/>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:1">
       <c r="A204" s="3"/>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:1">
       <c r="A205" s="3"/>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:1">
       <c r="A206" s="3"/>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:1">
       <c r="A207" s="3"/>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:1">
       <c r="A208" s="3"/>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:1">
       <c r="A209" s="3"/>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:1">
       <c r="A210" s="3"/>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:1">
       <c r="A211" s="3"/>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:1">
       <c r="A212" s="3"/>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:1">
       <c r="A213" s="3"/>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:1">
       <c r="A214" s="3"/>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:1">
       <c r="A215" s="3"/>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:1">
       <c r="A216" s="3"/>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:1">
       <c r="A217" s="3"/>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:1">
       <c r="A218" s="3"/>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:1">
       <c r="A219" s="3"/>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:1">
       <c r="A220" s="3"/>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:1">
       <c r="A221" s="3"/>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:1">
       <c r="A222" s="3"/>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:1">
       <c r="A223" s="3"/>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:1">
       <c r="A224" s="3"/>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:1">
       <c r="A225" s="3"/>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:1">
       <c r="A226" s="3"/>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:1">
       <c r="A227" s="3"/>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:1">
       <c r="A228" s="3"/>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:1">
       <c r="A229" s="3"/>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:1">
       <c r="A230" s="3"/>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:1">
       <c r="A231" s="3"/>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:1">
       <c r="A232" s="3"/>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:1">
       <c r="A233" s="3"/>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:1">
       <c r="A234" s="3"/>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:1">
       <c r="A235" s="3"/>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:1">
       <c r="A236" s="3"/>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:1">
       <c r="A237" s="3"/>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:1">
       <c r="A238" s="3"/>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:1">
       <c r="A239" s="3"/>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:1">
       <c r="A240" s="3"/>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:1">
       <c r="A241" s="3"/>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:1">
       <c r="A242" s="3"/>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:1">
       <c r="A243" s="3"/>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:1">
       <c r="A244" s="3"/>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:1">
       <c r="A245" s="3"/>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:1">
       <c r="A246" s="3"/>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:1">
       <c r="A247" s="3"/>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:1">
       <c r="A248" s="3"/>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:1">
       <c r="A249" s="3"/>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:1">
       <c r="A250" s="3"/>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:1">
       <c r="A251" s="3"/>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:1">
       <c r="A252" s="3"/>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:1">
       <c r="A253" s="3"/>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:1">
       <c r="A254" s="3"/>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:1">
       <c r="A255" s="3"/>
     </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:1">
       <c r="A256" s="3"/>
     </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:1">
       <c r="A257" s="3"/>
     </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:1">
       <c r="A258" s="3"/>
     </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:1">
       <c r="A259" s="3"/>
     </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:1">
       <c r="A260" s="3"/>
     </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:1">
       <c r="A261" s="3"/>
     </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:1">
       <c r="A262" s="3"/>
     </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:1">
       <c r="A263" s="3"/>
     </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:1">
       <c r="A264" s="3"/>
     </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:1">
       <c r="A265" s="3"/>
     </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:1">
       <c r="A266" s="3"/>
     </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:1">
       <c r="A267" s="3"/>
     </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:1">
       <c r="A268" s="3"/>
     </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:1">
       <c r="A269" s="3"/>
     </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:1">
       <c r="A270" s="3"/>
     </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:1">
       <c r="A271" s="3"/>
     </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:1">
       <c r="A272" s="3"/>
     </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:1">
       <c r="A273" s="3"/>
     </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:1">
       <c r="A274" s="3"/>
     </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:1">
       <c r="A275" s="3"/>
     </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:1">
       <c r="A276" s="3"/>
     </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:1">
       <c r="A277" s="3"/>
     </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:1">
       <c r="A278" s="3"/>
     </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:1">
       <c r="A279" s="3"/>
     </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:1">
       <c r="A280" s="3"/>
     </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:1">
       <c r="A281" s="3"/>
     </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:1">
       <c r="A282" s="3"/>
     </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:1">
       <c r="A283" s="3"/>
     </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:1">
       <c r="A284" s="3"/>
     </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:1">
       <c r="A285" s="3"/>
     </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:1">
       <c r="A286" s="3"/>
     </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:1">
       <c r="A287" s="3"/>
     </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:1">
       <c r="A288" s="3"/>
     </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:1">
       <c r="A289" s="3"/>
     </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:1">
       <c r="A290" s="3"/>
     </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:1">
       <c r="A291" s="3"/>
     </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:1">
       <c r="A292" s="3"/>
     </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:1">
       <c r="A293" s="3"/>
     </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:1">
       <c r="A294" s="3"/>
     </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:1">
       <c r="A295" s="3"/>
     </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:1">
       <c r="A296" s="3"/>
     </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:1">
       <c r="A297" s="3"/>
     </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:1">
       <c r="A298" s="3"/>
     </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:1">
       <c r="A299" s="3"/>
     </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:1">
       <c r="A300" s="3"/>
     </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:1">
       <c r="A301" s="3"/>
     </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:1">
       <c r="A302" s="3"/>
     </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:1">
       <c r="A303" s="3"/>
     </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:1">
       <c r="A304" s="3"/>
     </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:1">
       <c r="A305" s="3"/>
     </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:1">
       <c r="A306" s="3"/>
     </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:1">
       <c r="A307" s="3"/>
     </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:1">
       <c r="A308" s="3"/>
     </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:1">
       <c r="A309" s="3"/>
     </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:1">
       <c r="A310" s="3"/>
     </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:1">
       <c r="A311" s="3"/>
     </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:1">
       <c r="A312" s="3"/>
     </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:1">
       <c r="A313" s="3"/>
     </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:1">
       <c r="A314" s="3"/>
     </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:1">
       <c r="A315" s="3"/>
     </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:1">
       <c r="A316" s="3"/>
     </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:1">
       <c r="A317" s="3"/>
     </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:1">
       <c r="A318" s="3"/>
     </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:1">
       <c r="A319" s="3"/>
     </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:1">
       <c r="A320" s="3"/>
     </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:1">
       <c r="A321" s="3"/>
     </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:1">
       <c r="A322" s="3"/>
     </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:1">
       <c r="A323" s="3"/>
     </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:1">
       <c r="A324" s="3"/>
     </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:1">
       <c r="A325" s="3"/>
     </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:1">
       <c r="A326" s="3"/>
     </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:1">
       <c r="A327" s="3"/>
     </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:1">
       <c r="A328" s="3"/>
     </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:1">
       <c r="A329" s="3"/>
     </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:1">
       <c r="A330" s="3"/>
     </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:1">
       <c r="A331" s="3"/>
     </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:1">
       <c r="A332" s="3"/>
     </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:1">
       <c r="A333" s="3"/>
     </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:1">
       <c r="A334" s="3"/>
     </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:1">
       <c r="A335" s="3"/>
     </row>
-    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:1">
       <c r="A336" s="3"/>
     </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:1">
       <c r="A337" s="3"/>
     </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:1">
       <c r="A338" s="3"/>
     </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:1">
       <c r="A339" s="3"/>
     </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:1">
       <c r="A340" s="3"/>
     </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:1">
       <c r="A341" s="3"/>
     </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:1">
       <c r="A342" s="3"/>
     </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:1">
       <c r="A343" s="3"/>
     </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:1">
       <c r="A344" s="3"/>
     </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:1">
       <c r="A345" s="3"/>
     </row>
-    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:1">
       <c r="A346" s="3"/>
     </row>
-    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:1">
       <c r="A347" s="3"/>
     </row>
-    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:1">
       <c r="A348" s="3"/>
     </row>
-    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:1">
       <c r="A349" s="3"/>
     </row>
-    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:1">
       <c r="A350" s="3"/>
     </row>
-    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:1">
       <c r="A351" s="3"/>
     </row>
-    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:1">
       <c r="A352" s="3"/>
     </row>
-    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:1">
       <c r="A353" s="3"/>
     </row>
-    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:1">
       <c r="A354" s="3"/>
     </row>
-    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:1">
       <c r="A355" s="3"/>
     </row>
-    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:1">
       <c r="A356" s="3"/>
     </row>
-    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:1">
       <c r="A357" s="3"/>
     </row>
-    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:1">
       <c r="A358" s="3"/>
     </row>
-    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:1">
       <c r="A359" s="3"/>
     </row>
-    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:1">
       <c r="A360" s="3"/>
     </row>
-    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:1">
       <c r="A361" s="3"/>
     </row>
-    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:1">
       <c r="A362" s="3"/>
     </row>
-    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:1">
       <c r="A363" s="3"/>
     </row>
-    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:1">
       <c r="A364" s="3"/>
     </row>
-    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:1">
       <c r="A365" s="3"/>
     </row>
-    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:1">
       <c r="A366" s="3"/>
     </row>
-    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:1">
       <c r="A367" s="3"/>
     </row>
-    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:1">
       <c r="A368" s="3"/>
     </row>
-    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:1">
       <c r="A369" s="3"/>
     </row>
-    <row r="370" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:1">
       <c r="A370" s="3"/>
     </row>
-    <row r="371" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:1">
       <c r="A371" s="3"/>
     </row>
-    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:1">
       <c r="A372" s="3"/>
     </row>
-    <row r="373" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:1">
       <c r="A373" s="3"/>
     </row>
-    <row r="374" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:1">
       <c r="A374" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B24:F25"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" customWidth="1"/>
-    <col min="2" max="2" width="19.88671875" customWidth="1"/>
-    <col min="3" max="3" width="20.44140625" customWidth="1"/>
-    <col min="4" max="4" width="15.88671875" customWidth="1"/>
-    <col min="5" max="5" width="28.77734375" customWidth="1"/>
-    <col min="6" max="6" width="32.33203125" customWidth="1"/>
-    <col min="7" max="7" width="23.44140625" customWidth="1"/>
+    <col min="1" max="1" width="15.6666666666667" customWidth="1"/>
+    <col min="2" max="2" width="19.8888888888889" customWidth="1"/>
+    <col min="3" max="3" width="20.4444444444444" customWidth="1"/>
+    <col min="4" max="4" width="15.8888888888889" customWidth="1"/>
+    <col min="5" max="5" width="28.7777777777778" customWidth="1"/>
+    <col min="6" max="6" width="32.3333333333333" customWidth="1"/>
+    <col min="7" max="7" width="23.4444444444444" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -22034,7 +22505,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="3">
         <v>43101</v>
       </c>
@@ -22052,7 +22523,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" s="3">
         <v>43102</v>
       </c>
@@ -22066,14 +22537,14 @@
         <f>SUM(B3,C3)/2</f>
         <v>0.75</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" ht="43.2" spans="1:6">
       <c r="A4" s="3">
         <v>43103</v>
       </c>
@@ -22087,29 +22558,35 @@
         <f t="shared" ref="D4:D32" si="0">SUM(B4,C4)/2</f>
         <v>0.8</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" ht="86.4" spans="1:6">
       <c r="A5" s="3">
         <v>43104</v>
       </c>
       <c r="B5" s="4">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="C5" s="4">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="D5" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.9</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="3">
         <v>43105</v>
       </c>
@@ -22124,7 +22601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" s="3">
         <v>43106</v>
       </c>
@@ -22139,7 +22616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" s="3">
         <v>43107</v>
       </c>
@@ -22154,7 +22631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" s="3">
         <v>43108</v>
       </c>
@@ -22169,7 +22646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" s="3">
         <v>43109</v>
       </c>
@@ -22184,7 +22661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" s="3">
         <v>43110</v>
       </c>
@@ -22199,7 +22676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12" s="3">
         <v>43111</v>
       </c>
@@ -22214,7 +22691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13" s="3">
         <v>43112</v>
       </c>
@@ -22229,7 +22706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="A14" s="3">
         <v>43113</v>
       </c>
@@ -22244,7 +22721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="A15" s="3">
         <v>43114</v>
       </c>
@@ -22259,7 +22736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="A16" s="3">
         <v>43115</v>
       </c>
@@ -22274,7 +22751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="A17" s="3">
         <v>43116</v>
       </c>
@@ -22289,7 +22766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4">
       <c r="A18" s="3">
         <v>43117</v>
       </c>
@@ -22304,7 +22781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4">
       <c r="A19" s="3">
         <v>43118</v>
       </c>
@@ -22319,7 +22796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4">
       <c r="A20" s="3">
         <v>43119</v>
       </c>
@@ -22334,7 +22811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4">
       <c r="A21" s="3">
         <v>43120</v>
       </c>
@@ -22349,7 +22826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4">
       <c r="A22" s="3">
         <v>43121</v>
       </c>
@@ -22364,7 +22841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4">
       <c r="A23" s="3">
         <v>43122</v>
       </c>
@@ -22379,7 +22856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4">
       <c r="A24" s="3">
         <v>43123</v>
       </c>
@@ -22394,7 +22871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4">
       <c r="A25" s="3">
         <v>43124</v>
       </c>
@@ -22409,7 +22886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4">
       <c r="A26" s="3">
         <v>43125</v>
       </c>
@@ -22424,7 +22901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4">
       <c r="A27" s="3">
         <v>43126</v>
       </c>
@@ -22439,7 +22916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4">
       <c r="A28" s="3">
         <v>43127</v>
       </c>
@@ -22454,7 +22931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4">
       <c r="A29" s="3">
         <v>43128</v>
       </c>
@@ -22469,7 +22946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4">
       <c r="A30" s="3">
         <v>43129</v>
       </c>
@@ -22484,7 +22961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4">
       <c r="A31" s="3">
         <v>43130</v>
       </c>
@@ -22499,7 +22976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4">
       <c r="A32" s="3">
         <v>43131</v>
       </c>
@@ -22515,33 +22992,34 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView topLeftCell="A58" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" customWidth="1"/>
-    <col min="2" max="2" width="19.88671875" customWidth="1"/>
-    <col min="3" max="3" width="20.44140625" customWidth="1"/>
-    <col min="4" max="4" width="15.88671875" customWidth="1"/>
-    <col min="5" max="5" width="28.77734375" customWidth="1"/>
-    <col min="6" max="6" width="32.33203125" customWidth="1"/>
-    <col min="7" max="7" width="23.44140625" customWidth="1"/>
+    <col min="1" max="1" width="15.6666666666667" customWidth="1"/>
+    <col min="2" max="2" width="19.8888888888889" customWidth="1"/>
+    <col min="3" max="3" width="20.4444444444444" customWidth="1"/>
+    <col min="4" max="4" width="15.8888888888889" customWidth="1"/>
+    <col min="5" max="5" width="28.7777777777778" customWidth="1"/>
+    <col min="6" max="6" width="32.3333333333333" customWidth="1"/>
+    <col min="7" max="7" width="23.4444444444444" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -22558,7 +23036,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" s="3">
         <v>43160</v>
       </c>
@@ -22573,7 +23051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" s="3">
         <v>43161</v>
       </c>
@@ -22588,7 +23066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" s="3">
         <v>43162</v>
       </c>
@@ -22603,7 +23081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" s="3">
         <v>43163</v>
       </c>
@@ -22618,7 +23096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" s="3">
         <v>43164</v>
       </c>
@@ -22633,7 +23111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" s="3">
         <v>43165</v>
       </c>
@@ -22648,7 +23126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" s="3">
         <v>43166</v>
       </c>
@@ -22663,7 +23141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" s="3">
         <v>43167</v>
       </c>
@@ -22678,7 +23156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" s="3">
         <v>43168</v>
       </c>
@@ -22693,7 +23171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" s="3">
         <v>43169</v>
       </c>
@@ -22708,7 +23186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12" s="3">
         <v>43170</v>
       </c>
@@ -22723,7 +23201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13" s="3">
         <v>43171</v>
       </c>
@@ -22738,7 +23216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="A14" s="3">
         <v>43172</v>
       </c>
@@ -22753,7 +23231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="A15" s="3">
         <v>43173</v>
       </c>
@@ -22768,7 +23246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="A16" s="3">
         <v>43174</v>
       </c>
@@ -22783,7 +23261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="A17" s="3">
         <v>43175</v>
       </c>
@@ -22798,7 +23276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4">
       <c r="A18" s="3">
         <v>43176</v>
       </c>
@@ -22813,7 +23291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4">
       <c r="A19" s="3">
         <v>43177</v>
       </c>
@@ -22828,7 +23306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4">
       <c r="A20" s="3">
         <v>43178</v>
       </c>
@@ -22843,7 +23321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4">
       <c r="A21" s="3">
         <v>43179</v>
       </c>
@@ -22858,7 +23336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4">
       <c r="A22" s="3">
         <v>43180</v>
       </c>
@@ -22873,7 +23351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4">
       <c r="A23" s="3">
         <v>43181</v>
       </c>
@@ -22888,7 +23366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4">
       <c r="A24" s="3">
         <v>43182</v>
       </c>
@@ -22903,7 +23381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4">
       <c r="A25" s="3">
         <v>43183</v>
       </c>
@@ -22918,7 +23396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4">
       <c r="A26" s="3">
         <v>43184</v>
       </c>
@@ -22933,7 +23411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4">
       <c r="A27" s="3">
         <v>43185</v>
       </c>
@@ -22948,7 +23426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4">
       <c r="A28" s="3">
         <v>43186</v>
       </c>
@@ -22963,7 +23441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4">
       <c r="A29" s="3">
         <v>43187</v>
       </c>
@@ -22978,7 +23456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4">
       <c r="A30" s="3">
         <v>43188</v>
       </c>
@@ -22993,7 +23471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4">
       <c r="A31" s="3">
         <v>43189</v>
       </c>
@@ -23008,7 +23486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4">
       <c r="A32" s="3">
         <v>43190</v>
       </c>
@@ -23024,32 +23502,33 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" customWidth="1"/>
-    <col min="2" max="2" width="19.88671875" customWidth="1"/>
-    <col min="3" max="3" width="20.44140625" customWidth="1"/>
-    <col min="4" max="4" width="15.88671875" customWidth="1"/>
-    <col min="5" max="5" width="28.77734375" customWidth="1"/>
-    <col min="6" max="6" width="32.33203125" customWidth="1"/>
-    <col min="7" max="7" width="23.44140625" customWidth="1"/>
+    <col min="1" max="1" width="15.6666666666667" customWidth="1"/>
+    <col min="2" max="2" width="19.8888888888889" customWidth="1"/>
+    <col min="3" max="3" width="20.4444444444444" customWidth="1"/>
+    <col min="4" max="4" width="15.8888888888889" customWidth="1"/>
+    <col min="5" max="5" width="28.7777777777778" customWidth="1"/>
+    <col min="6" max="6" width="32.3333333333333" customWidth="1"/>
+    <col min="7" max="7" width="23.4444444444444" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -23066,7 +23545,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" s="3">
         <v>43221</v>
       </c>
@@ -23081,7 +23560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" s="3">
         <v>43222</v>
       </c>
@@ -23096,7 +23575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" s="3">
         <v>43223</v>
       </c>
@@ -23111,7 +23590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" s="3">
         <v>43224</v>
       </c>
@@ -23126,7 +23605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" s="3">
         <v>43225</v>
       </c>
@@ -23141,7 +23620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" s="3">
         <v>43226</v>
       </c>
@@ -23156,7 +23635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" s="3">
         <v>43227</v>
       </c>
@@ -23171,7 +23650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" s="3">
         <v>43228</v>
       </c>
@@ -23186,7 +23665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" s="3">
         <v>43229</v>
       </c>
@@ -23201,7 +23680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" s="3">
         <v>43230</v>
       </c>
@@ -23216,7 +23695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12" s="3">
         <v>43231</v>
       </c>
@@ -23231,7 +23710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13" s="3">
         <v>43232</v>
       </c>
@@ -23246,7 +23725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="A14" s="3">
         <v>43233</v>
       </c>
@@ -23261,7 +23740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="A15" s="3">
         <v>43234</v>
       </c>
@@ -23276,7 +23755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="A16" s="3">
         <v>43235</v>
       </c>
@@ -23291,7 +23770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="A17" s="3">
         <v>43236</v>
       </c>
@@ -23306,7 +23785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4">
       <c r="A18" s="3">
         <v>43237</v>
       </c>
@@ -23321,7 +23800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4">
       <c r="A19" s="3">
         <v>43238</v>
       </c>
@@ -23336,7 +23815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4">
       <c r="A20" s="3">
         <v>43239</v>
       </c>
@@ -23351,7 +23830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4">
       <c r="A21" s="3">
         <v>43240</v>
       </c>
@@ -23366,7 +23845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4">
       <c r="A22" s="3">
         <v>43241</v>
       </c>
@@ -23381,7 +23860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4">
       <c r="A23" s="3">
         <v>43242</v>
       </c>
@@ -23396,7 +23875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4">
       <c r="A24" s="3">
         <v>43243</v>
       </c>
@@ -23411,7 +23890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4">
       <c r="A25" s="3">
         <v>43244</v>
       </c>
@@ -23426,7 +23905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4">
       <c r="A26" s="3">
         <v>43245</v>
       </c>
@@ -23441,7 +23920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4">
       <c r="A27" s="3">
         <v>43246</v>
       </c>
@@ -23456,7 +23935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4">
       <c r="A28" s="3">
         <v>43247</v>
       </c>
@@ -23471,7 +23950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4">
       <c r="A29" s="3">
         <v>43248</v>
       </c>
@@ -23486,7 +23965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4">
       <c r="A30" s="3">
         <v>43249</v>
       </c>
@@ -23501,7 +23980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4">
       <c r="A31" s="3">
         <v>43250</v>
       </c>
@@ -23516,7 +23995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4">
       <c r="A32" s="3">
         <v>43251</v>
       </c>
@@ -23532,32 +24011,33 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" customWidth="1"/>
-    <col min="2" max="2" width="19.88671875" customWidth="1"/>
-    <col min="3" max="3" width="20.44140625" customWidth="1"/>
-    <col min="4" max="4" width="15.88671875" customWidth="1"/>
-    <col min="5" max="5" width="28.77734375" customWidth="1"/>
-    <col min="6" max="6" width="32.33203125" customWidth="1"/>
-    <col min="7" max="7" width="23.44140625" customWidth="1"/>
+    <col min="1" max="1" width="15.6666666666667" customWidth="1"/>
+    <col min="2" max="2" width="19.8888888888889" customWidth="1"/>
+    <col min="3" max="3" width="20.4444444444444" customWidth="1"/>
+    <col min="4" max="4" width="15.8888888888889" customWidth="1"/>
+    <col min="5" max="5" width="28.7777777777778" customWidth="1"/>
+    <col min="6" max="6" width="32.3333333333333" customWidth="1"/>
+    <col min="7" max="7" width="23.4444444444444" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -23574,7 +24054,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" s="3">
         <v>43282</v>
       </c>
@@ -23589,7 +24069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" s="3">
         <v>43283</v>
       </c>
@@ -23604,7 +24084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" s="3">
         <v>43284</v>
       </c>
@@ -23619,7 +24099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" s="3">
         <v>43285</v>
       </c>
@@ -23634,7 +24114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" s="3">
         <v>43286</v>
       </c>
@@ -23649,7 +24129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" s="3">
         <v>43287</v>
       </c>
@@ -23664,7 +24144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" s="3">
         <v>43288</v>
       </c>
@@ -23679,7 +24159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" s="3">
         <v>43289</v>
       </c>
@@ -23694,7 +24174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" s="3">
         <v>43290</v>
       </c>
@@ -23709,7 +24189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" s="3">
         <v>43291</v>
       </c>
@@ -23724,7 +24204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12" s="3">
         <v>43292</v>
       </c>
@@ -23739,7 +24219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13" s="3">
         <v>43293</v>
       </c>
@@ -23754,7 +24234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="A14" s="3">
         <v>43294</v>
       </c>
@@ -23769,7 +24249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="A15" s="3">
         <v>43295</v>
       </c>
@@ -23784,7 +24264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="A16" s="3">
         <v>43296</v>
       </c>
@@ -23799,7 +24279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="A17" s="3">
         <v>43297</v>
       </c>
@@ -23814,7 +24294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4">
       <c r="A18" s="3">
         <v>43298</v>
       </c>
@@ -23829,7 +24309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4">
       <c r="A19" s="3">
         <v>43299</v>
       </c>
@@ -23844,7 +24324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4">
       <c r="A20" s="3">
         <v>43300</v>
       </c>
@@ -23859,7 +24339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4">
       <c r="A21" s="3">
         <v>43301</v>
       </c>
@@ -23874,7 +24354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4">
       <c r="A22" s="3">
         <v>43302</v>
       </c>
@@ -23889,7 +24369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4">
       <c r="A23" s="3">
         <v>43303</v>
       </c>
@@ -23904,7 +24384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4">
       <c r="A24" s="3">
         <v>43304</v>
       </c>
@@ -23919,7 +24399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4">
       <c r="A25" s="3">
         <v>43305</v>
       </c>
@@ -23934,7 +24414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4">
       <c r="A26" s="3">
         <v>43306</v>
       </c>
@@ -23949,7 +24429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4">
       <c r="A27" s="3">
         <v>43307</v>
       </c>
@@ -23964,7 +24444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4">
       <c r="A28" s="3">
         <v>43308</v>
       </c>
@@ -23979,7 +24459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4">
       <c r="A29" s="3">
         <v>43309</v>
       </c>
@@ -23994,7 +24474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4">
       <c r="A30" s="3">
         <v>43310</v>
       </c>
@@ -24009,7 +24489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4">
       <c r="A31" s="3">
         <v>43311</v>
       </c>
@@ -24024,7 +24504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4">
       <c r="A32" s="3">
         <v>43312</v>
       </c>
@@ -24040,32 +24520,33 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" customWidth="1"/>
-    <col min="2" max="2" width="19.88671875" customWidth="1"/>
-    <col min="3" max="3" width="20.44140625" customWidth="1"/>
-    <col min="4" max="4" width="15.88671875" customWidth="1"/>
-    <col min="5" max="5" width="28.77734375" customWidth="1"/>
-    <col min="6" max="6" width="32.33203125" customWidth="1"/>
-    <col min="7" max="7" width="23.44140625" customWidth="1"/>
+    <col min="1" max="1" width="15.6666666666667" customWidth="1"/>
+    <col min="2" max="2" width="19.8888888888889" customWidth="1"/>
+    <col min="3" max="3" width="20.4444444444444" customWidth="1"/>
+    <col min="4" max="4" width="15.8888888888889" customWidth="1"/>
+    <col min="5" max="5" width="28.7777777777778" customWidth="1"/>
+    <col min="6" max="6" width="32.3333333333333" customWidth="1"/>
+    <col min="7" max="7" width="23.4444444444444" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -24082,7 +24563,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" s="3">
         <v>43313</v>
       </c>
@@ -24097,7 +24578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" s="3">
         <v>43314</v>
       </c>
@@ -24112,7 +24593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" s="3">
         <v>43315</v>
       </c>
@@ -24127,7 +24608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" s="3">
         <v>43316</v>
       </c>
@@ -24142,7 +24623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" s="3">
         <v>43317</v>
       </c>
@@ -24157,7 +24638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" s="3">
         <v>43318</v>
       </c>
@@ -24172,7 +24653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" s="3">
         <v>43319</v>
       </c>
@@ -24187,7 +24668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" s="3">
         <v>43320</v>
       </c>
@@ -24202,7 +24683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" s="3">
         <v>43321</v>
       </c>
@@ -24217,7 +24698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" s="3">
         <v>43322</v>
       </c>
@@ -24232,7 +24713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12" s="3">
         <v>43323</v>
       </c>
@@ -24247,7 +24728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13" s="3">
         <v>43324</v>
       </c>
@@ -24262,7 +24743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="A14" s="3">
         <v>43325</v>
       </c>
@@ -24277,7 +24758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="A15" s="3">
         <v>43326</v>
       </c>
@@ -24292,7 +24773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="A16" s="3">
         <v>43327</v>
       </c>
@@ -24307,7 +24788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="A17" s="3">
         <v>43328</v>
       </c>
@@ -24322,7 +24803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4">
       <c r="A18" s="3">
         <v>43329</v>
       </c>
@@ -24337,7 +24818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4">
       <c r="A19" s="3">
         <v>43330</v>
       </c>
@@ -24352,7 +24833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4">
       <c r="A20" s="3">
         <v>43331</v>
       </c>
@@ -24367,7 +24848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4">
       <c r="A21" s="3">
         <v>43332</v>
       </c>
@@ -24382,7 +24863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4">
       <c r="A22" s="3">
         <v>43333</v>
       </c>
@@ -24397,7 +24878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4">
       <c r="A23" s="3">
         <v>43334</v>
       </c>
@@ -24412,7 +24893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4">
       <c r="A24" s="3">
         <v>43335</v>
       </c>
@@ -24427,7 +24908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4">
       <c r="A25" s="3">
         <v>43336</v>
       </c>
@@ -24442,7 +24923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4">
       <c r="A26" s="3">
         <v>43337</v>
       </c>
@@ -24457,7 +24938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4">
       <c r="A27" s="3">
         <v>43338</v>
       </c>
@@ -24472,7 +24953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4">
       <c r="A28" s="3">
         <v>43339</v>
       </c>
@@ -24487,7 +24968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4">
       <c r="A29" s="3">
         <v>43340</v>
       </c>
@@ -24502,7 +24983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4">
       <c r="A30" s="3">
         <v>43341</v>
       </c>
@@ -24517,7 +24998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4">
       <c r="A31" s="3">
         <v>43342</v>
       </c>
@@ -24532,7 +25013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4">
       <c r="A32" s="3">
         <v>43343</v>
       </c>
@@ -24548,33 +25029,34 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" customWidth="1"/>
-    <col min="2" max="2" width="19.88671875" customWidth="1"/>
-    <col min="3" max="3" width="20.44140625" customWidth="1"/>
-    <col min="4" max="4" width="15.88671875" customWidth="1"/>
-    <col min="5" max="5" width="28.77734375" customWidth="1"/>
-    <col min="6" max="6" width="32.33203125" customWidth="1"/>
-    <col min="7" max="7" width="23.44140625" customWidth="1"/>
+    <col min="1" max="1" width="15.6666666666667" customWidth="1"/>
+    <col min="2" max="2" width="19.8888888888889" customWidth="1"/>
+    <col min="3" max="3" width="20.4444444444444" customWidth="1"/>
+    <col min="4" max="4" width="15.8888888888889" customWidth="1"/>
+    <col min="5" max="5" width="28.7777777777778" customWidth="1"/>
+    <col min="6" max="6" width="32.3333333333333" customWidth="1"/>
+    <col min="7" max="7" width="23.4444444444444" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -24591,7 +25073,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" s="3">
         <v>43374</v>
       </c>
@@ -24606,7 +25088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" s="3">
         <v>43375</v>
       </c>
@@ -24621,7 +25103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" s="3">
         <v>43376</v>
       </c>
@@ -24636,7 +25118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" s="3">
         <v>43377</v>
       </c>
@@ -24651,7 +25133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" s="3">
         <v>43378</v>
       </c>
@@ -24666,7 +25148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" s="3">
         <v>43379</v>
       </c>
@@ -24681,7 +25163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" s="3">
         <v>43380</v>
       </c>
@@ -24696,7 +25178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" s="3">
         <v>43381</v>
       </c>
@@ -24711,7 +25193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" s="3">
         <v>43382</v>
       </c>
@@ -24726,7 +25208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" s="3">
         <v>43383</v>
       </c>
@@ -24741,7 +25223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12" s="3">
         <v>43384</v>
       </c>
@@ -24756,7 +25238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13" s="3">
         <v>43385</v>
       </c>
@@ -24771,7 +25253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="A14" s="3">
         <v>43386</v>
       </c>
@@ -24786,7 +25268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="A15" s="3">
         <v>43387</v>
       </c>
@@ -24801,7 +25283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="A16" s="3">
         <v>43388</v>
       </c>
@@ -24816,7 +25298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="A17" s="3">
         <v>43389</v>
       </c>
@@ -24831,7 +25313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4">
       <c r="A18" s="3">
         <v>43390</v>
       </c>
@@ -24846,7 +25328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4">
       <c r="A19" s="3">
         <v>43391</v>
       </c>
@@ -24861,7 +25343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4">
       <c r="A20" s="3">
         <v>43392</v>
       </c>
@@ -24876,7 +25358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4">
       <c r="A21" s="3">
         <v>43393</v>
       </c>
@@ -24891,7 +25373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4">
       <c r="A22" s="3">
         <v>43394</v>
       </c>
@@ -24906,7 +25388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4">
       <c r="A23" s="3">
         <v>43395</v>
       </c>
@@ -24921,7 +25403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4">
       <c r="A24" s="3">
         <v>43396</v>
       </c>
@@ -24936,7 +25418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4">
       <c r="A25" s="3">
         <v>43397</v>
       </c>
@@ -24951,7 +25433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4">
       <c r="A26" s="3">
         <v>43398</v>
       </c>
@@ -24966,7 +25448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4">
       <c r="A27" s="3">
         <v>43399</v>
       </c>
@@ -24981,7 +25463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4">
       <c r="A28" s="3">
         <v>43400</v>
       </c>
@@ -24996,7 +25478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4">
       <c r="A29" s="3">
         <v>43401</v>
       </c>
@@ -25011,7 +25493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4">
       <c r="A30" s="3">
         <v>43402</v>
       </c>
@@ -25026,7 +25508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4">
       <c r="A31" s="3">
         <v>43403</v>
       </c>
@@ -25041,7 +25523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4">
       <c r="A32" s="3">
         <v>43404</v>
       </c>
@@ -25057,32 +25539,33 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" customWidth="1"/>
-    <col min="2" max="2" width="19.88671875" customWidth="1"/>
-    <col min="3" max="3" width="20.44140625" customWidth="1"/>
-    <col min="4" max="4" width="15.88671875" customWidth="1"/>
-    <col min="5" max="5" width="28.77734375" customWidth="1"/>
-    <col min="6" max="6" width="32.33203125" customWidth="1"/>
-    <col min="7" max="7" width="23.44140625" customWidth="1"/>
+    <col min="1" max="1" width="15.6666666666667" customWidth="1"/>
+    <col min="2" max="2" width="19.8888888888889" customWidth="1"/>
+    <col min="3" max="3" width="20.4444444444444" customWidth="1"/>
+    <col min="4" max="4" width="15.8888888888889" customWidth="1"/>
+    <col min="5" max="5" width="28.7777777777778" customWidth="1"/>
+    <col min="6" max="6" width="32.3333333333333" customWidth="1"/>
+    <col min="7" max="7" width="23.4444444444444" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -25099,7 +25582,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" s="3">
         <v>43435</v>
       </c>
@@ -25114,7 +25597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" s="3">
         <v>43436</v>
       </c>
@@ -25129,7 +25612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" s="3">
         <v>43437</v>
       </c>
@@ -25144,7 +25627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" s="3">
         <v>43438</v>
       </c>
@@ -25159,7 +25642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" s="3">
         <v>43439</v>
       </c>
@@ -25174,7 +25657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" s="3">
         <v>43440</v>
       </c>
@@ -25189,7 +25672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" s="3">
         <v>43441</v>
       </c>
@@ -25204,7 +25687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" s="3">
         <v>43442</v>
       </c>
@@ -25219,7 +25702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" s="3">
         <v>43443</v>
       </c>
@@ -25234,7 +25717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" s="3">
         <v>43444</v>
       </c>
@@ -25249,7 +25732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12" s="3">
         <v>43445</v>
       </c>
@@ -25264,7 +25747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13" s="3">
         <v>43446</v>
       </c>
@@ -25279,7 +25762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="A14" s="3">
         <v>43447</v>
       </c>
@@ -25294,7 +25777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="A15" s="3">
         <v>43448</v>
       </c>
@@ -25309,7 +25792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="A16" s="3">
         <v>43449</v>
       </c>
@@ -25324,7 +25807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="A17" s="3">
         <v>43450</v>
       </c>
@@ -25339,7 +25822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4">
       <c r="A18" s="3">
         <v>43451</v>
       </c>
@@ -25354,7 +25837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4">
       <c r="A19" s="3">
         <v>43452</v>
       </c>
@@ -25369,7 +25852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4">
       <c r="A20" s="3">
         <v>43453</v>
       </c>
@@ -25384,7 +25867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4">
       <c r="A21" s="3">
         <v>43454</v>
       </c>
@@ -25399,7 +25882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4">
       <c r="A22" s="3">
         <v>43455</v>
       </c>
@@ -25414,7 +25897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4">
       <c r="A23" s="3">
         <v>43456</v>
       </c>
@@ -25429,7 +25912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4">
       <c r="A24" s="3">
         <v>43457</v>
       </c>
@@ -25444,7 +25927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4">
       <c r="A25" s="3">
         <v>43458</v>
       </c>
@@ -25459,7 +25942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4">
       <c r="A26" s="3">
         <v>43459</v>
       </c>
@@ -25474,7 +25957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4">
       <c r="A27" s="3">
         <v>43460</v>
       </c>
@@ -25489,7 +25972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4">
       <c r="A28" s="3">
         <v>43461</v>
       </c>
@@ -25504,7 +25987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4">
       <c r="A29" s="3">
         <v>43462</v>
       </c>
@@ -25519,7 +26002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4">
       <c r="A30" s="3">
         <v>43463</v>
       </c>
@@ -25534,7 +26017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4">
       <c r="A31" s="3">
         <v>43464</v>
       </c>
@@ -25549,7 +26032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4">
       <c r="A32" s="3">
         <v>43465</v>
       </c>
@@ -25565,8 +26048,8 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/提升/成长进度表.xlsx
+++ b/提升/成长进度表.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37">
   <si>
     <t>软技能完成率</t>
   </si>
@@ -129,19 +129,34 @@
   <si>
     <t>再一次明确职业发展方向</t>
   </si>
+  <si>
+    <t>必须有收获，否则完成率只能是0</t>
+  </si>
+  <si>
+    <t>vue学习</t>
+  </si>
+  <si>
+    <t>三板斧戒律，戒定（定心）参与的越多，收获越多</t>
+  </si>
+  <si>
+    <t>考试vue学习</t>
+  </si>
+  <si>
+    <t>期末考试</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -150,38 +165,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -225,46 +218,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -286,10 +239,65 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -310,36 +318,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -353,54 +331,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -460,6 +390,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -467,6 +433,48 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -504,26 +512,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -543,6 +542,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -554,6 +562,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -577,40 +609,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -619,137 +627,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -759,10 +767,7 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -6322,13 +6327,13 @@
                   <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -6583,13 +6588,13 @@
                   <c:v>1.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -7028,13 +7033,13 @@
                   <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.65</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -20256,7 +20261,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="7498080"/>
-        <a:ext cx="14188440" cy="7543800"/>
+        <a:ext cx="16116300" cy="7543800"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -20286,7 +20291,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="16276320"/>
-        <a:ext cx="14265275" cy="2830830"/>
+        <a:ext cx="16193135" cy="2830830"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -21027,7 +21032,7 @@
       <c r="E2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="7" t="s">
         <v>6</v>
       </c>
     </row>
@@ -21202,7 +21207,7 @@
       <c r="B12" s="4">
         <v>0.6</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="8">
         <v>0</v>
       </c>
       <c r="D12" s="2">
@@ -21232,7 +21237,7 @@
       <c r="B14" s="4">
         <v>0</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="8">
         <v>0</v>
       </c>
       <c r="D14" s="2">
@@ -21247,7 +21252,7 @@
       <c r="B15" s="4">
         <v>0</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15" s="8">
         <v>0</v>
       </c>
       <c r="D15" s="2">
@@ -21319,7 +21324,7 @@
       <c r="B19" s="4">
         <v>0.5</v>
       </c>
-      <c r="C19" s="9">
+      <c r="C19" s="8">
         <v>1</v>
       </c>
       <c r="D19" s="2">
@@ -21340,7 +21345,7 @@
       <c r="B20" s="4">
         <v>1.2</v>
       </c>
-      <c r="C20" s="9">
+      <c r="C20" s="8">
         <v>0.5</v>
       </c>
       <c r="D20" s="2">
@@ -21361,7 +21366,7 @@
       <c r="B21" s="4">
         <v>0</v>
       </c>
-      <c r="C21" s="9">
+      <c r="C21" s="8">
         <v>0</v>
       </c>
       <c r="D21" s="2">
@@ -21379,7 +21384,7 @@
       <c r="B22" s="4">
         <v>0</v>
       </c>
-      <c r="C22" s="9">
+      <c r="C22" s="8">
         <v>0</v>
       </c>
       <c r="D22" s="2">
@@ -22471,13 +22476,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="15.6666666666667" customWidth="1"/>
     <col min="2" max="2" width="19.8888888888889" customWidth="1"/>
@@ -22486,6 +22491,7 @@
     <col min="5" max="5" width="28.7777777777778" customWidth="1"/>
     <col min="6" max="6" width="32.3333333333333" customWidth="1"/>
     <col min="7" max="7" width="23.4444444444444" customWidth="1"/>
+    <col min="8" max="8" width="37.1111111111111" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6">
@@ -22565,7 +22571,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" ht="86.4" spans="1:6">
+    <row r="5" ht="86.4" spans="1:8">
       <c r="A5" s="3">
         <v>43104</v>
       </c>
@@ -22579,56 +22585,77 @@
         <f t="shared" si="0"/>
         <v>0.9</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="6" t="s">
         <v>30</v>
       </c>
       <c r="F5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="H5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="3">
         <v>43105</v>
       </c>
       <c r="B6" s="4">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="C6" s="4">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="D6" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.65</v>
+      </c>
+      <c r="E6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="3">
         <v>43106</v>
       </c>
       <c r="B7" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="3">
         <v>43107</v>
       </c>
       <c r="B8" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:4">

--- a/提升/成长进度表.xlsx
+++ b/提升/成长进度表.xlsx
@@ -150,11 +150,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -165,16 +165,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -218,6 +233,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -239,65 +294,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -318,7 +318,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -336,7 +360,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -378,49 +438,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -433,48 +451,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -502,6 +478,30 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -512,17 +512,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -542,15 +551,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -562,30 +562,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -609,16 +585,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -627,133 +627,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -6336,7 +6336,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -6597,7 +6597,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -7042,7 +7042,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>0.85</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -22478,8 +22478,8 @@
   <sheetPr/>
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
@@ -22658,19 +22658,25 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:6">
       <c r="A9" s="3">
         <v>43108</v>
       </c>
       <c r="B9" s="4">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="C9" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.85</v>
+      </c>
+      <c r="E9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:4">

--- a/提升/成长进度表.xlsx
+++ b/提升/成长进度表.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\doc\提升\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9947" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22368" windowHeight="9948" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2017年12月概览" sheetId="1" r:id="rId1"/>
@@ -16,12 +21,12 @@
     <sheet name="2018年10月概览" sheetId="8" r:id="rId7"/>
     <sheet name="2018年12月" sheetId="7" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="43">
   <si>
     <t>软技能完成率</t>
   </si>
@@ -144,19 +149,39 @@
   <si>
     <t>期末考试</t>
   </si>
+  <si>
+    <t>三板斧之慧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vue学习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多线程学习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三板斧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>期末考试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>期末考试、vue学习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -165,345 +190,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -511,260 +221,18 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -774,65 +242,25 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -902,7 +330,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -911,6 +338,25 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -970,76 +416,73 @@
               </a:effectLst>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>'2017年12月概览'!$A$2:$A$22</c:f>
               <c:numCache>
-                <c:formatCode>yyyy/m/d</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="21"/>
-                <c:pt idx="0" c:formatCode="yyyy/m/d">
+                <c:pt idx="0">
                   <c:v>43080</c:v>
                 </c:pt>
-                <c:pt idx="1" c:formatCode="yyyy/m/d">
+                <c:pt idx="1">
                   <c:v>43081</c:v>
                 </c:pt>
-                <c:pt idx="2" c:formatCode="yyyy/m/d">
+                <c:pt idx="2">
                   <c:v>43082</c:v>
                 </c:pt>
-                <c:pt idx="3" c:formatCode="yyyy/m/d">
+                <c:pt idx="3">
                   <c:v>43083</c:v>
                 </c:pt>
-                <c:pt idx="4" c:formatCode="yyyy/m/d">
+                <c:pt idx="4">
                   <c:v>43084</c:v>
                 </c:pt>
-                <c:pt idx="5" c:formatCode="yyyy/m/d">
+                <c:pt idx="5">
                   <c:v>43085</c:v>
                 </c:pt>
-                <c:pt idx="6" c:formatCode="yyyy/m/d">
+                <c:pt idx="6">
                   <c:v>43086</c:v>
                 </c:pt>
-                <c:pt idx="7" c:formatCode="yyyy/m/d">
+                <c:pt idx="7">
                   <c:v>43087</c:v>
                 </c:pt>
-                <c:pt idx="8" c:formatCode="yyyy/m/d">
+                <c:pt idx="8">
                   <c:v>43088</c:v>
                 </c:pt>
-                <c:pt idx="9" c:formatCode="yyyy/m/d">
+                <c:pt idx="9">
                   <c:v>43089</c:v>
                 </c:pt>
-                <c:pt idx="10" c:formatCode="yyyy/m/d">
+                <c:pt idx="10">
                   <c:v>43090</c:v>
                 </c:pt>
-                <c:pt idx="11" c:formatCode="yyyy/m/d">
+                <c:pt idx="11">
                   <c:v>43091</c:v>
                 </c:pt>
-                <c:pt idx="12" c:formatCode="yyyy/m/d">
+                <c:pt idx="12">
                   <c:v>43092</c:v>
                 </c:pt>
-                <c:pt idx="13" c:formatCode="yyyy/m/d">
+                <c:pt idx="13">
                   <c:v>43093</c:v>
                 </c:pt>
-                <c:pt idx="14" c:formatCode="yyyy/m/d">
+                <c:pt idx="14">
                   <c:v>43094</c:v>
                 </c:pt>
-                <c:pt idx="15" c:formatCode="yyyy/m/d">
+                <c:pt idx="15">
                   <c:v>43095</c:v>
                 </c:pt>
-                <c:pt idx="16" c:formatCode="yyyy/m/d">
+                <c:pt idx="16">
                   <c:v>43096</c:v>
                 </c:pt>
-                <c:pt idx="17" c:formatCode="yyyy/m/d">
+                <c:pt idx="17">
                   <c:v>43097</c:v>
                 </c:pt>
-                <c:pt idx="18" c:formatCode="yyyy/m/d">
+                <c:pt idx="18">
                   <c:v>43098</c:v>
                 </c:pt>
-                <c:pt idx="19" c:formatCode="yyyy/m/d">
+                <c:pt idx="19">
                   <c:v>43099</c:v>
                 </c:pt>
-                <c:pt idx="20" c:formatCode="yyyy/m/d">
+                <c:pt idx="20">
                   <c:v>43100</c:v>
                 </c:pt>
               </c:numCache>
@@ -1055,7 +498,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1</c:v>
+                  <c:v>1.1000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.8</c:v>
@@ -1171,76 +614,73 @@
               </a:effectLst>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>'2017年12月概览'!$A$2:$A$22</c:f>
               <c:numCache>
-                <c:formatCode>yyyy/m/d</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="21"/>
-                <c:pt idx="0" c:formatCode="yyyy/m/d">
+                <c:pt idx="0">
                   <c:v>43080</c:v>
                 </c:pt>
-                <c:pt idx="1" c:formatCode="yyyy/m/d">
+                <c:pt idx="1">
                   <c:v>43081</c:v>
                 </c:pt>
-                <c:pt idx="2" c:formatCode="yyyy/m/d">
+                <c:pt idx="2">
                   <c:v>43082</c:v>
                 </c:pt>
-                <c:pt idx="3" c:formatCode="yyyy/m/d">
+                <c:pt idx="3">
                   <c:v>43083</c:v>
                 </c:pt>
-                <c:pt idx="4" c:formatCode="yyyy/m/d">
+                <c:pt idx="4">
                   <c:v>43084</c:v>
                 </c:pt>
-                <c:pt idx="5" c:formatCode="yyyy/m/d">
+                <c:pt idx="5">
                   <c:v>43085</c:v>
                 </c:pt>
-                <c:pt idx="6" c:formatCode="yyyy/m/d">
+                <c:pt idx="6">
                   <c:v>43086</c:v>
                 </c:pt>
-                <c:pt idx="7" c:formatCode="yyyy/m/d">
+                <c:pt idx="7">
                   <c:v>43087</c:v>
                 </c:pt>
-                <c:pt idx="8" c:formatCode="yyyy/m/d">
+                <c:pt idx="8">
                   <c:v>43088</c:v>
                 </c:pt>
-                <c:pt idx="9" c:formatCode="yyyy/m/d">
+                <c:pt idx="9">
                   <c:v>43089</c:v>
                 </c:pt>
-                <c:pt idx="10" c:formatCode="yyyy/m/d">
+                <c:pt idx="10">
                   <c:v>43090</c:v>
                 </c:pt>
-                <c:pt idx="11" c:formatCode="yyyy/m/d">
+                <c:pt idx="11">
                   <c:v>43091</c:v>
                 </c:pt>
-                <c:pt idx="12" c:formatCode="yyyy/m/d">
+                <c:pt idx="12">
                   <c:v>43092</c:v>
                 </c:pt>
-                <c:pt idx="13" c:formatCode="yyyy/m/d">
+                <c:pt idx="13">
                   <c:v>43093</c:v>
                 </c:pt>
-                <c:pt idx="14" c:formatCode="yyyy/m/d">
+                <c:pt idx="14">
                   <c:v>43094</c:v>
                 </c:pt>
-                <c:pt idx="15" c:formatCode="yyyy/m/d">
+                <c:pt idx="15">
                   <c:v>43095</c:v>
                 </c:pt>
-                <c:pt idx="16" c:formatCode="yyyy/m/d">
+                <c:pt idx="16">
                   <c:v>43096</c:v>
                 </c:pt>
-                <c:pt idx="17" c:formatCode="yyyy/m/d">
+                <c:pt idx="17">
                   <c:v>43097</c:v>
                 </c:pt>
-                <c:pt idx="18" c:formatCode="yyyy/m/d">
+                <c:pt idx="18">
                   <c:v>43098</c:v>
                 </c:pt>
-                <c:pt idx="19" c:formatCode="yyyy/m/d">
+                <c:pt idx="19">
                   <c:v>43099</c:v>
                 </c:pt>
-                <c:pt idx="20" c:formatCode="yyyy/m/d">
+                <c:pt idx="20">
                   <c:v>43100</c:v>
                 </c:pt>
               </c:numCache>
@@ -1330,11 +770,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="195093504"/>
-        <c:axId val="195094064"/>
+        <c:axId val="116159472"/>
+        <c:axId val="116160032"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="195093504"/>
+        <c:axId val="116159472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1367,16 +807,17 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="195094064"/>
+        <c:crossAx val="116160032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="195094064"/>
+        <c:axId val="116160032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.5"/>
@@ -1435,9 +876,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="195093504"/>
+        <c:crossAx val="116159472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
@@ -1475,6 +917,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -1515,6 +958,7 @@
       <a:pPr>
         <a:defRPr lang="zh-CN"/>
       </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1562,11 +1006,9 @@
               <a:rPr lang="zh-CN"/>
               <a:t>总完成率</a:t>
             </a:r>
-            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1575,6 +1017,26 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -1631,6 +1093,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -1643,7 +1106,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1775,11 +1237,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="296273664"/>
-        <c:axId val="296274224"/>
+        <c:axId val="240228384"/>
+        <c:axId val="240228944"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="296273664"/>
+        <c:axId val="240228384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1819,9 +1281,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="296274224"/>
+        <c:crossAx val="240228944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1829,7 +1292,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="296274224"/>
+        <c:axId val="240228944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1865,26 +1328,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="75000"/>
-                    <a:lumOff val="25000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="296273664"/>
+        <c:crossAx val="240228384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1938,6 +1382,7 @@
       <a:pPr>
         <a:defRPr lang="zh-CN"/>
       </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2012,7 +1457,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2021,6 +1465,25 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -2029,10 +1492,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0806595059076262"/>
-          <c:y val="0.021043771043771"/>
-          <c:w val="0.900991049051199"/>
-          <c:h val="0.738181818181818"/>
+          <c:x val="8.0659505907626203E-2"/>
+          <c:y val="2.1043771043771E-2"/>
+          <c:w val="0.90099104905119898"/>
+          <c:h val="0.73818181818181805"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -2090,106 +1553,103 @@
               </a:effectLst>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>'2018年8月概览'!$A$2:$A$32</c:f>
               <c:numCache>
-                <c:formatCode>yyyy/m/d</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="31"/>
-                <c:pt idx="0" c:formatCode="yyyy/m/d">
+                <c:pt idx="0">
                   <c:v>43313</c:v>
                 </c:pt>
-                <c:pt idx="1" c:formatCode="yyyy/m/d">
+                <c:pt idx="1">
                   <c:v>43314</c:v>
                 </c:pt>
-                <c:pt idx="2" c:formatCode="yyyy/m/d">
+                <c:pt idx="2">
                   <c:v>43315</c:v>
                 </c:pt>
-                <c:pt idx="3" c:formatCode="yyyy/m/d">
+                <c:pt idx="3">
                   <c:v>43316</c:v>
                 </c:pt>
-                <c:pt idx="4" c:formatCode="yyyy/m/d">
+                <c:pt idx="4">
                   <c:v>43317</c:v>
                 </c:pt>
-                <c:pt idx="5" c:formatCode="yyyy/m/d">
+                <c:pt idx="5">
                   <c:v>43318</c:v>
                 </c:pt>
-                <c:pt idx="6" c:formatCode="yyyy/m/d">
+                <c:pt idx="6">
                   <c:v>43319</c:v>
                 </c:pt>
-                <c:pt idx="7" c:formatCode="yyyy/m/d">
+                <c:pt idx="7">
                   <c:v>43320</c:v>
                 </c:pt>
-                <c:pt idx="8" c:formatCode="yyyy/m/d">
+                <c:pt idx="8">
                   <c:v>43321</c:v>
                 </c:pt>
-                <c:pt idx="9" c:formatCode="yyyy/m/d">
+                <c:pt idx="9">
                   <c:v>43322</c:v>
                 </c:pt>
-                <c:pt idx="10" c:formatCode="yyyy/m/d">
+                <c:pt idx="10">
                   <c:v>43323</c:v>
                 </c:pt>
-                <c:pt idx="11" c:formatCode="yyyy/m/d">
+                <c:pt idx="11">
                   <c:v>43324</c:v>
                 </c:pt>
-                <c:pt idx="12" c:formatCode="yyyy/m/d">
+                <c:pt idx="12">
                   <c:v>43325</c:v>
                 </c:pt>
-                <c:pt idx="13" c:formatCode="yyyy/m/d">
+                <c:pt idx="13">
                   <c:v>43326</c:v>
                 </c:pt>
-                <c:pt idx="14" c:formatCode="yyyy/m/d">
+                <c:pt idx="14">
                   <c:v>43327</c:v>
                 </c:pt>
-                <c:pt idx="15" c:formatCode="yyyy/m/d">
+                <c:pt idx="15">
                   <c:v>43328</c:v>
                 </c:pt>
-                <c:pt idx="16" c:formatCode="yyyy/m/d">
+                <c:pt idx="16">
                   <c:v>43329</c:v>
                 </c:pt>
-                <c:pt idx="17" c:formatCode="yyyy/m/d">
+                <c:pt idx="17">
                   <c:v>43330</c:v>
                 </c:pt>
-                <c:pt idx="18" c:formatCode="yyyy/m/d">
+                <c:pt idx="18">
                   <c:v>43331</c:v>
                 </c:pt>
-                <c:pt idx="19" c:formatCode="yyyy/m/d">
+                <c:pt idx="19">
                   <c:v>43332</c:v>
                 </c:pt>
-                <c:pt idx="20" c:formatCode="yyyy/m/d">
+                <c:pt idx="20">
                   <c:v>43333</c:v>
                 </c:pt>
-                <c:pt idx="21" c:formatCode="yyyy/m/d">
+                <c:pt idx="21">
                   <c:v>43334</c:v>
                 </c:pt>
-                <c:pt idx="22" c:formatCode="yyyy/m/d">
+                <c:pt idx="22">
                   <c:v>43335</c:v>
                 </c:pt>
-                <c:pt idx="23" c:formatCode="yyyy/m/d">
+                <c:pt idx="23">
                   <c:v>43336</c:v>
                 </c:pt>
-                <c:pt idx="24" c:formatCode="yyyy/m/d">
+                <c:pt idx="24">
                   <c:v>43337</c:v>
                 </c:pt>
-                <c:pt idx="25" c:formatCode="yyyy/m/d">
+                <c:pt idx="25">
                   <c:v>43338</c:v>
                 </c:pt>
-                <c:pt idx="26" c:formatCode="yyyy/m/d">
+                <c:pt idx="26">
                   <c:v>43339</c:v>
                 </c:pt>
-                <c:pt idx="27" c:formatCode="yyyy/m/d">
+                <c:pt idx="27">
                   <c:v>43340</c:v>
                 </c:pt>
-                <c:pt idx="28" c:formatCode="yyyy/m/d">
+                <c:pt idx="28">
                   <c:v>43341</c:v>
                 </c:pt>
-                <c:pt idx="29" c:formatCode="yyyy/m/d">
+                <c:pt idx="29">
                   <c:v>43342</c:v>
                 </c:pt>
-                <c:pt idx="30" c:formatCode="yyyy/m/d">
+                <c:pt idx="30">
                   <c:v>43343</c:v>
                 </c:pt>
               </c:numCache>
@@ -2351,106 +1811,103 @@
               </a:effectLst>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>'2018年8月概览'!$A$2:$A$32</c:f>
               <c:numCache>
-                <c:formatCode>yyyy/m/d</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="31"/>
-                <c:pt idx="0" c:formatCode="yyyy/m/d">
+                <c:pt idx="0">
                   <c:v>43313</c:v>
                 </c:pt>
-                <c:pt idx="1" c:formatCode="yyyy/m/d">
+                <c:pt idx="1">
                   <c:v>43314</c:v>
                 </c:pt>
-                <c:pt idx="2" c:formatCode="yyyy/m/d">
+                <c:pt idx="2">
                   <c:v>43315</c:v>
                 </c:pt>
-                <c:pt idx="3" c:formatCode="yyyy/m/d">
+                <c:pt idx="3">
                   <c:v>43316</c:v>
                 </c:pt>
-                <c:pt idx="4" c:formatCode="yyyy/m/d">
+                <c:pt idx="4">
                   <c:v>43317</c:v>
                 </c:pt>
-                <c:pt idx="5" c:formatCode="yyyy/m/d">
+                <c:pt idx="5">
                   <c:v>43318</c:v>
                 </c:pt>
-                <c:pt idx="6" c:formatCode="yyyy/m/d">
+                <c:pt idx="6">
                   <c:v>43319</c:v>
                 </c:pt>
-                <c:pt idx="7" c:formatCode="yyyy/m/d">
+                <c:pt idx="7">
                   <c:v>43320</c:v>
                 </c:pt>
-                <c:pt idx="8" c:formatCode="yyyy/m/d">
+                <c:pt idx="8">
                   <c:v>43321</c:v>
                 </c:pt>
-                <c:pt idx="9" c:formatCode="yyyy/m/d">
+                <c:pt idx="9">
                   <c:v>43322</c:v>
                 </c:pt>
-                <c:pt idx="10" c:formatCode="yyyy/m/d">
+                <c:pt idx="10">
                   <c:v>43323</c:v>
                 </c:pt>
-                <c:pt idx="11" c:formatCode="yyyy/m/d">
+                <c:pt idx="11">
                   <c:v>43324</c:v>
                 </c:pt>
-                <c:pt idx="12" c:formatCode="yyyy/m/d">
+                <c:pt idx="12">
                   <c:v>43325</c:v>
                 </c:pt>
-                <c:pt idx="13" c:formatCode="yyyy/m/d">
+                <c:pt idx="13">
                   <c:v>43326</c:v>
                 </c:pt>
-                <c:pt idx="14" c:formatCode="yyyy/m/d">
+                <c:pt idx="14">
                   <c:v>43327</c:v>
                 </c:pt>
-                <c:pt idx="15" c:formatCode="yyyy/m/d">
+                <c:pt idx="15">
                   <c:v>43328</c:v>
                 </c:pt>
-                <c:pt idx="16" c:formatCode="yyyy/m/d">
+                <c:pt idx="16">
                   <c:v>43329</c:v>
                 </c:pt>
-                <c:pt idx="17" c:formatCode="yyyy/m/d">
+                <c:pt idx="17">
                   <c:v>43330</c:v>
                 </c:pt>
-                <c:pt idx="18" c:formatCode="yyyy/m/d">
+                <c:pt idx="18">
                   <c:v>43331</c:v>
                 </c:pt>
-                <c:pt idx="19" c:formatCode="yyyy/m/d">
+                <c:pt idx="19">
                   <c:v>43332</c:v>
                 </c:pt>
-                <c:pt idx="20" c:formatCode="yyyy/m/d">
+                <c:pt idx="20">
                   <c:v>43333</c:v>
                 </c:pt>
-                <c:pt idx="21" c:formatCode="yyyy/m/d">
+                <c:pt idx="21">
                   <c:v>43334</c:v>
                 </c:pt>
-                <c:pt idx="22" c:formatCode="yyyy/m/d">
+                <c:pt idx="22">
                   <c:v>43335</c:v>
                 </c:pt>
-                <c:pt idx="23" c:formatCode="yyyy/m/d">
+                <c:pt idx="23">
                   <c:v>43336</c:v>
                 </c:pt>
-                <c:pt idx="24" c:formatCode="yyyy/m/d">
+                <c:pt idx="24">
                   <c:v>43337</c:v>
                 </c:pt>
-                <c:pt idx="25" c:formatCode="yyyy/m/d">
+                <c:pt idx="25">
                   <c:v>43338</c:v>
                 </c:pt>
-                <c:pt idx="26" c:formatCode="yyyy/m/d">
+                <c:pt idx="26">
                   <c:v>43339</c:v>
                 </c:pt>
-                <c:pt idx="27" c:formatCode="yyyy/m/d">
+                <c:pt idx="27">
                   <c:v>43340</c:v>
                 </c:pt>
-                <c:pt idx="28" c:formatCode="yyyy/m/d">
+                <c:pt idx="28">
                   <c:v>43341</c:v>
                 </c:pt>
-                <c:pt idx="29" c:formatCode="yyyy/m/d">
+                <c:pt idx="29">
                   <c:v>43342</c:v>
                 </c:pt>
-                <c:pt idx="30" c:formatCode="yyyy/m/d">
+                <c:pt idx="30">
                   <c:v>43343</c:v>
                 </c:pt>
               </c:numCache>
@@ -2570,11 +2027,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="296182336"/>
-        <c:axId val="296182896"/>
+        <c:axId val="332904160"/>
+        <c:axId val="332904720"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="296182336"/>
+        <c:axId val="332904160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2607,16 +2064,17 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="296182896"/>
+        <c:crossAx val="332904720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="296182896"/>
+        <c:axId val="332904720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.5"/>
@@ -2675,9 +2133,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="296182336"/>
+        <c:crossAx val="332904160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
@@ -2715,6 +2174,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -2755,6 +2215,7 @@
       <a:pPr>
         <a:defRPr lang="zh-CN"/>
       </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2802,11 +2263,9 @@
               <a:rPr lang="zh-CN"/>
               <a:t>总完成率</a:t>
             </a:r>
-            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2815,6 +2274,26 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -2871,6 +2350,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -2883,7 +2363,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3015,11 +2494,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="296186256"/>
-        <c:axId val="296186816"/>
+        <c:axId val="332908080"/>
+        <c:axId val="332908640"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="296186256"/>
+        <c:axId val="332908080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3059,9 +2538,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="296186816"/>
+        <c:crossAx val="332908640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3069,7 +2549,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="296186816"/>
+        <c:axId val="332908640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3105,26 +2585,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="75000"/>
-                    <a:lumOff val="25000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="296186256"/>
+        <c:crossAx val="332908080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3178,6 +2639,7 @@
       <a:pPr>
         <a:defRPr lang="zh-CN"/>
       </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3252,7 +2714,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3261,6 +2722,25 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -3269,10 +2749,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0806595059076262"/>
-          <c:y val="0.021043771043771"/>
-          <c:w val="0.900991049051199"/>
-          <c:h val="0.738181818181818"/>
+          <c:x val="8.0659505907626203E-2"/>
+          <c:y val="2.1043771043771E-2"/>
+          <c:w val="0.90099104905119898"/>
+          <c:h val="0.73818181818181805"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -3330,106 +2810,103 @@
               </a:effectLst>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>'2018年10月概览'!$A$2:$A$32</c:f>
               <c:numCache>
-                <c:formatCode>yyyy/m/d</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="31"/>
-                <c:pt idx="0" c:formatCode="yyyy/m/d">
+                <c:pt idx="0">
                   <c:v>43374</c:v>
                 </c:pt>
-                <c:pt idx="1" c:formatCode="yyyy/m/d">
+                <c:pt idx="1">
                   <c:v>43375</c:v>
                 </c:pt>
-                <c:pt idx="2" c:formatCode="yyyy/m/d">
+                <c:pt idx="2">
                   <c:v>43376</c:v>
                 </c:pt>
-                <c:pt idx="3" c:formatCode="yyyy/m/d">
+                <c:pt idx="3">
                   <c:v>43377</c:v>
                 </c:pt>
-                <c:pt idx="4" c:formatCode="yyyy/m/d">
+                <c:pt idx="4">
                   <c:v>43378</c:v>
                 </c:pt>
-                <c:pt idx="5" c:formatCode="yyyy/m/d">
+                <c:pt idx="5">
                   <c:v>43379</c:v>
                 </c:pt>
-                <c:pt idx="6" c:formatCode="yyyy/m/d">
+                <c:pt idx="6">
                   <c:v>43380</c:v>
                 </c:pt>
-                <c:pt idx="7" c:formatCode="yyyy/m/d">
+                <c:pt idx="7">
                   <c:v>43381</c:v>
                 </c:pt>
-                <c:pt idx="8" c:formatCode="yyyy/m/d">
+                <c:pt idx="8">
                   <c:v>43382</c:v>
                 </c:pt>
-                <c:pt idx="9" c:formatCode="yyyy/m/d">
+                <c:pt idx="9">
                   <c:v>43383</c:v>
                 </c:pt>
-                <c:pt idx="10" c:formatCode="yyyy/m/d">
+                <c:pt idx="10">
                   <c:v>43384</c:v>
                 </c:pt>
-                <c:pt idx="11" c:formatCode="yyyy/m/d">
+                <c:pt idx="11">
                   <c:v>43385</c:v>
                 </c:pt>
-                <c:pt idx="12" c:formatCode="yyyy/m/d">
+                <c:pt idx="12">
                   <c:v>43386</c:v>
                 </c:pt>
-                <c:pt idx="13" c:formatCode="yyyy/m/d">
+                <c:pt idx="13">
                   <c:v>43387</c:v>
                 </c:pt>
-                <c:pt idx="14" c:formatCode="yyyy/m/d">
+                <c:pt idx="14">
                   <c:v>43388</c:v>
                 </c:pt>
-                <c:pt idx="15" c:formatCode="yyyy/m/d">
+                <c:pt idx="15">
                   <c:v>43389</c:v>
                 </c:pt>
-                <c:pt idx="16" c:formatCode="yyyy/m/d">
+                <c:pt idx="16">
                   <c:v>43390</c:v>
                 </c:pt>
-                <c:pt idx="17" c:formatCode="yyyy/m/d">
+                <c:pt idx="17">
                   <c:v>43391</c:v>
                 </c:pt>
-                <c:pt idx="18" c:formatCode="yyyy/m/d">
+                <c:pt idx="18">
                   <c:v>43392</c:v>
                 </c:pt>
-                <c:pt idx="19" c:formatCode="yyyy/m/d">
+                <c:pt idx="19">
                   <c:v>43393</c:v>
                 </c:pt>
-                <c:pt idx="20" c:formatCode="yyyy/m/d">
+                <c:pt idx="20">
                   <c:v>43394</c:v>
                 </c:pt>
-                <c:pt idx="21" c:formatCode="yyyy/m/d">
+                <c:pt idx="21">
                   <c:v>43395</c:v>
                 </c:pt>
-                <c:pt idx="22" c:formatCode="yyyy/m/d">
+                <c:pt idx="22">
                   <c:v>43396</c:v>
                 </c:pt>
-                <c:pt idx="23" c:formatCode="yyyy/m/d">
+                <c:pt idx="23">
                   <c:v>43397</c:v>
                 </c:pt>
-                <c:pt idx="24" c:formatCode="yyyy/m/d">
+                <c:pt idx="24">
                   <c:v>43398</c:v>
                 </c:pt>
-                <c:pt idx="25" c:formatCode="yyyy/m/d">
+                <c:pt idx="25">
                   <c:v>43399</c:v>
                 </c:pt>
-                <c:pt idx="26" c:formatCode="yyyy/m/d">
+                <c:pt idx="26">
                   <c:v>43400</c:v>
                 </c:pt>
-                <c:pt idx="27" c:formatCode="yyyy/m/d">
+                <c:pt idx="27">
                   <c:v>43401</c:v>
                 </c:pt>
-                <c:pt idx="28" c:formatCode="yyyy/m/d">
+                <c:pt idx="28">
                   <c:v>43402</c:v>
                 </c:pt>
-                <c:pt idx="29" c:formatCode="yyyy/m/d">
+                <c:pt idx="29">
                   <c:v>43403</c:v>
                 </c:pt>
-                <c:pt idx="30" c:formatCode="yyyy/m/d">
+                <c:pt idx="30">
                   <c:v>43404</c:v>
                 </c:pt>
               </c:numCache>
@@ -3591,106 +3068,103 @@
               </a:effectLst>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>'2018年10月概览'!$A$2:$A$32</c:f>
               <c:numCache>
-                <c:formatCode>yyyy/m/d</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="31"/>
-                <c:pt idx="0" c:formatCode="yyyy/m/d">
+                <c:pt idx="0">
                   <c:v>43374</c:v>
                 </c:pt>
-                <c:pt idx="1" c:formatCode="yyyy/m/d">
+                <c:pt idx="1">
                   <c:v>43375</c:v>
                 </c:pt>
-                <c:pt idx="2" c:formatCode="yyyy/m/d">
+                <c:pt idx="2">
                   <c:v>43376</c:v>
                 </c:pt>
-                <c:pt idx="3" c:formatCode="yyyy/m/d">
+                <c:pt idx="3">
                   <c:v>43377</c:v>
                 </c:pt>
-                <c:pt idx="4" c:formatCode="yyyy/m/d">
+                <c:pt idx="4">
                   <c:v>43378</c:v>
                 </c:pt>
-                <c:pt idx="5" c:formatCode="yyyy/m/d">
+                <c:pt idx="5">
                   <c:v>43379</c:v>
                 </c:pt>
-                <c:pt idx="6" c:formatCode="yyyy/m/d">
+                <c:pt idx="6">
                   <c:v>43380</c:v>
                 </c:pt>
-                <c:pt idx="7" c:formatCode="yyyy/m/d">
+                <c:pt idx="7">
                   <c:v>43381</c:v>
                 </c:pt>
-                <c:pt idx="8" c:formatCode="yyyy/m/d">
+                <c:pt idx="8">
                   <c:v>43382</c:v>
                 </c:pt>
-                <c:pt idx="9" c:formatCode="yyyy/m/d">
+                <c:pt idx="9">
                   <c:v>43383</c:v>
                 </c:pt>
-                <c:pt idx="10" c:formatCode="yyyy/m/d">
+                <c:pt idx="10">
                   <c:v>43384</c:v>
                 </c:pt>
-                <c:pt idx="11" c:formatCode="yyyy/m/d">
+                <c:pt idx="11">
                   <c:v>43385</c:v>
                 </c:pt>
-                <c:pt idx="12" c:formatCode="yyyy/m/d">
+                <c:pt idx="12">
                   <c:v>43386</c:v>
                 </c:pt>
-                <c:pt idx="13" c:formatCode="yyyy/m/d">
+                <c:pt idx="13">
                   <c:v>43387</c:v>
                 </c:pt>
-                <c:pt idx="14" c:formatCode="yyyy/m/d">
+                <c:pt idx="14">
                   <c:v>43388</c:v>
                 </c:pt>
-                <c:pt idx="15" c:formatCode="yyyy/m/d">
+                <c:pt idx="15">
                   <c:v>43389</c:v>
                 </c:pt>
-                <c:pt idx="16" c:formatCode="yyyy/m/d">
+                <c:pt idx="16">
                   <c:v>43390</c:v>
                 </c:pt>
-                <c:pt idx="17" c:formatCode="yyyy/m/d">
+                <c:pt idx="17">
                   <c:v>43391</c:v>
                 </c:pt>
-                <c:pt idx="18" c:formatCode="yyyy/m/d">
+                <c:pt idx="18">
                   <c:v>43392</c:v>
                 </c:pt>
-                <c:pt idx="19" c:formatCode="yyyy/m/d">
+                <c:pt idx="19">
                   <c:v>43393</c:v>
                 </c:pt>
-                <c:pt idx="20" c:formatCode="yyyy/m/d">
+                <c:pt idx="20">
                   <c:v>43394</c:v>
                 </c:pt>
-                <c:pt idx="21" c:formatCode="yyyy/m/d">
+                <c:pt idx="21">
                   <c:v>43395</c:v>
                 </c:pt>
-                <c:pt idx="22" c:formatCode="yyyy/m/d">
+                <c:pt idx="22">
                   <c:v>43396</c:v>
                 </c:pt>
-                <c:pt idx="23" c:formatCode="yyyy/m/d">
+                <c:pt idx="23">
                   <c:v>43397</c:v>
                 </c:pt>
-                <c:pt idx="24" c:formatCode="yyyy/m/d">
+                <c:pt idx="24">
                   <c:v>43398</c:v>
                 </c:pt>
-                <c:pt idx="25" c:formatCode="yyyy/m/d">
+                <c:pt idx="25">
                   <c:v>43399</c:v>
                 </c:pt>
-                <c:pt idx="26" c:formatCode="yyyy/m/d">
+                <c:pt idx="26">
                   <c:v>43400</c:v>
                 </c:pt>
-                <c:pt idx="27" c:formatCode="yyyy/m/d">
+                <c:pt idx="27">
                   <c:v>43401</c:v>
                 </c:pt>
-                <c:pt idx="28" c:formatCode="yyyy/m/d">
+                <c:pt idx="28">
                   <c:v>43402</c:v>
                 </c:pt>
-                <c:pt idx="29" c:formatCode="yyyy/m/d">
+                <c:pt idx="29">
                   <c:v>43403</c:v>
                 </c:pt>
-                <c:pt idx="30" c:formatCode="yyyy/m/d">
+                <c:pt idx="30">
                   <c:v>43404</c:v>
                 </c:pt>
               </c:numCache>
@@ -3810,11 +3284,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="296485760"/>
-        <c:axId val="296486320"/>
+        <c:axId val="333141440"/>
+        <c:axId val="333142000"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="296485760"/>
+        <c:axId val="333141440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3847,16 +3321,17 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="296486320"/>
+        <c:crossAx val="333142000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="296486320"/>
+        <c:axId val="333142000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.5"/>
@@ -3915,9 +3390,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="296485760"/>
+        <c:crossAx val="333141440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
@@ -3955,6 +3431,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -3995,6 +3472,7 @@
       <a:pPr>
         <a:defRPr lang="zh-CN"/>
       </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4042,11 +3520,9 @@
               <a:rPr lang="zh-CN"/>
               <a:t>总完成率</a:t>
             </a:r>
-            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4055,6 +3531,26 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -4111,6 +3607,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -4123,7 +3620,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -4255,11 +3751,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="296489680"/>
-        <c:axId val="296490240"/>
+        <c:axId val="333145360"/>
+        <c:axId val="333145920"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="296489680"/>
+        <c:axId val="333145360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4299,9 +3795,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="296490240"/>
+        <c:crossAx val="333145920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4309,7 +3806,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="296490240"/>
+        <c:axId val="333145920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4345,26 +3842,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="75000"/>
-                    <a:lumOff val="25000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="296489680"/>
+        <c:crossAx val="333145360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4418,6 +3896,7 @@
       <a:pPr>
         <a:defRPr lang="zh-CN"/>
       </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4492,7 +3971,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4501,6 +3979,25 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -4509,10 +4006,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0806595059076262"/>
-          <c:y val="0.021043771043771"/>
-          <c:w val="0.900991049051199"/>
-          <c:h val="0.738181818181818"/>
+          <c:x val="8.0659505907626203E-2"/>
+          <c:y val="2.1043771043771E-2"/>
+          <c:w val="0.90099104905119898"/>
+          <c:h val="0.73818181818181805"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -4570,106 +4067,103 @@
               </a:effectLst>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>'2018年12月'!$A$2:$A$32</c:f>
               <c:numCache>
-                <c:formatCode>yyyy/m/d</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="31"/>
-                <c:pt idx="0" c:formatCode="yyyy/m/d">
+                <c:pt idx="0">
                   <c:v>43435</c:v>
                 </c:pt>
-                <c:pt idx="1" c:formatCode="yyyy/m/d">
+                <c:pt idx="1">
                   <c:v>43436</c:v>
                 </c:pt>
-                <c:pt idx="2" c:formatCode="yyyy/m/d">
+                <c:pt idx="2">
                   <c:v>43437</c:v>
                 </c:pt>
-                <c:pt idx="3" c:formatCode="yyyy/m/d">
+                <c:pt idx="3">
                   <c:v>43438</c:v>
                 </c:pt>
-                <c:pt idx="4" c:formatCode="yyyy/m/d">
+                <c:pt idx="4">
                   <c:v>43439</c:v>
                 </c:pt>
-                <c:pt idx="5" c:formatCode="yyyy/m/d">
+                <c:pt idx="5">
                   <c:v>43440</c:v>
                 </c:pt>
-                <c:pt idx="6" c:formatCode="yyyy/m/d">
+                <c:pt idx="6">
                   <c:v>43441</c:v>
                 </c:pt>
-                <c:pt idx="7" c:formatCode="yyyy/m/d">
+                <c:pt idx="7">
                   <c:v>43442</c:v>
                 </c:pt>
-                <c:pt idx="8" c:formatCode="yyyy/m/d">
+                <c:pt idx="8">
                   <c:v>43443</c:v>
                 </c:pt>
-                <c:pt idx="9" c:formatCode="yyyy/m/d">
+                <c:pt idx="9">
                   <c:v>43444</c:v>
                 </c:pt>
-                <c:pt idx="10" c:formatCode="yyyy/m/d">
+                <c:pt idx="10">
                   <c:v>43445</c:v>
                 </c:pt>
-                <c:pt idx="11" c:formatCode="yyyy/m/d">
+                <c:pt idx="11">
                   <c:v>43446</c:v>
                 </c:pt>
-                <c:pt idx="12" c:formatCode="yyyy/m/d">
+                <c:pt idx="12">
                   <c:v>43447</c:v>
                 </c:pt>
-                <c:pt idx="13" c:formatCode="yyyy/m/d">
+                <c:pt idx="13">
                   <c:v>43448</c:v>
                 </c:pt>
-                <c:pt idx="14" c:formatCode="yyyy/m/d">
+                <c:pt idx="14">
                   <c:v>43449</c:v>
                 </c:pt>
-                <c:pt idx="15" c:formatCode="yyyy/m/d">
+                <c:pt idx="15">
                   <c:v>43450</c:v>
                 </c:pt>
-                <c:pt idx="16" c:formatCode="yyyy/m/d">
+                <c:pt idx="16">
                   <c:v>43451</c:v>
                 </c:pt>
-                <c:pt idx="17" c:formatCode="yyyy/m/d">
+                <c:pt idx="17">
                   <c:v>43452</c:v>
                 </c:pt>
-                <c:pt idx="18" c:formatCode="yyyy/m/d">
+                <c:pt idx="18">
                   <c:v>43453</c:v>
                 </c:pt>
-                <c:pt idx="19" c:formatCode="yyyy/m/d">
+                <c:pt idx="19">
                   <c:v>43454</c:v>
                 </c:pt>
-                <c:pt idx="20" c:formatCode="yyyy/m/d">
+                <c:pt idx="20">
                   <c:v>43455</c:v>
                 </c:pt>
-                <c:pt idx="21" c:formatCode="yyyy/m/d">
+                <c:pt idx="21">
                   <c:v>43456</c:v>
                 </c:pt>
-                <c:pt idx="22" c:formatCode="yyyy/m/d">
+                <c:pt idx="22">
                   <c:v>43457</c:v>
                 </c:pt>
-                <c:pt idx="23" c:formatCode="yyyy/m/d">
+                <c:pt idx="23">
                   <c:v>43458</c:v>
                 </c:pt>
-                <c:pt idx="24" c:formatCode="yyyy/m/d">
+                <c:pt idx="24">
                   <c:v>43459</c:v>
                 </c:pt>
-                <c:pt idx="25" c:formatCode="yyyy/m/d">
+                <c:pt idx="25">
                   <c:v>43460</c:v>
                 </c:pt>
-                <c:pt idx="26" c:formatCode="yyyy/m/d">
+                <c:pt idx="26">
                   <c:v>43461</c:v>
                 </c:pt>
-                <c:pt idx="27" c:formatCode="yyyy/m/d">
+                <c:pt idx="27">
                   <c:v>43462</c:v>
                 </c:pt>
-                <c:pt idx="28" c:formatCode="yyyy/m/d">
+                <c:pt idx="28">
                   <c:v>43463</c:v>
                 </c:pt>
-                <c:pt idx="29" c:formatCode="yyyy/m/d">
+                <c:pt idx="29">
                   <c:v>43464</c:v>
                 </c:pt>
-                <c:pt idx="30" c:formatCode="yyyy/m/d">
+                <c:pt idx="30">
                   <c:v>43465</c:v>
                 </c:pt>
               </c:numCache>
@@ -4831,106 +4325,103 @@
               </a:effectLst>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>'2018年12月'!$A$2:$A$32</c:f>
               <c:numCache>
-                <c:formatCode>yyyy/m/d</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="31"/>
-                <c:pt idx="0" c:formatCode="yyyy/m/d">
+                <c:pt idx="0">
                   <c:v>43435</c:v>
                 </c:pt>
-                <c:pt idx="1" c:formatCode="yyyy/m/d">
+                <c:pt idx="1">
                   <c:v>43436</c:v>
                 </c:pt>
-                <c:pt idx="2" c:formatCode="yyyy/m/d">
+                <c:pt idx="2">
                   <c:v>43437</c:v>
                 </c:pt>
-                <c:pt idx="3" c:formatCode="yyyy/m/d">
+                <c:pt idx="3">
                   <c:v>43438</c:v>
                 </c:pt>
-                <c:pt idx="4" c:formatCode="yyyy/m/d">
+                <c:pt idx="4">
                   <c:v>43439</c:v>
                 </c:pt>
-                <c:pt idx="5" c:formatCode="yyyy/m/d">
+                <c:pt idx="5">
                   <c:v>43440</c:v>
                 </c:pt>
-                <c:pt idx="6" c:formatCode="yyyy/m/d">
+                <c:pt idx="6">
                   <c:v>43441</c:v>
                 </c:pt>
-                <c:pt idx="7" c:formatCode="yyyy/m/d">
+                <c:pt idx="7">
                   <c:v>43442</c:v>
                 </c:pt>
-                <c:pt idx="8" c:formatCode="yyyy/m/d">
+                <c:pt idx="8">
                   <c:v>43443</c:v>
                 </c:pt>
-                <c:pt idx="9" c:formatCode="yyyy/m/d">
+                <c:pt idx="9">
                   <c:v>43444</c:v>
                 </c:pt>
-                <c:pt idx="10" c:formatCode="yyyy/m/d">
+                <c:pt idx="10">
                   <c:v>43445</c:v>
                 </c:pt>
-                <c:pt idx="11" c:formatCode="yyyy/m/d">
+                <c:pt idx="11">
                   <c:v>43446</c:v>
                 </c:pt>
-                <c:pt idx="12" c:formatCode="yyyy/m/d">
+                <c:pt idx="12">
                   <c:v>43447</c:v>
                 </c:pt>
-                <c:pt idx="13" c:formatCode="yyyy/m/d">
+                <c:pt idx="13">
                   <c:v>43448</c:v>
                 </c:pt>
-                <c:pt idx="14" c:formatCode="yyyy/m/d">
+                <c:pt idx="14">
                   <c:v>43449</c:v>
                 </c:pt>
-                <c:pt idx="15" c:formatCode="yyyy/m/d">
+                <c:pt idx="15">
                   <c:v>43450</c:v>
                 </c:pt>
-                <c:pt idx="16" c:formatCode="yyyy/m/d">
+                <c:pt idx="16">
                   <c:v>43451</c:v>
                 </c:pt>
-                <c:pt idx="17" c:formatCode="yyyy/m/d">
+                <c:pt idx="17">
                   <c:v>43452</c:v>
                 </c:pt>
-                <c:pt idx="18" c:formatCode="yyyy/m/d">
+                <c:pt idx="18">
                   <c:v>43453</c:v>
                 </c:pt>
-                <c:pt idx="19" c:formatCode="yyyy/m/d">
+                <c:pt idx="19">
                   <c:v>43454</c:v>
                 </c:pt>
-                <c:pt idx="20" c:formatCode="yyyy/m/d">
+                <c:pt idx="20">
                   <c:v>43455</c:v>
                 </c:pt>
-                <c:pt idx="21" c:formatCode="yyyy/m/d">
+                <c:pt idx="21">
                   <c:v>43456</c:v>
                 </c:pt>
-                <c:pt idx="22" c:formatCode="yyyy/m/d">
+                <c:pt idx="22">
                   <c:v>43457</c:v>
                 </c:pt>
-                <c:pt idx="23" c:formatCode="yyyy/m/d">
+                <c:pt idx="23">
                   <c:v>43458</c:v>
                 </c:pt>
-                <c:pt idx="24" c:formatCode="yyyy/m/d">
+                <c:pt idx="24">
                   <c:v>43459</c:v>
                 </c:pt>
-                <c:pt idx="25" c:formatCode="yyyy/m/d">
+                <c:pt idx="25">
                   <c:v>43460</c:v>
                 </c:pt>
-                <c:pt idx="26" c:formatCode="yyyy/m/d">
+                <c:pt idx="26">
                   <c:v>43461</c:v>
                 </c:pt>
-                <c:pt idx="27" c:formatCode="yyyy/m/d">
+                <c:pt idx="27">
                   <c:v>43462</c:v>
                 </c:pt>
-                <c:pt idx="28" c:formatCode="yyyy/m/d">
+                <c:pt idx="28">
                   <c:v>43463</c:v>
                 </c:pt>
-                <c:pt idx="29" c:formatCode="yyyy/m/d">
+                <c:pt idx="29">
                   <c:v>43464</c:v>
                 </c:pt>
-                <c:pt idx="30" c:formatCode="yyyy/m/d">
+                <c:pt idx="30">
                   <c:v>43465</c:v>
                 </c:pt>
               </c:numCache>
@@ -5050,11 +4541,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="296682752"/>
-        <c:axId val="296683312"/>
+        <c:axId val="333244336"/>
+        <c:axId val="333244896"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="296682752"/>
+        <c:axId val="333244336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5087,16 +4578,17 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="296683312"/>
+        <c:crossAx val="333244896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="296683312"/>
+        <c:axId val="333244896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.5"/>
@@ -5155,9 +4647,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="296682752"/>
+        <c:crossAx val="333244336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
@@ -5195,6 +4688,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -5235,6 +4729,7 @@
       <a:pPr>
         <a:defRPr lang="zh-CN"/>
       </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5282,11 +4777,9 @@
               <a:rPr lang="zh-CN"/>
               <a:t>总完成率</a:t>
             </a:r>
-            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5295,6 +4788,26 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -5351,6 +4864,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -5363,7 +4877,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -5495,11 +5008,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="296686672"/>
-        <c:axId val="296687232"/>
+        <c:axId val="333248256"/>
+        <c:axId val="333248816"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="296686672"/>
+        <c:axId val="333248256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5539,9 +5052,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="296687232"/>
+        <c:crossAx val="333248816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5549,7 +5063,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="296687232"/>
+        <c:axId val="333248816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5585,26 +5099,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="75000"/>
-                    <a:lumOff val="25000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="296686672"/>
+        <c:crossAx val="333248256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5658,6 +5153,7 @@
       <a:pPr>
         <a:defRPr lang="zh-CN"/>
       </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5705,11 +5201,9 @@
               <a:rPr lang="zh-CN"/>
               <a:t>总完成率</a:t>
             </a:r>
-            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5718,6 +5212,26 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -5774,6 +5288,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -5786,7 +5301,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -5817,7 +5331,7 @@
                   <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.85</c:v>
+                  <c:v>0.85000000000000009</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.375</c:v>
@@ -5888,11 +5402,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="195097424"/>
-        <c:axId val="195097984"/>
+        <c:axId val="240616656"/>
+        <c:axId val="240617216"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="195097424"/>
+        <c:axId val="240616656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5932,9 +5446,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="195097984"/>
+        <c:crossAx val="240617216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5942,7 +5457,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="195097984"/>
+        <c:axId val="240617216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5978,26 +5493,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="75000"/>
-                    <a:lumOff val="25000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="195097424"/>
+        <c:crossAx val="240616656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6051,6 +5547,7 @@
       <a:pPr>
         <a:defRPr lang="zh-CN"/>
       </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6134,6 +5631,25 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -6142,10 +5658,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0806595059076262"/>
-          <c:y val="0.021043771043771"/>
-          <c:w val="0.900991049051199"/>
-          <c:h val="0.738181818181818"/>
+          <c:x val="8.0659505907626203E-2"/>
+          <c:y val="2.1043771043771E-2"/>
+          <c:w val="0.90099104905119898"/>
+          <c:h val="0.73818181818181805"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -6203,106 +5719,103 @@
               </a:effectLst>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>'2018年1月概览'!$A$2:$A$32</c:f>
               <c:numCache>
-                <c:formatCode>yyyy/m/d</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="31"/>
-                <c:pt idx="0" c:formatCode="yyyy/m/d">
+                <c:pt idx="0">
                   <c:v>43101</c:v>
                 </c:pt>
-                <c:pt idx="1" c:formatCode="yyyy/m/d">
+                <c:pt idx="1">
                   <c:v>43102</c:v>
                 </c:pt>
-                <c:pt idx="2" c:formatCode="yyyy/m/d">
+                <c:pt idx="2">
                   <c:v>43103</c:v>
                 </c:pt>
-                <c:pt idx="3" c:formatCode="yyyy/m/d">
+                <c:pt idx="3">
                   <c:v>43104</c:v>
                 </c:pt>
-                <c:pt idx="4" c:formatCode="yyyy/m/d">
+                <c:pt idx="4">
                   <c:v>43105</c:v>
                 </c:pt>
-                <c:pt idx="5" c:formatCode="yyyy/m/d">
+                <c:pt idx="5">
                   <c:v>43106</c:v>
                 </c:pt>
-                <c:pt idx="6" c:formatCode="yyyy/m/d">
+                <c:pt idx="6">
                   <c:v>43107</c:v>
                 </c:pt>
-                <c:pt idx="7" c:formatCode="yyyy/m/d">
+                <c:pt idx="7">
                   <c:v>43108</c:v>
                 </c:pt>
-                <c:pt idx="8" c:formatCode="yyyy/m/d">
+                <c:pt idx="8">
                   <c:v>43109</c:v>
                 </c:pt>
-                <c:pt idx="9" c:formatCode="yyyy/m/d">
+                <c:pt idx="9">
                   <c:v>43110</c:v>
                 </c:pt>
-                <c:pt idx="10" c:formatCode="yyyy/m/d">
+                <c:pt idx="10">
                   <c:v>43111</c:v>
                 </c:pt>
-                <c:pt idx="11" c:formatCode="yyyy/m/d">
+                <c:pt idx="11">
                   <c:v>43112</c:v>
                 </c:pt>
-                <c:pt idx="12" c:formatCode="yyyy/m/d">
+                <c:pt idx="12">
                   <c:v>43113</c:v>
                 </c:pt>
-                <c:pt idx="13" c:formatCode="yyyy/m/d">
+                <c:pt idx="13">
                   <c:v>43114</c:v>
                 </c:pt>
-                <c:pt idx="14" c:formatCode="yyyy/m/d">
+                <c:pt idx="14">
                   <c:v>43115</c:v>
                 </c:pt>
-                <c:pt idx="15" c:formatCode="yyyy/m/d">
+                <c:pt idx="15">
                   <c:v>43116</c:v>
                 </c:pt>
-                <c:pt idx="16" c:formatCode="yyyy/m/d">
+                <c:pt idx="16">
                   <c:v>43117</c:v>
                 </c:pt>
-                <c:pt idx="17" c:formatCode="yyyy/m/d">
+                <c:pt idx="17">
                   <c:v>43118</c:v>
                 </c:pt>
-                <c:pt idx="18" c:formatCode="yyyy/m/d">
+                <c:pt idx="18">
                   <c:v>43119</c:v>
                 </c:pt>
-                <c:pt idx="19" c:formatCode="yyyy/m/d">
+                <c:pt idx="19">
                   <c:v>43120</c:v>
                 </c:pt>
-                <c:pt idx="20" c:formatCode="yyyy/m/d">
+                <c:pt idx="20">
                   <c:v>43121</c:v>
                 </c:pt>
-                <c:pt idx="21" c:formatCode="yyyy/m/d">
+                <c:pt idx="21">
                   <c:v>43122</c:v>
                 </c:pt>
-                <c:pt idx="22" c:formatCode="yyyy/m/d">
+                <c:pt idx="22">
                   <c:v>43123</c:v>
                 </c:pt>
-                <c:pt idx="23" c:formatCode="yyyy/m/d">
+                <c:pt idx="23">
                   <c:v>43124</c:v>
                 </c:pt>
-                <c:pt idx="24" c:formatCode="yyyy/m/d">
+                <c:pt idx="24">
                   <c:v>43125</c:v>
                 </c:pt>
-                <c:pt idx="25" c:formatCode="yyyy/m/d">
+                <c:pt idx="25">
                   <c:v>43126</c:v>
                 </c:pt>
-                <c:pt idx="26" c:formatCode="yyyy/m/d">
+                <c:pt idx="26">
                   <c:v>43127</c:v>
                 </c:pt>
-                <c:pt idx="27" c:formatCode="yyyy/m/d">
+                <c:pt idx="27">
                   <c:v>43128</c:v>
                 </c:pt>
-                <c:pt idx="28" c:formatCode="yyyy/m/d">
+                <c:pt idx="28">
                   <c:v>43129</c:v>
                 </c:pt>
-                <c:pt idx="29" c:formatCode="yyyy/m/d">
+                <c:pt idx="29">
                   <c:v>43130</c:v>
                 </c:pt>
-                <c:pt idx="30" c:formatCode="yyyy/m/d">
+                <c:pt idx="30">
                   <c:v>43131</c:v>
                 </c:pt>
               </c:numCache>
@@ -6339,7 +5852,7 @@
                   <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
@@ -6464,106 +5977,103 @@
               </a:effectLst>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>'2018年1月概览'!$A$2:$A$32</c:f>
               <c:numCache>
-                <c:formatCode>yyyy/m/d</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="31"/>
-                <c:pt idx="0" c:formatCode="yyyy/m/d">
+                <c:pt idx="0">
                   <c:v>43101</c:v>
                 </c:pt>
-                <c:pt idx="1" c:formatCode="yyyy/m/d">
+                <c:pt idx="1">
                   <c:v>43102</c:v>
                 </c:pt>
-                <c:pt idx="2" c:formatCode="yyyy/m/d">
+                <c:pt idx="2">
                   <c:v>43103</c:v>
                 </c:pt>
-                <c:pt idx="3" c:formatCode="yyyy/m/d">
+                <c:pt idx="3">
                   <c:v>43104</c:v>
                 </c:pt>
-                <c:pt idx="4" c:formatCode="yyyy/m/d">
+                <c:pt idx="4">
                   <c:v>43105</c:v>
                 </c:pt>
-                <c:pt idx="5" c:formatCode="yyyy/m/d">
+                <c:pt idx="5">
                   <c:v>43106</c:v>
                 </c:pt>
-                <c:pt idx="6" c:formatCode="yyyy/m/d">
+                <c:pt idx="6">
                   <c:v>43107</c:v>
                 </c:pt>
-                <c:pt idx="7" c:formatCode="yyyy/m/d">
+                <c:pt idx="7">
                   <c:v>43108</c:v>
                 </c:pt>
-                <c:pt idx="8" c:formatCode="yyyy/m/d">
+                <c:pt idx="8">
                   <c:v>43109</c:v>
                 </c:pt>
-                <c:pt idx="9" c:formatCode="yyyy/m/d">
+                <c:pt idx="9">
                   <c:v>43110</c:v>
                 </c:pt>
-                <c:pt idx="10" c:formatCode="yyyy/m/d">
+                <c:pt idx="10">
                   <c:v>43111</c:v>
                 </c:pt>
-                <c:pt idx="11" c:formatCode="yyyy/m/d">
+                <c:pt idx="11">
                   <c:v>43112</c:v>
                 </c:pt>
-                <c:pt idx="12" c:formatCode="yyyy/m/d">
+                <c:pt idx="12">
                   <c:v>43113</c:v>
                 </c:pt>
-                <c:pt idx="13" c:formatCode="yyyy/m/d">
+                <c:pt idx="13">
                   <c:v>43114</c:v>
                 </c:pt>
-                <c:pt idx="14" c:formatCode="yyyy/m/d">
+                <c:pt idx="14">
                   <c:v>43115</c:v>
                 </c:pt>
-                <c:pt idx="15" c:formatCode="yyyy/m/d">
+                <c:pt idx="15">
                   <c:v>43116</c:v>
                 </c:pt>
-                <c:pt idx="16" c:formatCode="yyyy/m/d">
+                <c:pt idx="16">
                   <c:v>43117</c:v>
                 </c:pt>
-                <c:pt idx="17" c:formatCode="yyyy/m/d">
+                <c:pt idx="17">
                   <c:v>43118</c:v>
                 </c:pt>
-                <c:pt idx="18" c:formatCode="yyyy/m/d">
+                <c:pt idx="18">
                   <c:v>43119</c:v>
                 </c:pt>
-                <c:pt idx="19" c:formatCode="yyyy/m/d">
+                <c:pt idx="19">
                   <c:v>43120</c:v>
                 </c:pt>
-                <c:pt idx="20" c:formatCode="yyyy/m/d">
+                <c:pt idx="20">
                   <c:v>43121</c:v>
                 </c:pt>
-                <c:pt idx="21" c:formatCode="yyyy/m/d">
+                <c:pt idx="21">
                   <c:v>43122</c:v>
                 </c:pt>
-                <c:pt idx="22" c:formatCode="yyyy/m/d">
+                <c:pt idx="22">
                   <c:v>43123</c:v>
                 </c:pt>
-                <c:pt idx="23" c:formatCode="yyyy/m/d">
+                <c:pt idx="23">
                   <c:v>43124</c:v>
                 </c:pt>
-                <c:pt idx="24" c:formatCode="yyyy/m/d">
+                <c:pt idx="24">
                   <c:v>43125</c:v>
                 </c:pt>
-                <c:pt idx="25" c:formatCode="yyyy/m/d">
+                <c:pt idx="25">
                   <c:v>43126</c:v>
                 </c:pt>
-                <c:pt idx="26" c:formatCode="yyyy/m/d">
+                <c:pt idx="26">
                   <c:v>43127</c:v>
                 </c:pt>
-                <c:pt idx="27" c:formatCode="yyyy/m/d">
+                <c:pt idx="27">
                   <c:v>43128</c:v>
                 </c:pt>
-                <c:pt idx="28" c:formatCode="yyyy/m/d">
+                <c:pt idx="28">
                   <c:v>43129</c:v>
                 </c:pt>
-                <c:pt idx="29" c:formatCode="yyyy/m/d">
+                <c:pt idx="29">
                   <c:v>43130</c:v>
                 </c:pt>
-                <c:pt idx="30" c:formatCode="yyyy/m/d">
+                <c:pt idx="30">
                   <c:v>43131</c:v>
                 </c:pt>
               </c:numCache>
@@ -6600,7 +6110,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
@@ -6683,11 +6193,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="195100784"/>
-        <c:axId val="195101344"/>
+        <c:axId val="240620016"/>
+        <c:axId val="240620576"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="195100784"/>
+        <c:axId val="240620016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6720,16 +6230,17 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="195101344"/>
+        <c:crossAx val="240620576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="195101344"/>
+        <c:axId val="240620576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.5"/>
@@ -6788,9 +6299,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="195100784"/>
+        <c:crossAx val="240620016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
@@ -6816,7 +6328,7 @@
           <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr>
+            <a:pPr rtl="0">
               <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="lt1">
@@ -6828,6 +6340,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -6868,6 +6381,7 @@
       <a:pPr>
         <a:defRPr lang="zh-CN"/>
       </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6915,7 +6429,6 @@
               <a:rPr lang="zh-CN"/>
               <a:t>总完成率</a:t>
             </a:r>
-            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -6928,6 +6441,26 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -6984,6 +6517,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -7030,7 +6564,7 @@
                   <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.9</c:v>
+                  <c:v>0.89999999999999991</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.65</c:v>
@@ -7045,7 +6579,7 @@
                   <c:v>0.85</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
@@ -7128,11 +6662,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="295868432"/>
-        <c:axId val="295868992"/>
+        <c:axId val="240623936"/>
+        <c:axId val="332339136"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="295868432"/>
+        <c:axId val="240623936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7172,9 +6706,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="295868992"/>
+        <c:crossAx val="332339136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7182,7 +6717,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="295868992"/>
+        <c:axId val="332339136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7218,26 +6753,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="75000"/>
-                    <a:lumOff val="25000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="295868432"/>
+        <c:crossAx val="240623936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7291,6 +6807,7 @@
       <a:pPr>
         <a:defRPr lang="zh-CN"/>
       </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7365,7 +6882,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7374,6 +6890,25 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -7382,10 +6917,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0806595059076262"/>
-          <c:y val="0.021043771043771"/>
-          <c:w val="0.900991049051199"/>
-          <c:h val="0.738181818181818"/>
+          <c:x val="8.0659505907626203E-2"/>
+          <c:y val="2.1043771043771E-2"/>
+          <c:w val="0.90099104905119898"/>
+          <c:h val="0.73818181818181805"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -7443,106 +6978,103 @@
               </a:effectLst>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>'2018年3月概览'!$A$2:$A$32</c:f>
               <c:numCache>
-                <c:formatCode>yyyy/m/d</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="31"/>
-                <c:pt idx="0" c:formatCode="yyyy/m/d">
+                <c:pt idx="0">
                   <c:v>43160</c:v>
                 </c:pt>
-                <c:pt idx="1" c:formatCode="yyyy/m/d">
+                <c:pt idx="1">
                   <c:v>43161</c:v>
                 </c:pt>
-                <c:pt idx="2" c:formatCode="yyyy/m/d">
+                <c:pt idx="2">
                   <c:v>43162</c:v>
                 </c:pt>
-                <c:pt idx="3" c:formatCode="yyyy/m/d">
+                <c:pt idx="3">
                   <c:v>43163</c:v>
                 </c:pt>
-                <c:pt idx="4" c:formatCode="yyyy/m/d">
+                <c:pt idx="4">
                   <c:v>43164</c:v>
                 </c:pt>
-                <c:pt idx="5" c:formatCode="yyyy/m/d">
+                <c:pt idx="5">
                   <c:v>43165</c:v>
                 </c:pt>
-                <c:pt idx="6" c:formatCode="yyyy/m/d">
+                <c:pt idx="6">
                   <c:v>43166</c:v>
                 </c:pt>
-                <c:pt idx="7" c:formatCode="yyyy/m/d">
+                <c:pt idx="7">
                   <c:v>43167</c:v>
                 </c:pt>
-                <c:pt idx="8" c:formatCode="yyyy/m/d">
+                <c:pt idx="8">
                   <c:v>43168</c:v>
                 </c:pt>
-                <c:pt idx="9" c:formatCode="yyyy/m/d">
+                <c:pt idx="9">
                   <c:v>43169</c:v>
                 </c:pt>
-                <c:pt idx="10" c:formatCode="yyyy/m/d">
+                <c:pt idx="10">
                   <c:v>43170</c:v>
                 </c:pt>
-                <c:pt idx="11" c:formatCode="yyyy/m/d">
+                <c:pt idx="11">
                   <c:v>43171</c:v>
                 </c:pt>
-                <c:pt idx="12" c:formatCode="yyyy/m/d">
+                <c:pt idx="12">
                   <c:v>43172</c:v>
                 </c:pt>
-                <c:pt idx="13" c:formatCode="yyyy/m/d">
+                <c:pt idx="13">
                   <c:v>43173</c:v>
                 </c:pt>
-                <c:pt idx="14" c:formatCode="yyyy/m/d">
+                <c:pt idx="14">
                   <c:v>43174</c:v>
                 </c:pt>
-                <c:pt idx="15" c:formatCode="yyyy/m/d">
+                <c:pt idx="15">
                   <c:v>43175</c:v>
                 </c:pt>
-                <c:pt idx="16" c:formatCode="yyyy/m/d">
+                <c:pt idx="16">
                   <c:v>43176</c:v>
                 </c:pt>
-                <c:pt idx="17" c:formatCode="yyyy/m/d">
+                <c:pt idx="17">
                   <c:v>43177</c:v>
                 </c:pt>
-                <c:pt idx="18" c:formatCode="yyyy/m/d">
+                <c:pt idx="18">
                   <c:v>43178</c:v>
                 </c:pt>
-                <c:pt idx="19" c:formatCode="yyyy/m/d">
+                <c:pt idx="19">
                   <c:v>43179</c:v>
                 </c:pt>
-                <c:pt idx="20" c:formatCode="yyyy/m/d">
+                <c:pt idx="20">
                   <c:v>43180</c:v>
                 </c:pt>
-                <c:pt idx="21" c:formatCode="yyyy/m/d">
+                <c:pt idx="21">
                   <c:v>43181</c:v>
                 </c:pt>
-                <c:pt idx="22" c:formatCode="yyyy/m/d">
+                <c:pt idx="22">
                   <c:v>43182</c:v>
                 </c:pt>
-                <c:pt idx="23" c:formatCode="yyyy/m/d">
+                <c:pt idx="23">
                   <c:v>43183</c:v>
                 </c:pt>
-                <c:pt idx="24" c:formatCode="yyyy/m/d">
+                <c:pt idx="24">
                   <c:v>43184</c:v>
                 </c:pt>
-                <c:pt idx="25" c:formatCode="yyyy/m/d">
+                <c:pt idx="25">
                   <c:v>43185</c:v>
                 </c:pt>
-                <c:pt idx="26" c:formatCode="yyyy/m/d">
+                <c:pt idx="26">
                   <c:v>43186</c:v>
                 </c:pt>
-                <c:pt idx="27" c:formatCode="yyyy/m/d">
+                <c:pt idx="27">
                   <c:v>43187</c:v>
                 </c:pt>
-                <c:pt idx="28" c:formatCode="yyyy/m/d">
+                <c:pt idx="28">
                   <c:v>43188</c:v>
                 </c:pt>
-                <c:pt idx="29" c:formatCode="yyyy/m/d">
+                <c:pt idx="29">
                   <c:v>43189</c:v>
                 </c:pt>
-                <c:pt idx="30" c:formatCode="yyyy/m/d">
+                <c:pt idx="30">
                   <c:v>43190</c:v>
                 </c:pt>
               </c:numCache>
@@ -7704,106 +7236,103 @@
               </a:effectLst>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>'2018年3月概览'!$A$2:$A$32</c:f>
               <c:numCache>
-                <c:formatCode>yyyy/m/d</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="31"/>
-                <c:pt idx="0" c:formatCode="yyyy/m/d">
+                <c:pt idx="0">
                   <c:v>43160</c:v>
                 </c:pt>
-                <c:pt idx="1" c:formatCode="yyyy/m/d">
+                <c:pt idx="1">
                   <c:v>43161</c:v>
                 </c:pt>
-                <c:pt idx="2" c:formatCode="yyyy/m/d">
+                <c:pt idx="2">
                   <c:v>43162</c:v>
                 </c:pt>
-                <c:pt idx="3" c:formatCode="yyyy/m/d">
+                <c:pt idx="3">
                   <c:v>43163</c:v>
                 </c:pt>
-                <c:pt idx="4" c:formatCode="yyyy/m/d">
+                <c:pt idx="4">
                   <c:v>43164</c:v>
                 </c:pt>
-                <c:pt idx="5" c:formatCode="yyyy/m/d">
+                <c:pt idx="5">
                   <c:v>43165</c:v>
                 </c:pt>
-                <c:pt idx="6" c:formatCode="yyyy/m/d">
+                <c:pt idx="6">
                   <c:v>43166</c:v>
                 </c:pt>
-                <c:pt idx="7" c:formatCode="yyyy/m/d">
+                <c:pt idx="7">
                   <c:v>43167</c:v>
                 </c:pt>
-                <c:pt idx="8" c:formatCode="yyyy/m/d">
+                <c:pt idx="8">
                   <c:v>43168</c:v>
                 </c:pt>
-                <c:pt idx="9" c:formatCode="yyyy/m/d">
+                <c:pt idx="9">
                   <c:v>43169</c:v>
                 </c:pt>
-                <c:pt idx="10" c:formatCode="yyyy/m/d">
+                <c:pt idx="10">
                   <c:v>43170</c:v>
                 </c:pt>
-                <c:pt idx="11" c:formatCode="yyyy/m/d">
+                <c:pt idx="11">
                   <c:v>43171</c:v>
                 </c:pt>
-                <c:pt idx="12" c:formatCode="yyyy/m/d">
+                <c:pt idx="12">
                   <c:v>43172</c:v>
                 </c:pt>
-                <c:pt idx="13" c:formatCode="yyyy/m/d">
+                <c:pt idx="13">
                   <c:v>43173</c:v>
                 </c:pt>
-                <c:pt idx="14" c:formatCode="yyyy/m/d">
+                <c:pt idx="14">
                   <c:v>43174</c:v>
                 </c:pt>
-                <c:pt idx="15" c:formatCode="yyyy/m/d">
+                <c:pt idx="15">
                   <c:v>43175</c:v>
                 </c:pt>
-                <c:pt idx="16" c:formatCode="yyyy/m/d">
+                <c:pt idx="16">
                   <c:v>43176</c:v>
                 </c:pt>
-                <c:pt idx="17" c:formatCode="yyyy/m/d">
+                <c:pt idx="17">
                   <c:v>43177</c:v>
                 </c:pt>
-                <c:pt idx="18" c:formatCode="yyyy/m/d">
+                <c:pt idx="18">
                   <c:v>43178</c:v>
                 </c:pt>
-                <c:pt idx="19" c:formatCode="yyyy/m/d">
+                <c:pt idx="19">
                   <c:v>43179</c:v>
                 </c:pt>
-                <c:pt idx="20" c:formatCode="yyyy/m/d">
+                <c:pt idx="20">
                   <c:v>43180</c:v>
                 </c:pt>
-                <c:pt idx="21" c:formatCode="yyyy/m/d">
+                <c:pt idx="21">
                   <c:v>43181</c:v>
                 </c:pt>
-                <c:pt idx="22" c:formatCode="yyyy/m/d">
+                <c:pt idx="22">
                   <c:v>43182</c:v>
                 </c:pt>
-                <c:pt idx="23" c:formatCode="yyyy/m/d">
+                <c:pt idx="23">
                   <c:v>43183</c:v>
                 </c:pt>
-                <c:pt idx="24" c:formatCode="yyyy/m/d">
+                <c:pt idx="24">
                   <c:v>43184</c:v>
                 </c:pt>
-                <c:pt idx="25" c:formatCode="yyyy/m/d">
+                <c:pt idx="25">
                   <c:v>43185</c:v>
                 </c:pt>
-                <c:pt idx="26" c:formatCode="yyyy/m/d">
+                <c:pt idx="26">
                   <c:v>43186</c:v>
                 </c:pt>
-                <c:pt idx="27" c:formatCode="yyyy/m/d">
+                <c:pt idx="27">
                   <c:v>43187</c:v>
                 </c:pt>
-                <c:pt idx="28" c:formatCode="yyyy/m/d">
+                <c:pt idx="28">
                   <c:v>43188</c:v>
                 </c:pt>
-                <c:pt idx="29" c:formatCode="yyyy/m/d">
+                <c:pt idx="29">
                   <c:v>43189</c:v>
                 </c:pt>
-                <c:pt idx="30" c:formatCode="yyyy/m/d">
+                <c:pt idx="30">
                   <c:v>43190</c:v>
                 </c:pt>
               </c:numCache>
@@ -7923,11 +7452,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="295871792"/>
-        <c:axId val="295872352"/>
+        <c:axId val="332341936"/>
+        <c:axId val="332342496"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="295871792"/>
+        <c:axId val="332341936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7960,16 +7489,17 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="295872352"/>
+        <c:crossAx val="332342496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="295872352"/>
+        <c:axId val="332342496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.5"/>
@@ -8028,9 +7558,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="295871792"/>
+        <c:crossAx val="332341936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
@@ -8068,6 +7599,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -8108,6 +7640,7 @@
       <a:pPr>
         <a:defRPr lang="zh-CN"/>
       </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -8155,11 +7688,9 @@
               <a:rPr lang="zh-CN"/>
               <a:t>总完成率</a:t>
             </a:r>
-            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8168,6 +7699,26 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -8224,6 +7775,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -8236,7 +7788,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -8368,11 +7919,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="295875712"/>
-        <c:axId val="295600592"/>
+        <c:axId val="332345856"/>
+        <c:axId val="332346416"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="295875712"/>
+        <c:axId val="332345856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8412,9 +7963,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="295600592"/>
+        <c:crossAx val="332346416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8422,7 +7974,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="295600592"/>
+        <c:axId val="332346416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8458,26 +8010,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="75000"/>
-                    <a:lumOff val="25000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="295875712"/>
+        <c:crossAx val="332345856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8531,6 +8064,7 @@
       <a:pPr>
         <a:defRPr lang="zh-CN"/>
       </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -8605,7 +8139,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8614,6 +8147,25 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -8622,10 +8174,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0806595059076262"/>
-          <c:y val="0.021043771043771"/>
-          <c:w val="0.900991049051199"/>
-          <c:h val="0.738181818181818"/>
+          <c:x val="8.0659505907626203E-2"/>
+          <c:y val="2.1043771043771E-2"/>
+          <c:w val="0.90099104905119898"/>
+          <c:h val="0.73818181818181805"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -8683,106 +8235,103 @@
               </a:effectLst>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>'2018年5月概览'!$A$2:$A$32</c:f>
               <c:numCache>
-                <c:formatCode>yyyy/m/d</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="31"/>
-                <c:pt idx="0" c:formatCode="yyyy/m/d">
+                <c:pt idx="0">
                   <c:v>43221</c:v>
                 </c:pt>
-                <c:pt idx="1" c:formatCode="yyyy/m/d">
+                <c:pt idx="1">
                   <c:v>43222</c:v>
                 </c:pt>
-                <c:pt idx="2" c:formatCode="yyyy/m/d">
+                <c:pt idx="2">
                   <c:v>43223</c:v>
                 </c:pt>
-                <c:pt idx="3" c:formatCode="yyyy/m/d">
+                <c:pt idx="3">
                   <c:v>43224</c:v>
                 </c:pt>
-                <c:pt idx="4" c:formatCode="yyyy/m/d">
+                <c:pt idx="4">
                   <c:v>43225</c:v>
                 </c:pt>
-                <c:pt idx="5" c:formatCode="yyyy/m/d">
+                <c:pt idx="5">
                   <c:v>43226</c:v>
                 </c:pt>
-                <c:pt idx="6" c:formatCode="yyyy/m/d">
+                <c:pt idx="6">
                   <c:v>43227</c:v>
                 </c:pt>
-                <c:pt idx="7" c:formatCode="yyyy/m/d">
+                <c:pt idx="7">
                   <c:v>43228</c:v>
                 </c:pt>
-                <c:pt idx="8" c:formatCode="yyyy/m/d">
+                <c:pt idx="8">
                   <c:v>43229</c:v>
                 </c:pt>
-                <c:pt idx="9" c:formatCode="yyyy/m/d">
+                <c:pt idx="9">
                   <c:v>43230</c:v>
                 </c:pt>
-                <c:pt idx="10" c:formatCode="yyyy/m/d">
+                <c:pt idx="10">
                   <c:v>43231</c:v>
                 </c:pt>
-                <c:pt idx="11" c:formatCode="yyyy/m/d">
+                <c:pt idx="11">
                   <c:v>43232</c:v>
                 </c:pt>
-                <c:pt idx="12" c:formatCode="yyyy/m/d">
+                <c:pt idx="12">
                   <c:v>43233</c:v>
                 </c:pt>
-                <c:pt idx="13" c:formatCode="yyyy/m/d">
+                <c:pt idx="13">
                   <c:v>43234</c:v>
                 </c:pt>
-                <c:pt idx="14" c:formatCode="yyyy/m/d">
+                <c:pt idx="14">
                   <c:v>43235</c:v>
                 </c:pt>
-                <c:pt idx="15" c:formatCode="yyyy/m/d">
+                <c:pt idx="15">
                   <c:v>43236</c:v>
                 </c:pt>
-                <c:pt idx="16" c:formatCode="yyyy/m/d">
+                <c:pt idx="16">
                   <c:v>43237</c:v>
                 </c:pt>
-                <c:pt idx="17" c:formatCode="yyyy/m/d">
+                <c:pt idx="17">
                   <c:v>43238</c:v>
                 </c:pt>
-                <c:pt idx="18" c:formatCode="yyyy/m/d">
+                <c:pt idx="18">
                   <c:v>43239</c:v>
                 </c:pt>
-                <c:pt idx="19" c:formatCode="yyyy/m/d">
+                <c:pt idx="19">
                   <c:v>43240</c:v>
                 </c:pt>
-                <c:pt idx="20" c:formatCode="yyyy/m/d">
+                <c:pt idx="20">
                   <c:v>43241</c:v>
                 </c:pt>
-                <c:pt idx="21" c:formatCode="yyyy/m/d">
+                <c:pt idx="21">
                   <c:v>43242</c:v>
                 </c:pt>
-                <c:pt idx="22" c:formatCode="yyyy/m/d">
+                <c:pt idx="22">
                   <c:v>43243</c:v>
                 </c:pt>
-                <c:pt idx="23" c:formatCode="yyyy/m/d">
+                <c:pt idx="23">
                   <c:v>43244</c:v>
                 </c:pt>
-                <c:pt idx="24" c:formatCode="yyyy/m/d">
+                <c:pt idx="24">
                   <c:v>43245</c:v>
                 </c:pt>
-                <c:pt idx="25" c:formatCode="yyyy/m/d">
+                <c:pt idx="25">
                   <c:v>43246</c:v>
                 </c:pt>
-                <c:pt idx="26" c:formatCode="yyyy/m/d">
+                <c:pt idx="26">
                   <c:v>43247</c:v>
                 </c:pt>
-                <c:pt idx="27" c:formatCode="yyyy/m/d">
+                <c:pt idx="27">
                   <c:v>43248</c:v>
                 </c:pt>
-                <c:pt idx="28" c:formatCode="yyyy/m/d">
+                <c:pt idx="28">
                   <c:v>43249</c:v>
                 </c:pt>
-                <c:pt idx="29" c:formatCode="yyyy/m/d">
+                <c:pt idx="29">
                   <c:v>43250</c:v>
                 </c:pt>
-                <c:pt idx="30" c:formatCode="yyyy/m/d">
+                <c:pt idx="30">
                   <c:v>43251</c:v>
                 </c:pt>
               </c:numCache>
@@ -8944,106 +8493,103 @@
               </a:effectLst>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>'2018年5月概览'!$A$2:$A$32</c:f>
               <c:numCache>
-                <c:formatCode>yyyy/m/d</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="31"/>
-                <c:pt idx="0" c:formatCode="yyyy/m/d">
+                <c:pt idx="0">
                   <c:v>43221</c:v>
                 </c:pt>
-                <c:pt idx="1" c:formatCode="yyyy/m/d">
+                <c:pt idx="1">
                   <c:v>43222</c:v>
                 </c:pt>
-                <c:pt idx="2" c:formatCode="yyyy/m/d">
+                <c:pt idx="2">
                   <c:v>43223</c:v>
                 </c:pt>
-                <c:pt idx="3" c:formatCode="yyyy/m/d">
+                <c:pt idx="3">
                   <c:v>43224</c:v>
                 </c:pt>
-                <c:pt idx="4" c:formatCode="yyyy/m/d">
+                <c:pt idx="4">
                   <c:v>43225</c:v>
                 </c:pt>
-                <c:pt idx="5" c:formatCode="yyyy/m/d">
+                <c:pt idx="5">
                   <c:v>43226</c:v>
                 </c:pt>
-                <c:pt idx="6" c:formatCode="yyyy/m/d">
+                <c:pt idx="6">
                   <c:v>43227</c:v>
                 </c:pt>
-                <c:pt idx="7" c:formatCode="yyyy/m/d">
+                <c:pt idx="7">
                   <c:v>43228</c:v>
                 </c:pt>
-                <c:pt idx="8" c:formatCode="yyyy/m/d">
+                <c:pt idx="8">
                   <c:v>43229</c:v>
                 </c:pt>
-                <c:pt idx="9" c:formatCode="yyyy/m/d">
+                <c:pt idx="9">
                   <c:v>43230</c:v>
                 </c:pt>
-                <c:pt idx="10" c:formatCode="yyyy/m/d">
+                <c:pt idx="10">
                   <c:v>43231</c:v>
                 </c:pt>
-                <c:pt idx="11" c:formatCode="yyyy/m/d">
+                <c:pt idx="11">
                   <c:v>43232</c:v>
                 </c:pt>
-                <c:pt idx="12" c:formatCode="yyyy/m/d">
+                <c:pt idx="12">
                   <c:v>43233</c:v>
                 </c:pt>
-                <c:pt idx="13" c:formatCode="yyyy/m/d">
+                <c:pt idx="13">
                   <c:v>43234</c:v>
                 </c:pt>
-                <c:pt idx="14" c:formatCode="yyyy/m/d">
+                <c:pt idx="14">
                   <c:v>43235</c:v>
                 </c:pt>
-                <c:pt idx="15" c:formatCode="yyyy/m/d">
+                <c:pt idx="15">
                   <c:v>43236</c:v>
                 </c:pt>
-                <c:pt idx="16" c:formatCode="yyyy/m/d">
+                <c:pt idx="16">
                   <c:v>43237</c:v>
                 </c:pt>
-                <c:pt idx="17" c:formatCode="yyyy/m/d">
+                <c:pt idx="17">
                   <c:v>43238</c:v>
                 </c:pt>
-                <c:pt idx="18" c:formatCode="yyyy/m/d">
+                <c:pt idx="18">
                   <c:v>43239</c:v>
                 </c:pt>
-                <c:pt idx="19" c:formatCode="yyyy/m/d">
+                <c:pt idx="19">
                   <c:v>43240</c:v>
                 </c:pt>
-                <c:pt idx="20" c:formatCode="yyyy/m/d">
+                <c:pt idx="20">
                   <c:v>43241</c:v>
                 </c:pt>
-                <c:pt idx="21" c:formatCode="yyyy/m/d">
+                <c:pt idx="21">
                   <c:v>43242</c:v>
                 </c:pt>
-                <c:pt idx="22" c:formatCode="yyyy/m/d">
+                <c:pt idx="22">
                   <c:v>43243</c:v>
                 </c:pt>
-                <c:pt idx="23" c:formatCode="yyyy/m/d">
+                <c:pt idx="23">
                   <c:v>43244</c:v>
                 </c:pt>
-                <c:pt idx="24" c:formatCode="yyyy/m/d">
+                <c:pt idx="24">
                   <c:v>43245</c:v>
                 </c:pt>
-                <c:pt idx="25" c:formatCode="yyyy/m/d">
+                <c:pt idx="25">
                   <c:v>43246</c:v>
                 </c:pt>
-                <c:pt idx="26" c:formatCode="yyyy/m/d">
+                <c:pt idx="26">
                   <c:v>43247</c:v>
                 </c:pt>
-                <c:pt idx="27" c:formatCode="yyyy/m/d">
+                <c:pt idx="27">
                   <c:v>43248</c:v>
                 </c:pt>
-                <c:pt idx="28" c:formatCode="yyyy/m/d">
+                <c:pt idx="28">
                   <c:v>43249</c:v>
                 </c:pt>
-                <c:pt idx="29" c:formatCode="yyyy/m/d">
+                <c:pt idx="29">
                   <c:v>43250</c:v>
                 </c:pt>
-                <c:pt idx="30" c:formatCode="yyyy/m/d">
+                <c:pt idx="30">
                   <c:v>43251</c:v>
                 </c:pt>
               </c:numCache>
@@ -9163,11 +8709,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="295603392"/>
-        <c:axId val="295603952"/>
+        <c:axId val="332403424"/>
+        <c:axId val="332403984"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="295603392"/>
+        <c:axId val="332403424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9200,16 +8746,17 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="295603952"/>
+        <c:crossAx val="332403984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="295603952"/>
+        <c:axId val="332403984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.5"/>
@@ -9268,9 +8815,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="295603392"/>
+        <c:crossAx val="332403424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
@@ -9308,6 +8856,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -9348,6 +8897,7 @@
       <a:pPr>
         <a:defRPr lang="zh-CN"/>
       </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -9395,11 +8945,9 @@
               <a:rPr lang="zh-CN"/>
               <a:t>总完成率</a:t>
             </a:r>
-            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9408,6 +8956,26 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -9464,6 +9032,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -9476,7 +9045,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -9608,11 +9176,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="295607312"/>
-        <c:axId val="295607872"/>
+        <c:axId val="332407344"/>
+        <c:axId val="332407904"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="295607312"/>
+        <c:axId val="332407344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9652,9 +9220,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="295607872"/>
+        <c:crossAx val="332407904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9662,7 +9231,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="295607872"/>
+        <c:axId val="332407904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9698,26 +9267,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="75000"/>
-                    <a:lumOff val="25000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="295607312"/>
+        <c:crossAx val="332407344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9771,6 +9321,7 @@
       <a:pPr>
         <a:defRPr lang="zh-CN"/>
       </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -9845,7 +9396,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9854,6 +9404,25 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -9862,10 +9431,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0806595059076262"/>
-          <c:y val="0.021043771043771"/>
-          <c:w val="0.900991049051199"/>
-          <c:h val="0.738181818181818"/>
+          <c:x val="8.0659505907626203E-2"/>
+          <c:y val="2.1043771043771E-2"/>
+          <c:w val="0.90099104905119898"/>
+          <c:h val="0.73818181818181805"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -9923,106 +9492,103 @@
               </a:effectLst>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>'2018年7月概览'!$A$2:$A$32</c:f>
               <c:numCache>
-                <c:formatCode>yyyy/m/d</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="31"/>
-                <c:pt idx="0" c:formatCode="yyyy/m/d">
+                <c:pt idx="0">
                   <c:v>43282</c:v>
                 </c:pt>
-                <c:pt idx="1" c:formatCode="yyyy/m/d">
+                <c:pt idx="1">
                   <c:v>43283</c:v>
                 </c:pt>
-                <c:pt idx="2" c:formatCode="yyyy/m/d">
+                <c:pt idx="2">
                   <c:v>43284</c:v>
                 </c:pt>
-                <c:pt idx="3" c:formatCode="yyyy/m/d">
+                <c:pt idx="3">
                   <c:v>43285</c:v>
                 </c:pt>
-                <c:pt idx="4" c:formatCode="yyyy/m/d">
+                <c:pt idx="4">
                   <c:v>43286</c:v>
                 </c:pt>
-                <c:pt idx="5" c:formatCode="yyyy/m/d">
+                <c:pt idx="5">
                   <c:v>43287</c:v>
                 </c:pt>
-                <c:pt idx="6" c:formatCode="yyyy/m/d">
+                <c:pt idx="6">
                   <c:v>43288</c:v>
                 </c:pt>
-                <c:pt idx="7" c:formatCode="yyyy/m/d">
+                <c:pt idx="7">
                   <c:v>43289</c:v>
                 </c:pt>
-                <c:pt idx="8" c:formatCode="yyyy/m/d">
+                <c:pt idx="8">
                   <c:v>43290</c:v>
                 </c:pt>
-                <c:pt idx="9" c:formatCode="yyyy/m/d">
+                <c:pt idx="9">
                   <c:v>43291</c:v>
                 </c:pt>
-                <c:pt idx="10" c:formatCode="yyyy/m/d">
+                <c:pt idx="10">
                   <c:v>43292</c:v>
                 </c:pt>
-                <c:pt idx="11" c:formatCode="yyyy/m/d">
+                <c:pt idx="11">
                   <c:v>43293</c:v>
                 </c:pt>
-                <c:pt idx="12" c:formatCode="yyyy/m/d">
+                <c:pt idx="12">
                   <c:v>43294</c:v>
                 </c:pt>
-                <c:pt idx="13" c:formatCode="yyyy/m/d">
+                <c:pt idx="13">
                   <c:v>43295</c:v>
                 </c:pt>
-                <c:pt idx="14" c:formatCode="yyyy/m/d">
+                <c:pt idx="14">
                   <c:v>43296</c:v>
                 </c:pt>
-                <c:pt idx="15" c:formatCode="yyyy/m/d">
+                <c:pt idx="15">
                   <c:v>43297</c:v>
                 </c:pt>
-                <c:pt idx="16" c:formatCode="yyyy/m/d">
+                <c:pt idx="16">
                   <c:v>43298</c:v>
                 </c:pt>
-                <c:pt idx="17" c:formatCode="yyyy/m/d">
+                <c:pt idx="17">
                   <c:v>43299</c:v>
                 </c:pt>
-                <c:pt idx="18" c:formatCode="yyyy/m/d">
+                <c:pt idx="18">
                   <c:v>43300</c:v>
                 </c:pt>
-                <c:pt idx="19" c:formatCode="yyyy/m/d">
+                <c:pt idx="19">
                   <c:v>43301</c:v>
                 </c:pt>
-                <c:pt idx="20" c:formatCode="yyyy/m/d">
+                <c:pt idx="20">
                   <c:v>43302</c:v>
                 </c:pt>
-                <c:pt idx="21" c:formatCode="yyyy/m/d">
+                <c:pt idx="21">
                   <c:v>43303</c:v>
                 </c:pt>
-                <c:pt idx="22" c:formatCode="yyyy/m/d">
+                <c:pt idx="22">
                   <c:v>43304</c:v>
                 </c:pt>
-                <c:pt idx="23" c:formatCode="yyyy/m/d">
+                <c:pt idx="23">
                   <c:v>43305</c:v>
                 </c:pt>
-                <c:pt idx="24" c:formatCode="yyyy/m/d">
+                <c:pt idx="24">
                   <c:v>43306</c:v>
                 </c:pt>
-                <c:pt idx="25" c:formatCode="yyyy/m/d">
+                <c:pt idx="25">
                   <c:v>43307</c:v>
                 </c:pt>
-                <c:pt idx="26" c:formatCode="yyyy/m/d">
+                <c:pt idx="26">
                   <c:v>43308</c:v>
                 </c:pt>
-                <c:pt idx="27" c:formatCode="yyyy/m/d">
+                <c:pt idx="27">
                   <c:v>43309</c:v>
                 </c:pt>
-                <c:pt idx="28" c:formatCode="yyyy/m/d">
+                <c:pt idx="28">
                   <c:v>43310</c:v>
                 </c:pt>
-                <c:pt idx="29" c:formatCode="yyyy/m/d">
+                <c:pt idx="29">
                   <c:v>43311</c:v>
                 </c:pt>
-                <c:pt idx="30" c:formatCode="yyyy/m/d">
+                <c:pt idx="30">
                   <c:v>43312</c:v>
                 </c:pt>
               </c:numCache>
@@ -10184,106 +9750,103 @@
               </a:effectLst>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>'2018年7月概览'!$A$2:$A$32</c:f>
               <c:numCache>
-                <c:formatCode>yyyy/m/d</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="31"/>
-                <c:pt idx="0" c:formatCode="yyyy/m/d">
+                <c:pt idx="0">
                   <c:v>43282</c:v>
                 </c:pt>
-                <c:pt idx="1" c:formatCode="yyyy/m/d">
+                <c:pt idx="1">
                   <c:v>43283</c:v>
                 </c:pt>
-                <c:pt idx="2" c:formatCode="yyyy/m/d">
+                <c:pt idx="2">
                   <c:v>43284</c:v>
                 </c:pt>
-                <c:pt idx="3" c:formatCode="yyyy/m/d">
+                <c:pt idx="3">
                   <c:v>43285</c:v>
                 </c:pt>
-                <c:pt idx="4" c:formatCode="yyyy/m/d">
+                <c:pt idx="4">
                   <c:v>43286</c:v>
                 </c:pt>
-                <c:pt idx="5" c:formatCode="yyyy/m/d">
+                <c:pt idx="5">
                   <c:v>43287</c:v>
                 </c:pt>
-                <c:pt idx="6" c:formatCode="yyyy/m/d">
+                <c:pt idx="6">
                   <c:v>43288</c:v>
                 </c:pt>
-                <c:pt idx="7" c:formatCode="yyyy/m/d">
+                <c:pt idx="7">
                   <c:v>43289</c:v>
                 </c:pt>
-                <c:pt idx="8" c:formatCode="yyyy/m/d">
+                <c:pt idx="8">
                   <c:v>43290</c:v>
                 </c:pt>
-                <c:pt idx="9" c:formatCode="yyyy/m/d">
+                <c:pt idx="9">
                   <c:v>43291</c:v>
                 </c:pt>
-                <c:pt idx="10" c:formatCode="yyyy/m/d">
+                <c:pt idx="10">
                   <c:v>43292</c:v>
                 </c:pt>
-                <c:pt idx="11" c:formatCode="yyyy/m/d">
+                <c:pt idx="11">
                   <c:v>43293</c:v>
                 </c:pt>
-                <c:pt idx="12" c:formatCode="yyyy/m/d">
+                <c:pt idx="12">
                   <c:v>43294</c:v>
                 </c:pt>
-                <c:pt idx="13" c:formatCode="yyyy/m/d">
+                <c:pt idx="13">
                   <c:v>43295</c:v>
                 </c:pt>
-                <c:pt idx="14" c:formatCode="yyyy/m/d">
+                <c:pt idx="14">
                   <c:v>43296</c:v>
                 </c:pt>
-                <c:pt idx="15" c:formatCode="yyyy/m/d">
+                <c:pt idx="15">
                   <c:v>43297</c:v>
                 </c:pt>
-                <c:pt idx="16" c:formatCode="yyyy/m/d">
+                <c:pt idx="16">
                   <c:v>43298</c:v>
                 </c:pt>
-                <c:pt idx="17" c:formatCode="yyyy/m/d">
+                <c:pt idx="17">
                   <c:v>43299</c:v>
                 </c:pt>
-                <c:pt idx="18" c:formatCode="yyyy/m/d">
+                <c:pt idx="18">
                   <c:v>43300</c:v>
                 </c:pt>
-                <c:pt idx="19" c:formatCode="yyyy/m/d">
+                <c:pt idx="19">
                   <c:v>43301</c:v>
                 </c:pt>
-                <c:pt idx="20" c:formatCode="yyyy/m/d">
+                <c:pt idx="20">
                   <c:v>43302</c:v>
                 </c:pt>
-                <c:pt idx="21" c:formatCode="yyyy/m/d">
+                <c:pt idx="21">
                   <c:v>43303</c:v>
                 </c:pt>
-                <c:pt idx="22" c:formatCode="yyyy/m/d">
+                <c:pt idx="22">
                   <c:v>43304</c:v>
                 </c:pt>
-                <c:pt idx="23" c:formatCode="yyyy/m/d">
+                <c:pt idx="23">
                   <c:v>43305</c:v>
                 </c:pt>
-                <c:pt idx="24" c:formatCode="yyyy/m/d">
+                <c:pt idx="24">
                   <c:v>43306</c:v>
                 </c:pt>
-                <c:pt idx="25" c:formatCode="yyyy/m/d">
+                <c:pt idx="25">
                   <c:v>43307</c:v>
                 </c:pt>
-                <c:pt idx="26" c:formatCode="yyyy/m/d">
+                <c:pt idx="26">
                   <c:v>43308</c:v>
                 </c:pt>
-                <c:pt idx="27" c:formatCode="yyyy/m/d">
+                <c:pt idx="27">
                   <c:v>43309</c:v>
                 </c:pt>
-                <c:pt idx="28" c:formatCode="yyyy/m/d">
+                <c:pt idx="28">
                   <c:v>43310</c:v>
                 </c:pt>
-                <c:pt idx="29" c:formatCode="yyyy/m/d">
+                <c:pt idx="29">
                   <c:v>43311</c:v>
                 </c:pt>
-                <c:pt idx="30" c:formatCode="yyyy/m/d">
+                <c:pt idx="30">
                   <c:v>43312</c:v>
                 </c:pt>
               </c:numCache>
@@ -10403,11 +9966,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="296269744"/>
-        <c:axId val="296270304"/>
+        <c:axId val="240224464"/>
+        <c:axId val="240225024"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="296269744"/>
+        <c:axId val="240224464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10440,16 +10003,17 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="296270304"/>
+        <c:crossAx val="240225024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="296270304"/>
+        <c:axId val="240225024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.5"/>
@@ -10508,9 +10072,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="296269744"/>
+        <c:crossAx val="240224464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
@@ -10548,6 +10113,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -10588,6 +10154,7 @@
       <a:pPr>
         <a:defRPr lang="zh-CN"/>
       </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -20175,7 +19742,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -20189,14 +19756,14 @@
       <xdr:row>67</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="4" name="图表 3"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="800100" y="6035040"/>
-        <a:ext cx="15750540" cy="7543800"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -20219,14 +19786,14 @@
       <xdr:row>91</xdr:row>
       <xdr:rowOff>87630</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="5" name="图表 4"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="800100" y="15179040"/>
-        <a:ext cx="15819755" cy="2830830"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -20240,7 +19807,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -20254,14 +19821,14 @@
       <xdr:row>75</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="6" name="图表 5"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="7498080"/>
-        <a:ext cx="16116300" cy="7543800"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -20284,14 +19851,14 @@
       <xdr:row>97</xdr:row>
       <xdr:rowOff>87630</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="7" name="图表 6"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="16276320"/>
-        <a:ext cx="16193135" cy="2830830"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -20305,7 +19872,7 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -20319,14 +19886,14 @@
       <xdr:row>75</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="图表 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="6217920"/>
-        <a:ext cx="14188440" cy="7543800"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -20349,14 +19916,14 @@
       <xdr:row>97</xdr:row>
       <xdr:rowOff>87630</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="图表 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="14996160"/>
-        <a:ext cx="14265275" cy="2830830"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -20370,7 +19937,7 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -20384,14 +19951,14 @@
       <xdr:row>75</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="图表 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="6217920"/>
-        <a:ext cx="14188440" cy="7543800"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -20414,14 +19981,14 @@
       <xdr:row>97</xdr:row>
       <xdr:rowOff>87630</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="图表 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="14996160"/>
-        <a:ext cx="14265275" cy="2830830"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -20435,7 +20002,7 @@
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -20449,14 +20016,14 @@
       <xdr:row>75</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="图表 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="6217920"/>
-        <a:ext cx="14188440" cy="7543800"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -20479,14 +20046,14 @@
       <xdr:row>97</xdr:row>
       <xdr:rowOff>87630</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="图表 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="14996160"/>
-        <a:ext cx="14265275" cy="2830830"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -20500,7 +20067,7 @@
 </file>
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -20514,14 +20081,14 @@
       <xdr:row>75</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="图表 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="6217920"/>
-        <a:ext cx="14188440" cy="7543800"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -20544,14 +20111,14 @@
       <xdr:row>97</xdr:row>
       <xdr:rowOff>87630</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="图表 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="14996160"/>
-        <a:ext cx="14265275" cy="2830830"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -20565,7 +20132,7 @@
 </file>
 
 <file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -20579,14 +20146,14 @@
       <xdr:row>75</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="图表 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="6217920"/>
-        <a:ext cx="14188440" cy="7543800"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -20609,14 +20176,14 @@
       <xdr:row>97</xdr:row>
       <xdr:rowOff>87630</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="图表 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="14996160"/>
-        <a:ext cx="14265275" cy="2830830"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -20630,7 +20197,7 @@
 </file>
 
 <file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -20644,14 +20211,14 @@
       <xdr:row>75</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="图表 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="6217920"/>
-        <a:ext cx="14188440" cy="7543800"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -20674,14 +20241,14 @@
       <xdr:row>97</xdr:row>
       <xdr:rowOff>87630</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="图表 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="14996160"/>
-        <a:ext cx="14265275" cy="2830830"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -20975,30 +20542,30 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G374"/>
   <sheetViews>
     <sheetView topLeftCell="A67" workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.6666666666667" customWidth="1"/>
-    <col min="2" max="2" width="17.7777777777778" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.4444444444444" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.6666666666667" customWidth="1"/>
-    <col min="5" max="5" width="62.2222222222222" customWidth="1"/>
-    <col min="6" max="6" width="66.6666666666667" customWidth="1"/>
-    <col min="7" max="7" width="30.1111111111111" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" customWidth="1"/>
+    <col min="2" max="2" width="17.77734375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" customWidth="1"/>
+    <col min="5" max="5" width="62.21875" customWidth="1"/>
+    <col min="6" max="6" width="66.6640625" customWidth="1"/>
+    <col min="7" max="7" width="30.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -21015,7 +20582,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="28.8" spans="1:6">
+    <row r="2" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>43080</v>
       </c>
@@ -21036,12 +20603,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" ht="57.6" spans="1:6">
+    <row r="3" spans="1:7" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>43081</v>
       </c>
       <c r="B3" s="4">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C3" s="2">
         <v>0.7</v>
@@ -21057,7 +20624,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" ht="43.2" spans="1:6">
+    <row r="4" spans="1:7" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>43082</v>
       </c>
@@ -21069,7 +20636,7 @@
       </c>
       <c r="D4" s="2">
         <f t="shared" si="0"/>
-        <v>0.85</v>
+        <v>0.85000000000000009</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>9</v>
@@ -21078,7 +20645,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" ht="28.8" spans="1:6">
+    <row r="5" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>43083</v>
       </c>
@@ -21097,7 +20664,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>43084</v>
       </c>
@@ -21116,7 +20683,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>43085</v>
       </c>
@@ -21131,7 +20698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>43086</v>
       </c>
@@ -21146,7 +20713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>43087</v>
       </c>
@@ -21164,7 +20731,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>43088</v>
       </c>
@@ -21185,7 +20752,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>43089</v>
       </c>
@@ -21200,7 +20767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>43090</v>
       </c>
@@ -21215,7 +20782,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>43091</v>
       </c>
@@ -21230,7 +20797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>43092</v>
       </c>
@@ -21245,7 +20812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>43093</v>
       </c>
@@ -21260,7 +20827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>43094</v>
       </c>
@@ -21278,7 +20845,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>43095</v>
       </c>
@@ -21296,7 +20863,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>43096</v>
       </c>
@@ -21317,7 +20884,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>43097</v>
       </c>
@@ -21338,7 +20905,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>43098</v>
       </c>
@@ -21359,7 +20926,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>43099</v>
       </c>
@@ -21377,7 +20944,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>43100</v>
       </c>
@@ -21395,1106 +20962,1106 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-    </row>
-    <row r="25" spans="1:6">
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-    </row>
-    <row r="26" spans="1:1">
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
     </row>
-    <row r="44" spans="1:1">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
     </row>
-    <row r="45" spans="1:1">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
     </row>
-    <row r="46" spans="1:1">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
     </row>
-    <row r="47" spans="1:1">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="3"/>
     </row>
-    <row r="48" spans="1:1">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="3"/>
     </row>
-    <row r="50" spans="1:1">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="3"/>
     </row>
-    <row r="52" spans="1:1">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
     </row>
-    <row r="53" spans="1:1">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="3"/>
     </row>
-    <row r="54" spans="1:1">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="3"/>
     </row>
-    <row r="55" spans="1:1">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="3"/>
     </row>
-    <row r="56" spans="1:1">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="3"/>
     </row>
-    <row r="57" spans="1:1">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="3"/>
     </row>
-    <row r="58" spans="1:1">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="3"/>
     </row>
-    <row r="59" spans="1:1">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="3"/>
     </row>
-    <row r="60" spans="1:1">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="3"/>
     </row>
-    <row r="61" spans="1:1">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="3"/>
     </row>
-    <row r="62" spans="1:1">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="3"/>
     </row>
-    <row r="63" spans="1:1">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="3"/>
     </row>
-    <row r="64" spans="1:1">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="3"/>
     </row>
-    <row r="65" spans="1:1">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="3"/>
     </row>
-    <row r="66" spans="1:1">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="3"/>
     </row>
-    <row r="67" spans="1:1">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="3"/>
     </row>
-    <row r="68" spans="1:1">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="3"/>
     </row>
-    <row r="69" spans="1:1">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="3"/>
     </row>
-    <row r="70" spans="1:1">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="3"/>
     </row>
-    <row r="71" spans="1:1">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
     </row>
-    <row r="72" spans="1:1">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="3"/>
     </row>
-    <row r="73" spans="1:1">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" s="3"/>
     </row>
-    <row r="74" spans="1:1">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" s="3"/>
     </row>
-    <row r="75" spans="1:1">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" s="3"/>
     </row>
-    <row r="76" spans="1:1">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" s="3"/>
     </row>
-    <row r="77" spans="1:1">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" s="3"/>
     </row>
-    <row r="78" spans="1:1">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" s="3"/>
     </row>
-    <row r="79" spans="1:1">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" s="3"/>
     </row>
-    <row r="80" spans="1:1">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" s="3"/>
     </row>
-    <row r="81" spans="1:1">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" s="3"/>
     </row>
-    <row r="82" spans="1:1">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="3"/>
     </row>
-    <row r="83" spans="1:1">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" s="3"/>
     </row>
-    <row r="84" spans="1:1">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" s="3"/>
     </row>
-    <row r="85" spans="1:1">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" s="3"/>
     </row>
-    <row r="86" spans="1:1">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="3"/>
     </row>
-    <row r="87" spans="1:1">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" s="3"/>
     </row>
-    <row r="88" spans="1:1">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" s="3"/>
     </row>
-    <row r="89" spans="1:1">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" s="3"/>
     </row>
-    <row r="90" spans="1:1">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" s="3"/>
     </row>
-    <row r="91" spans="1:1">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" s="3"/>
     </row>
-    <row r="92" spans="1:1">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" s="3"/>
     </row>
-    <row r="93" spans="1:1">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" s="3"/>
     </row>
-    <row r="94" spans="1:1">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" s="3"/>
     </row>
-    <row r="95" spans="1:1">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" s="3"/>
     </row>
-    <row r="96" spans="1:1">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" s="3"/>
     </row>
-    <row r="97" spans="1:1">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" s="3"/>
     </row>
-    <row r="98" spans="1:1">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" s="3"/>
     </row>
-    <row r="99" spans="1:1">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" s="3"/>
     </row>
-    <row r="100" spans="1:1">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" s="3"/>
     </row>
-    <row r="101" spans="1:1">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" s="3"/>
     </row>
-    <row r="102" spans="1:1">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" s="3"/>
     </row>
-    <row r="103" spans="1:1">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" s="3"/>
     </row>
-    <row r="104" spans="1:1">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" s="3"/>
     </row>
-    <row r="105" spans="1:1">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" s="3"/>
     </row>
-    <row r="106" spans="1:1">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" s="3"/>
     </row>
-    <row r="107" spans="1:1">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" s="3"/>
     </row>
-    <row r="108" spans="1:1">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" s="3"/>
     </row>
-    <row r="109" spans="1:1">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" s="3"/>
     </row>
-    <row r="110" spans="1:1">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" s="3"/>
     </row>
-    <row r="111" spans="1:1">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" s="3"/>
     </row>
-    <row r="112" spans="1:1">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" s="3"/>
     </row>
-    <row r="113" spans="1:1">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" s="3"/>
     </row>
-    <row r="114" spans="1:1">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" s="3"/>
     </row>
-    <row r="115" spans="1:1">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" s="3"/>
     </row>
-    <row r="116" spans="1:1">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" s="3"/>
     </row>
-    <row r="117" spans="1:1">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" s="3"/>
     </row>
-    <row r="118" spans="1:1">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" s="3"/>
     </row>
-    <row r="119" spans="1:1">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" s="3"/>
     </row>
-    <row r="120" spans="1:1">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" s="3"/>
     </row>
-    <row r="121" spans="1:1">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" s="3"/>
     </row>
-    <row r="122" spans="1:1">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" s="3"/>
     </row>
-    <row r="123" spans="1:1">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" s="3"/>
     </row>
-    <row r="124" spans="1:1">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" s="3"/>
     </row>
-    <row r="125" spans="1:1">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" s="3"/>
     </row>
-    <row r="126" spans="1:1">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" s="3"/>
     </row>
-    <row r="127" spans="1:1">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" s="3"/>
     </row>
-    <row r="128" spans="1:1">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" s="3"/>
     </row>
-    <row r="129" spans="1:1">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" s="3"/>
     </row>
-    <row r="130" spans="1:1">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" s="3"/>
     </row>
-    <row r="131" spans="1:1">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" s="3"/>
     </row>
-    <row r="132" spans="1:1">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" s="3"/>
     </row>
-    <row r="133" spans="1:1">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" s="3"/>
     </row>
-    <row r="134" spans="1:1">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" s="3"/>
     </row>
-    <row r="135" spans="1:1">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" s="3"/>
     </row>
-    <row r="136" spans="1:1">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" s="3"/>
     </row>
-    <row r="137" spans="1:1">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" s="3"/>
     </row>
-    <row r="138" spans="1:1">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" s="3"/>
     </row>
-    <row r="139" spans="1:1">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" s="3"/>
     </row>
-    <row r="140" spans="1:1">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" s="3"/>
     </row>
-    <row r="141" spans="1:1">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" s="3"/>
     </row>
-    <row r="142" spans="1:1">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" s="3"/>
     </row>
-    <row r="143" spans="1:1">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" s="3"/>
     </row>
-    <row r="144" spans="1:1">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144" s="3"/>
     </row>
-    <row r="145" spans="1:1">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" s="3"/>
     </row>
-    <row r="146" spans="1:1">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" s="3"/>
     </row>
-    <row r="147" spans="1:1">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" s="3"/>
     </row>
-    <row r="148" spans="1:1">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" s="3"/>
     </row>
-    <row r="149" spans="1:1">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" s="3"/>
     </row>
-    <row r="150" spans="1:1">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" s="3"/>
     </row>
-    <row r="151" spans="1:1">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" s="3"/>
     </row>
-    <row r="152" spans="1:1">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" s="3"/>
     </row>
-    <row r="153" spans="1:1">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153" s="3"/>
     </row>
-    <row r="154" spans="1:1">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" s="3"/>
     </row>
-    <row r="155" spans="1:1">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" s="3"/>
     </row>
-    <row r="156" spans="1:1">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156" s="3"/>
     </row>
-    <row r="157" spans="1:1">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" s="3"/>
     </row>
-    <row r="158" spans="1:1">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158" s="3"/>
     </row>
-    <row r="159" spans="1:1">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159" s="3"/>
     </row>
-    <row r="160" spans="1:1">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160" s="3"/>
     </row>
-    <row r="161" spans="1:1">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" s="3"/>
     </row>
-    <row r="162" spans="1:1">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162" s="3"/>
     </row>
-    <row r="163" spans="1:1">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163" s="3"/>
     </row>
-    <row r="164" spans="1:1">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164" s="3"/>
     </row>
-    <row r="165" spans="1:1">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165" s="3"/>
     </row>
-    <row r="166" spans="1:1">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166" s="3"/>
     </row>
-    <row r="167" spans="1:1">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167" s="3"/>
     </row>
-    <row r="168" spans="1:1">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168" s="3"/>
     </row>
-    <row r="169" spans="1:1">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169" s="3"/>
     </row>
-    <row r="170" spans="1:1">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170" s="3"/>
     </row>
-    <row r="171" spans="1:1">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171" s="3"/>
     </row>
-    <row r="172" spans="1:1">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172" s="3"/>
     </row>
-    <row r="173" spans="1:1">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173" s="3"/>
     </row>
-    <row r="174" spans="1:1">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174" s="3"/>
     </row>
-    <row r="175" spans="1:1">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175" s="3"/>
     </row>
-    <row r="176" spans="1:1">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176" s="3"/>
     </row>
-    <row r="177" spans="1:1">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177" s="3"/>
     </row>
-    <row r="178" spans="1:1">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178" s="3"/>
     </row>
-    <row r="179" spans="1:1">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179" s="3"/>
     </row>
-    <row r="180" spans="1:1">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180" s="3"/>
     </row>
-    <row r="181" spans="1:1">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181" s="3"/>
     </row>
-    <row r="182" spans="1:1">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182" s="3"/>
     </row>
-    <row r="183" spans="1:1">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183" s="3"/>
     </row>
-    <row r="184" spans="1:1">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184" s="3"/>
     </row>
-    <row r="185" spans="1:1">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185" s="3"/>
     </row>
-    <row r="186" spans="1:1">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186" s="3"/>
     </row>
-    <row r="187" spans="1:1">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187" s="3"/>
     </row>
-    <row r="188" spans="1:1">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188" s="3"/>
     </row>
-    <row r="189" spans="1:1">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189" s="3"/>
     </row>
-    <row r="190" spans="1:1">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190" s="3"/>
     </row>
-    <row r="191" spans="1:1">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191" s="3"/>
     </row>
-    <row r="192" spans="1:1">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192" s="3"/>
     </row>
-    <row r="193" spans="1:1">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193" s="3"/>
     </row>
-    <row r="194" spans="1:1">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194" s="3"/>
     </row>
-    <row r="195" spans="1:1">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195" s="3"/>
     </row>
-    <row r="196" spans="1:1">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196" s="3"/>
     </row>
-    <row r="197" spans="1:1">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197" s="3"/>
     </row>
-    <row r="198" spans="1:1">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198" s="3"/>
     </row>
-    <row r="199" spans="1:1">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199" s="3"/>
     </row>
-    <row r="200" spans="1:1">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200" s="3"/>
     </row>
-    <row r="201" spans="1:1">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201" s="3"/>
     </row>
-    <row r="202" spans="1:1">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202" s="3"/>
     </row>
-    <row r="203" spans="1:1">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203" s="3"/>
     </row>
-    <row r="204" spans="1:1">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A204" s="3"/>
     </row>
-    <row r="205" spans="1:1">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205" s="3"/>
     </row>
-    <row r="206" spans="1:1">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206" s="3"/>
     </row>
-    <row r="207" spans="1:1">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A207" s="3"/>
     </row>
-    <row r="208" spans="1:1">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208" s="3"/>
     </row>
-    <row r="209" spans="1:1">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209" s="3"/>
     </row>
-    <row r="210" spans="1:1">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A210" s="3"/>
     </row>
-    <row r="211" spans="1:1">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211" s="3"/>
     </row>
-    <row r="212" spans="1:1">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212" s="3"/>
     </row>
-    <row r="213" spans="1:1">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A213" s="3"/>
     </row>
-    <row r="214" spans="1:1">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214" s="3"/>
     </row>
-    <row r="215" spans="1:1">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215" s="3"/>
     </row>
-    <row r="216" spans="1:1">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A216" s="3"/>
     </row>
-    <row r="217" spans="1:1">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A217" s="3"/>
     </row>
-    <row r="218" spans="1:1">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218" s="3"/>
     </row>
-    <row r="219" spans="1:1">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A219" s="3"/>
     </row>
-    <row r="220" spans="1:1">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220" s="3"/>
     </row>
-    <row r="221" spans="1:1">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A221" s="3"/>
     </row>
-    <row r="222" spans="1:1">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A222" s="3"/>
     </row>
-    <row r="223" spans="1:1">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A223" s="3"/>
     </row>
-    <row r="224" spans="1:1">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A224" s="3"/>
     </row>
-    <row r="225" spans="1:1">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225" s="3"/>
     </row>
-    <row r="226" spans="1:1">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226" s="3"/>
     </row>
-    <row r="227" spans="1:1">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227" s="3"/>
     </row>
-    <row r="228" spans="1:1">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228" s="3"/>
     </row>
-    <row r="229" spans="1:1">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229" s="3"/>
     </row>
-    <row r="230" spans="1:1">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230" s="3"/>
     </row>
-    <row r="231" spans="1:1">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A231" s="3"/>
     </row>
-    <row r="232" spans="1:1">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A232" s="3"/>
     </row>
-    <row r="233" spans="1:1">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A233" s="3"/>
     </row>
-    <row r="234" spans="1:1">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A234" s="3"/>
     </row>
-    <row r="235" spans="1:1">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A235" s="3"/>
     </row>
-    <row r="236" spans="1:1">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A236" s="3"/>
     </row>
-    <row r="237" spans="1:1">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A237" s="3"/>
     </row>
-    <row r="238" spans="1:1">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A238" s="3"/>
     </row>
-    <row r="239" spans="1:1">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A239" s="3"/>
     </row>
-    <row r="240" spans="1:1">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A240" s="3"/>
     </row>
-    <row r="241" spans="1:1">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241" s="3"/>
     </row>
-    <row r="242" spans="1:1">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A242" s="3"/>
     </row>
-    <row r="243" spans="1:1">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A243" s="3"/>
     </row>
-    <row r="244" spans="1:1">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A244" s="3"/>
     </row>
-    <row r="245" spans="1:1">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A245" s="3"/>
     </row>
-    <row r="246" spans="1:1">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A246" s="3"/>
     </row>
-    <row r="247" spans="1:1">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A247" s="3"/>
     </row>
-    <row r="248" spans="1:1">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A248" s="3"/>
     </row>
-    <row r="249" spans="1:1">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A249" s="3"/>
     </row>
-    <row r="250" spans="1:1">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A250" s="3"/>
     </row>
-    <row r="251" spans="1:1">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A251" s="3"/>
     </row>
-    <row r="252" spans="1:1">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A252" s="3"/>
     </row>
-    <row r="253" spans="1:1">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A253" s="3"/>
     </row>
-    <row r="254" spans="1:1">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A254" s="3"/>
     </row>
-    <row r="255" spans="1:1">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A255" s="3"/>
     </row>
-    <row r="256" spans="1:1">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A256" s="3"/>
     </row>
-    <row r="257" spans="1:1">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A257" s="3"/>
     </row>
-    <row r="258" spans="1:1">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A258" s="3"/>
     </row>
-    <row r="259" spans="1:1">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A259" s="3"/>
     </row>
-    <row r="260" spans="1:1">
+    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A260" s="3"/>
     </row>
-    <row r="261" spans="1:1">
+    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A261" s="3"/>
     </row>
-    <row r="262" spans="1:1">
+    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A262" s="3"/>
     </row>
-    <row r="263" spans="1:1">
+    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A263" s="3"/>
     </row>
-    <row r="264" spans="1:1">
+    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A264" s="3"/>
     </row>
-    <row r="265" spans="1:1">
+    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A265" s="3"/>
     </row>
-    <row r="266" spans="1:1">
+    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A266" s="3"/>
     </row>
-    <row r="267" spans="1:1">
+    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A267" s="3"/>
     </row>
-    <row r="268" spans="1:1">
+    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A268" s="3"/>
     </row>
-    <row r="269" spans="1:1">
+    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A269" s="3"/>
     </row>
-    <row r="270" spans="1:1">
+    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A270" s="3"/>
     </row>
-    <row r="271" spans="1:1">
+    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A271" s="3"/>
     </row>
-    <row r="272" spans="1:1">
+    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A272" s="3"/>
     </row>
-    <row r="273" spans="1:1">
+    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A273" s="3"/>
     </row>
-    <row r="274" spans="1:1">
+    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A274" s="3"/>
     </row>
-    <row r="275" spans="1:1">
+    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A275" s="3"/>
     </row>
-    <row r="276" spans="1:1">
+    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A276" s="3"/>
     </row>
-    <row r="277" spans="1:1">
+    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A277" s="3"/>
     </row>
-    <row r="278" spans="1:1">
+    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A278" s="3"/>
     </row>
-    <row r="279" spans="1:1">
+    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A279" s="3"/>
     </row>
-    <row r="280" spans="1:1">
+    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A280" s="3"/>
     </row>
-    <row r="281" spans="1:1">
+    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A281" s="3"/>
     </row>
-    <row r="282" spans="1:1">
+    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A282" s="3"/>
     </row>
-    <row r="283" spans="1:1">
+    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A283" s="3"/>
     </row>
-    <row r="284" spans="1:1">
+    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A284" s="3"/>
     </row>
-    <row r="285" spans="1:1">
+    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A285" s="3"/>
     </row>
-    <row r="286" spans="1:1">
+    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A286" s="3"/>
     </row>
-    <row r="287" spans="1:1">
+    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A287" s="3"/>
     </row>
-    <row r="288" spans="1:1">
+    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A288" s="3"/>
     </row>
-    <row r="289" spans="1:1">
+    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A289" s="3"/>
     </row>
-    <row r="290" spans="1:1">
+    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A290" s="3"/>
     </row>
-    <row r="291" spans="1:1">
+    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A291" s="3"/>
     </row>
-    <row r="292" spans="1:1">
+    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A292" s="3"/>
     </row>
-    <row r="293" spans="1:1">
+    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A293" s="3"/>
     </row>
-    <row r="294" spans="1:1">
+    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A294" s="3"/>
     </row>
-    <row r="295" spans="1:1">
+    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A295" s="3"/>
     </row>
-    <row r="296" spans="1:1">
+    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A296" s="3"/>
     </row>
-    <row r="297" spans="1:1">
+    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A297" s="3"/>
     </row>
-    <row r="298" spans="1:1">
+    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A298" s="3"/>
     </row>
-    <row r="299" spans="1:1">
+    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A299" s="3"/>
     </row>
-    <row r="300" spans="1:1">
+    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A300" s="3"/>
     </row>
-    <row r="301" spans="1:1">
+    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A301" s="3"/>
     </row>
-    <row r="302" spans="1:1">
+    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A302" s="3"/>
     </row>
-    <row r="303" spans="1:1">
+    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A303" s="3"/>
     </row>
-    <row r="304" spans="1:1">
+    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A304" s="3"/>
     </row>
-    <row r="305" spans="1:1">
+    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A305" s="3"/>
     </row>
-    <row r="306" spans="1:1">
+    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A306" s="3"/>
     </row>
-    <row r="307" spans="1:1">
+    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A307" s="3"/>
     </row>
-    <row r="308" spans="1:1">
+    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A308" s="3"/>
     </row>
-    <row r="309" spans="1:1">
+    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A309" s="3"/>
     </row>
-    <row r="310" spans="1:1">
+    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A310" s="3"/>
     </row>
-    <row r="311" spans="1:1">
+    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A311" s="3"/>
     </row>
-    <row r="312" spans="1:1">
+    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A312" s="3"/>
     </row>
-    <row r="313" spans="1:1">
+    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A313" s="3"/>
     </row>
-    <row r="314" spans="1:1">
+    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A314" s="3"/>
     </row>
-    <row r="315" spans="1:1">
+    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A315" s="3"/>
     </row>
-    <row r="316" spans="1:1">
+    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A316" s="3"/>
     </row>
-    <row r="317" spans="1:1">
+    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A317" s="3"/>
     </row>
-    <row r="318" spans="1:1">
+    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A318" s="3"/>
     </row>
-    <row r="319" spans="1:1">
+    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A319" s="3"/>
     </row>
-    <row r="320" spans="1:1">
+    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A320" s="3"/>
     </row>
-    <row r="321" spans="1:1">
+    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A321" s="3"/>
     </row>
-    <row r="322" spans="1:1">
+    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A322" s="3"/>
     </row>
-    <row r="323" spans="1:1">
+    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A323" s="3"/>
     </row>
-    <row r="324" spans="1:1">
+    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A324" s="3"/>
     </row>
-    <row r="325" spans="1:1">
+    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A325" s="3"/>
     </row>
-    <row r="326" spans="1:1">
+    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A326" s="3"/>
     </row>
-    <row r="327" spans="1:1">
+    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A327" s="3"/>
     </row>
-    <row r="328" spans="1:1">
+    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A328" s="3"/>
     </row>
-    <row r="329" spans="1:1">
+    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A329" s="3"/>
     </row>
-    <row r="330" spans="1:1">
+    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A330" s="3"/>
     </row>
-    <row r="331" spans="1:1">
+    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A331" s="3"/>
     </row>
-    <row r="332" spans="1:1">
+    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A332" s="3"/>
     </row>
-    <row r="333" spans="1:1">
+    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A333" s="3"/>
     </row>
-    <row r="334" spans="1:1">
+    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A334" s="3"/>
     </row>
-    <row r="335" spans="1:1">
+    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A335" s="3"/>
     </row>
-    <row r="336" spans="1:1">
+    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A336" s="3"/>
     </row>
-    <row r="337" spans="1:1">
+    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A337" s="3"/>
     </row>
-    <row r="338" spans="1:1">
+    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A338" s="3"/>
     </row>
-    <row r="339" spans="1:1">
+    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A339" s="3"/>
     </row>
-    <row r="340" spans="1:1">
+    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A340" s="3"/>
     </row>
-    <row r="341" spans="1:1">
+    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A341" s="3"/>
     </row>
-    <row r="342" spans="1:1">
+    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A342" s="3"/>
     </row>
-    <row r="343" spans="1:1">
+    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A343" s="3"/>
     </row>
-    <row r="344" spans="1:1">
+    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A344" s="3"/>
     </row>
-    <row r="345" spans="1:1">
+    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A345" s="3"/>
     </row>
-    <row r="346" spans="1:1">
+    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A346" s="3"/>
     </row>
-    <row r="347" spans="1:1">
+    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A347" s="3"/>
     </row>
-    <row r="348" spans="1:1">
+    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A348" s="3"/>
     </row>
-    <row r="349" spans="1:1">
+    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A349" s="3"/>
     </row>
-    <row r="350" spans="1:1">
+    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A350" s="3"/>
     </row>
-    <row r="351" spans="1:1">
+    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A351" s="3"/>
     </row>
-    <row r="352" spans="1:1">
+    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A352" s="3"/>
     </row>
-    <row r="353" spans="1:1">
+    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A353" s="3"/>
     </row>
-    <row r="354" spans="1:1">
+    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A354" s="3"/>
     </row>
-    <row r="355" spans="1:1">
+    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A355" s="3"/>
     </row>
-    <row r="356" spans="1:1">
+    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A356" s="3"/>
     </row>
-    <row r="357" spans="1:1">
+    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A357" s="3"/>
     </row>
-    <row r="358" spans="1:1">
+    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A358" s="3"/>
     </row>
-    <row r="359" spans="1:1">
+    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A359" s="3"/>
     </row>
-    <row r="360" spans="1:1">
+    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A360" s="3"/>
     </row>
-    <row r="361" spans="1:1">
+    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A361" s="3"/>
     </row>
-    <row r="362" spans="1:1">
+    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A362" s="3"/>
     </row>
-    <row r="363" spans="1:1">
+    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A363" s="3"/>
     </row>
-    <row r="364" spans="1:1">
+    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A364" s="3"/>
     </row>
-    <row r="365" spans="1:1">
+    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A365" s="3"/>
     </row>
-    <row r="366" spans="1:1">
+    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A366" s="3"/>
     </row>
-    <row r="367" spans="1:1">
+    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A367" s="3"/>
     </row>
-    <row r="368" spans="1:1">
+    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A368" s="3"/>
     </row>
-    <row r="369" spans="1:1">
+    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A369" s="3"/>
     </row>
-    <row r="370" spans="1:1">
+    <row r="370" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A370" s="3"/>
     </row>
-    <row r="371" spans="1:1">
+    <row r="371" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A371" s="3"/>
     </row>
-    <row r="372" spans="1:1">
+    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A372" s="3"/>
     </row>
-    <row r="373" spans="1:1">
+    <row r="373" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A373" s="3"/>
     </row>
-    <row r="374" spans="1:1">
+    <row r="374" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A374" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B24:F25"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6666666666667" customWidth="1"/>
-    <col min="2" max="2" width="19.8888888888889" customWidth="1"/>
-    <col min="3" max="3" width="20.4444444444444" customWidth="1"/>
-    <col min="4" max="4" width="15.8888888888889" customWidth="1"/>
-    <col min="5" max="5" width="28.7777777777778" customWidth="1"/>
-    <col min="6" max="6" width="32.3333333333333" customWidth="1"/>
-    <col min="7" max="7" width="23.4444444444444" customWidth="1"/>
-    <col min="8" max="8" width="37.1111111111111" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="19.88671875" customWidth="1"/>
+    <col min="3" max="3" width="20.44140625" customWidth="1"/>
+    <col min="4" max="4" width="15.88671875" customWidth="1"/>
+    <col min="5" max="5" width="28.77734375" customWidth="1"/>
+    <col min="6" max="6" width="32.33203125" customWidth="1"/>
+    <col min="7" max="7" width="23.44140625" customWidth="1"/>
+    <col min="8" max="8" width="37.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -22511,7 +22078,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>43101</v>
       </c>
@@ -22529,7 +22096,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>43102</v>
       </c>
@@ -22550,7 +22117,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" ht="43.2" spans="1:6">
+    <row r="4" spans="1:8" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>43103</v>
       </c>
@@ -22571,7 +22138,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" ht="86.4" spans="1:8">
+    <row r="5" spans="1:8" ht="86.4" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>43104</v>
       </c>
@@ -22583,7 +22150,7 @@
       </c>
       <c r="D5" s="2">
         <f t="shared" si="0"/>
-        <v>0.9</v>
+        <v>0.89999999999999991</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>30</v>
@@ -22595,7 +22162,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>43105</v>
       </c>
@@ -22616,7 +22183,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>43106</v>
       </c>
@@ -22630,14 +22197,14 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E7" t="s">
-        <v>35</v>
+      <c r="E7" s="10" t="s">
+        <v>42</v>
       </c>
       <c r="F7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>43107</v>
       </c>
@@ -22651,14 +22218,14 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E8" t="s">
-        <v>36</v>
+      <c r="E8" s="10" t="s">
+        <v>41</v>
       </c>
       <c r="F8" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>43108</v>
       </c>
@@ -22679,22 +22246,28 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>43109</v>
       </c>
       <c r="B10" s="4">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="C10" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.9</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>43110</v>
       </c>
@@ -22708,8 +22281,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>43111</v>
       </c>
@@ -22724,7 +22303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>43112</v>
       </c>
@@ -22739,7 +22318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>43113</v>
       </c>
@@ -22754,7 +22333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>43114</v>
       </c>
@@ -22769,7 +22348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>43115</v>
       </c>
@@ -22784,7 +22363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>43116</v>
       </c>
@@ -22799,7 +22378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>43117</v>
       </c>
@@ -22814,7 +22393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>43118</v>
       </c>
@@ -22829,7 +22408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>43119</v>
       </c>
@@ -22844,7 +22423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>43120</v>
       </c>
@@ -22859,7 +22438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>43121</v>
       </c>
@@ -22874,7 +22453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>43122</v>
       </c>
@@ -22889,7 +22468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>43123</v>
       </c>
@@ -22904,7 +22483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>43124</v>
       </c>
@@ -22919,7 +22498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>43125</v>
       </c>
@@ -22934,7 +22513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>43126</v>
       </c>
@@ -22949,7 +22528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>43127</v>
       </c>
@@ -22964,7 +22543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>43128</v>
       </c>
@@ -22979,7 +22558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>43129</v>
       </c>
@@ -22994,7 +22573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>43130</v>
       </c>
@@ -23009,7 +22588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>43131</v>
       </c>
@@ -23025,34 +22604,33 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView topLeftCell="A58" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6666666666667" customWidth="1"/>
-    <col min="2" max="2" width="19.8888888888889" customWidth="1"/>
-    <col min="3" max="3" width="20.4444444444444" customWidth="1"/>
-    <col min="4" max="4" width="15.8888888888889" customWidth="1"/>
-    <col min="5" max="5" width="28.7777777777778" customWidth="1"/>
-    <col min="6" max="6" width="32.3333333333333" customWidth="1"/>
-    <col min="7" max="7" width="23.4444444444444" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="19.88671875" customWidth="1"/>
+    <col min="3" max="3" width="20.44140625" customWidth="1"/>
+    <col min="4" max="4" width="15.88671875" customWidth="1"/>
+    <col min="5" max="5" width="28.77734375" customWidth="1"/>
+    <col min="6" max="6" width="32.33203125" customWidth="1"/>
+    <col min="7" max="7" width="23.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -23069,7 +22647,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>43160</v>
       </c>
@@ -23084,7 +22662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>43161</v>
       </c>
@@ -23099,7 +22677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>43162</v>
       </c>
@@ -23114,7 +22692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>43163</v>
       </c>
@@ -23129,7 +22707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>43164</v>
       </c>
@@ -23144,7 +22722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>43165</v>
       </c>
@@ -23159,7 +22737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>43166</v>
       </c>
@@ -23174,7 +22752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>43167</v>
       </c>
@@ -23189,7 +22767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>43168</v>
       </c>
@@ -23204,7 +22782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>43169</v>
       </c>
@@ -23219,7 +22797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>43170</v>
       </c>
@@ -23234,7 +22812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>43171</v>
       </c>
@@ -23249,7 +22827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>43172</v>
       </c>
@@ -23264,7 +22842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>43173</v>
       </c>
@@ -23279,7 +22857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>43174</v>
       </c>
@@ -23294,7 +22872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>43175</v>
       </c>
@@ -23309,7 +22887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>43176</v>
       </c>
@@ -23324,7 +22902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>43177</v>
       </c>
@@ -23339,7 +22917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>43178</v>
       </c>
@@ -23354,7 +22932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>43179</v>
       </c>
@@ -23369,7 +22947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>43180</v>
       </c>
@@ -23384,7 +22962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>43181</v>
       </c>
@@ -23399,7 +22977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>43182</v>
       </c>
@@ -23414,7 +22992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>43183</v>
       </c>
@@ -23429,7 +23007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>43184</v>
       </c>
@@ -23444,7 +23022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>43185</v>
       </c>
@@ -23459,7 +23037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>43186</v>
       </c>
@@ -23474,7 +23052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>43187</v>
       </c>
@@ -23489,7 +23067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>43188</v>
       </c>
@@ -23504,7 +23082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>43189</v>
       </c>
@@ -23519,7 +23097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>43190</v>
       </c>
@@ -23535,33 +23113,32 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6666666666667" customWidth="1"/>
-    <col min="2" max="2" width="19.8888888888889" customWidth="1"/>
-    <col min="3" max="3" width="20.4444444444444" customWidth="1"/>
-    <col min="4" max="4" width="15.8888888888889" customWidth="1"/>
-    <col min="5" max="5" width="28.7777777777778" customWidth="1"/>
-    <col min="6" max="6" width="32.3333333333333" customWidth="1"/>
-    <col min="7" max="7" width="23.4444444444444" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="19.88671875" customWidth="1"/>
+    <col min="3" max="3" width="20.44140625" customWidth="1"/>
+    <col min="4" max="4" width="15.88671875" customWidth="1"/>
+    <col min="5" max="5" width="28.77734375" customWidth="1"/>
+    <col min="6" max="6" width="32.33203125" customWidth="1"/>
+    <col min="7" max="7" width="23.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -23578,7 +23155,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>43221</v>
       </c>
@@ -23593,7 +23170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>43222</v>
       </c>
@@ -23608,7 +23185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>43223</v>
       </c>
@@ -23623,7 +23200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>43224</v>
       </c>
@@ -23638,7 +23215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>43225</v>
       </c>
@@ -23653,7 +23230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>43226</v>
       </c>
@@ -23668,7 +23245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>43227</v>
       </c>
@@ -23683,7 +23260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>43228</v>
       </c>
@@ -23698,7 +23275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>43229</v>
       </c>
@@ -23713,7 +23290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>43230</v>
       </c>
@@ -23728,7 +23305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>43231</v>
       </c>
@@ -23743,7 +23320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>43232</v>
       </c>
@@ -23758,7 +23335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>43233</v>
       </c>
@@ -23773,7 +23350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>43234</v>
       </c>
@@ -23788,7 +23365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>43235</v>
       </c>
@@ -23803,7 +23380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>43236</v>
       </c>
@@ -23818,7 +23395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>43237</v>
       </c>
@@ -23833,7 +23410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>43238</v>
       </c>
@@ -23848,7 +23425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>43239</v>
       </c>
@@ -23863,7 +23440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>43240</v>
       </c>
@@ -23878,7 +23455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>43241</v>
       </c>
@@ -23893,7 +23470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>43242</v>
       </c>
@@ -23908,7 +23485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>43243</v>
       </c>
@@ -23923,7 +23500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>43244</v>
       </c>
@@ -23938,7 +23515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>43245</v>
       </c>
@@ -23953,7 +23530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>43246</v>
       </c>
@@ -23968,7 +23545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>43247</v>
       </c>
@@ -23983,7 +23560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>43248</v>
       </c>
@@ -23998,7 +23575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>43249</v>
       </c>
@@ -24013,7 +23590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>43250</v>
       </c>
@@ -24028,7 +23605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>43251</v>
       </c>
@@ -24044,33 +23621,32 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6666666666667" customWidth="1"/>
-    <col min="2" max="2" width="19.8888888888889" customWidth="1"/>
-    <col min="3" max="3" width="20.4444444444444" customWidth="1"/>
-    <col min="4" max="4" width="15.8888888888889" customWidth="1"/>
-    <col min="5" max="5" width="28.7777777777778" customWidth="1"/>
-    <col min="6" max="6" width="32.3333333333333" customWidth="1"/>
-    <col min="7" max="7" width="23.4444444444444" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="19.88671875" customWidth="1"/>
+    <col min="3" max="3" width="20.44140625" customWidth="1"/>
+    <col min="4" max="4" width="15.88671875" customWidth="1"/>
+    <col min="5" max="5" width="28.77734375" customWidth="1"/>
+    <col min="6" max="6" width="32.33203125" customWidth="1"/>
+    <col min="7" max="7" width="23.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -24087,7 +23663,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>43282</v>
       </c>
@@ -24102,7 +23678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>43283</v>
       </c>
@@ -24117,7 +23693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>43284</v>
       </c>
@@ -24132,7 +23708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>43285</v>
       </c>
@@ -24147,7 +23723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>43286</v>
       </c>
@@ -24162,7 +23738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>43287</v>
       </c>
@@ -24177,7 +23753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>43288</v>
       </c>
@@ -24192,7 +23768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>43289</v>
       </c>
@@ -24207,7 +23783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>43290</v>
       </c>
@@ -24222,7 +23798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>43291</v>
       </c>
@@ -24237,7 +23813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>43292</v>
       </c>
@@ -24252,7 +23828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>43293</v>
       </c>
@@ -24267,7 +23843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>43294</v>
       </c>
@@ -24282,7 +23858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>43295</v>
       </c>
@@ -24297,7 +23873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>43296</v>
       </c>
@@ -24312,7 +23888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>43297</v>
       </c>
@@ -24327,7 +23903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>43298</v>
       </c>
@@ -24342,7 +23918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>43299</v>
       </c>
@@ -24357,7 +23933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>43300</v>
       </c>
@@ -24372,7 +23948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>43301</v>
       </c>
@@ -24387,7 +23963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>43302</v>
       </c>
@@ -24402,7 +23978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>43303</v>
       </c>
@@ -24417,7 +23993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>43304</v>
       </c>
@@ -24432,7 +24008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>43305</v>
       </c>
@@ -24447,7 +24023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>43306</v>
       </c>
@@ -24462,7 +24038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>43307</v>
       </c>
@@ -24477,7 +24053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>43308</v>
       </c>
@@ -24492,7 +24068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>43309</v>
       </c>
@@ -24507,7 +24083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>43310</v>
       </c>
@@ -24522,7 +24098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>43311</v>
       </c>
@@ -24537,7 +24113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>43312</v>
       </c>
@@ -24553,33 +24129,32 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6666666666667" customWidth="1"/>
-    <col min="2" max="2" width="19.8888888888889" customWidth="1"/>
-    <col min="3" max="3" width="20.4444444444444" customWidth="1"/>
-    <col min="4" max="4" width="15.8888888888889" customWidth="1"/>
-    <col min="5" max="5" width="28.7777777777778" customWidth="1"/>
-    <col min="6" max="6" width="32.3333333333333" customWidth="1"/>
-    <col min="7" max="7" width="23.4444444444444" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="19.88671875" customWidth="1"/>
+    <col min="3" max="3" width="20.44140625" customWidth="1"/>
+    <col min="4" max="4" width="15.88671875" customWidth="1"/>
+    <col min="5" max="5" width="28.77734375" customWidth="1"/>
+    <col min="6" max="6" width="32.33203125" customWidth="1"/>
+    <col min="7" max="7" width="23.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -24596,7 +24171,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>43313</v>
       </c>
@@ -24611,7 +24186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>43314</v>
       </c>
@@ -24626,7 +24201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>43315</v>
       </c>
@@ -24641,7 +24216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>43316</v>
       </c>
@@ -24656,7 +24231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>43317</v>
       </c>
@@ -24671,7 +24246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>43318</v>
       </c>
@@ -24686,7 +24261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>43319</v>
       </c>
@@ -24701,7 +24276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>43320</v>
       </c>
@@ -24716,7 +24291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>43321</v>
       </c>
@@ -24731,7 +24306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>43322</v>
       </c>
@@ -24746,7 +24321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>43323</v>
       </c>
@@ -24761,7 +24336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>43324</v>
       </c>
@@ -24776,7 +24351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>43325</v>
       </c>
@@ -24791,7 +24366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>43326</v>
       </c>
@@ -24806,7 +24381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>43327</v>
       </c>
@@ -24821,7 +24396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>43328</v>
       </c>
@@ -24836,7 +24411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>43329</v>
       </c>
@@ -24851,7 +24426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>43330</v>
       </c>
@@ -24866,7 +24441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>43331</v>
       </c>
@@ -24881,7 +24456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>43332</v>
       </c>
@@ -24896,7 +24471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>43333</v>
       </c>
@@ -24911,7 +24486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>43334</v>
       </c>
@@ -24926,7 +24501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>43335</v>
       </c>
@@ -24941,7 +24516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>43336</v>
       </c>
@@ -24956,7 +24531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>43337</v>
       </c>
@@ -24971,7 +24546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>43338</v>
       </c>
@@ -24986,7 +24561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>43339</v>
       </c>
@@ -25001,7 +24576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>43340</v>
       </c>
@@ -25016,7 +24591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>43341</v>
       </c>
@@ -25031,7 +24606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>43342</v>
       </c>
@@ -25046,7 +24621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>43343</v>
       </c>
@@ -25062,34 +24637,33 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6666666666667" customWidth="1"/>
-    <col min="2" max="2" width="19.8888888888889" customWidth="1"/>
-    <col min="3" max="3" width="20.4444444444444" customWidth="1"/>
-    <col min="4" max="4" width="15.8888888888889" customWidth="1"/>
-    <col min="5" max="5" width="28.7777777777778" customWidth="1"/>
-    <col min="6" max="6" width="32.3333333333333" customWidth="1"/>
-    <col min="7" max="7" width="23.4444444444444" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="19.88671875" customWidth="1"/>
+    <col min="3" max="3" width="20.44140625" customWidth="1"/>
+    <col min="4" max="4" width="15.88671875" customWidth="1"/>
+    <col min="5" max="5" width="28.77734375" customWidth="1"/>
+    <col min="6" max="6" width="32.33203125" customWidth="1"/>
+    <col min="7" max="7" width="23.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -25106,7 +24680,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>43374</v>
       </c>
@@ -25121,7 +24695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>43375</v>
       </c>
@@ -25136,7 +24710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>43376</v>
       </c>
@@ -25151,7 +24725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>43377</v>
       </c>
@@ -25166,7 +24740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>43378</v>
       </c>
@@ -25181,7 +24755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>43379</v>
       </c>
@@ -25196,7 +24770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>43380</v>
       </c>
@@ -25211,7 +24785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>43381</v>
       </c>
@@ -25226,7 +24800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>43382</v>
       </c>
@@ -25241,7 +24815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>43383</v>
       </c>
@@ -25256,7 +24830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>43384</v>
       </c>
@@ -25271,7 +24845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>43385</v>
       </c>
@@ -25286,7 +24860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>43386</v>
       </c>
@@ -25301,7 +24875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>43387</v>
       </c>
@@ -25316,7 +24890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>43388</v>
       </c>
@@ -25331,7 +24905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>43389</v>
       </c>
@@ -25346,7 +24920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>43390</v>
       </c>
@@ -25361,7 +24935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>43391</v>
       </c>
@@ -25376,7 +24950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>43392</v>
       </c>
@@ -25391,7 +24965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>43393</v>
       </c>
@@ -25406,7 +24980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>43394</v>
       </c>
@@ -25421,7 +24995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>43395</v>
       </c>
@@ -25436,7 +25010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>43396</v>
       </c>
@@ -25451,7 +25025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>43397</v>
       </c>
@@ -25466,7 +25040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>43398</v>
       </c>
@@ -25481,7 +25055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>43399</v>
       </c>
@@ -25496,7 +25070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>43400</v>
       </c>
@@ -25511,7 +25085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>43401</v>
       </c>
@@ -25526,7 +25100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>43402</v>
       </c>
@@ -25541,7 +25115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>43403</v>
       </c>
@@ -25556,7 +25130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>43404</v>
       </c>
@@ -25572,33 +25146,32 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6666666666667" customWidth="1"/>
-    <col min="2" max="2" width="19.8888888888889" customWidth="1"/>
-    <col min="3" max="3" width="20.4444444444444" customWidth="1"/>
-    <col min="4" max="4" width="15.8888888888889" customWidth="1"/>
-    <col min="5" max="5" width="28.7777777777778" customWidth="1"/>
-    <col min="6" max="6" width="32.3333333333333" customWidth="1"/>
-    <col min="7" max="7" width="23.4444444444444" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="19.88671875" customWidth="1"/>
+    <col min="3" max="3" width="20.44140625" customWidth="1"/>
+    <col min="4" max="4" width="15.88671875" customWidth="1"/>
+    <col min="5" max="5" width="28.77734375" customWidth="1"/>
+    <col min="6" max="6" width="32.33203125" customWidth="1"/>
+    <col min="7" max="7" width="23.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -25615,7 +25188,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>43435</v>
       </c>
@@ -25630,7 +25203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>43436</v>
       </c>
@@ -25645,7 +25218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>43437</v>
       </c>
@@ -25660,7 +25233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>43438</v>
       </c>
@@ -25675,7 +25248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>43439</v>
       </c>
@@ -25690,7 +25263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>43440</v>
       </c>
@@ -25705,7 +25278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>43441</v>
       </c>
@@ -25720,7 +25293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>43442</v>
       </c>
@@ -25735,7 +25308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>43443</v>
       </c>
@@ -25750,7 +25323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>43444</v>
       </c>
@@ -25765,7 +25338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>43445</v>
       </c>
@@ -25780,7 +25353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>43446</v>
       </c>
@@ -25795,7 +25368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>43447</v>
       </c>
@@ -25810,7 +25383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>43448</v>
       </c>
@@ -25825,7 +25398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>43449</v>
       </c>
@@ -25840,7 +25413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>43450</v>
       </c>
@@ -25855,7 +25428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>43451</v>
       </c>
@@ -25870,7 +25443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>43452</v>
       </c>
@@ -25885,7 +25458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>43453</v>
       </c>
@@ -25900,7 +25473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>43454</v>
       </c>
@@ -25915,7 +25488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>43455</v>
       </c>
@@ -25930,7 +25503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>43456</v>
       </c>
@@ -25945,7 +25518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>43457</v>
       </c>
@@ -25960,7 +25533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>43458</v>
       </c>
@@ -25975,7 +25548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>43459</v>
       </c>
@@ -25990,7 +25563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>43460</v>
       </c>
@@ -26005,7 +25578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>43461</v>
       </c>
@@ -26020,7 +25593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>43462</v>
       </c>
@@ -26035,7 +25608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>43463</v>
       </c>
@@ -26050,7 +25623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>43464</v>
       </c>
@@ -26065,7 +25638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>43465</v>
       </c>
@@ -26081,8 +25654,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/提升/成长进度表.xlsx
+++ b/提升/成长进度表.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="46">
   <si>
     <t>软技能完成率</t>
   </si>
@@ -135,9 +135,6 @@
     <t>再一次明确职业发展方向</t>
   </si>
   <si>
-    <t>必须有收获，否则完成率只能是0</t>
-  </si>
-  <si>
     <t>vue学习</t>
   </si>
   <si>
@@ -162,15 +159,45 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>三板斧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>期末考试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>期末考试、vue学习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三板斧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英语完成率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英语描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>单词5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>必须有收获，否则完成率只能是0
+英语不需要原因每天必须完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -179,7 +206,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -225,14 +252,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -242,13 +269,19 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -770,11 +803,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="116159472"/>
-        <c:axId val="116160032"/>
+        <c:axId val="236062384"/>
+        <c:axId val="236062944"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="116159472"/>
+        <c:axId val="236062384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -810,14 +843,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="116160032"/>
+        <c:crossAx val="236062944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="116160032"/>
+        <c:axId val="236062944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.5"/>
@@ -879,7 +912,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="116159472"/>
+        <c:crossAx val="236062384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
@@ -1237,11 +1270,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="240228384"/>
-        <c:axId val="240228944"/>
+        <c:axId val="356047760"/>
+        <c:axId val="356048320"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="240228384"/>
+        <c:axId val="356047760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1284,7 +1317,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="240228944"/>
+        <c:crossAx val="356048320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1292,7 +1325,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="240228944"/>
+        <c:axId val="356048320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1328,7 +1361,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="240228384"/>
+        <c:crossAx val="356047760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2027,11 +2060,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="332904160"/>
-        <c:axId val="332904720"/>
+        <c:axId val="355435072"/>
+        <c:axId val="355435632"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="332904160"/>
+        <c:axId val="355435072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2067,14 +2100,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="332904720"/>
+        <c:crossAx val="355435632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="332904720"/>
+        <c:axId val="355435632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.5"/>
@@ -2136,7 +2169,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="332904160"/>
+        <c:crossAx val="355435072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
@@ -2494,11 +2527,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="332908080"/>
-        <c:axId val="332908640"/>
+        <c:axId val="355438992"/>
+        <c:axId val="355439552"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="332908080"/>
+        <c:axId val="355438992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2541,7 +2574,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="332908640"/>
+        <c:crossAx val="355439552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2549,7 +2582,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="332908640"/>
+        <c:axId val="355439552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2585,7 +2618,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="332908080"/>
+        <c:crossAx val="355438992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3284,11 +3317,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="333141440"/>
-        <c:axId val="333142000"/>
+        <c:axId val="356273504"/>
+        <c:axId val="356274064"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="333141440"/>
+        <c:axId val="356273504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3324,14 +3357,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="333142000"/>
+        <c:crossAx val="356274064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="333142000"/>
+        <c:axId val="356274064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.5"/>
@@ -3393,7 +3426,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="333141440"/>
+        <c:crossAx val="356273504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
@@ -3751,11 +3784,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="333145360"/>
-        <c:axId val="333145920"/>
+        <c:axId val="356277424"/>
+        <c:axId val="356277984"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="333145360"/>
+        <c:axId val="356277424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3798,7 +3831,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="333145920"/>
+        <c:crossAx val="356277984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3806,7 +3839,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="333145920"/>
+        <c:axId val="356277984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3842,7 +3875,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="333145360"/>
+        <c:crossAx val="356277424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4541,11 +4574,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="333244336"/>
-        <c:axId val="333244896"/>
+        <c:axId val="356280784"/>
+        <c:axId val="356505296"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="333244336"/>
+        <c:axId val="356280784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4581,14 +4614,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="333244896"/>
+        <c:crossAx val="356505296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="333244896"/>
+        <c:axId val="356505296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.5"/>
@@ -4650,7 +4683,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="333244336"/>
+        <c:crossAx val="356280784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
@@ -5008,11 +5041,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="333248256"/>
-        <c:axId val="333248816"/>
+        <c:axId val="356508656"/>
+        <c:axId val="356509216"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="333248256"/>
+        <c:axId val="356508656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5055,7 +5088,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="333248816"/>
+        <c:crossAx val="356509216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5063,7 +5096,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="333248816"/>
+        <c:axId val="356509216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5099,7 +5132,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="333248256"/>
+        <c:crossAx val="356508656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5402,11 +5435,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="240616656"/>
-        <c:axId val="240617216"/>
+        <c:axId val="236066304"/>
+        <c:axId val="354822464"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="240616656"/>
+        <c:axId val="236066304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5449,7 +5482,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="240617216"/>
+        <c:crossAx val="354822464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5457,7 +5490,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="240617216"/>
+        <c:axId val="354822464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5493,7 +5526,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="240616656"/>
+        <c:crossAx val="236066304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5579,42 +5612,31 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr lang="zh-CN" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:defRPr sz="2000" b="1" i="1" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
-                  </a:schemeClr>
+                  <a:srgbClr val="FF0000"/>
                 </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
+              <a:rPr lang="zh-CN" altLang="en-US" sz="2000" i="1">
                 <a:solidFill>
                   <a:srgbClr val="FF0000"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>软技能</a:t>
+              <a:t>完成率折现图</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>&amp;</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>硬技能完成率</a:t>
-            </a:r>
-            <a:endParaRPr lang="zh-CN" sz="1600">
+            <a:endParaRPr lang="zh-CN" sz="2000" i="1">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
@@ -5636,12 +5658,17 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr lang="zh-CN" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+            <a:defRPr sz="2000" b="1" i="1" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="85000"/>
-                </a:schemeClr>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
@@ -5653,17 +5680,7 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="8.0659505907626203E-2"/>
-          <c:y val="2.1043771043771E-2"/>
-          <c:w val="0.90099104905119898"/>
-          <c:h val="0.73818181818181805"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -5682,42 +5699,22 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="22225" cap="rnd">
+            <a:ln w="34925" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst>
-              <a:glow rad="139700">
-                <a:schemeClr val="accent1">
-                  <a:satMod val="175000"/>
-                  <a:alpha val="14000"/>
-                </a:schemeClr>
-              </a:glow>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
             </a:effectLst>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="4"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:glow rad="63500">
-                  <a:schemeClr val="accent1">
-                    <a:satMod val="175000"/>
-                    <a:alpha val="25000"/>
-                  </a:schemeClr>
-                </a:glow>
-              </a:effectLst>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -5940,42 +5937,22 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="22225" cap="rnd">
+            <a:ln w="34925" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst>
-              <a:glow rad="139700">
-                <a:schemeClr val="accent2">
-                  <a:satMod val="175000"/>
-                  <a:alpha val="14000"/>
-                </a:schemeClr>
-              </a:glow>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
             </a:effectLst>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="4"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:glow rad="63500">
-                  <a:schemeClr val="accent2">
-                    <a:satMod val="175000"/>
-                    <a:alpha val="25000"/>
-                  </a:schemeClr>
-                </a:glow>
-              </a:effectLst>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -6114,6 +6091,244 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2018年1月概览'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>英语完成率</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'2018年1月概览'!$A$2:$A$32</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>43101</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43102</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43103</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43104</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43105</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43106</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43107</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43108</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43109</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43110</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43111</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43112</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43113</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43114</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43115</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43116</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43117</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43118</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43119</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43120</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>43121</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43122</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>43123</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>43124</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>43125</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43126</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43127</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>43128</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43129</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>43130</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>43131</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2018年1月概览'!$D$2:$D$32</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
@@ -6191,38 +6406,43 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="240620016"/>
-        <c:axId val="240620576"/>
+        <c:axId val="566437552"/>
+        <c:axId val="566430832"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="240620016"/>
+        <c:axId val="566437552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="10000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="lt1">
-                    <a:lumMod val="75000"/>
+                    <a:lumMod val="85000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -6233,40 +6453,28 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="240620576"/>
+        <c:crossAx val="566430832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="240620576"/>
+        <c:axId val="566430832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1.5"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:gradFill>
-                <a:gsLst>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="0">
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -6288,10 +6496,10 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="lt1">
-                    <a:lumMod val="75000"/>
+                    <a:lumMod val="85000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -6302,48 +6510,10 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="240620016"/>
+        <c:crossAx val="566437552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="0.1"/>
       </c:valAx>
-      <c:dTable>
-        <c:showHorzBorder val="1"/>
-        <c:showVertBorder val="1"/>
-        <c:showOutline val="1"/>
-        <c:showKeys val="1"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525">
-            <a:solidFill>
-              <a:schemeClr val="dk1">
-                <a:lumMod val="50000"/>
-                <a:lumOff val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr rtl="0">
-              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="75000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-      </c:dTable>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -6352,25 +6522,64 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
     </a:ln>
     <a:effectLst/>
   </c:spPr>
@@ -6379,7 +6588,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr lang="zh-CN"/>
+        <a:defRPr/>
       </a:pPr>
       <a:endParaRPr lang="zh-CN"/>
     </a:p>
@@ -6550,7 +6759,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'2018年1月概览'!$D$2:$D$32</c:f>
+              <c:f>'2018年1月概览'!$E$2:$E$32</c:f>
               <c:numCache>
                 <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
                 <c:ptCount val="31"/>
@@ -6558,31 +6767,31 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.75</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.8</c:v>
+                  <c:v>0.53333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.89999999999999991</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.65</c:v>
+                  <c:v>0.43333333333333335</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>0.66666666666666663</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>0.66666666666666663</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.85</c:v>
+                  <c:v>0.56666666666666665</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.9</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>0.33333333333333331</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
@@ -6662,11 +6871,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="240623936"/>
-        <c:axId val="332339136"/>
+        <c:axId val="501172256"/>
+        <c:axId val="501168896"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="240623936"/>
+        <c:axId val="501172256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6709,7 +6918,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="332339136"/>
+        <c:crossAx val="501168896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6717,7 +6926,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="332339136"/>
+        <c:axId val="501168896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6753,7 +6962,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="240623936"/>
+        <c:crossAx val="501172256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6882,6 +7091,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7452,11 +7662,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="332341936"/>
-        <c:axId val="332342496"/>
+        <c:axId val="354343040"/>
+        <c:axId val="354343600"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="332341936"/>
+        <c:axId val="354343040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7492,14 +7702,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="332342496"/>
+        <c:crossAx val="354343600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="332342496"/>
+        <c:axId val="354343600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.5"/>
@@ -7561,7 +7771,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="332341936"/>
+        <c:crossAx val="354343040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
@@ -7587,7 +7797,7 @@
           <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr>
+            <a:pPr rtl="0">
               <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="lt1">
@@ -7691,6 +7901,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7788,6 +7999,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -7919,11 +8131,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="332345856"/>
-        <c:axId val="332346416"/>
+        <c:axId val="354346960"/>
+        <c:axId val="354347520"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="332345856"/>
+        <c:axId val="354346960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7966,7 +8178,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="332346416"/>
+        <c:crossAx val="354347520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7974,7 +8186,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="332346416"/>
+        <c:axId val="354347520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8010,7 +8222,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="332345856"/>
+        <c:crossAx val="354346960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8709,11 +8921,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="332403424"/>
-        <c:axId val="332403984"/>
+        <c:axId val="355930768"/>
+        <c:axId val="355931328"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="332403424"/>
+        <c:axId val="355930768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8749,14 +8961,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="332403984"/>
+        <c:crossAx val="355931328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="332403984"/>
+        <c:axId val="355931328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.5"/>
@@ -8818,7 +9030,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="332403424"/>
+        <c:crossAx val="355930768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
@@ -9176,11 +9388,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="332407344"/>
-        <c:axId val="332407904"/>
+        <c:axId val="355934688"/>
+        <c:axId val="355935248"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="332407344"/>
+        <c:axId val="355934688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9223,7 +9435,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="332407904"/>
+        <c:crossAx val="355935248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9231,7 +9443,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="332407904"/>
+        <c:axId val="355935248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9267,7 +9479,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="332407344"/>
+        <c:crossAx val="355934688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9966,11 +10178,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="240224464"/>
-        <c:axId val="240225024"/>
+        <c:axId val="356043840"/>
+        <c:axId val="356044400"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="240224464"/>
+        <c:axId val="356043840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10006,14 +10218,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="240225024"/>
+        <c:crossAx val="356044400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="240225024"/>
+        <c:axId val="356044400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.5"/>
@@ -10075,7 +10287,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="240224464"/>
+        <c:crossAx val="356043840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
@@ -15842,17 +16054,17 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="236">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -15860,9 +16072,20 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
   <cs:chartArea>
@@ -15871,6 +16094,166 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -15879,430 +16262,202 @@
           <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="15000"/>
-        <a:lumOff val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:miter lim="800000"/>
-      </a:ln>
-      <a:effectLst>
-        <a:glow rad="63500">
-          <a:schemeClr val="phClr">
-            <a:satMod val="175000"/>
-            <a:alpha val="25000"/>
-          </a:schemeClr>
-        </a:glow>
-      </a:effectLst>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:miter lim="800000"/>
-      </a:ln>
-      <a:effectLst>
-        <a:glow rad="63500">
-          <a:schemeClr val="phClr">
-            <a:satMod val="175000"/>
-            <a:alpha val="25000"/>
-          </a:schemeClr>
-        </a:glow>
-      </a:effectLst>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="22225" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-      <a:effectLst>
-        <a:glow rad="139700">
-          <a:schemeClr val="phClr">
-            <a:satMod val="175000"/>
-            <a:alpha val="14000"/>
-          </a:schemeClr>
-        </a:glow>
-      </a:effectLst>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr">
-          <a:lumMod val="60000"/>
-          <a:lumOff val="40000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:effectLst>
-        <a:glow rad="63500">
-          <a:schemeClr val="phClr">
-            <a:satMod val="175000"/>
-            <a:alpha val="25000"/>
-          </a:schemeClr>
-        </a:glow>
-      </a:effectLst>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="50000"/>
-          <a:lumOff val="50000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="75000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="100000">
-              <a:schemeClr val="dk1">
-                <a:lumMod val="75000"/>
-                <a:lumOff val="25000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="0">
-              <a:schemeClr val="dk1">
-                <a:lumMod val="65000"/>
-                <a:lumOff val="35000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="100000">
-              <a:schemeClr val="dk1">
-                <a:lumMod val="75000"/>
-                <a:lumOff val="25000"/>
-                <a:alpha val="25000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="0">
-              <a:schemeClr val="dk1">
-                <a:lumMod val="65000"/>
-                <a:lumOff val="35000"/>
-                <a:alpha val="25000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
   </cs:seriesLine>
   <cs:title>
     <cs:lnRef idx="0"/>
@@ -16310,10 +16465,18 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+        <a:lumMod val="95000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -16322,14 +16485,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400" cap="rnd">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:alpha val="50000"/>
-          </a:schemeClr>
+          <a:schemeClr val="phClr"/>
         </a:solidFill>
       </a:ln>
     </cs:spPr>
@@ -16340,7 +16501,7 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -16350,21 +16511,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1">
-          <a:lumMod val="85000"/>
-        </a:schemeClr>
+        <a:schemeClr val="lt1"/>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -16374,7 +16533,7 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -16384,7 +16543,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
@@ -19812,19 +19971,21 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>373380</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1935480</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="图表 5"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvPr id="8" name="图表 7"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -19842,19 +20003,21 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>450215</xdr:colOff>
-      <xdr:row>97</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>87630</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="图表 6"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvPr id="9" name="图表 8"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -20304,7 +20467,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -20339,7 +20502,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -20967,21 +21130,21 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
@@ -22043,42 +22206,48 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.6640625" customWidth="1"/>
     <col min="2" max="2" width="19.88671875" customWidth="1"/>
-    <col min="3" max="3" width="20.44140625" customWidth="1"/>
-    <col min="4" max="4" width="15.88671875" customWidth="1"/>
-    <col min="5" max="5" width="28.77734375" customWidth="1"/>
-    <col min="6" max="6" width="32.33203125" customWidth="1"/>
-    <col min="7" max="7" width="23.44140625" customWidth="1"/>
-    <col min="8" max="8" width="37.109375" customWidth="1"/>
+    <col min="3" max="4" width="20.44140625" customWidth="1"/>
+    <col min="5" max="5" width="15.88671875" customWidth="1"/>
+    <col min="6" max="6" width="28.77734375" customWidth="1"/>
+    <col min="7" max="7" width="32.33203125" customWidth="1"/>
+    <col min="8" max="8" width="23.44140625" customWidth="1"/>
+    <col min="9" max="9" width="37.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H1" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>43101</v>
       </c>
@@ -22088,15 +22257,18 @@
       <c r="C2" s="4">
         <v>0</v>
       </c>
-      <c r="D2" s="2">
-        <f>SUM(B2,C2)/2</f>
-        <v>0</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
+        <f>SUM(B2,C2,D2)/3</f>
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>43102</v>
       </c>
@@ -22106,18 +22278,21 @@
       <c r="C3" s="4">
         <v>0.7</v>
       </c>
-      <c r="D3" s="2">
-        <f>SUM(B3,C3)/2</f>
-        <v>0.75</v>
-      </c>
-      <c r="E3" s="5" t="s">
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <f t="shared" ref="E3:E32" si="0">SUM(B3,C3,D3)/3</f>
+        <v>0.5</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="G3" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>43103</v>
       </c>
@@ -22127,18 +22302,21 @@
       <c r="C4" s="4">
         <v>0.8</v>
       </c>
-      <c r="D4" s="2">
-        <f t="shared" ref="D4:D32" si="0">SUM(B4,C4)/2</f>
-        <v>0.8</v>
-      </c>
-      <c r="E4" s="5" t="s">
+      <c r="D4" s="4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
+        <f t="shared" si="0"/>
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="G4" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="86.4" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>43104</v>
       </c>
@@ -22148,21 +22326,24 @@
       <c r="C5" s="4">
         <v>1.2</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="4">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
         <f t="shared" si="0"/>
-        <v>0.89999999999999991</v>
-      </c>
-      <c r="E5" s="6" t="s">
+        <v>0.6</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>31</v>
       </c>
-      <c r="H5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>43105</v>
       </c>
@@ -22172,18 +22353,21 @@
       <c r="C6" s="4">
         <v>0.8</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="4">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
         <f t="shared" si="0"/>
-        <v>0.65</v>
-      </c>
-      <c r="E6" t="s">
+        <v>0.43333333333333335</v>
+      </c>
+      <c r="F6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" t="s">
         <v>33</v>
       </c>
-      <c r="F6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>43106</v>
       </c>
@@ -22193,18 +22377,21 @@
       <c r="C7" s="4">
         <v>1</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="4">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="F7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>43107</v>
       </c>
@@ -22214,18 +22401,21 @@
       <c r="C8" s="4">
         <v>1</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="4">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>43108</v>
       </c>
@@ -22235,18 +22425,21 @@
       <c r="C9" s="4">
         <v>1</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="4">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2">
         <f t="shared" si="0"/>
-        <v>0.85</v>
-      </c>
-      <c r="E9" t="s">
-        <v>33</v>
+        <v>0.56666666666666665</v>
       </c>
       <c r="F9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="G9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>43109</v>
       </c>
@@ -22256,18 +22449,21 @@
       <c r="C10" s="4">
         <v>1</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="4">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2">
         <f t="shared" si="0"/>
-        <v>0.9</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" s="10" t="s">
+        <v>0.6</v>
+      </c>
+      <c r="F10" s="9" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G10" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>43110</v>
       </c>
@@ -22277,18 +22473,24 @@
       <c r="C11" s="4">
         <v>0</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="4">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>43111</v>
       </c>
@@ -22298,12 +22500,15 @@
       <c r="C12" s="4">
         <v>0</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="4">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>43112</v>
       </c>
@@ -22313,12 +22518,15 @@
       <c r="C13" s="4">
         <v>0</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="4">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>43113</v>
       </c>
@@ -22328,12 +22536,15 @@
       <c r="C14" s="4">
         <v>0</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="4">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>43114</v>
       </c>
@@ -22343,12 +22554,15 @@
       <c r="C15" s="4">
         <v>0</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="4">
+        <v>0</v>
+      </c>
+      <c r="E15" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>43115</v>
       </c>
@@ -22358,12 +22572,15 @@
       <c r="C16" s="4">
         <v>0</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="4">
+        <v>0</v>
+      </c>
+      <c r="E16" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>43116</v>
       </c>
@@ -22373,12 +22590,15 @@
       <c r="C17" s="4">
         <v>0</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="4">
+        <v>0</v>
+      </c>
+      <c r="E17" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>43117</v>
       </c>
@@ -22388,12 +22608,15 @@
       <c r="C18" s="4">
         <v>0</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="4">
+        <v>0</v>
+      </c>
+      <c r="E18" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>43118</v>
       </c>
@@ -22403,12 +22626,15 @@
       <c r="C19" s="4">
         <v>0</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="4">
+        <v>0</v>
+      </c>
+      <c r="E19" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>43119</v>
       </c>
@@ -22418,12 +22644,15 @@
       <c r="C20" s="4">
         <v>0</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="4">
+        <v>0</v>
+      </c>
+      <c r="E20" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>43120</v>
       </c>
@@ -22433,12 +22662,15 @@
       <c r="C21" s="4">
         <v>0</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="4">
+        <v>0</v>
+      </c>
+      <c r="E21" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>43121</v>
       </c>
@@ -22448,12 +22680,15 @@
       <c r="C22" s="4">
         <v>0</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="4">
+        <v>0</v>
+      </c>
+      <c r="E22" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>43122</v>
       </c>
@@ -22463,12 +22698,15 @@
       <c r="C23" s="4">
         <v>0</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="4">
+        <v>0</v>
+      </c>
+      <c r="E23" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>43123</v>
       </c>
@@ -22478,12 +22716,15 @@
       <c r="C24" s="4">
         <v>0</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24" s="4">
+        <v>0</v>
+      </c>
+      <c r="E24" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>43124</v>
       </c>
@@ -22493,12 +22734,15 @@
       <c r="C25" s="4">
         <v>0</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25" s="4">
+        <v>0</v>
+      </c>
+      <c r="E25" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>43125</v>
       </c>
@@ -22508,12 +22752,15 @@
       <c r="C26" s="4">
         <v>0</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D26" s="4">
+        <v>0</v>
+      </c>
+      <c r="E26" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>43126</v>
       </c>
@@ -22523,12 +22770,15 @@
       <c r="C27" s="4">
         <v>0</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D27" s="4">
+        <v>0</v>
+      </c>
+      <c r="E27" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>43127</v>
       </c>
@@ -22538,12 +22788,15 @@
       <c r="C28" s="4">
         <v>0</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D28" s="4">
+        <v>0</v>
+      </c>
+      <c r="E28" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>43128</v>
       </c>
@@ -22553,12 +22806,15 @@
       <c r="C29" s="4">
         <v>0</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D29" s="4">
+        <v>0</v>
+      </c>
+      <c r="E29" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>43129</v>
       </c>
@@ -22568,12 +22824,15 @@
       <c r="C30" s="4">
         <v>0</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D30" s="4">
+        <v>0</v>
+      </c>
+      <c r="E30" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>43130</v>
       </c>
@@ -22583,12 +22842,15 @@
       <c r="C31" s="4">
         <v>0</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D31" s="4">
+        <v>0</v>
+      </c>
+      <c r="E31" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>43131</v>
       </c>
@@ -22598,16 +22860,34 @@
       <c r="C32" s="4">
         <v>0</v>
       </c>
-      <c r="D32" s="2">
+      <c r="D32" s="4">
+        <v>0</v>
+      </c>
+      <c r="E32" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+    </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D33" s="4"/>
+    </row>
+    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D34" s="4"/>
+    </row>
+    <row r="35" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D35" s="4"/>
+    </row>
+    <row r="36" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D36" s="4"/>
+    </row>
+    <row r="37" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D37" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -22615,7 +22895,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
+    <sheetView topLeftCell="A49" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A32"/>
     </sheetView>
   </sheetViews>

--- a/提升/成长进度表.xlsx
+++ b/提升/成长进度表.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="46">
   <si>
     <t>软技能完成率</t>
   </si>
@@ -155,19 +155,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>多线程学习</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>期末考试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>期末考试、vue学习</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三板斧</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -198,6 +190,17 @@
   <si>
     <t>必须有收获，否则完成率只能是0
 英语不需要原因每天必须完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AtomicInteger
+AtomicStampedReference源码分析
+CAS原理解析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>音乐是感性，工作是理性，美声
+,整体完成度不好</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -273,14 +276,14 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -803,11 +806,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="236062384"/>
-        <c:axId val="236062944"/>
+        <c:axId val="330839920"/>
+        <c:axId val="330840480"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="236062384"/>
+        <c:axId val="330839920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -843,14 +846,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="236062944"/>
+        <c:crossAx val="330840480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="236062944"/>
+        <c:axId val="330840480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.5"/>
@@ -912,7 +915,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="236062384"/>
+        <c:crossAx val="330839920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
@@ -1270,11 +1273,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="356047760"/>
-        <c:axId val="356048320"/>
+        <c:axId val="331978256"/>
+        <c:axId val="331978816"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="356047760"/>
+        <c:axId val="331978256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1317,7 +1320,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="356048320"/>
+        <c:crossAx val="331978816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1325,7 +1328,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="356048320"/>
+        <c:axId val="331978816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1361,7 +1364,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="356047760"/>
+        <c:crossAx val="331978256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2060,11 +2063,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="355435072"/>
-        <c:axId val="355435632"/>
+        <c:axId val="332057040"/>
+        <c:axId val="332057600"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="355435072"/>
+        <c:axId val="332057040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2100,14 +2103,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="355435632"/>
+        <c:crossAx val="332057600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="355435632"/>
+        <c:axId val="332057600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.5"/>
@@ -2169,7 +2172,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="355435072"/>
+        <c:crossAx val="332057040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
@@ -2527,11 +2530,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="355438992"/>
-        <c:axId val="355439552"/>
+        <c:axId val="331613008"/>
+        <c:axId val="331613568"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="355438992"/>
+        <c:axId val="331613008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2574,7 +2577,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="355439552"/>
+        <c:crossAx val="331613568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2582,7 +2585,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="355439552"/>
+        <c:axId val="331613568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2618,7 +2621,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="355438992"/>
+        <c:crossAx val="331613008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3317,11 +3320,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="356273504"/>
-        <c:axId val="356274064"/>
+        <c:axId val="332388272"/>
+        <c:axId val="332388832"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="356273504"/>
+        <c:axId val="332388272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3357,14 +3360,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="356274064"/>
+        <c:crossAx val="332388832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="356274064"/>
+        <c:axId val="332388832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.5"/>
@@ -3426,7 +3429,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="356273504"/>
+        <c:crossAx val="332388272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
@@ -3784,11 +3787,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="356277424"/>
-        <c:axId val="356277984"/>
+        <c:axId val="332392192"/>
+        <c:axId val="332392752"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="356277424"/>
+        <c:axId val="332392192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3831,7 +3834,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="356277984"/>
+        <c:crossAx val="332392752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3839,7 +3842,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="356277984"/>
+        <c:axId val="332392752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3875,7 +3878,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="356277424"/>
+        <c:crossAx val="332392192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4574,11 +4577,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="356280784"/>
-        <c:axId val="356505296"/>
+        <c:axId val="332219232"/>
+        <c:axId val="332219792"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="356280784"/>
+        <c:axId val="332219232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4614,14 +4617,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="356505296"/>
+        <c:crossAx val="332219792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="356505296"/>
+        <c:axId val="332219792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.5"/>
@@ -4683,7 +4686,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="356280784"/>
+        <c:crossAx val="332219232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
@@ -5041,11 +5044,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="356508656"/>
-        <c:axId val="356509216"/>
+        <c:axId val="332223152"/>
+        <c:axId val="332223712"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="356508656"/>
+        <c:axId val="332223152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5088,7 +5091,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="356509216"/>
+        <c:crossAx val="332223712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5096,7 +5099,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="356509216"/>
+        <c:axId val="332223712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5132,7 +5135,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="356508656"/>
+        <c:crossAx val="332223152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5435,11 +5438,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="236066304"/>
-        <c:axId val="354822464"/>
+        <c:axId val="330843840"/>
+        <c:axId val="330844400"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="236066304"/>
+        <c:axId val="330843840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5482,7 +5485,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="354822464"/>
+        <c:crossAx val="330844400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5490,7 +5493,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="354822464"/>
+        <c:axId val="330844400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5526,7 +5529,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="236066304"/>
+        <c:crossAx val="330843840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5852,7 +5855,7 @@
                   <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
@@ -6090,7 +6093,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
@@ -6331,7 +6334,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0</c:v>
@@ -6407,11 +6410,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="566437552"/>
-        <c:axId val="566430832"/>
+        <c:axId val="331148224"/>
+        <c:axId val="331148784"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="566437552"/>
+        <c:axId val="331148224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6453,14 +6456,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="566430832"/>
+        <c:crossAx val="331148784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="566430832"/>
+        <c:axId val="331148784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6510,7 +6513,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="566437552"/>
+        <c:crossAx val="331148224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6791,10 +6794,10 @@
                   <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>0.83333333333333337</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>0.33333333333333331</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0</c:v>
@@ -6871,11 +6874,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="501172256"/>
-        <c:axId val="501168896"/>
+        <c:axId val="331215056"/>
+        <c:axId val="331215616"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="501172256"/>
+        <c:axId val="331215056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6918,7 +6921,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="501168896"/>
+        <c:crossAx val="331215616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6926,7 +6929,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="501168896"/>
+        <c:axId val="331215616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6962,7 +6965,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="501172256"/>
+        <c:crossAx val="331215056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7091,7 +7094,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7662,11 +7664,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="354343040"/>
-        <c:axId val="354343600"/>
+        <c:axId val="331218416"/>
+        <c:axId val="331218976"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="354343040"/>
+        <c:axId val="331218416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7702,14 +7704,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="354343600"/>
+        <c:crossAx val="331218976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="354343600"/>
+        <c:axId val="331218976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.5"/>
@@ -7771,7 +7773,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="354343040"/>
+        <c:crossAx val="331218416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
@@ -7901,7 +7903,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7999,7 +8000,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -8131,11 +8131,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="354346960"/>
-        <c:axId val="354347520"/>
+        <c:axId val="331460736"/>
+        <c:axId val="331461296"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="354346960"/>
+        <c:axId val="331460736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8178,7 +8178,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="354347520"/>
+        <c:crossAx val="331461296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8186,7 +8186,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="354347520"/>
+        <c:axId val="331461296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8222,7 +8222,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="354346960"/>
+        <c:crossAx val="331460736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8921,11 +8921,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="355930768"/>
-        <c:axId val="355931328"/>
+        <c:axId val="331464096"/>
+        <c:axId val="331821120"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="355930768"/>
+        <c:axId val="331464096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8961,14 +8961,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="355931328"/>
+        <c:crossAx val="331821120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="355931328"/>
+        <c:axId val="331821120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.5"/>
@@ -9030,7 +9030,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="355930768"/>
+        <c:crossAx val="331464096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
@@ -9388,11 +9388,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="355934688"/>
-        <c:axId val="355935248"/>
+        <c:axId val="331824480"/>
+        <c:axId val="331908432"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="355934688"/>
+        <c:axId val="331824480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9435,7 +9435,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="355935248"/>
+        <c:crossAx val="331908432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9443,7 +9443,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="355935248"/>
+        <c:axId val="331908432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9479,7 +9479,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="355934688"/>
+        <c:crossAx val="331824480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10178,11 +10178,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="356043840"/>
-        <c:axId val="356044400"/>
+        <c:axId val="331911232"/>
+        <c:axId val="331911792"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="356043840"/>
+        <c:axId val="331911232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10218,14 +10218,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="356044400"/>
+        <c:crossAx val="331911792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="356044400"/>
+        <c:axId val="331911792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.5"/>
@@ -10287,7 +10287,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="356043840"/>
+        <c:crossAx val="331911232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
@@ -21130,21 +21130,21 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
@@ -22209,7 +22209,7 @@
   <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -22218,7 +22218,7 @@
     <col min="2" max="2" width="19.88671875" customWidth="1"/>
     <col min="3" max="4" width="20.44140625" customWidth="1"/>
     <col min="5" max="5" width="15.88671875" customWidth="1"/>
-    <col min="6" max="6" width="28.77734375" customWidth="1"/>
+    <col min="6" max="6" width="36.88671875" customWidth="1"/>
     <col min="7" max="7" width="32.33203125" customWidth="1"/>
     <col min="8" max="8" width="23.44140625" customWidth="1"/>
     <col min="9" max="9" width="37.109375" customWidth="1"/>
@@ -22232,7 +22232,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -22243,8 +22243,8 @@
       <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="11" t="s">
-        <v>43</v>
+      <c r="H1" s="10" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -22339,8 +22339,8 @@
       <c r="G5" t="s">
         <v>31</v>
       </c>
-      <c r="I5" s="12" t="s">
-        <v>45</v>
+      <c r="I5" s="11" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -22385,7 +22385,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G7" t="s">
         <v>34</v>
@@ -22409,7 +22409,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G8" t="s">
         <v>35</v>
@@ -22463,31 +22463,31 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>43110</v>
       </c>
       <c r="B11" s="4">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="C11" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" s="4">
         <v>1</v>
       </c>
       <c r="E11" s="2">
         <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>41</v>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -22501,11 +22501,14 @@
         <v>0</v>
       </c>
       <c r="D12" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">

--- a/提升/成长进度表.xlsx
+++ b/提升/成长进度表.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="48">
   <si>
     <t>软技能完成率</t>
   </si>
@@ -201,6 +201,15 @@
   <si>
     <t>音乐是感性，工作是理性，美声
 ,整体完成度不好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完善成熟度，同理心，京东的7种人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多线程包接口，简介：对于单CPU如果
+没有阻塞，就没有多线程。多线程体现执行时间，结构设计</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -806,11 +815,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="330839920"/>
-        <c:axId val="330840480"/>
+        <c:axId val="320514352"/>
+        <c:axId val="320514912"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="330839920"/>
+        <c:axId val="320514352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -846,14 +855,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="330840480"/>
+        <c:crossAx val="320514912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="330840480"/>
+        <c:axId val="320514912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.5"/>
@@ -915,7 +924,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="330839920"/>
+        <c:crossAx val="320514352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
@@ -1273,11 +1282,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="331978256"/>
-        <c:axId val="331978816"/>
+        <c:axId val="322156160"/>
+        <c:axId val="322156720"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="331978256"/>
+        <c:axId val="322156160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1320,7 +1329,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="331978816"/>
+        <c:crossAx val="322156720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1328,7 +1337,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="331978816"/>
+        <c:axId val="322156720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1364,7 +1373,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="331978256"/>
+        <c:crossAx val="322156160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2063,11 +2072,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="332057040"/>
-        <c:axId val="332057600"/>
+        <c:axId val="322159520"/>
+        <c:axId val="322160080"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="332057040"/>
+        <c:axId val="322159520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2103,14 +2112,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="332057600"/>
+        <c:crossAx val="322160080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="332057600"/>
+        <c:axId val="322160080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.5"/>
@@ -2172,7 +2181,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="332057040"/>
+        <c:crossAx val="322159520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
@@ -2530,11 +2539,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="331613008"/>
-        <c:axId val="331613568"/>
+        <c:axId val="322089008"/>
+        <c:axId val="322089568"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="331613008"/>
+        <c:axId val="322089008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2577,7 +2586,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="331613568"/>
+        <c:crossAx val="322089568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2585,7 +2594,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="331613568"/>
+        <c:axId val="322089568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2621,7 +2630,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="331613008"/>
+        <c:crossAx val="322089008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3320,11 +3329,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="332388272"/>
-        <c:axId val="332388832"/>
+        <c:axId val="322092368"/>
+        <c:axId val="322092928"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="332388272"/>
+        <c:axId val="322092368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3360,14 +3369,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="332388832"/>
+        <c:crossAx val="322092928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="332388832"/>
+        <c:axId val="322092928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.5"/>
@@ -3429,7 +3438,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="332388272"/>
+        <c:crossAx val="322092368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
@@ -3787,11 +3796,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="332392192"/>
-        <c:axId val="332392752"/>
+        <c:axId val="322471392"/>
+        <c:axId val="322471952"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="332392192"/>
+        <c:axId val="322471392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3834,7 +3843,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="332392752"/>
+        <c:crossAx val="322471952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3842,7 +3851,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="332392752"/>
+        <c:axId val="322471952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3878,7 +3887,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="332392192"/>
+        <c:crossAx val="322471392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4577,11 +4586,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="332219232"/>
-        <c:axId val="332219792"/>
+        <c:axId val="322474752"/>
+        <c:axId val="322475312"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="332219232"/>
+        <c:axId val="322474752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4617,14 +4626,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="332219792"/>
+        <c:crossAx val="322475312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="332219792"/>
+        <c:axId val="322475312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.5"/>
@@ -4686,7 +4695,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="332219232"/>
+        <c:crossAx val="322474752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
@@ -5044,11 +5053,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="332223152"/>
-        <c:axId val="332223712"/>
+        <c:axId val="322479024"/>
+        <c:axId val="322479584"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="332223152"/>
+        <c:axId val="322479024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5091,7 +5100,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="332223712"/>
+        <c:crossAx val="322479584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5099,7 +5108,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="332223712"/>
+        <c:axId val="322479584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5135,7 +5144,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="332223152"/>
+        <c:crossAx val="322479024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5438,11 +5447,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="330843840"/>
-        <c:axId val="330844400"/>
+        <c:axId val="320518272"/>
+        <c:axId val="320518832"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="330843840"/>
+        <c:axId val="320518272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5485,7 +5494,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="330844400"/>
+        <c:crossAx val="320518832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5493,7 +5502,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="330844400"/>
+        <c:axId val="320518832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5529,7 +5538,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="330843840"/>
+        <c:crossAx val="320518272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5858,7 +5867,7 @@
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0</c:v>
@@ -6096,7 +6105,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0</c:v>
@@ -6410,11 +6419,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="331148224"/>
-        <c:axId val="331148784"/>
+        <c:axId val="320712864"/>
+        <c:axId val="320713424"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="331148224"/>
+        <c:axId val="320712864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6456,14 +6465,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="331148784"/>
+        <c:crossAx val="320713424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="331148784"/>
+        <c:axId val="320713424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6513,7 +6522,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="331148224"/>
+        <c:crossAx val="320712864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6797,7 +6806,7 @@
                   <c:v>0.83333333333333337</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.33333333333333331</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0</c:v>
@@ -6874,11 +6883,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="331215056"/>
-        <c:axId val="331215616"/>
+        <c:axId val="320716224"/>
+        <c:axId val="320716784"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="331215056"/>
+        <c:axId val="320716224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6921,7 +6930,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="331215616"/>
+        <c:crossAx val="320716784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6929,7 +6938,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="331215616"/>
+        <c:axId val="320716784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6965,7 +6974,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="331215056"/>
+        <c:crossAx val="320716224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7664,11 +7673,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="331218416"/>
-        <c:axId val="331218976"/>
+        <c:axId val="321726368"/>
+        <c:axId val="321726928"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="331218416"/>
+        <c:axId val="321726368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7704,14 +7713,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="331218976"/>
+        <c:crossAx val="321726928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="331218976"/>
+        <c:axId val="321726928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.5"/>
@@ -7773,7 +7782,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="331218416"/>
+        <c:crossAx val="321726368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
@@ -8131,11 +8140,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="331460736"/>
-        <c:axId val="331461296"/>
+        <c:axId val="321730288"/>
+        <c:axId val="321730848"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="331460736"/>
+        <c:axId val="321730288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8178,7 +8187,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="331461296"/>
+        <c:crossAx val="321730848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8186,7 +8195,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="331461296"/>
+        <c:axId val="321730848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8222,7 +8231,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="331460736"/>
+        <c:crossAx val="321730288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8921,11 +8930,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="331464096"/>
-        <c:axId val="331821120"/>
+        <c:axId val="321502160"/>
+        <c:axId val="321502720"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="331464096"/>
+        <c:axId val="321502160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8961,14 +8970,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="331821120"/>
+        <c:crossAx val="321502720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="331821120"/>
+        <c:axId val="321502720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.5"/>
@@ -9030,7 +9039,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="331464096"/>
+        <c:crossAx val="321502160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
@@ -9388,11 +9397,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="331824480"/>
-        <c:axId val="331908432"/>
+        <c:axId val="321506080"/>
+        <c:axId val="321506640"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="331824480"/>
+        <c:axId val="321506080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9435,7 +9444,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="331908432"/>
+        <c:crossAx val="321506640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9443,7 +9452,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="331908432"/>
+        <c:axId val="321506640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9479,7 +9488,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="331824480"/>
+        <c:crossAx val="321506080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10178,11 +10187,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="331911232"/>
-        <c:axId val="331911792"/>
+        <c:axId val="321509440"/>
+        <c:axId val="322152800"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="331911232"/>
+        <c:axId val="321509440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10218,14 +10227,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="331911792"/>
+        <c:crossAx val="322152800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="331911792"/>
+        <c:axId val="322152800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.5"/>
@@ -10287,7 +10296,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="331911232"/>
+        <c:crossAx val="321509440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
@@ -22208,8 +22217,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -22316,7 +22325,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="72" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>43104</v>
       </c>
@@ -22490,22 +22499,28 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>43111</v>
       </c>
       <c r="B12" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" s="4">
         <v>1</v>
       </c>
       <c r="E12" s="2">
         <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
+        <v>1</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>46</v>
       </c>
       <c r="H12" s="9" t="s">
         <v>42</v>

--- a/提升/成长进度表.xlsx
+++ b/提升/成长进度表.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="50">
   <si>
     <t>软技能完成率</t>
   </si>
@@ -210,6 +210,14 @@
   <si>
     <t>多线程包接口，简介：对于单CPU如果
 没有阻塞，就没有多线程。多线程体现执行时间，结构设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单词50，阅读一篇文章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同理心，买书</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -815,11 +823,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="320514352"/>
-        <c:axId val="320514912"/>
+        <c:axId val="211815280"/>
+        <c:axId val="211815840"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="320514352"/>
+        <c:axId val="211815280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -855,14 +863,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="320514912"/>
+        <c:crossAx val="211815840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="320514912"/>
+        <c:axId val="211815840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.5"/>
@@ -924,7 +932,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="320514352"/>
+        <c:crossAx val="211815280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
@@ -1282,11 +1290,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="322156160"/>
-        <c:axId val="322156720"/>
+        <c:axId val="316579040"/>
+        <c:axId val="316579600"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="322156160"/>
+        <c:axId val="316579040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1329,7 +1337,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="322156720"/>
+        <c:crossAx val="316579600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1337,7 +1345,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="322156720"/>
+        <c:axId val="316579600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1373,7 +1381,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="322156160"/>
+        <c:crossAx val="316579040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2072,11 +2080,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="322159520"/>
-        <c:axId val="322160080"/>
+        <c:axId val="316582400"/>
+        <c:axId val="316582960"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="322159520"/>
+        <c:axId val="316582400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2112,14 +2120,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="322160080"/>
+        <c:crossAx val="316582960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="322160080"/>
+        <c:axId val="316582960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.5"/>
@@ -2181,7 +2189,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="322159520"/>
+        <c:crossAx val="316582400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
@@ -2539,11 +2547,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="322089008"/>
-        <c:axId val="322089568"/>
+        <c:axId val="316586320"/>
+        <c:axId val="316586880"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="322089008"/>
+        <c:axId val="316586320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2586,7 +2594,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="322089568"/>
+        <c:crossAx val="316586880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2594,7 +2602,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="322089568"/>
+        <c:axId val="316586880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2630,7 +2638,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="322089008"/>
+        <c:crossAx val="316586320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3329,11 +3337,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="322092368"/>
-        <c:axId val="322092928"/>
+        <c:axId val="317539504"/>
+        <c:axId val="317540064"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="322092368"/>
+        <c:axId val="317539504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3369,14 +3377,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="322092928"/>
+        <c:crossAx val="317540064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="322092928"/>
+        <c:axId val="317540064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.5"/>
@@ -3438,7 +3446,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="322092368"/>
+        <c:crossAx val="317539504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
@@ -3796,11 +3804,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="322471392"/>
-        <c:axId val="322471952"/>
+        <c:axId val="317543424"/>
+        <c:axId val="317543984"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="322471392"/>
+        <c:axId val="317543424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3843,7 +3851,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="322471952"/>
+        <c:crossAx val="317543984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3851,7 +3859,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="322471952"/>
+        <c:axId val="317543984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3887,7 +3895,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="322471392"/>
+        <c:crossAx val="317543424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4586,11 +4594,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="322474752"/>
-        <c:axId val="322475312"/>
+        <c:axId val="317546784"/>
+        <c:axId val="317547344"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="322474752"/>
+        <c:axId val="317546784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4626,14 +4634,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="322475312"/>
+        <c:crossAx val="317547344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="322475312"/>
+        <c:axId val="317547344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.5"/>
@@ -4695,7 +4703,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="322474752"/>
+        <c:crossAx val="317546784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
@@ -5053,11 +5061,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="322479024"/>
-        <c:axId val="322479584"/>
+        <c:axId val="317550704"/>
+        <c:axId val="317551264"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="322479024"/>
+        <c:axId val="317550704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5100,7 +5108,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="322479584"/>
+        <c:crossAx val="317551264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5108,7 +5116,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="322479584"/>
+        <c:axId val="317551264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5144,7 +5152,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="322479024"/>
+        <c:crossAx val="317550704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5447,11 +5455,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="320518272"/>
-        <c:axId val="320518832"/>
+        <c:axId val="211819200"/>
+        <c:axId val="211819760"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="320518272"/>
+        <c:axId val="211819200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5494,7 +5502,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="320518832"/>
+        <c:crossAx val="211819760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5502,7 +5510,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="320518832"/>
+        <c:axId val="211819760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5538,7 +5546,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="320518272"/>
+        <c:crossAx val="211819200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5870,7 +5878,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0</c:v>
@@ -6346,7 +6354,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0</c:v>
@@ -6419,11 +6427,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="320712864"/>
-        <c:axId val="320713424"/>
+        <c:axId val="211823120"/>
+        <c:axId val="211823680"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="320712864"/>
+        <c:axId val="211823120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6465,14 +6473,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="320713424"/>
+        <c:crossAx val="211823680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="320713424"/>
+        <c:axId val="211823680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6522,7 +6530,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="320712864"/>
+        <c:crossAx val="211823120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6809,7 +6817,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>0.66666666666666663</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0</c:v>
@@ -6883,11 +6891,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="320716224"/>
-        <c:axId val="320716784"/>
+        <c:axId val="316778720"/>
+        <c:axId val="316779280"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="320716224"/>
+        <c:axId val="316778720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6930,7 +6938,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="320716784"/>
+        <c:crossAx val="316779280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6938,7 +6946,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="320716784"/>
+        <c:axId val="316779280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6974,7 +6982,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="320716224"/>
+        <c:crossAx val="316778720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7673,11 +7681,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="321726368"/>
-        <c:axId val="321726928"/>
+        <c:axId val="316782080"/>
+        <c:axId val="316782640"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="321726368"/>
+        <c:axId val="316782080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7713,14 +7721,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="321726928"/>
+        <c:crossAx val="316782640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="321726928"/>
+        <c:axId val="316782640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.5"/>
@@ -7782,7 +7790,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="321726368"/>
+        <c:crossAx val="316782080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
@@ -8140,11 +8148,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="321730288"/>
-        <c:axId val="321730848"/>
+        <c:axId val="316786000"/>
+        <c:axId val="316786560"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="321730288"/>
+        <c:axId val="316786000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8187,7 +8195,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="321730848"/>
+        <c:crossAx val="316786560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8195,7 +8203,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="321730848"/>
+        <c:axId val="316786560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8231,7 +8239,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="321730288"/>
+        <c:crossAx val="316786000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8930,11 +8938,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="321502160"/>
-        <c:axId val="321502720"/>
+        <c:axId val="316789360"/>
+        <c:axId val="316789920"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="321502160"/>
+        <c:axId val="316789360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8970,14 +8978,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="321502720"/>
+        <c:crossAx val="316789920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="321502720"/>
+        <c:axId val="316789920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.5"/>
@@ -9039,7 +9047,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="321502160"/>
+        <c:crossAx val="316789360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
@@ -9397,11 +9405,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="321506080"/>
-        <c:axId val="321506640"/>
+        <c:axId val="316793280"/>
+        <c:axId val="316793840"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="321506080"/>
+        <c:axId val="316793280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9444,7 +9452,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="321506640"/>
+        <c:crossAx val="316793840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9452,7 +9460,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="321506640"/>
+        <c:axId val="316793840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9488,7 +9496,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="321506080"/>
+        <c:crossAx val="316793280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10187,11 +10195,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="321509440"/>
-        <c:axId val="322152800"/>
+        <c:axId val="316575120"/>
+        <c:axId val="316575680"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="321509440"/>
+        <c:axId val="316575120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10227,14 +10235,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="322152800"/>
+        <c:crossAx val="316575680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="322152800"/>
+        <c:axId val="316575680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.5"/>
@@ -10296,7 +10304,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="321509440"/>
+        <c:crossAx val="316575120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
@@ -22217,8 +22225,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -22531,17 +22539,23 @@
         <v>43112</v>
       </c>
       <c r="B13" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" s="4">
         <v>0</v>
       </c>
       <c r="D13" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">

--- a/提升/成长进度表.xlsx
+++ b/提升/成长进度表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22368" windowHeight="9948" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22368" windowHeight="9948" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2017年12月概览" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="51">
   <si>
     <t>软技能完成率</t>
   </si>
@@ -217,7 +217,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>同理心，买书</t>
+    <t>类加载，多线程微了解</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同理心，小狼也要吃肉</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -823,11 +827,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="211815280"/>
-        <c:axId val="211815840"/>
+        <c:axId val="326865568"/>
+        <c:axId val="326866128"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="211815280"/>
+        <c:axId val="326865568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -863,14 +867,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="211815840"/>
+        <c:crossAx val="326866128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="211815840"/>
+        <c:axId val="326866128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.5"/>
@@ -932,7 +936,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="211815280"/>
+        <c:crossAx val="326865568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
@@ -958,7 +962,7 @@
           <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr>
+            <a:pPr rtl="0">
               <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="lt1">
@@ -1290,11 +1294,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="316579040"/>
-        <c:axId val="316579600"/>
+        <c:axId val="328293024"/>
+        <c:axId val="328293584"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="316579040"/>
+        <c:axId val="328293024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1337,7 +1341,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="316579600"/>
+        <c:crossAx val="328293584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1345,7 +1349,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="316579600"/>
+        <c:axId val="328293584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1381,7 +1385,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="316579040"/>
+        <c:crossAx val="328293024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2080,11 +2084,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="316582400"/>
-        <c:axId val="316582960"/>
+        <c:axId val="328296384"/>
+        <c:axId val="328296944"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="316582400"/>
+        <c:axId val="328296384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2120,14 +2124,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="316582960"/>
+        <c:crossAx val="328296944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="316582960"/>
+        <c:axId val="328296944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.5"/>
@@ -2189,7 +2193,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="316582400"/>
+        <c:crossAx val="328296384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
@@ -2547,11 +2551,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="316586320"/>
-        <c:axId val="316586880"/>
+        <c:axId val="328424032"/>
+        <c:axId val="328424592"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="316586320"/>
+        <c:axId val="328424032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2594,7 +2598,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="316586880"/>
+        <c:crossAx val="328424592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2602,7 +2606,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="316586880"/>
+        <c:axId val="328424592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2638,7 +2642,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="316586320"/>
+        <c:crossAx val="328424032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3337,11 +3341,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="317539504"/>
-        <c:axId val="317540064"/>
+        <c:axId val="328427392"/>
+        <c:axId val="328427952"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="317539504"/>
+        <c:axId val="328427392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3377,14 +3381,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="317540064"/>
+        <c:crossAx val="328427952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="317540064"/>
+        <c:axId val="328427952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.5"/>
@@ -3446,7 +3450,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="317539504"/>
+        <c:crossAx val="328427392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
@@ -3804,11 +3808,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="317543424"/>
-        <c:axId val="317543984"/>
+        <c:axId val="328797328"/>
+        <c:axId val="328797888"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="317543424"/>
+        <c:axId val="328797328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3851,7 +3855,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="317543984"/>
+        <c:crossAx val="328797888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3859,7 +3863,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="317543984"/>
+        <c:axId val="328797888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3895,7 +3899,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="317543424"/>
+        <c:crossAx val="328797328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4594,11 +4598,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="317546784"/>
-        <c:axId val="317547344"/>
+        <c:axId val="328800688"/>
+        <c:axId val="328801248"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="317546784"/>
+        <c:axId val="328800688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4634,14 +4638,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="317547344"/>
+        <c:crossAx val="328801248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="317547344"/>
+        <c:axId val="328801248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.5"/>
@@ -4703,7 +4707,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="317546784"/>
+        <c:crossAx val="328800688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
@@ -5061,11 +5065,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="317550704"/>
-        <c:axId val="317551264"/>
+        <c:axId val="328905632"/>
+        <c:axId val="328906192"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="317550704"/>
+        <c:axId val="328905632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5108,7 +5112,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="317551264"/>
+        <c:crossAx val="328906192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5116,7 +5120,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="317551264"/>
+        <c:axId val="328906192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5152,7 +5156,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="317550704"/>
+        <c:crossAx val="328905632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5455,11 +5459,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="211819200"/>
-        <c:axId val="211819760"/>
+        <c:axId val="326869488"/>
+        <c:axId val="326870048"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="211819200"/>
+        <c:axId val="326869488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5502,7 +5506,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="211819760"/>
+        <c:crossAx val="326870048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5510,7 +5514,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="211819760"/>
+        <c:axId val="326870048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5546,7 +5550,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="211819200"/>
+        <c:crossAx val="326869488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5878,7 +5882,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1</c:v>
+                  <c:v>1.2</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0</c:v>
@@ -6116,7 +6120,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0</c:v>
@@ -6357,7 +6361,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0</c:v>
@@ -6427,11 +6431,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="211823120"/>
-        <c:axId val="211823680"/>
+        <c:axId val="328094608"/>
+        <c:axId val="328095168"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="211823120"/>
+        <c:axId val="328094608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6473,14 +6477,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="211823680"/>
+        <c:crossAx val="328095168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="211823680"/>
+        <c:axId val="328095168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6530,7 +6534,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="211823120"/>
+        <c:crossAx val="328094608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6817,10 +6821,10 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.66666666666666663</c:v>
+                  <c:v>0.93333333333333324</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>0.33333333333333331</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0</c:v>
@@ -6891,11 +6895,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="316778720"/>
-        <c:axId val="316779280"/>
+        <c:axId val="328097968"/>
+        <c:axId val="328098528"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="316778720"/>
+        <c:axId val="328097968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6938,7 +6942,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="316779280"/>
+        <c:crossAx val="328098528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6946,7 +6950,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="316779280"/>
+        <c:axId val="328098528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6982,7 +6986,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="316778720"/>
+        <c:crossAx val="328097968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7681,11 +7685,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="316782080"/>
-        <c:axId val="316782640"/>
+        <c:axId val="226811904"/>
+        <c:axId val="226812464"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="316782080"/>
+        <c:axId val="226811904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7721,14 +7725,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="316782640"/>
+        <c:crossAx val="226812464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="316782640"/>
+        <c:axId val="226812464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.5"/>
@@ -7790,7 +7794,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="316782080"/>
+        <c:crossAx val="226811904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
@@ -8148,11 +8152,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="316786000"/>
-        <c:axId val="316786560"/>
+        <c:axId val="226815824"/>
+        <c:axId val="226816384"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="316786000"/>
+        <c:axId val="226815824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8195,7 +8199,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="316786560"/>
+        <c:crossAx val="226816384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8203,7 +8207,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="316786560"/>
+        <c:axId val="226816384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8239,7 +8243,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="316786000"/>
+        <c:crossAx val="226815824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8938,11 +8942,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="316789360"/>
-        <c:axId val="316789920"/>
+        <c:axId val="226819184"/>
+        <c:axId val="327820064"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="316789360"/>
+        <c:axId val="226819184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8978,14 +8982,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="316789920"/>
+        <c:crossAx val="327820064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="316789920"/>
+        <c:axId val="327820064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.5"/>
@@ -9047,7 +9051,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="316789360"/>
+        <c:crossAx val="226819184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
@@ -9405,11 +9409,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="316793280"/>
-        <c:axId val="316793840"/>
+        <c:axId val="327823424"/>
+        <c:axId val="327823984"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="316793280"/>
+        <c:axId val="327823424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9452,7 +9456,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="316793840"/>
+        <c:crossAx val="327823984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9460,7 +9464,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="316793840"/>
+        <c:axId val="327823984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9496,7 +9500,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="316793280"/>
+        <c:crossAx val="327823424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10195,11 +10199,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="316575120"/>
-        <c:axId val="316575680"/>
+        <c:axId val="327826784"/>
+        <c:axId val="327827344"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="316575120"/>
+        <c:axId val="327826784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10235,14 +10239,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="316575680"/>
+        <c:crossAx val="327827344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="316575680"/>
+        <c:axId val="327827344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.5"/>
@@ -10304,7 +10308,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="316575120"/>
+        <c:crossAx val="327826784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
@@ -20730,8 +20734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G374"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -22225,7 +22229,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -22539,20 +22543,23 @@
         <v>43112</v>
       </c>
       <c r="B13" s="4">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="C13" s="4">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="D13" s="4">
         <v>1</v>
       </c>
       <c r="E13" s="2">
         <f t="shared" si="0"/>
-        <v>0.66666666666666663</v>
+        <v>0.93333333333333324</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>49</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H13" s="9" t="s">
         <v>48</v>
@@ -22569,11 +22576,14 @@
         <v>0</v>
       </c>
       <c r="D14" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">

--- a/提升/成长进度表.xlsx
+++ b/提升/成长进度表.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="52">
   <si>
     <t>软技能完成率</t>
   </si>
@@ -222,6 +222,10 @@
   </si>
   <si>
     <t>同理心，小狼也要吃肉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三板斧组长的职责</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -827,11 +831,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="326865568"/>
-        <c:axId val="326866128"/>
+        <c:axId val="353422128"/>
+        <c:axId val="353422688"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="326865568"/>
+        <c:axId val="353422128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -867,14 +871,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="326866128"/>
+        <c:crossAx val="353422688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="326866128"/>
+        <c:axId val="353422688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.5"/>
@@ -936,7 +940,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="326865568"/>
+        <c:crossAx val="353422128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
@@ -1294,11 +1298,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="328293024"/>
-        <c:axId val="328293584"/>
+        <c:axId val="452710800"/>
+        <c:axId val="452711360"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="328293024"/>
+        <c:axId val="452710800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1341,7 +1345,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="328293584"/>
+        <c:crossAx val="452711360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1349,7 +1353,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="328293584"/>
+        <c:axId val="452711360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1385,7 +1389,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="328293024"/>
+        <c:crossAx val="452710800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2084,11 +2088,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="328296384"/>
-        <c:axId val="328296944"/>
+        <c:axId val="452472608"/>
+        <c:axId val="452473168"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="328296384"/>
+        <c:axId val="452472608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2124,14 +2128,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="328296944"/>
+        <c:crossAx val="452473168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="328296944"/>
+        <c:axId val="452473168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.5"/>
@@ -2193,7 +2197,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="328296384"/>
+        <c:crossAx val="452472608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
@@ -2551,11 +2555,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="328424032"/>
-        <c:axId val="328424592"/>
+        <c:axId val="452476528"/>
+        <c:axId val="452477088"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="328424032"/>
+        <c:axId val="452476528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2598,7 +2602,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="328424592"/>
+        <c:crossAx val="452477088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2606,7 +2610,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="328424592"/>
+        <c:axId val="452477088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2642,7 +2646,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="328424032"/>
+        <c:crossAx val="452476528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3341,11 +3345,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="328427392"/>
-        <c:axId val="328427952"/>
+        <c:axId val="452853728"/>
+        <c:axId val="452854288"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="328427392"/>
+        <c:axId val="452853728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3381,14 +3385,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="328427952"/>
+        <c:crossAx val="452854288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="328427952"/>
+        <c:axId val="452854288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.5"/>
@@ -3450,7 +3454,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="328427392"/>
+        <c:crossAx val="452853728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
@@ -3808,11 +3812,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="328797328"/>
-        <c:axId val="328797888"/>
+        <c:axId val="452857648"/>
+        <c:axId val="452858208"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="328797328"/>
+        <c:axId val="452857648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3855,7 +3859,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="328797888"/>
+        <c:crossAx val="452858208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3863,7 +3867,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="328797888"/>
+        <c:axId val="452858208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3899,7 +3903,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="328797328"/>
+        <c:crossAx val="452857648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4598,11 +4602,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="328800688"/>
-        <c:axId val="328801248"/>
+        <c:axId val="452861008"/>
+        <c:axId val="453349088"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="328800688"/>
+        <c:axId val="452861008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4638,14 +4642,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="328801248"/>
+        <c:crossAx val="453349088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="328801248"/>
+        <c:axId val="453349088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.5"/>
@@ -4707,7 +4711,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="328800688"/>
+        <c:crossAx val="452861008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
@@ -5065,11 +5069,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="328905632"/>
-        <c:axId val="328906192"/>
+        <c:axId val="453352448"/>
+        <c:axId val="453353008"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="328905632"/>
+        <c:axId val="453352448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5112,7 +5116,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="328906192"/>
+        <c:crossAx val="453353008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5120,7 +5124,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="328906192"/>
+        <c:axId val="453353008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5156,7 +5160,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="328905632"/>
+        <c:crossAx val="453352448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5459,11 +5463,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="326869488"/>
-        <c:axId val="326870048"/>
+        <c:axId val="353426608"/>
+        <c:axId val="451406208"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="326869488"/>
+        <c:axId val="353426608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5506,7 +5510,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="326870048"/>
+        <c:crossAx val="451406208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5514,7 +5518,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="326870048"/>
+        <c:axId val="451406208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5550,7 +5554,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="326869488"/>
+        <c:crossAx val="353426608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5668,7 +5672,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5885,7 +5888,7 @@
                   <c:v>1.2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0</c:v>
@@ -6431,11 +6434,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="328094608"/>
-        <c:axId val="328095168"/>
+        <c:axId val="451409568"/>
+        <c:axId val="451410128"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="328094608"/>
+        <c:axId val="451409568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6477,14 +6480,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="328095168"/>
+        <c:crossAx val="451410128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="328095168"/>
+        <c:axId val="451410128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6534,7 +6537,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="328094608"/>
+        <c:crossAx val="451409568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6548,7 +6551,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6665,7 +6667,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6763,7 +6764,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -6824,7 +6824,7 @@
                   <c:v>0.93333333333333324</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.33333333333333331</c:v>
+                  <c:v>0.66666666666666663</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0</c:v>
@@ -6895,11 +6895,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="328097968"/>
-        <c:axId val="328098528"/>
+        <c:axId val="451412928"/>
+        <c:axId val="451413488"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="328097968"/>
+        <c:axId val="451412928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6942,7 +6942,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="328098528"/>
+        <c:crossAx val="451413488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6950,7 +6950,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="328098528"/>
+        <c:axId val="451413488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6986,7 +6986,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="328097968"/>
+        <c:crossAx val="451412928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7685,11 +7685,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="226811904"/>
-        <c:axId val="226812464"/>
+        <c:axId val="452038816"/>
+        <c:axId val="452039376"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="226811904"/>
+        <c:axId val="452038816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7725,14 +7725,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="226812464"/>
+        <c:crossAx val="452039376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="226812464"/>
+        <c:axId val="452039376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.5"/>
@@ -7794,7 +7794,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="226811904"/>
+        <c:crossAx val="452038816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
@@ -8152,11 +8152,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="226815824"/>
-        <c:axId val="226816384"/>
+        <c:axId val="452042736"/>
+        <c:axId val="452043296"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="226815824"/>
+        <c:axId val="452042736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8199,7 +8199,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="226816384"/>
+        <c:crossAx val="452043296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8207,7 +8207,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="226816384"/>
+        <c:axId val="452043296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8243,7 +8243,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="226815824"/>
+        <c:crossAx val="452042736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8942,11 +8942,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="226819184"/>
-        <c:axId val="327820064"/>
+        <c:axId val="452088256"/>
+        <c:axId val="452088816"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="226819184"/>
+        <c:axId val="452088256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8982,14 +8982,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="327820064"/>
+        <c:crossAx val="452088816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="327820064"/>
+        <c:axId val="452088816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.5"/>
@@ -9051,7 +9051,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="226819184"/>
+        <c:crossAx val="452088256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
@@ -9409,11 +9409,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="327823424"/>
-        <c:axId val="327823984"/>
+        <c:axId val="452092176"/>
+        <c:axId val="452092736"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="327823424"/>
+        <c:axId val="452092176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9456,7 +9456,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="327823984"/>
+        <c:crossAx val="452092736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9464,7 +9464,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="327823984"/>
+        <c:axId val="452092736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9500,7 +9500,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="327823424"/>
+        <c:crossAx val="452092176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10199,11 +10199,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="327826784"/>
-        <c:axId val="327827344"/>
+        <c:axId val="452706880"/>
+        <c:axId val="452707440"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="327826784"/>
+        <c:axId val="452706880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10239,14 +10239,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="327827344"/>
+        <c:crossAx val="452707440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="327827344"/>
+        <c:axId val="452707440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.5"/>
@@ -10308,7 +10308,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="327826784"/>
+        <c:crossAx val="452706880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
@@ -22230,7 +22230,7 @@
   <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -22570,7 +22570,7 @@
         <v>43113</v>
       </c>
       <c r="B14" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" s="4">
         <v>0</v>
@@ -22580,7 +22580,10 @@
       </c>
       <c r="E14" s="2">
         <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>51</v>
       </c>
       <c r="H14" s="9" t="s">
         <v>48</v>

--- a/提升/成长进度表.xlsx
+++ b/提升/成长进度表.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="54">
   <si>
     <t>软技能完成率</t>
   </si>
@@ -226,6 +226,14 @@
   </si>
   <si>
     <t>三板斧组长的职责</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多线程异常捕获，内部类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>休息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -831,11 +839,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="353422128"/>
-        <c:axId val="353422688"/>
+        <c:axId val="229778144"/>
+        <c:axId val="229778704"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="353422128"/>
+        <c:axId val="229778144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -871,14 +879,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="353422688"/>
+        <c:crossAx val="229778704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="353422688"/>
+        <c:axId val="229778704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.5"/>
@@ -940,7 +948,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="353422128"/>
+        <c:crossAx val="229778144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
@@ -1298,11 +1306,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="452710800"/>
-        <c:axId val="452711360"/>
+        <c:axId val="345134176"/>
+        <c:axId val="345134736"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="452710800"/>
+        <c:axId val="345134176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1345,7 +1353,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="452711360"/>
+        <c:crossAx val="345134736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1353,7 +1361,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="452711360"/>
+        <c:axId val="345134736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1389,7 +1397,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="452710800"/>
+        <c:crossAx val="345134176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2088,11 +2096,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="452472608"/>
-        <c:axId val="452473168"/>
+        <c:axId val="345137536"/>
+        <c:axId val="345138096"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="452472608"/>
+        <c:axId val="345137536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2128,14 +2136,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="452473168"/>
+        <c:crossAx val="345138096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="452473168"/>
+        <c:axId val="345138096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.5"/>
@@ -2197,7 +2205,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="452472608"/>
+        <c:crossAx val="345137536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
@@ -2555,11 +2563,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="452476528"/>
-        <c:axId val="452477088"/>
+        <c:axId val="344663904"/>
+        <c:axId val="344664464"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="452476528"/>
+        <c:axId val="344663904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2602,7 +2610,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="452477088"/>
+        <c:crossAx val="344664464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2610,7 +2618,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="452477088"/>
+        <c:axId val="344664464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2646,7 +2654,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="452476528"/>
+        <c:crossAx val="344663904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3345,11 +3353,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="452853728"/>
-        <c:axId val="452854288"/>
+        <c:axId val="344667264"/>
+        <c:axId val="344667824"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="452853728"/>
+        <c:axId val="344667264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3385,14 +3393,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="452854288"/>
+        <c:crossAx val="344667824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="452854288"/>
+        <c:axId val="344667824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.5"/>
@@ -3454,7 +3462,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="452853728"/>
+        <c:crossAx val="344667264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
@@ -3812,11 +3820,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="452857648"/>
-        <c:axId val="452858208"/>
+        <c:axId val="345527440"/>
+        <c:axId val="345528000"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="452857648"/>
+        <c:axId val="345527440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3859,7 +3867,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="452858208"/>
+        <c:crossAx val="345528000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3867,7 +3875,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="452858208"/>
+        <c:axId val="345528000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3903,7 +3911,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="452857648"/>
+        <c:crossAx val="345527440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4602,11 +4610,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="452861008"/>
-        <c:axId val="453349088"/>
+        <c:axId val="345530800"/>
+        <c:axId val="345531360"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="452861008"/>
+        <c:axId val="345530800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4642,14 +4650,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="453349088"/>
+        <c:crossAx val="345531360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="453349088"/>
+        <c:axId val="345531360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.5"/>
@@ -4711,7 +4719,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="452861008"/>
+        <c:crossAx val="345530800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
@@ -5069,11 +5077,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="453352448"/>
-        <c:axId val="453353008"/>
+        <c:axId val="345769488"/>
+        <c:axId val="345770048"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="453352448"/>
+        <c:axId val="345769488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5116,7 +5124,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="453353008"/>
+        <c:crossAx val="345770048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5124,7 +5132,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="453353008"/>
+        <c:axId val="345770048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5160,7 +5168,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="453352448"/>
+        <c:crossAx val="345769488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5463,11 +5471,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="353426608"/>
-        <c:axId val="451406208"/>
+        <c:axId val="229782064"/>
+        <c:axId val="229782624"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="353426608"/>
+        <c:axId val="229782064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5510,7 +5518,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="451406208"/>
+        <c:crossAx val="229782624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5518,7 +5526,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="451406208"/>
+        <c:axId val="229782624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5554,7 +5562,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="353426608"/>
+        <c:crossAx val="229782064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5672,6 +5680,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6126,7 +6135,7 @@
                   <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0</c:v>
@@ -6367,7 +6376,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0</c:v>
@@ -6434,11 +6443,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="451409568"/>
-        <c:axId val="451410128"/>
+        <c:axId val="343810560"/>
+        <c:axId val="343811120"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="451409568"/>
+        <c:axId val="343810560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6480,14 +6489,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="451410128"/>
+        <c:crossAx val="343811120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="451410128"/>
+        <c:axId val="343811120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6537,7 +6546,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="451409568"/>
+        <c:crossAx val="343810560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6551,6 +6560,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6667,6 +6677,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6764,6 +6775,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -6824,10 +6836,10 @@
                   <c:v>0.93333333333333324</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.66666666666666663</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>0.33333333333333331</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0</c:v>
@@ -6895,11 +6907,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="451412928"/>
-        <c:axId val="451413488"/>
+        <c:axId val="343813920"/>
+        <c:axId val="343814480"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="451412928"/>
+        <c:axId val="343813920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6942,7 +6954,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="451413488"/>
+        <c:crossAx val="343814480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6950,7 +6962,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="451413488"/>
+        <c:axId val="343814480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6986,7 +6998,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="451412928"/>
+        <c:crossAx val="343813920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7685,11 +7697,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="452038816"/>
-        <c:axId val="452039376"/>
+        <c:axId val="344381952"/>
+        <c:axId val="344382512"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="452038816"/>
+        <c:axId val="344381952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7725,14 +7737,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="452039376"/>
+        <c:crossAx val="344382512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="452039376"/>
+        <c:axId val="344382512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.5"/>
@@ -7794,7 +7806,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="452038816"/>
+        <c:crossAx val="344381952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
@@ -8152,11 +8164,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="452042736"/>
-        <c:axId val="452043296"/>
+        <c:axId val="344385872"/>
+        <c:axId val="344386432"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="452042736"/>
+        <c:axId val="344385872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8199,7 +8211,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="452043296"/>
+        <c:crossAx val="344386432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8207,7 +8219,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="452043296"/>
+        <c:axId val="344386432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8243,7 +8255,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="452042736"/>
+        <c:crossAx val="344385872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8942,11 +8954,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="452088256"/>
-        <c:axId val="452088816"/>
+        <c:axId val="344931536"/>
+        <c:axId val="344932096"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="452088256"/>
+        <c:axId val="344931536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8982,14 +8994,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="452088816"/>
+        <c:crossAx val="344932096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="452088816"/>
+        <c:axId val="344932096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.5"/>
@@ -9051,7 +9063,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="452088256"/>
+        <c:crossAx val="344931536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
@@ -9409,11 +9421,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="452092176"/>
-        <c:axId val="452092736"/>
+        <c:axId val="344935456"/>
+        <c:axId val="344936016"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="452092176"/>
+        <c:axId val="344935456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9456,7 +9468,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="452092736"/>
+        <c:crossAx val="344936016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9464,7 +9476,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="452092736"/>
+        <c:axId val="344936016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9500,7 +9512,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="452092176"/>
+        <c:crossAx val="344935456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10199,11 +10211,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="452706880"/>
-        <c:axId val="452707440"/>
+        <c:axId val="344938816"/>
+        <c:axId val="345130816"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="452706880"/>
+        <c:axId val="344938816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10239,14 +10251,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="452707440"/>
+        <c:crossAx val="345130816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="452707440"/>
+        <c:axId val="345130816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.5"/>
@@ -10308,7 +10320,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="452706880"/>
+        <c:crossAx val="344938816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
@@ -22229,8 +22241,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -22573,14 +22585,17 @@
         <v>1</v>
       </c>
       <c r="C14" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" s="4">
         <v>1</v>
       </c>
       <c r="E14" s="2">
         <f t="shared" si="0"/>
-        <v>0.66666666666666663</v>
+        <v>1</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>52</v>
       </c>
       <c r="G14" s="9" t="s">
         <v>51</v>
@@ -22600,11 +22615,20 @@
         <v>0</v>
       </c>
       <c r="D15" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">

--- a/提升/成长进度表.xlsx
+++ b/提升/成长进度表.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="57">
   <si>
     <t>软技能完成率</t>
   </si>
@@ -236,6 +236,18 @@
     <t>休息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>然然儿子满月耽搁了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变量的初始化顺序，class源码，java命令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vue学习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -839,11 +851,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="229778144"/>
-        <c:axId val="229778704"/>
+        <c:axId val="202427792"/>
+        <c:axId val="202428352"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="229778144"/>
+        <c:axId val="202427792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -879,14 +891,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="229778704"/>
+        <c:crossAx val="202428352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="229778704"/>
+        <c:axId val="202428352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.5"/>
@@ -948,7 +960,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="229778144"/>
+        <c:crossAx val="202427792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
@@ -1306,11 +1318,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="345134176"/>
-        <c:axId val="345134736"/>
+        <c:axId val="203772368"/>
+        <c:axId val="203772928"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="345134176"/>
+        <c:axId val="203772368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1353,7 +1365,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="345134736"/>
+        <c:crossAx val="203772928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1361,7 +1373,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="345134736"/>
+        <c:axId val="203772928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1397,7 +1409,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="345134176"/>
+        <c:crossAx val="203772368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2096,11 +2108,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="345137536"/>
-        <c:axId val="345138096"/>
+        <c:axId val="303774864"/>
+        <c:axId val="303775424"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="345137536"/>
+        <c:axId val="303774864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2136,14 +2148,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="345138096"/>
+        <c:crossAx val="303775424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="345138096"/>
+        <c:axId val="303775424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.5"/>
@@ -2205,7 +2217,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="345137536"/>
+        <c:crossAx val="303774864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
@@ -2563,11 +2575,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="344663904"/>
-        <c:axId val="344664464"/>
+        <c:axId val="303778784"/>
+        <c:axId val="303779344"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="344663904"/>
+        <c:axId val="303778784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2610,7 +2622,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="344664464"/>
+        <c:crossAx val="303779344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2618,7 +2630,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="344664464"/>
+        <c:axId val="303779344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2654,7 +2666,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="344663904"/>
+        <c:crossAx val="303778784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3353,11 +3365,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="344667264"/>
-        <c:axId val="344667824"/>
+        <c:axId val="303863440"/>
+        <c:axId val="303864000"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="344667264"/>
+        <c:axId val="303863440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3393,14 +3405,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="344667824"/>
+        <c:crossAx val="303864000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="344667824"/>
+        <c:axId val="303864000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.5"/>
@@ -3462,7 +3474,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="344667264"/>
+        <c:crossAx val="303863440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
@@ -3820,11 +3832,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="345527440"/>
-        <c:axId val="345528000"/>
+        <c:axId val="303867360"/>
+        <c:axId val="303867920"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="345527440"/>
+        <c:axId val="303867360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3867,7 +3879,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="345528000"/>
+        <c:crossAx val="303867920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3875,7 +3887,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="345528000"/>
+        <c:axId val="303867920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3911,7 +3923,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="345527440"/>
+        <c:crossAx val="303867360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4610,11 +4622,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="345530800"/>
-        <c:axId val="345531360"/>
+        <c:axId val="304233904"/>
+        <c:axId val="304234464"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="345530800"/>
+        <c:axId val="304233904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4650,14 +4662,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="345531360"/>
+        <c:crossAx val="304234464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="345531360"/>
+        <c:axId val="304234464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.5"/>
@@ -4719,7 +4731,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="345530800"/>
+        <c:crossAx val="304233904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
@@ -5077,11 +5089,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="345769488"/>
-        <c:axId val="345770048"/>
+        <c:axId val="304237824"/>
+        <c:axId val="304238384"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="345769488"/>
+        <c:axId val="304237824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5124,7 +5136,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="345770048"/>
+        <c:crossAx val="304238384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5132,7 +5144,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="345770048"/>
+        <c:axId val="304238384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5168,7 +5180,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="345769488"/>
+        <c:crossAx val="304237824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5471,11 +5483,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="229782064"/>
-        <c:axId val="229782624"/>
+        <c:axId val="302777072"/>
+        <c:axId val="302777632"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="229782064"/>
+        <c:axId val="302777072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5518,7 +5530,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="229782624"/>
+        <c:crossAx val="302777632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5526,7 +5538,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="229782624"/>
+        <c:axId val="302777632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5562,7 +5574,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="229782064"/>
+        <c:crossAx val="302777072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5903,7 +5915,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0</c:v>
@@ -6144,7 +6156,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0</c:v>
@@ -6379,10 +6391,10 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0</c:v>
@@ -6443,11 +6455,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="343810560"/>
-        <c:axId val="343811120"/>
+        <c:axId val="302780992"/>
+        <c:axId val="302781552"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="343810560"/>
+        <c:axId val="302780992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6489,14 +6501,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="343811120"/>
+        <c:crossAx val="302781552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="343811120"/>
+        <c:axId val="302781552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6546,7 +6558,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="343810560"/>
+        <c:crossAx val="302780992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6842,10 +6854,10 @@
                   <c:v>0.33333333333333331</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>0.66666666666666663</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>0.39999999999999997</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0</c:v>
@@ -6907,11 +6919,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="343813920"/>
-        <c:axId val="343814480"/>
+        <c:axId val="303503104"/>
+        <c:axId val="303503664"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="343813920"/>
+        <c:axId val="303503104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6954,7 +6966,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="343814480"/>
+        <c:crossAx val="303503664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6962,7 +6974,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="343814480"/>
+        <c:axId val="303503664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6998,7 +7010,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="343813920"/>
+        <c:crossAx val="303503104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7697,11 +7709,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="344381952"/>
-        <c:axId val="344382512"/>
+        <c:axId val="303506464"/>
+        <c:axId val="303507024"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="344381952"/>
+        <c:axId val="303506464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7737,14 +7749,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="344382512"/>
+        <c:crossAx val="303507024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="344382512"/>
+        <c:axId val="303507024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.5"/>
@@ -7806,7 +7818,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="344381952"/>
+        <c:crossAx val="303506464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
@@ -8164,11 +8176,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="344385872"/>
-        <c:axId val="344386432"/>
+        <c:axId val="303247568"/>
+        <c:axId val="303248128"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="344385872"/>
+        <c:axId val="303247568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8211,7 +8223,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="344386432"/>
+        <c:crossAx val="303248128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8219,7 +8231,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="344386432"/>
+        <c:axId val="303248128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8255,7 +8267,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="344385872"/>
+        <c:crossAx val="303247568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8954,11 +8966,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="344931536"/>
-        <c:axId val="344932096"/>
+        <c:axId val="303250928"/>
+        <c:axId val="303251488"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="344931536"/>
+        <c:axId val="303250928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8994,14 +9006,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="344932096"/>
+        <c:crossAx val="303251488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="344932096"/>
+        <c:axId val="303251488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.5"/>
@@ -9063,7 +9075,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="344931536"/>
+        <c:crossAx val="303250928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
@@ -9421,11 +9433,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="344935456"/>
-        <c:axId val="344936016"/>
+        <c:axId val="303254848"/>
+        <c:axId val="203765648"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="344935456"/>
+        <c:axId val="303254848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9468,7 +9480,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="344936016"/>
+        <c:crossAx val="203765648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9476,7 +9488,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="344936016"/>
+        <c:axId val="203765648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9512,7 +9524,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="344935456"/>
+        <c:crossAx val="303254848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10211,11 +10223,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="344938816"/>
-        <c:axId val="345130816"/>
+        <c:axId val="203768448"/>
+        <c:axId val="203769008"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="344938816"/>
+        <c:axId val="203768448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10251,14 +10263,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="345130816"/>
+        <c:crossAx val="203769008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="345130816"/>
+        <c:axId val="203769008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.5"/>
@@ -10320,7 +10332,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="344938816"/>
+        <c:crossAx val="203768448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
@@ -22241,8 +22253,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -22636,20 +22648,29 @@
         <v>43115</v>
       </c>
       <c r="B16" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" s="4">
         <v>0</v>
       </c>
       <c r="D16" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>43116</v>
       </c>
@@ -22657,17 +22678,26 @@
         <v>0</v>
       </c>
       <c r="C17" s="4">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="D17" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.39999999999999997</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="G17" t="s">
+        <v>32</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>43117</v>
       </c>
@@ -22685,7 +22715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>43118</v>
       </c>
@@ -22703,7 +22733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>43119</v>
       </c>
@@ -22721,7 +22751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>43120</v>
       </c>
@@ -22739,7 +22769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>43121</v>
       </c>
@@ -22757,7 +22787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>43122</v>
       </c>
@@ -22775,7 +22805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>43123</v>
       </c>
@@ -22793,7 +22823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>43124</v>
       </c>
@@ -22811,7 +22841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>43125</v>
       </c>
@@ -22829,7 +22859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>43126</v>
       </c>
@@ -22847,7 +22877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>43127</v>
       </c>
@@ -22865,7 +22895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>43128</v>
       </c>
@@ -22883,7 +22913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>43129</v>
       </c>
@@ -22901,7 +22931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>43130</v>
       </c>
@@ -22919,7 +22949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>43131</v>
       </c>

--- a/提升/成长进度表.xlsx
+++ b/提升/成长进度表.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="59">
   <si>
     <t>软技能完成率</t>
   </si>
@@ -248,6 +248,14 @@
     <t>vue学习</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>vue学习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单词50，阅读一篇文章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -851,11 +859,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="202427792"/>
-        <c:axId val="202428352"/>
+        <c:axId val="366865120"/>
+        <c:axId val="366865680"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="202427792"/>
+        <c:axId val="366865120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -891,14 +899,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="202428352"/>
+        <c:crossAx val="366865680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="202428352"/>
+        <c:axId val="366865680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.5"/>
@@ -960,7 +968,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="202427792"/>
+        <c:crossAx val="366865120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
@@ -1318,11 +1326,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="203772368"/>
-        <c:axId val="203772928"/>
+        <c:axId val="367539968"/>
+        <c:axId val="367540528"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="203772368"/>
+        <c:axId val="367539968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1365,7 +1373,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="203772928"/>
+        <c:crossAx val="367540528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1373,7 +1381,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="203772928"/>
+        <c:axId val="367540528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1409,7 +1417,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="203772368"/>
+        <c:crossAx val="367539968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2108,11 +2116,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="303774864"/>
-        <c:axId val="303775424"/>
+        <c:axId val="367543328"/>
+        <c:axId val="367543888"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="303774864"/>
+        <c:axId val="367543328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2148,14 +2156,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="303775424"/>
+        <c:crossAx val="367543888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="303775424"/>
+        <c:axId val="367543888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.5"/>
@@ -2217,7 +2225,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="303774864"/>
+        <c:crossAx val="367543328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
@@ -2575,11 +2583,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="303778784"/>
-        <c:axId val="303779344"/>
+        <c:axId val="368217600"/>
+        <c:axId val="368218160"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="303778784"/>
+        <c:axId val="368217600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2622,7 +2630,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="303779344"/>
+        <c:crossAx val="368218160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2630,7 +2638,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="303779344"/>
+        <c:axId val="368218160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2666,7 +2674,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="303778784"/>
+        <c:crossAx val="368217600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3365,11 +3373,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="303863440"/>
-        <c:axId val="303864000"/>
+        <c:axId val="368220960"/>
+        <c:axId val="368221520"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="303863440"/>
+        <c:axId val="368220960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3405,14 +3413,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="303864000"/>
+        <c:crossAx val="368221520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="303864000"/>
+        <c:axId val="368221520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.5"/>
@@ -3474,7 +3482,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="303863440"/>
+        <c:crossAx val="368220960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
@@ -3832,11 +3840,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="303867360"/>
-        <c:axId val="303867920"/>
+        <c:axId val="368305184"/>
+        <c:axId val="368305744"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="303867360"/>
+        <c:axId val="368305184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3879,7 +3887,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="303867920"/>
+        <c:crossAx val="368305744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3887,7 +3895,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="303867920"/>
+        <c:axId val="368305744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3923,7 +3931,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="303867360"/>
+        <c:crossAx val="368305184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4622,11 +4630,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="304233904"/>
-        <c:axId val="304234464"/>
+        <c:axId val="368308544"/>
+        <c:axId val="368309104"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="304233904"/>
+        <c:axId val="368308544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4662,14 +4670,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="304234464"/>
+        <c:crossAx val="368309104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="304234464"/>
+        <c:axId val="368309104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.5"/>
@@ -4731,7 +4739,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="304233904"/>
+        <c:crossAx val="368308544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
@@ -5089,11 +5097,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="304237824"/>
-        <c:axId val="304238384"/>
+        <c:axId val="368636400"/>
+        <c:axId val="368636960"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="304237824"/>
+        <c:axId val="368636400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5136,7 +5144,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="304238384"/>
+        <c:crossAx val="368636960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5144,7 +5152,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="304238384"/>
+        <c:axId val="368636960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5180,7 +5188,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="304237824"/>
+        <c:crossAx val="368636400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5483,11 +5491,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="302777072"/>
-        <c:axId val="302777632"/>
+        <c:axId val="366869040"/>
+        <c:axId val="366869600"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="302777072"/>
+        <c:axId val="366869040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5530,7 +5538,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="302777632"/>
+        <c:crossAx val="366869600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5538,7 +5546,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="302777632"/>
+        <c:axId val="366869600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5574,7 +5582,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="302777072"/>
+        <c:crossAx val="366869040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6156,7 +6164,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.2</c:v>
+                  <c:v>1.2</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0</c:v>
@@ -6455,11 +6463,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="302780992"/>
-        <c:axId val="302781552"/>
+        <c:axId val="367708928"/>
+        <c:axId val="367709488"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="302780992"/>
+        <c:axId val="367708928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6501,14 +6509,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="302781552"/>
+        <c:crossAx val="367709488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="302781552"/>
+        <c:axId val="367709488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6558,7 +6566,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="302780992"/>
+        <c:crossAx val="367708928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6857,7 +6865,7 @@
                   <c:v>0.66666666666666663</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.39999999999999997</c:v>
+                  <c:v>0.73333333333333339</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0</c:v>
@@ -6919,11 +6927,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="303503104"/>
-        <c:axId val="303503664"/>
+        <c:axId val="367712288"/>
+        <c:axId val="367712848"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="303503104"/>
+        <c:axId val="367712288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6966,7 +6974,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="303503664"/>
+        <c:crossAx val="367712848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6974,7 +6982,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="303503664"/>
+        <c:axId val="367712848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7010,7 +7018,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="303503104"/>
+        <c:crossAx val="367712288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7709,11 +7717,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="303506464"/>
-        <c:axId val="303507024"/>
+        <c:axId val="367715648"/>
+        <c:axId val="367804816"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="303506464"/>
+        <c:axId val="367715648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7749,14 +7757,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="303507024"/>
+        <c:crossAx val="367804816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="303507024"/>
+        <c:axId val="367804816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.5"/>
@@ -7818,7 +7826,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="303506464"/>
+        <c:crossAx val="367715648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
@@ -8176,11 +8184,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="303247568"/>
-        <c:axId val="303248128"/>
+        <c:axId val="367808176"/>
+        <c:axId val="367808736"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="303247568"/>
+        <c:axId val="367808176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8223,7 +8231,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="303248128"/>
+        <c:crossAx val="367808736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8231,7 +8239,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="303248128"/>
+        <c:axId val="367808736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8267,7 +8275,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="303247568"/>
+        <c:crossAx val="367808176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8966,11 +8974,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="303250928"/>
-        <c:axId val="303251488"/>
+        <c:axId val="367811536"/>
+        <c:axId val="367812096"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="303250928"/>
+        <c:axId val="367811536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9006,14 +9014,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="303251488"/>
+        <c:crossAx val="367812096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="303251488"/>
+        <c:axId val="367812096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.5"/>
@@ -9075,7 +9083,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="303250928"/>
+        <c:crossAx val="367811536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
@@ -9433,11 +9441,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="303254848"/>
-        <c:axId val="203765648"/>
+        <c:axId val="367459232"/>
+        <c:axId val="367459792"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="303254848"/>
+        <c:axId val="367459232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9480,7 +9488,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="203765648"/>
+        <c:crossAx val="367459792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9488,7 +9496,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="203765648"/>
+        <c:axId val="367459792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9524,7 +9532,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="303254848"/>
+        <c:crossAx val="367459232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10223,11 +10231,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="203768448"/>
-        <c:axId val="203769008"/>
+        <c:axId val="367462592"/>
+        <c:axId val="367463152"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="203768448"/>
+        <c:axId val="367462592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10263,14 +10271,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="203769008"/>
+        <c:crossAx val="367463152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="203769008"/>
+        <c:axId val="367463152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.5"/>
@@ -10332,7 +10340,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="203768448"/>
+        <c:crossAx val="367462592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
@@ -22253,8 +22261,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -22678,23 +22686,23 @@
         <v>0</v>
       </c>
       <c r="C17" s="4">
-        <v>0.2</v>
+        <v>1.2</v>
       </c>
       <c r="D17" s="4">
         <v>1</v>
       </c>
       <c r="E17" s="2">
         <f t="shared" si="0"/>
-        <v>0.39999999999999997</v>
+        <v>0.73333333333333339</v>
       </c>
       <c r="F17" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="G17" t="s">
-        <v>32</v>
+      <c r="G17" s="9" t="s">
+        <v>57</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">

--- a/提升/成长进度表.xlsx
+++ b/提升/成长进度表.xlsx
@@ -193,12 +193,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AtomicInteger
-AtomicStampedReference源码分析
-CAS原理解析</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>音乐是感性，工作是理性，美声
 ,整体完成度不好</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -254,6 +248,12 @@
   </si>
   <si>
     <t>单词50，阅读一篇文章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AtomicInteger
+AtomicStampedReference源码分析
+CAS原理解析</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -419,6 +419,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -859,11 +860,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="366865120"/>
-        <c:axId val="366865680"/>
+        <c:axId val="242936224"/>
+        <c:axId val="242936784"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="366865120"/>
+        <c:axId val="242936224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -899,14 +900,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="366865680"/>
+        <c:crossAx val="242936784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="366865680"/>
+        <c:axId val="242936784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.5"/>
@@ -968,7 +969,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="366865120"/>
+        <c:crossAx val="242936224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
@@ -1326,11 +1327,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="367539968"/>
-        <c:axId val="367540528"/>
+        <c:axId val="345641184"/>
+        <c:axId val="345641744"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="367539968"/>
+        <c:axId val="345641184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1373,7 +1374,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="367540528"/>
+        <c:crossAx val="345641744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1381,7 +1382,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="367540528"/>
+        <c:axId val="345641744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1417,7 +1418,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="367539968"/>
+        <c:crossAx val="345641184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2116,11 +2117,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="367543328"/>
-        <c:axId val="367543888"/>
+        <c:axId val="343877808"/>
+        <c:axId val="343878368"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="367543328"/>
+        <c:axId val="343877808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2156,14 +2157,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="367543888"/>
+        <c:crossAx val="343878368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="367543888"/>
+        <c:axId val="343878368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.5"/>
@@ -2225,7 +2226,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="367543328"/>
+        <c:crossAx val="343877808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
@@ -2583,11 +2584,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="368217600"/>
-        <c:axId val="368218160"/>
+        <c:axId val="343881728"/>
+        <c:axId val="343882288"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="368217600"/>
+        <c:axId val="343881728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2630,7 +2631,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="368218160"/>
+        <c:crossAx val="343882288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2638,7 +2639,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="368218160"/>
+        <c:axId val="343882288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2674,7 +2675,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="368217600"/>
+        <c:crossAx val="343881728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3373,11 +3374,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="368220960"/>
-        <c:axId val="368221520"/>
+        <c:axId val="345775408"/>
+        <c:axId val="345775968"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="368220960"/>
+        <c:axId val="345775408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3413,14 +3414,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="368221520"/>
+        <c:crossAx val="345775968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="368221520"/>
+        <c:axId val="345775968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.5"/>
@@ -3482,7 +3483,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="368220960"/>
+        <c:crossAx val="345775408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
@@ -3840,11 +3841,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="368305184"/>
-        <c:axId val="368305744"/>
+        <c:axId val="345779328"/>
+        <c:axId val="345779888"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="368305184"/>
+        <c:axId val="345779328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3887,7 +3888,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="368305744"/>
+        <c:crossAx val="345779888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3895,7 +3896,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="368305744"/>
+        <c:axId val="345779888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3931,7 +3932,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="368305184"/>
+        <c:crossAx val="345779328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4630,11 +4631,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="368308544"/>
-        <c:axId val="368309104"/>
+        <c:axId val="346108752"/>
+        <c:axId val="346109312"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="368308544"/>
+        <c:axId val="346108752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4670,14 +4671,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="368309104"/>
+        <c:crossAx val="346109312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="368309104"/>
+        <c:axId val="346109312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.5"/>
@@ -4739,7 +4740,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="368308544"/>
+        <c:crossAx val="346108752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
@@ -5097,11 +5098,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="368636400"/>
-        <c:axId val="368636960"/>
+        <c:axId val="346112672"/>
+        <c:axId val="346113232"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="368636400"/>
+        <c:axId val="346112672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5144,7 +5145,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="368636960"/>
+        <c:crossAx val="346113232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5152,7 +5153,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="368636960"/>
+        <c:axId val="346113232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5188,7 +5189,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="368636400"/>
+        <c:crossAx val="346112672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5491,11 +5492,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="366869040"/>
-        <c:axId val="366869600"/>
+        <c:axId val="344422656"/>
+        <c:axId val="344423216"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="366869040"/>
+        <c:axId val="344422656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5538,7 +5539,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="366869600"/>
+        <c:crossAx val="344423216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5546,7 +5547,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="366869600"/>
+        <c:axId val="344423216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5582,7 +5583,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="366869040"/>
+        <c:crossAx val="344422656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6463,11 +6464,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="367708928"/>
-        <c:axId val="367709488"/>
+        <c:axId val="344426576"/>
+        <c:axId val="344427136"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="367708928"/>
+        <c:axId val="344426576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6509,14 +6510,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="367709488"/>
+        <c:crossAx val="344427136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="367709488"/>
+        <c:axId val="344427136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6566,7 +6567,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="367708928"/>
+        <c:crossAx val="344426576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6927,11 +6928,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="367712288"/>
-        <c:axId val="367712848"/>
+        <c:axId val="344807792"/>
+        <c:axId val="344808352"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="367712288"/>
+        <c:axId val="344807792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6974,7 +6975,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="367712848"/>
+        <c:crossAx val="344808352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6982,7 +6983,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="367712848"/>
+        <c:axId val="344808352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7018,7 +7019,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="367712288"/>
+        <c:crossAx val="344807792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7717,11 +7718,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="367715648"/>
-        <c:axId val="367804816"/>
+        <c:axId val="344811152"/>
+        <c:axId val="344811712"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="367715648"/>
+        <c:axId val="344811152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7757,14 +7758,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="367804816"/>
+        <c:crossAx val="344811712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="367804816"/>
+        <c:axId val="344811712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.5"/>
@@ -7826,7 +7827,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="367715648"/>
+        <c:crossAx val="344811152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
@@ -8184,11 +8185,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="367808176"/>
-        <c:axId val="367808736"/>
+        <c:axId val="345156352"/>
+        <c:axId val="345156912"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="367808176"/>
+        <c:axId val="345156352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8231,7 +8232,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="367808736"/>
+        <c:crossAx val="345156912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8239,7 +8240,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="367808736"/>
+        <c:axId val="345156912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8275,7 +8276,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="367808176"/>
+        <c:crossAx val="345156352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8974,11 +8975,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="367811536"/>
-        <c:axId val="367812096"/>
+        <c:axId val="345159712"/>
+        <c:axId val="345160272"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="367811536"/>
+        <c:axId val="345159712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9014,14 +9015,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="367812096"/>
+        <c:crossAx val="345160272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="367812096"/>
+        <c:axId val="345160272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.5"/>
@@ -9083,7 +9084,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="367811536"/>
+        <c:crossAx val="345159712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
@@ -9441,11 +9442,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="367459232"/>
-        <c:axId val="367459792"/>
+        <c:axId val="345163632"/>
+        <c:axId val="345634464"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="367459232"/>
+        <c:axId val="345163632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9488,7 +9489,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="367459792"/>
+        <c:crossAx val="345634464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9496,7 +9497,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="367459792"/>
+        <c:axId val="345634464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9532,7 +9533,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="367459232"/>
+        <c:crossAx val="345163632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10231,11 +10232,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="367462592"/>
-        <c:axId val="367463152"/>
+        <c:axId val="345637264"/>
+        <c:axId val="345637824"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="367462592"/>
+        <c:axId val="345637264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10271,14 +10272,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="367463152"/>
+        <c:crossAx val="345637824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="367463152"/>
+        <c:axId val="345637824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.5"/>
@@ -10340,7 +10341,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="367462592"/>
+        <c:crossAx val="345637264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
@@ -20767,7 +20768,7 @@
   <dimension ref="A1:G374"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -22261,8 +22262,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -22534,10 +22535,10 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="F11" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="G11" s="11" t="s">
         <v>44</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>45</v>
       </c>
       <c r="H11" s="9" t="s">
         <v>42</v>
@@ -22561,10 +22562,10 @@
         <v>1</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H12" s="9" t="s">
         <v>42</v>
@@ -22588,13 +22589,13 @@
         <v>0.93333333333333324</v>
       </c>
       <c r="F13" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G13" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="G13" s="9" t="s">
-        <v>50</v>
-      </c>
       <c r="H13" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -22615,13 +22616,13 @@
         <v>1</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -22642,13 +22643,13 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -22669,13 +22670,13 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -22696,13 +22697,13 @@
         <v>0.73333333333333339</v>
       </c>
       <c r="F17" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="G17" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="G17" s="9" t="s">
+      <c r="H17" s="9" t="s">
         <v>57</v>
-      </c>
-      <c r="H17" s="9" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">

--- a/提升/成长进度表.xlsx
+++ b/提升/成长进度表.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="60">
   <si>
     <t>软技能完成率</t>
   </si>
@@ -256,6 +256,10 @@
 CAS原理解析</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>区块链了解、vue学习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -419,7 +423,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -860,11 +863,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="242936224"/>
-        <c:axId val="242936784"/>
+        <c:axId val="93047440"/>
+        <c:axId val="93048000"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="242936224"/>
+        <c:axId val="93047440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -900,14 +903,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="242936784"/>
+        <c:crossAx val="93048000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="242936784"/>
+        <c:axId val="93048000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.5"/>
@@ -969,7 +972,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="242936224"/>
+        <c:crossAx val="93047440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
@@ -1327,11 +1330,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="345641184"/>
-        <c:axId val="345641744"/>
+        <c:axId val="343073088"/>
+        <c:axId val="343073648"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="345641184"/>
+        <c:axId val="343073088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1374,7 +1377,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="345641744"/>
+        <c:crossAx val="343073648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1382,7 +1385,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="345641744"/>
+        <c:axId val="343073648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1418,7 +1421,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="345641184"/>
+        <c:crossAx val="343073088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2117,11 +2120,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="343877808"/>
-        <c:axId val="343878368"/>
+        <c:axId val="343076448"/>
+        <c:axId val="343077008"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="343877808"/>
+        <c:axId val="343076448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2157,14 +2160,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="343878368"/>
+        <c:crossAx val="343077008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="343878368"/>
+        <c:axId val="343077008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.5"/>
@@ -2226,7 +2229,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="343877808"/>
+        <c:crossAx val="343076448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
@@ -2584,11 +2587,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="343881728"/>
-        <c:axId val="343882288"/>
+        <c:axId val="343080368"/>
+        <c:axId val="343601712"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="343881728"/>
+        <c:axId val="343080368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2631,7 +2634,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="343882288"/>
+        <c:crossAx val="343601712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2639,7 +2642,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="343882288"/>
+        <c:axId val="343601712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2675,7 +2678,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="343881728"/>
+        <c:crossAx val="343080368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3374,11 +3377,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="345775408"/>
-        <c:axId val="345775968"/>
+        <c:axId val="343604512"/>
+        <c:axId val="343605072"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="345775408"/>
+        <c:axId val="343604512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3414,14 +3417,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="345775968"/>
+        <c:crossAx val="343605072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="345775968"/>
+        <c:axId val="343605072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.5"/>
@@ -3483,7 +3486,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="345775408"/>
+        <c:crossAx val="343604512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
@@ -3841,11 +3844,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="345779328"/>
-        <c:axId val="345779888"/>
+        <c:axId val="343608432"/>
+        <c:axId val="343608992"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="345779328"/>
+        <c:axId val="343608432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3888,7 +3891,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="345779888"/>
+        <c:crossAx val="343608992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3896,7 +3899,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="345779888"/>
+        <c:axId val="343608992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3932,7 +3935,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="345779328"/>
+        <c:crossAx val="343608432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4631,11 +4634,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="346108752"/>
-        <c:axId val="346109312"/>
+        <c:axId val="343800576"/>
+        <c:axId val="343801136"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="346108752"/>
+        <c:axId val="343800576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4671,14 +4674,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="346109312"/>
+        <c:crossAx val="343801136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="346109312"/>
+        <c:axId val="343801136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.5"/>
@@ -4740,7 +4743,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="346108752"/>
+        <c:crossAx val="343800576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
@@ -5098,11 +5101,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="346112672"/>
-        <c:axId val="346113232"/>
+        <c:axId val="343804496"/>
+        <c:axId val="343805056"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="346112672"/>
+        <c:axId val="343804496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5145,7 +5148,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="346113232"/>
+        <c:crossAx val="343805056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5153,7 +5156,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="346113232"/>
+        <c:axId val="343805056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5189,7 +5192,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="346112672"/>
+        <c:crossAx val="343804496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5492,11 +5495,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="344422656"/>
-        <c:axId val="344423216"/>
+        <c:axId val="250195008"/>
+        <c:axId val="250195568"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="344422656"/>
+        <c:axId val="250195008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5539,7 +5542,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="344423216"/>
+        <c:crossAx val="250195568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5547,7 +5550,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="344423216"/>
+        <c:axId val="250195568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5583,7 +5586,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="344422656"/>
+        <c:crossAx val="250195008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5701,7 +5704,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6168,7 +6170,7 @@
                   <c:v>1.2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>0</c:v>
@@ -6464,11 +6466,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="344426576"/>
-        <c:axId val="344427136"/>
+        <c:axId val="250198928"/>
+        <c:axId val="250199488"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="344426576"/>
+        <c:axId val="250198928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6510,14 +6512,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="344427136"/>
+        <c:crossAx val="250199488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="344427136"/>
+        <c:axId val="250199488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6567,7 +6569,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="344426576"/>
+        <c:crossAx val="250198928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6581,7 +6583,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6698,7 +6699,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6796,7 +6796,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -6869,7 +6868,7 @@
                   <c:v>0.73333333333333339</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>0.16666666666666666</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>0</c:v>
@@ -6928,11 +6927,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="344807792"/>
-        <c:axId val="344808352"/>
+        <c:axId val="250108576"/>
+        <c:axId val="250109136"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="344807792"/>
+        <c:axId val="250108576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6975,7 +6974,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="344808352"/>
+        <c:crossAx val="250109136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6983,7 +6982,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="344808352"/>
+        <c:axId val="250109136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7019,7 +7018,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="344807792"/>
+        <c:crossAx val="250108576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7718,11 +7717,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="344811152"/>
-        <c:axId val="344811712"/>
+        <c:axId val="250111936"/>
+        <c:axId val="250112496"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="344811152"/>
+        <c:axId val="250111936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7758,14 +7757,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="344811712"/>
+        <c:crossAx val="250112496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="344811712"/>
+        <c:axId val="250112496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.5"/>
@@ -7827,7 +7826,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="344811152"/>
+        <c:crossAx val="250111936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
@@ -8185,11 +8184,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="345156352"/>
-        <c:axId val="345156912"/>
+        <c:axId val="342541952"/>
+        <c:axId val="342542512"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="345156352"/>
+        <c:axId val="342541952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8232,7 +8231,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="345156912"/>
+        <c:crossAx val="342542512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8240,7 +8239,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="345156912"/>
+        <c:axId val="342542512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8276,7 +8275,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="345156352"/>
+        <c:crossAx val="342541952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8975,11 +8974,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="345159712"/>
-        <c:axId val="345160272"/>
+        <c:axId val="342545312"/>
+        <c:axId val="342545872"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="345159712"/>
+        <c:axId val="342545312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9015,14 +9014,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="345160272"/>
+        <c:crossAx val="342545872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="345160272"/>
+        <c:axId val="342545872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.5"/>
@@ -9084,7 +9083,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="345159712"/>
+        <c:crossAx val="342545312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
@@ -9442,11 +9441,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="345163632"/>
-        <c:axId val="345634464"/>
+        <c:axId val="342882208"/>
+        <c:axId val="342882768"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="345163632"/>
+        <c:axId val="342882208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9489,7 +9488,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="345634464"/>
+        <c:crossAx val="342882768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9497,7 +9496,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="345634464"/>
+        <c:axId val="342882768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9533,7 +9532,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="345163632"/>
+        <c:crossAx val="342882208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10232,11 +10231,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="345637264"/>
-        <c:axId val="345637824"/>
+        <c:axId val="342885568"/>
+        <c:axId val="342886128"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="345637264"/>
+        <c:axId val="342885568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10272,14 +10271,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="345637824"/>
+        <c:crossAx val="342886128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="345637824"/>
+        <c:axId val="342886128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.5"/>
@@ -10341,7 +10340,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="345637264"/>
+        <c:crossAx val="342885568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
@@ -22262,8 +22261,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -22714,14 +22713,17 @@
         <v>0</v>
       </c>
       <c r="C18" s="4">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D18" s="4">
         <v>0</v>
       </c>
       <c r="E18" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">

--- a/提升/成长进度表.xlsx
+++ b/提升/成长进度表.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="61">
   <si>
     <t>软技能完成率</t>
   </si>
@@ -260,6 +260,10 @@
     <t>区块链了解、vue学习</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>单词50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -863,11 +867,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="93047440"/>
-        <c:axId val="93048000"/>
+        <c:axId val="212748688"/>
+        <c:axId val="212749248"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="93047440"/>
+        <c:axId val="212748688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -903,14 +907,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="93048000"/>
+        <c:crossAx val="212749248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="93048000"/>
+        <c:axId val="212749248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.5"/>
@@ -972,7 +976,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="93047440"/>
+        <c:crossAx val="212748688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
@@ -1330,11 +1334,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="343073088"/>
-        <c:axId val="343073648"/>
+        <c:axId val="312624288"/>
+        <c:axId val="312624848"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="343073088"/>
+        <c:axId val="312624288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1377,7 +1381,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="343073648"/>
+        <c:crossAx val="312624848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1385,7 +1389,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="343073648"/>
+        <c:axId val="312624848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1421,7 +1425,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="343073088"/>
+        <c:crossAx val="312624288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2120,11 +2124,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="343076448"/>
-        <c:axId val="343077008"/>
+        <c:axId val="313292688"/>
+        <c:axId val="313293248"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="343076448"/>
+        <c:axId val="313292688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2160,14 +2164,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="343077008"/>
+        <c:crossAx val="313293248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="343077008"/>
+        <c:axId val="313293248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.5"/>
@@ -2229,7 +2233,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="343076448"/>
+        <c:crossAx val="313292688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
@@ -2587,11 +2591,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="343080368"/>
-        <c:axId val="343601712"/>
+        <c:axId val="313296608"/>
+        <c:axId val="313297168"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="343080368"/>
+        <c:axId val="313296608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2634,7 +2638,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="343601712"/>
+        <c:crossAx val="313297168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2642,7 +2646,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="343601712"/>
+        <c:axId val="313297168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2678,7 +2682,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="343080368"/>
+        <c:crossAx val="313296608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3377,11 +3381,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="343604512"/>
-        <c:axId val="343605072"/>
+        <c:axId val="312474624"/>
+        <c:axId val="312475184"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="343604512"/>
+        <c:axId val="312474624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3417,14 +3421,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="343605072"/>
+        <c:crossAx val="312475184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="343605072"/>
+        <c:axId val="312475184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.5"/>
@@ -3486,7 +3490,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="343604512"/>
+        <c:crossAx val="312474624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
@@ -3844,11 +3848,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="343608432"/>
-        <c:axId val="343608992"/>
+        <c:axId val="312478544"/>
+        <c:axId val="312479104"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="343608432"/>
+        <c:axId val="312478544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3891,7 +3895,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="343608992"/>
+        <c:crossAx val="312479104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3899,7 +3903,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="343608992"/>
+        <c:axId val="312479104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3935,7 +3939,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="343608432"/>
+        <c:crossAx val="312478544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4634,11 +4638,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="343800576"/>
-        <c:axId val="343801136"/>
+        <c:axId val="313467264"/>
+        <c:axId val="313467824"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="343800576"/>
+        <c:axId val="313467264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4674,14 +4678,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="343801136"/>
+        <c:crossAx val="313467824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="343801136"/>
+        <c:axId val="313467824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.5"/>
@@ -4743,7 +4747,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="343800576"/>
+        <c:crossAx val="313467264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
@@ -5101,11 +5105,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="343804496"/>
-        <c:axId val="343805056"/>
+        <c:axId val="313471184"/>
+        <c:axId val="313471744"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="343804496"/>
+        <c:axId val="313471184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5148,7 +5152,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="343805056"/>
+        <c:crossAx val="313471744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5156,7 +5160,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="343805056"/>
+        <c:axId val="313471744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5192,7 +5196,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="343804496"/>
+        <c:crossAx val="313471184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5495,11 +5499,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="250195008"/>
-        <c:axId val="250195568"/>
+        <c:axId val="214033520"/>
+        <c:axId val="214034080"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="250195008"/>
+        <c:axId val="214033520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5542,7 +5546,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="250195568"/>
+        <c:crossAx val="214034080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5550,7 +5554,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="250195568"/>
+        <c:axId val="214034080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5586,7 +5590,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="250195008"/>
+        <c:crossAx val="214033520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5704,6 +5708,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6408,7 +6413,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>0</c:v>
@@ -6466,11 +6471,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="250198928"/>
-        <c:axId val="250199488"/>
+        <c:axId val="214037440"/>
+        <c:axId val="214038000"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="250198928"/>
+        <c:axId val="214037440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6512,14 +6517,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="250199488"/>
+        <c:crossAx val="214038000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="250199488"/>
+        <c:axId val="214038000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6569,7 +6574,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="250198928"/>
+        <c:crossAx val="214037440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6583,6 +6588,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6699,6 +6705,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6796,6 +6803,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -6868,7 +6876,7 @@
                   <c:v>0.73333333333333339</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.16666666666666666</c:v>
+                  <c:v>0.43333333333333335</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>0</c:v>
@@ -6927,11 +6935,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="250108576"/>
-        <c:axId val="250109136"/>
+        <c:axId val="312177120"/>
+        <c:axId val="312177680"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="250108576"/>
+        <c:axId val="312177120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6974,7 +6982,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="250109136"/>
+        <c:crossAx val="312177680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6982,7 +6990,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="250109136"/>
+        <c:axId val="312177680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7018,7 +7026,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="250108576"/>
+        <c:crossAx val="312177120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7717,11 +7725,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="250111936"/>
-        <c:axId val="250112496"/>
+        <c:axId val="312180480"/>
+        <c:axId val="312181040"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="250111936"/>
+        <c:axId val="312180480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7757,14 +7765,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="250112496"/>
+        <c:crossAx val="312181040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="250112496"/>
+        <c:axId val="312181040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.5"/>
@@ -7826,7 +7834,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="250111936"/>
+        <c:crossAx val="312180480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
@@ -8184,11 +8192,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="342541952"/>
-        <c:axId val="342542512"/>
+        <c:axId val="312427696"/>
+        <c:axId val="312428256"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="342541952"/>
+        <c:axId val="312427696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8231,7 +8239,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="342542512"/>
+        <c:crossAx val="312428256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8239,7 +8247,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="342542512"/>
+        <c:axId val="312428256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8275,7 +8283,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="342541952"/>
+        <c:crossAx val="312427696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8974,11 +8982,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="342545312"/>
-        <c:axId val="342545872"/>
+        <c:axId val="312431056"/>
+        <c:axId val="312431616"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="342545312"/>
+        <c:axId val="312431056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9014,14 +9022,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="342545872"/>
+        <c:crossAx val="312431616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="342545872"/>
+        <c:axId val="312431616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.5"/>
@@ -9083,7 +9091,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="342545312"/>
+        <c:crossAx val="312431056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
@@ -9441,11 +9449,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="342882208"/>
-        <c:axId val="342882768"/>
+        <c:axId val="312434976"/>
+        <c:axId val="312617568"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="342882208"/>
+        <c:axId val="312434976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9488,7 +9496,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="342882768"/>
+        <c:crossAx val="312617568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9496,7 +9504,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="342882768"/>
+        <c:axId val="312617568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9532,7 +9540,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="342882208"/>
+        <c:crossAx val="312434976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10231,11 +10239,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="342885568"/>
-        <c:axId val="342886128"/>
+        <c:axId val="312620368"/>
+        <c:axId val="312620928"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="342885568"/>
+        <c:axId val="312620368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10271,14 +10279,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="342886128"/>
+        <c:crossAx val="312620928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="342886128"/>
+        <c:axId val="312620928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.5"/>
@@ -10340,7 +10348,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="342885568"/>
+        <c:crossAx val="312620368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
@@ -22261,8 +22269,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -22716,14 +22724,17 @@
         <v>0.5</v>
       </c>
       <c r="D18" s="4">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="E18" s="2">
         <f t="shared" si="0"/>
-        <v>0.16666666666666666</v>
+        <v>0.43333333333333335</v>
       </c>
       <c r="F18" s="9" t="s">
         <v>59</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
